--- a/2019schedule.xlsx
+++ b/2019schedule.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C652F6-0C23-49EA-B0CF-71503EC281BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28890" windowHeight="16110"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="项目日程安排" sheetId="11" r:id="rId1"/>
@@ -20,7 +21,7 @@
     <definedName name="task_start" localSheetId="0">项目日程安排!$E1</definedName>
     <definedName name="今天" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,9 +29,6 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -358,7 +356,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="8">
     <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -1397,6 +1395,19 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1408,19 +1419,6 @@
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1442,7 +1440,7 @@
     <cellStyle name="60% - 着色 4" xfId="45" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 着色 5" xfId="49" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 着色 6" xfId="53" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="z隐藏文本" xfId="3"/>
+    <cellStyle name="z隐藏文本" xfId="3" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
     <cellStyle name="百分比" xfId="2" builtinId="5" customBuiltin="1"/>
     <cellStyle name="标题" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="6" builtinId="16" customBuiltin="1"/>
@@ -1463,13 +1461,13 @@
     <cellStyle name="链接单元格" xfId="24" builtinId="24" customBuiltin="1"/>
     <cellStyle name="千位分隔" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="千位分隔[0]" xfId="14" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="任务" xfId="12"/>
-    <cellStyle name="日期" xfId="10"/>
+    <cellStyle name="任务" xfId="12" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="日期" xfId="10" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
     <cellStyle name="适中" xfId="20" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="22" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="21" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="项目开始" xfId="9"/>
-    <cellStyle name="姓名" xfId="11"/>
+    <cellStyle name="项目开始" xfId="9" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="姓名" xfId="11" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
     <cellStyle name="已访问的超链接" xfId="13" builtinId="9" customBuiltin="1"/>
     <cellStyle name="着色 1" xfId="30" builtinId="29" customBuiltin="1"/>
     <cellStyle name="着色 2" xfId="34" builtinId="33" customBuiltin="1"/>
@@ -1777,11 +1775,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="28"/>
       <tableStyleElement type="headerRow" dxfId="27"/>
     </tableStyle>
-    <tableStyle name="待办事项列表" pivot="0" count="9">
+    <tableStyle name="待办事项列表" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
       <tableStyleElement type="wholeTable" dxfId="26"/>
       <tableStyleElement type="headerRow" dxfId="25"/>
       <tableStyleElement type="totalRow" dxfId="24"/>
@@ -2201,35 +2199,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:BL39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AP11" sqref="AP11"/>
+      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="2.77734375" style="45" customWidth="1"/>
-    <col min="2" max="2" width="17.77734375" style="44" customWidth="1"/>
-    <col min="3" max="3" width="14.33203125" style="44" customWidth="1"/>
-    <col min="4" max="4" width="10.77734375" style="44" customWidth="1"/>
-    <col min="5" max="5" width="10.5546875" style="47" customWidth="1"/>
-    <col min="6" max="6" width="10.5546875" style="44" customWidth="1"/>
-    <col min="7" max="7" width="2.77734375" style="44" customWidth="1"/>
-    <col min="8" max="8" width="3.21875" style="44" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.6640625" style="44" customWidth="1"/>
-    <col min="65" max="65" width="8.88671875" style="44"/>
-    <col min="66" max="68" width="7.33203125" style="44"/>
-    <col min="69" max="70" width="8.6640625" style="44"/>
-    <col min="71" max="16384" width="8.88671875" style="44"/>
+    <col min="1" max="1" width="2.81640625" style="45" customWidth="1"/>
+    <col min="2" max="2" width="17.81640625" style="44" customWidth="1"/>
+    <col min="3" max="3" width="14.36328125" style="44" customWidth="1"/>
+    <col min="4" max="4" width="10.81640625" style="44" customWidth="1"/>
+    <col min="5" max="5" width="10.54296875" style="47" customWidth="1"/>
+    <col min="6" max="6" width="10.54296875" style="44" customWidth="1"/>
+    <col min="7" max="7" width="2.81640625" style="44" customWidth="1"/>
+    <col min="8" max="8" width="3.1796875" style="44" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.6328125" style="44" customWidth="1"/>
+    <col min="65" max="65" width="8.90625" style="44"/>
+    <col min="66" max="68" width="7.36328125" style="44"/>
+    <col min="69" max="70" width="8.6328125" style="44"/>
+    <col min="71" max="16384" width="8.90625" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.7">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -2243,130 +2241,130 @@
       <c r="H1" s="6"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="46"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
-      <c r="C3" s="88" t="s">
+      <c r="C3" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="89"/>
-      <c r="E3" s="87">
+      <c r="D3" s="87"/>
+      <c r="E3" s="92">
         <f ca="1">TODAY()+1</f>
-        <v>43756</v>
-      </c>
-      <c r="F3" s="87"/>
+        <v>43757</v>
+      </c>
+      <c r="F3" s="92"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="88" t="s">
+      <c r="C4" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="89"/>
+      <c r="D4" s="87"/>
       <c r="E4" s="49">
         <v>1</v>
       </c>
-      <c r="I4" s="84">
+      <c r="I4" s="89">
         <f ca="1">I5</f>
         <v>43751</v>
       </c>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="85"/>
-      <c r="M4" s="85"/>
-      <c r="N4" s="85"/>
-      <c r="O4" s="86"/>
-      <c r="P4" s="84">
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="89">
         <f ca="1">P5</f>
         <v>43758</v>
       </c>
-      <c r="Q4" s="85"/>
-      <c r="R4" s="85"/>
-      <c r="S4" s="85"/>
-      <c r="T4" s="85"/>
-      <c r="U4" s="85"/>
-      <c r="V4" s="86"/>
-      <c r="W4" s="84">
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="89">
         <f ca="1">W5</f>
         <v>43765</v>
       </c>
-      <c r="X4" s="85"/>
-      <c r="Y4" s="85"/>
-      <c r="Z4" s="85"/>
-      <c r="AA4" s="85"/>
-      <c r="AB4" s="85"/>
-      <c r="AC4" s="86"/>
-      <c r="AD4" s="84">
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="89">
         <f ca="1">AD5</f>
         <v>43772</v>
       </c>
-      <c r="AE4" s="85"/>
-      <c r="AF4" s="85"/>
-      <c r="AG4" s="85"/>
-      <c r="AH4" s="85"/>
-      <c r="AI4" s="85"/>
-      <c r="AJ4" s="86"/>
-      <c r="AK4" s="84">
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="91"/>
+      <c r="AK4" s="89">
         <f ca="1">AK5</f>
         <v>43779</v>
       </c>
-      <c r="AL4" s="85"/>
-      <c r="AM4" s="85"/>
-      <c r="AN4" s="85"/>
-      <c r="AO4" s="85"/>
-      <c r="AP4" s="85"/>
-      <c r="AQ4" s="86"/>
-      <c r="AR4" s="84">
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="91"/>
+      <c r="AR4" s="89">
         <f ca="1">AR5</f>
         <v>43786</v>
       </c>
-      <c r="AS4" s="85"/>
-      <c r="AT4" s="85"/>
-      <c r="AU4" s="85"/>
-      <c r="AV4" s="85"/>
-      <c r="AW4" s="85"/>
-      <c r="AX4" s="86"/>
-      <c r="AY4" s="84">
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="90"/>
+      <c r="AX4" s="91"/>
+      <c r="AY4" s="89">
         <f ca="1">AY5</f>
         <v>43793</v>
       </c>
-      <c r="AZ4" s="85"/>
-      <c r="BA4" s="85"/>
-      <c r="BB4" s="85"/>
-      <c r="BC4" s="85"/>
-      <c r="BD4" s="85"/>
-      <c r="BE4" s="86"/>
-      <c r="BF4" s="84">
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="91"/>
+      <c r="BF4" s="89">
         <f ca="1">BF5</f>
         <v>43800</v>
       </c>
-      <c r="BG4" s="85"/>
-      <c r="BH4" s="85"/>
-      <c r="BI4" s="85"/>
-      <c r="BJ4" s="85"/>
-      <c r="BK4" s="85"/>
-      <c r="BL4" s="86"/>
+      <c r="BG4" s="90"/>
+      <c r="BH4" s="90"/>
+      <c r="BI4" s="90"/>
+      <c r="BJ4" s="90"/>
+      <c r="BK4" s="90"/>
+      <c r="BL4" s="91"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="90"/>
-      <c r="C5" s="90"/>
-      <c r="D5" s="90"/>
-      <c r="E5" s="90"/>
-      <c r="F5" s="90"/>
-      <c r="G5" s="90"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
       <c r="I5" s="71">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+1+7*(Display_Week-1)</f>
         <v>43751</v>
@@ -2592,7 +2590,7 @@
         <v>43806</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A6" s="42" t="s">
         <v>5</v>
       </c>
@@ -2842,7 +2840,7 @@
         <v>六</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A7" s="45" t="s">
         <v>6</v>
       </c>
@@ -2909,7 +2907,7 @@
       <c r="BK7" s="51"/>
       <c r="BL7" s="51"/>
     </row>
-    <row r="8" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A8" s="42" t="s">
         <v>7</v>
       </c>
@@ -2982,7 +2980,7 @@
       <c r="BK8" s="51"/>
       <c r="BL8" s="51"/>
     </row>
-    <row r="9" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A9" s="42" t="s">
         <v>8</v>
       </c>
@@ -2997,11 +2995,11 @@
       </c>
       <c r="E9" s="1">
         <f ca="1">Project_Start</f>
-        <v>43756</v>
+        <v>43757</v>
       </c>
       <c r="F9" s="1">
         <f ca="1">E9+G9</f>
-        <v>43761</v>
+        <v>43762</v>
       </c>
       <c r="G9" s="16">
         <v>5</v>
@@ -3067,7 +3065,7 @@
       <c r="BK9" s="51"/>
       <c r="BL9" s="51"/>
     </row>
-    <row r="10" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A10" s="42" t="s">
         <v>9</v>
       </c>
@@ -3080,11 +3078,11 @@
       </c>
       <c r="E10" s="1">
         <f ca="1">F9+1</f>
-        <v>43762</v>
+        <v>43763</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ref="F10:F11" ca="1" si="6">E10+G10</f>
-        <v>43767</v>
+        <v>43768</v>
       </c>
       <c r="G10" s="16">
         <v>5</v>
@@ -3150,22 +3148,22 @@
       <c r="BK10" s="51"/>
       <c r="BL10" s="51"/>
     </row>
-    <row r="11" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A11" s="45"/>
       <c r="B11" s="82" t="s">
         <v>44</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="17">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="E11" s="1">
         <f t="shared" ref="E11" ca="1" si="7">F10+1</f>
-        <v>43768</v>
+        <v>43769</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>43783</v>
+        <v>43784</v>
       </c>
       <c r="G11" s="16">
         <v>15</v>
@@ -3231,7 +3229,7 @@
       <c r="BK11" s="51"/>
       <c r="BL11" s="51"/>
     </row>
-    <row r="12" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A12" s="42" t="s">
         <v>10</v>
       </c>
@@ -3304,22 +3302,22 @@
       <c r="BK12" s="51"/>
       <c r="BL12" s="51"/>
     </row>
-    <row r="13" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A13" s="42"/>
       <c r="B13" s="83" t="s">
         <v>60</v>
       </c>
       <c r="C13" s="57"/>
       <c r="D13" s="20">
-        <v>0</v>
+        <v>0.9</v>
       </c>
       <c r="E13" s="2">
         <f ca="1">Project_Start</f>
-        <v>43756</v>
+        <v>43757</v>
       </c>
       <c r="F13" s="1">
         <f ca="1">E13+G13</f>
-        <v>43761</v>
+        <v>43762</v>
       </c>
       <c r="G13" s="16">
         <v>5</v>
@@ -3385,7 +3383,7 @@
       <c r="BK13" s="51"/>
       <c r="BL13" s="51"/>
     </row>
-    <row r="14" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A14" s="45"/>
       <c r="B14" s="83" t="s">
         <v>61</v>
@@ -3396,11 +3394,11 @@
       </c>
       <c r="E14" s="2">
         <f ca="1">F13+1</f>
-        <v>43762</v>
+        <v>43763</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ref="F14:F19" ca="1" si="8">E14+G14</f>
-        <v>43767</v>
+        <v>43768</v>
       </c>
       <c r="G14" s="16">
         <v>5</v>
@@ -3466,7 +3464,7 @@
       <c r="BK14" s="51"/>
       <c r="BL14" s="51"/>
     </row>
-    <row r="15" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A15" s="45"/>
       <c r="B15" s="83" t="s">
         <v>62</v>
@@ -3475,11 +3473,11 @@
       <c r="D15" s="20"/>
       <c r="E15" s="2">
         <f t="shared" ref="E15:E19" ca="1" si="9">F14+1</f>
-        <v>43768</v>
+        <v>43769</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43773</v>
+        <v>43774</v>
       </c>
       <c r="G15" s="16">
         <v>5</v>
@@ -3545,7 +3543,7 @@
       <c r="BK15" s="51"/>
       <c r="BL15" s="51"/>
     </row>
-    <row r="16" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A16" s="45"/>
       <c r="B16" s="83" t="s">
         <v>63</v>
@@ -3554,11 +3552,11 @@
       <c r="D16" s="20"/>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43774</v>
+        <v>43775</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43779</v>
+        <v>43780</v>
       </c>
       <c r="G16" s="16">
         <v>5</v>
@@ -3624,7 +3622,7 @@
       <c r="BK16" s="51"/>
       <c r="BL16" s="51"/>
     </row>
-    <row r="17" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A17" s="45"/>
       <c r="B17" s="83" t="s">
         <v>64</v>
@@ -3633,11 +3631,11 @@
       <c r="D17" s="20"/>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43780</v>
+        <v>43781</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43785</v>
+        <v>43786</v>
       </c>
       <c r="G17" s="16">
         <v>5</v>
@@ -3703,7 +3701,7 @@
       <c r="BK17" s="51"/>
       <c r="BL17" s="51"/>
     </row>
-    <row r="18" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A18" s="45"/>
       <c r="B18" s="83" t="s">
         <v>65</v>
@@ -3712,11 +3710,11 @@
       <c r="D18" s="20"/>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43786</v>
+        <v>43787</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43791</v>
+        <v>43792</v>
       </c>
       <c r="G18" s="16">
         <v>5</v>
@@ -3782,7 +3780,7 @@
       <c r="BK18" s="51"/>
       <c r="BL18" s="51"/>
     </row>
-    <row r="19" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A19" s="45"/>
       <c r="B19" s="83" t="s">
         <v>66</v>
@@ -3791,11 +3789,11 @@
       <c r="D19" s="20"/>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43792</v>
+        <v>43793</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43797</v>
+        <v>43798</v>
       </c>
       <c r="G19" s="16">
         <v>5</v>
@@ -3861,7 +3859,7 @@
       <c r="BK19" s="51"/>
       <c r="BL19" s="51"/>
     </row>
-    <row r="20" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A20" s="45" t="s">
         <v>11</v>
       </c>
@@ -3934,20 +3932,20 @@
       <c r="BK20" s="51"/>
       <c r="BL20" s="51"/>
     </row>
-    <row r="21" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A21" s="45"/>
-      <c r="B21" s="91" t="s">
+      <c r="B21" s="84" t="s">
         <v>47</v>
       </c>
       <c r="C21" s="59"/>
       <c r="D21" s="23"/>
       <c r="E21" s="3">
         <f ca="1">Project_Start</f>
-        <v>43756</v>
+        <v>43757</v>
       </c>
       <c r="F21" s="1">
         <f ca="1">E21+G21</f>
-        <v>43760</v>
+        <v>43761</v>
       </c>
       <c r="G21" s="16">
         <v>4</v>
@@ -4010,20 +4008,20 @@
       <c r="BK21" s="51"/>
       <c r="BL21" s="51"/>
     </row>
-    <row r="22" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A22" s="45"/>
-      <c r="B22" s="91" t="s">
+      <c r="B22" s="84" t="s">
         <v>48</v>
       </c>
       <c r="C22" s="59"/>
       <c r="D22" s="23"/>
       <c r="E22" s="3">
         <f ca="1">F21+1</f>
-        <v>43761</v>
+        <v>43762</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" ref="F22:F34" ca="1" si="10">E22+G22</f>
-        <v>43766</v>
+        <v>43767</v>
       </c>
       <c r="G22" s="16">
         <v>5</v>
@@ -4086,20 +4084,20 @@
       <c r="BK22" s="51"/>
       <c r="BL22" s="51"/>
     </row>
-    <row r="23" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A23" s="45"/>
-      <c r="B23" s="91" t="s">
+      <c r="B23" s="84" t="s">
         <v>49</v>
       </c>
       <c r="C23" s="59"/>
       <c r="D23" s="23"/>
       <c r="E23" s="3">
         <f t="shared" ref="E23:E25" ca="1" si="11">F22+1</f>
-        <v>43767</v>
+        <v>43768</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>43772</v>
+        <v>43773</v>
       </c>
       <c r="G23" s="16">
         <v>5</v>
@@ -4162,20 +4160,20 @@
       <c r="BK23" s="51"/>
       <c r="BL23" s="51"/>
     </row>
-    <row r="24" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A24" s="45"/>
-      <c r="B24" s="91" t="s">
+      <c r="B24" s="84" t="s">
         <v>50</v>
       </c>
       <c r="C24" s="59"/>
       <c r="D24" s="23"/>
       <c r="E24" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>43773</v>
+        <v>43774</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>43778</v>
+        <v>43779</v>
       </c>
       <c r="G24" s="16">
         <v>5</v>
@@ -4238,20 +4236,20 @@
       <c r="BK24" s="51"/>
       <c r="BL24" s="51"/>
     </row>
-    <row r="25" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A25" s="45"/>
-      <c r="B25" s="91" t="s">
+      <c r="B25" s="84" t="s">
         <v>51</v>
       </c>
       <c r="C25" s="59"/>
       <c r="D25" s="23"/>
       <c r="E25" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>43779</v>
+        <v>43780</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>43784</v>
+        <v>43785</v>
       </c>
       <c r="G25" s="16">
         <v>5</v>
@@ -4314,7 +4312,7 @@
       <c r="BK25" s="51"/>
       <c r="BL25" s="51"/>
     </row>
-    <row r="26" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A26" s="45" t="s">
         <v>11</v>
       </c>
@@ -4387,9 +4385,9 @@
       <c r="BK26" s="51"/>
       <c r="BL26" s="51"/>
     </row>
-    <row r="27" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A27" s="45"/>
-      <c r="B27" s="92" t="s">
+      <c r="B27" s="85" t="s">
         <v>52</v>
       </c>
       <c r="C27" s="61"/>
@@ -4465,9 +4463,9 @@
       <c r="BK27" s="51"/>
       <c r="BL27" s="51"/>
     </row>
-    <row r="28" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A28" s="45"/>
-      <c r="B28" s="92" t="s">
+      <c r="B28" s="85" t="s">
         <v>53</v>
       </c>
       <c r="C28" s="61"/>
@@ -4544,9 +4542,9 @@
       <c r="BK28" s="51"/>
       <c r="BL28" s="51"/>
     </row>
-    <row r="29" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A29" s="45"/>
-      <c r="B29" s="92" t="s">
+      <c r="B29" s="85" t="s">
         <v>54</v>
       </c>
       <c r="C29" s="61"/>
@@ -4623,9 +4621,9 @@
       <c r="BK29" s="51"/>
       <c r="BL29" s="51"/>
     </row>
-    <row r="30" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A30" s="45"/>
-      <c r="B30" s="92" t="s">
+      <c r="B30" s="85" t="s">
         <v>55</v>
       </c>
       <c r="C30" s="61"/>
@@ -4702,9 +4700,9 @@
       <c r="BK30" s="51"/>
       <c r="BL30" s="51"/>
     </row>
-    <row r="31" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A31" s="45"/>
-      <c r="B31" s="92" t="s">
+      <c r="B31" s="85" t="s">
         <v>56</v>
       </c>
       <c r="C31" s="61"/>
@@ -4781,9 +4779,9 @@
       <c r="BK31" s="51"/>
       <c r="BL31" s="51"/>
     </row>
-    <row r="32" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A32" s="45"/>
-      <c r="B32" s="92" t="s">
+      <c r="B32" s="85" t="s">
         <v>57</v>
       </c>
       <c r="C32" s="61"/>
@@ -4860,9 +4858,9 @@
       <c r="BK32" s="51"/>
       <c r="BL32" s="51"/>
     </row>
-    <row r="33" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A33" s="45"/>
-      <c r="B33" s="92" t="s">
+      <c r="B33" s="85" t="s">
         <v>58</v>
       </c>
       <c r="C33" s="61"/>
@@ -4939,9 +4937,9 @@
       <c r="BK33" s="51"/>
       <c r="BL33" s="51"/>
     </row>
-    <row r="34" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A34" s="45"/>
-      <c r="B34" s="92" t="s">
+      <c r="B34" s="85" t="s">
         <v>59</v>
       </c>
       <c r="C34" s="61"/>
@@ -5018,7 +5016,7 @@
       <c r="BK34" s="51"/>
       <c r="BL34" s="51"/>
     </row>
-    <row r="35" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="45" t="s">
         <v>12</v>
       </c>
@@ -5089,7 +5087,7 @@
       <c r="BK35" s="51"/>
       <c r="BL35" s="51"/>
     </row>
-    <row r="36" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A36" s="42" t="s">
         <v>13</v>
       </c>
@@ -5162,23 +5160,18 @@
       <c r="BK36" s="65"/>
       <c r="BL36" s="65"/>
     </row>
-    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="G37" s="66"/>
     </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C38" s="9"/>
       <c r="F38" s="34"/>
     </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C39" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -5186,6 +5179,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D19:D30 D7:D16 D34:D36">
@@ -5351,7 +5349,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="显示周数" prompt="更改此数字将滚动甘特图视图。" sqref="E4">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="显示周数" prompt="更改此数字将滚动甘特图视图。" sqref="E4" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
@@ -5461,7 +5459,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5469,86 +5467,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="87.21875" style="36" customWidth="1"/>
-    <col min="2" max="16384" width="9.21875" style="6"/>
+    <col min="1" max="1" width="87.1796875" style="36" customWidth="1"/>
+    <col min="2" max="16384" width="9.1796875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:2" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="2" spans="1:2" s="67" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
       <c r="A2" s="37" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="37"/>
     </row>
-    <row r="3" spans="1:2" s="68" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" s="68" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="38" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="38"/>
     </row>
-    <row r="4" spans="1:2" s="40" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:2" s="40" customFormat="1" ht="27.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="39" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A6" s="39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="36" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" s="36" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="69" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="40" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:2" s="40" customFormat="1" ht="27.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="39" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" ht="31.2" x14ac:dyDescent="0.35">
       <c r="A9" s="41" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="36" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" s="36" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="70" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="40" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:2" s="40" customFormat="1" ht="27.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A12" s="41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="36" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" s="36" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="70" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="40" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:2" s="40" customFormat="1" ht="27.6" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" ht="46.8" x14ac:dyDescent="0.35">
       <c r="A16" s="41" t="s">
         <v>38</v>
       </c>
@@ -5556,10 +5554,10 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1"/>
-    <hyperlink ref="A10" r:id="rId2"/>
-    <hyperlink ref="A3" r:id="rId3"/>
-    <hyperlink ref="A2" r:id="rId4"/>
+    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>

--- a/2019schedule.xlsx
+++ b/2019schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92C652F6-0C23-49EA-B0CF-71503EC281BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2722B45C-DBED-4091-878F-BBB7A6EAFD74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1401,6 +1401,18 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1408,18 +1420,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - 着色 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2207,7 +2207,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D13" sqref="D13"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
@@ -2253,341 +2253,341 @@
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="92">
+      <c r="D3" s="91"/>
+      <c r="E3" s="89">
         <f ca="1">TODAY()+1</f>
-        <v>43757</v>
-      </c>
-      <c r="F3" s="92"/>
+        <v>43759</v>
+      </c>
+      <c r="F3" s="89"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="49">
         <v>1</v>
       </c>
-      <c r="I4" s="89">
+      <c r="I4" s="86">
         <f ca="1">I5</f>
-        <v>43751</v>
-      </c>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="89">
+        <v>43758</v>
+      </c>
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="86">
         <f ca="1">P5</f>
-        <v>43758</v>
-      </c>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="91"/>
-      <c r="W4" s="89">
+        <v>43765</v>
+      </c>
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="86">
         <f ca="1">W5</f>
-        <v>43765</v>
-      </c>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="91"/>
-      <c r="AD4" s="89">
+        <v>43772</v>
+      </c>
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="86">
         <f ca="1">AD5</f>
-        <v>43772</v>
-      </c>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="91"/>
-      <c r="AK4" s="89">
+        <v>43779</v>
+      </c>
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="88"/>
+      <c r="AK4" s="86">
         <f ca="1">AK5</f>
-        <v>43779</v>
-      </c>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="91"/>
-      <c r="AR4" s="89">
+        <v>43786</v>
+      </c>
+      <c r="AL4" s="87"/>
+      <c r="AM4" s="87"/>
+      <c r="AN4" s="87"/>
+      <c r="AO4" s="87"/>
+      <c r="AP4" s="87"/>
+      <c r="AQ4" s="88"/>
+      <c r="AR4" s="86">
         <f ca="1">AR5</f>
-        <v>43786</v>
-      </c>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="90"/>
-      <c r="AW4" s="90"/>
-      <c r="AX4" s="91"/>
-      <c r="AY4" s="89">
+        <v>43793</v>
+      </c>
+      <c r="AS4" s="87"/>
+      <c r="AT4" s="87"/>
+      <c r="AU4" s="87"/>
+      <c r="AV4" s="87"/>
+      <c r="AW4" s="87"/>
+      <c r="AX4" s="88"/>
+      <c r="AY4" s="86">
         <f ca="1">AY5</f>
-        <v>43793</v>
-      </c>
-      <c r="AZ4" s="90"/>
-      <c r="BA4" s="90"/>
-      <c r="BB4" s="90"/>
-      <c r="BC4" s="90"/>
-      <c r="BD4" s="90"/>
-      <c r="BE4" s="91"/>
-      <c r="BF4" s="89">
+        <v>43800</v>
+      </c>
+      <c r="AZ4" s="87"/>
+      <c r="BA4" s="87"/>
+      <c r="BB4" s="87"/>
+      <c r="BC4" s="87"/>
+      <c r="BD4" s="87"/>
+      <c r="BE4" s="88"/>
+      <c r="BF4" s="86">
         <f ca="1">BF5</f>
-        <v>43800</v>
-      </c>
-      <c r="BG4" s="90"/>
-      <c r="BH4" s="90"/>
-      <c r="BI4" s="90"/>
-      <c r="BJ4" s="90"/>
-      <c r="BK4" s="90"/>
-      <c r="BL4" s="91"/>
+        <v>43807</v>
+      </c>
+      <c r="BG4" s="87"/>
+      <c r="BH4" s="87"/>
+      <c r="BI4" s="87"/>
+      <c r="BJ4" s="87"/>
+      <c r="BK4" s="87"/>
+      <c r="BL4" s="88"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
       <c r="I5" s="71">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+1+7*(Display_Week-1)</f>
-        <v>43751</v>
+        <v>43758</v>
       </c>
       <c r="J5" s="72">
         <f ca="1">I5+1</f>
-        <v>43752</v>
+        <v>43759</v>
       </c>
       <c r="K5" s="72">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>43753</v>
+        <v>43760</v>
       </c>
       <c r="L5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43754</v>
+        <v>43761</v>
       </c>
       <c r="M5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43755</v>
+        <v>43762</v>
       </c>
       <c r="N5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43756</v>
+        <v>43763</v>
       </c>
       <c r="O5" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>43757</v>
+        <v>43764</v>
       </c>
       <c r="P5" s="71">
         <f ca="1">O5+1</f>
-        <v>43758</v>
+        <v>43765</v>
       </c>
       <c r="Q5" s="72">
         <f ca="1">P5+1</f>
-        <v>43759</v>
+        <v>43766</v>
       </c>
       <c r="R5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43760</v>
+        <v>43767</v>
       </c>
       <c r="S5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43761</v>
+        <v>43768</v>
       </c>
       <c r="T5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43762</v>
+        <v>43769</v>
       </c>
       <c r="U5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43763</v>
+        <v>43770</v>
       </c>
       <c r="V5" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>43764</v>
+        <v>43771</v>
       </c>
       <c r="W5" s="71">
         <f ca="1">V5+1</f>
-        <v>43765</v>
+        <v>43772</v>
       </c>
       <c r="X5" s="72">
         <f ca="1">W5+1</f>
-        <v>43766</v>
+        <v>43773</v>
       </c>
       <c r="Y5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43767</v>
+        <v>43774</v>
       </c>
       <c r="Z5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43768</v>
+        <v>43775</v>
       </c>
       <c r="AA5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43769</v>
+        <v>43776</v>
       </c>
       <c r="AB5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43770</v>
+        <v>43777</v>
       </c>
       <c r="AC5" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>43771</v>
+        <v>43778</v>
       </c>
       <c r="AD5" s="71">
         <f ca="1">AC5+1</f>
-        <v>43772</v>
+        <v>43779</v>
       </c>
       <c r="AE5" s="72">
         <f ca="1">AD5+1</f>
-        <v>43773</v>
+        <v>43780</v>
       </c>
       <c r="AF5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43774</v>
+        <v>43781</v>
       </c>
       <c r="AG5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43775</v>
+        <v>43782</v>
       </c>
       <c r="AH5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43776</v>
+        <v>43783</v>
       </c>
       <c r="AI5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43777</v>
+        <v>43784</v>
       </c>
       <c r="AJ5" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>43778</v>
+        <v>43785</v>
       </c>
       <c r="AK5" s="71">
         <f ca="1">AJ5+1</f>
-        <v>43779</v>
+        <v>43786</v>
       </c>
       <c r="AL5" s="72">
         <f ca="1">AK5+1</f>
-        <v>43780</v>
+        <v>43787</v>
       </c>
       <c r="AM5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43781</v>
+        <v>43788</v>
       </c>
       <c r="AN5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43782</v>
+        <v>43789</v>
       </c>
       <c r="AO5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43783</v>
+        <v>43790</v>
       </c>
       <c r="AP5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43784</v>
+        <v>43791</v>
       </c>
       <c r="AQ5" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>43785</v>
+        <v>43792</v>
       </c>
       <c r="AR5" s="71">
         <f ca="1">AQ5+1</f>
-        <v>43786</v>
+        <v>43793</v>
       </c>
       <c r="AS5" s="72">
         <f ca="1">AR5+1</f>
-        <v>43787</v>
+        <v>43794</v>
       </c>
       <c r="AT5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43788</v>
+        <v>43795</v>
       </c>
       <c r="AU5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43789</v>
+        <v>43796</v>
       </c>
       <c r="AV5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43790</v>
+        <v>43797</v>
       </c>
       <c r="AW5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43791</v>
+        <v>43798</v>
       </c>
       <c r="AX5" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>43792</v>
+        <v>43799</v>
       </c>
       <c r="AY5" s="71">
         <f ca="1">AX5+1</f>
-        <v>43793</v>
+        <v>43800</v>
       </c>
       <c r="AZ5" s="72">
         <f ca="1">AY5+1</f>
-        <v>43794</v>
+        <v>43801</v>
       </c>
       <c r="BA5" s="72">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>43795</v>
+        <v>43802</v>
       </c>
       <c r="BB5" s="72">
         <f t="shared" ca="1" si="1"/>
-        <v>43796</v>
+        <v>43803</v>
       </c>
       <c r="BC5" s="72">
         <f t="shared" ca="1" si="1"/>
-        <v>43797</v>
+        <v>43804</v>
       </c>
       <c r="BD5" s="72">
         <f t="shared" ca="1" si="1"/>
-        <v>43798</v>
+        <v>43805</v>
       </c>
       <c r="BE5" s="73">
         <f t="shared" ca="1" si="1"/>
-        <v>43799</v>
+        <v>43806</v>
       </c>
       <c r="BF5" s="71">
         <f ca="1">BE5+1</f>
-        <v>43800</v>
+        <v>43807</v>
       </c>
       <c r="BG5" s="72">
         <f ca="1">BF5+1</f>
-        <v>43801</v>
+        <v>43808</v>
       </c>
       <c r="BH5" s="72">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>43802</v>
+        <v>43809</v>
       </c>
       <c r="BI5" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>43803</v>
+        <v>43810</v>
       </c>
       <c r="BJ5" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>43804</v>
+        <v>43811</v>
       </c>
       <c r="BK5" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>43805</v>
+        <v>43812</v>
       </c>
       <c r="BL5" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>43806</v>
+        <v>43813</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
@@ -2995,11 +2995,11 @@
       </c>
       <c r="E9" s="1">
         <f ca="1">Project_Start</f>
-        <v>43757</v>
+        <v>43759</v>
       </c>
       <c r="F9" s="1">
         <f ca="1">E9+G9</f>
-        <v>43762</v>
+        <v>43764</v>
       </c>
       <c r="G9" s="16">
         <v>5</v>
@@ -3078,11 +3078,11 @@
       </c>
       <c r="E10" s="1">
         <f ca="1">F9+1</f>
-        <v>43763</v>
+        <v>43765</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ref="F10:F11" ca="1" si="6">E10+G10</f>
-        <v>43768</v>
+        <v>43770</v>
       </c>
       <c r="G10" s="16">
         <v>5</v>
@@ -3159,11 +3159,11 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" ref="E11" ca="1" si="7">F10+1</f>
-        <v>43769</v>
+        <v>43771</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>43784</v>
+        <v>43786</v>
       </c>
       <c r="G11" s="16">
         <v>15</v>
@@ -3313,11 +3313,11 @@
       </c>
       <c r="E13" s="2">
         <f ca="1">Project_Start</f>
-        <v>43757</v>
+        <v>43759</v>
       </c>
       <c r="F13" s="1">
         <f ca="1">E13+G13</f>
-        <v>43762</v>
+        <v>43764</v>
       </c>
       <c r="G13" s="16">
         <v>5</v>
@@ -3390,15 +3390,15 @@
       </c>
       <c r="C14" s="57"/>
       <c r="D14" s="20">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="E14" s="2">
         <f ca="1">F13+1</f>
-        <v>43763</v>
+        <v>43765</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ref="F14:F19" ca="1" si="8">E14+G14</f>
-        <v>43768</v>
+        <v>43770</v>
       </c>
       <c r="G14" s="16">
         <v>5</v>
@@ -3470,14 +3470,16 @@
         <v>62</v>
       </c>
       <c r="C15" s="57"/>
-      <c r="D15" s="20"/>
+      <c r="D15" s="20">
+        <v>0.5</v>
+      </c>
       <c r="E15" s="2">
         <f t="shared" ref="E15:E19" ca="1" si="9">F14+1</f>
-        <v>43769</v>
+        <v>43771</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43774</v>
+        <v>43776</v>
       </c>
       <c r="G15" s="16">
         <v>5</v>
@@ -3549,14 +3551,16 @@
         <v>63</v>
       </c>
       <c r="C16" s="57"/>
-      <c r="D16" s="20"/>
+      <c r="D16" s="20">
+        <v>0.5</v>
+      </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43775</v>
+        <v>43777</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43780</v>
+        <v>43782</v>
       </c>
       <c r="G16" s="16">
         <v>5</v>
@@ -3628,14 +3632,16 @@
         <v>64</v>
       </c>
       <c r="C17" s="57"/>
-      <c r="D17" s="20"/>
+      <c r="D17" s="20">
+        <v>0.5</v>
+      </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43781</v>
+        <v>43783</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43786</v>
+        <v>43788</v>
       </c>
       <c r="G17" s="16">
         <v>5</v>
@@ -3710,11 +3716,11 @@
       <c r="D18" s="20"/>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43787</v>
+        <v>43789</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43792</v>
+        <v>43794</v>
       </c>
       <c r="G18" s="16">
         <v>5</v>
@@ -3789,11 +3795,11 @@
       <c r="D19" s="20"/>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43793</v>
+        <v>43795</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43798</v>
+        <v>43800</v>
       </c>
       <c r="G19" s="16">
         <v>5</v>
@@ -3941,11 +3947,11 @@
       <c r="D21" s="23"/>
       <c r="E21" s="3">
         <f ca="1">Project_Start</f>
-        <v>43757</v>
+        <v>43759</v>
       </c>
       <c r="F21" s="1">
         <f ca="1">E21+G21</f>
-        <v>43761</v>
+        <v>43763</v>
       </c>
       <c r="G21" s="16">
         <v>4</v>
@@ -4017,11 +4023,11 @@
       <c r="D22" s="23"/>
       <c r="E22" s="3">
         <f ca="1">F21+1</f>
-        <v>43762</v>
+        <v>43764</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" ref="F22:F34" ca="1" si="10">E22+G22</f>
-        <v>43767</v>
+        <v>43769</v>
       </c>
       <c r="G22" s="16">
         <v>5</v>
@@ -4093,11 +4099,11 @@
       <c r="D23" s="23"/>
       <c r="E23" s="3">
         <f t="shared" ref="E23:E25" ca="1" si="11">F22+1</f>
-        <v>43768</v>
+        <v>43770</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>43773</v>
+        <v>43775</v>
       </c>
       <c r="G23" s="16">
         <v>5</v>
@@ -4169,11 +4175,11 @@
       <c r="D24" s="23"/>
       <c r="E24" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>43774</v>
+        <v>43776</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>43779</v>
+        <v>43781</v>
       </c>
       <c r="G24" s="16">
         <v>5</v>
@@ -4245,11 +4251,11 @@
       <c r="D25" s="23"/>
       <c r="E25" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>43780</v>
+        <v>43782</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>43785</v>
+        <v>43787</v>
       </c>
       <c r="G25" s="16">
         <v>5</v>
@@ -5172,6 +5178,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -5179,11 +5190,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D19:D30 D7:D16 D34:D36">

--- a/2019schedule.xlsx
+++ b/2019schedule.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2722B45C-DBED-4091-878F-BBB7A6EAFD74}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A21C0E0-4C2B-4321-ADF7-8E1AA62C06CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1401,6 +1401,13 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1413,13 +1420,6 @@
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - 着色 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2207,14 +2207,14 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="2.81640625" style="45" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" style="44" customWidth="1"/>
-    <col min="3" max="3" width="14.36328125" style="44" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" style="44" customWidth="1"/>
     <col min="4" max="4" width="10.81640625" style="44" customWidth="1"/>
     <col min="5" max="5" width="10.54296875" style="47" customWidth="1"/>
     <col min="6" max="6" width="10.54296875" style="44" customWidth="1"/>
@@ -2253,118 +2253,118 @@
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="89">
+      <c r="D3" s="87"/>
+      <c r="E3" s="92">
         <f ca="1">TODAY()+1</f>
-        <v>43759</v>
-      </c>
-      <c r="F3" s="89"/>
+        <v>43760</v>
+      </c>
+      <c r="F3" s="92"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="91"/>
+      <c r="D4" s="87"/>
       <c r="E4" s="49">
         <v>1</v>
       </c>
-      <c r="I4" s="86">
+      <c r="I4" s="89">
         <f ca="1">I5</f>
         <v>43758</v>
       </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="86">
+      <c r="J4" s="90"/>
+      <c r="K4" s="90"/>
+      <c r="L4" s="90"/>
+      <c r="M4" s="90"/>
+      <c r="N4" s="90"/>
+      <c r="O4" s="91"/>
+      <c r="P4" s="89">
         <f ca="1">P5</f>
         <v>43765</v>
       </c>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="86">
+      <c r="Q4" s="90"/>
+      <c r="R4" s="90"/>
+      <c r="S4" s="90"/>
+      <c r="T4" s="90"/>
+      <c r="U4" s="90"/>
+      <c r="V4" s="91"/>
+      <c r="W4" s="89">
         <f ca="1">W5</f>
         <v>43772</v>
       </c>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="86">
+      <c r="X4" s="90"/>
+      <c r="Y4" s="90"/>
+      <c r="Z4" s="90"/>
+      <c r="AA4" s="90"/>
+      <c r="AB4" s="90"/>
+      <c r="AC4" s="91"/>
+      <c r="AD4" s="89">
         <f ca="1">AD5</f>
         <v>43779</v>
       </c>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="86">
+      <c r="AE4" s="90"/>
+      <c r="AF4" s="90"/>
+      <c r="AG4" s="90"/>
+      <c r="AH4" s="90"/>
+      <c r="AI4" s="90"/>
+      <c r="AJ4" s="91"/>
+      <c r="AK4" s="89">
         <f ca="1">AK5</f>
         <v>43786</v>
       </c>
-      <c r="AL4" s="87"/>
-      <c r="AM4" s="87"/>
-      <c r="AN4" s="87"/>
-      <c r="AO4" s="87"/>
-      <c r="AP4" s="87"/>
-      <c r="AQ4" s="88"/>
-      <c r="AR4" s="86">
+      <c r="AL4" s="90"/>
+      <c r="AM4" s="90"/>
+      <c r="AN4" s="90"/>
+      <c r="AO4" s="90"/>
+      <c r="AP4" s="90"/>
+      <c r="AQ4" s="91"/>
+      <c r="AR4" s="89">
         <f ca="1">AR5</f>
         <v>43793</v>
       </c>
-      <c r="AS4" s="87"/>
-      <c r="AT4" s="87"/>
-      <c r="AU4" s="87"/>
-      <c r="AV4" s="87"/>
-      <c r="AW4" s="87"/>
-      <c r="AX4" s="88"/>
-      <c r="AY4" s="86">
+      <c r="AS4" s="90"/>
+      <c r="AT4" s="90"/>
+      <c r="AU4" s="90"/>
+      <c r="AV4" s="90"/>
+      <c r="AW4" s="90"/>
+      <c r="AX4" s="91"/>
+      <c r="AY4" s="89">
         <f ca="1">AY5</f>
         <v>43800</v>
       </c>
-      <c r="AZ4" s="87"/>
-      <c r="BA4" s="87"/>
-      <c r="BB4" s="87"/>
-      <c r="BC4" s="87"/>
-      <c r="BD4" s="87"/>
-      <c r="BE4" s="88"/>
-      <c r="BF4" s="86">
+      <c r="AZ4" s="90"/>
+      <c r="BA4" s="90"/>
+      <c r="BB4" s="90"/>
+      <c r="BC4" s="90"/>
+      <c r="BD4" s="90"/>
+      <c r="BE4" s="91"/>
+      <c r="BF4" s="89">
         <f ca="1">BF5</f>
         <v>43807</v>
       </c>
-      <c r="BG4" s="87"/>
-      <c r="BH4" s="87"/>
-      <c r="BI4" s="87"/>
-      <c r="BJ4" s="87"/>
-      <c r="BK4" s="87"/>
-      <c r="BL4" s="88"/>
+      <c r="BG4" s="90"/>
+      <c r="BH4" s="90"/>
+      <c r="BI4" s="90"/>
+      <c r="BJ4" s="90"/>
+      <c r="BK4" s="90"/>
+      <c r="BL4" s="91"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
+      <c r="B5" s="88"/>
+      <c r="C5" s="88"/>
+      <c r="D5" s="88"/>
+      <c r="E5" s="88"/>
+      <c r="F5" s="88"/>
+      <c r="G5" s="88"/>
       <c r="I5" s="71">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+1+7*(Display_Week-1)</f>
         <v>43758</v>
@@ -2995,11 +2995,11 @@
       </c>
       <c r="E9" s="1">
         <f ca="1">Project_Start</f>
-        <v>43759</v>
+        <v>43760</v>
       </c>
       <c r="F9" s="1">
         <f ca="1">E9+G9</f>
-        <v>43764</v>
+        <v>43765</v>
       </c>
       <c r="G9" s="16">
         <v>5</v>
@@ -3078,11 +3078,11 @@
       </c>
       <c r="E10" s="1">
         <f ca="1">F9+1</f>
-        <v>43765</v>
+        <v>43766</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ref="F10:F11" ca="1" si="6">E10+G10</f>
-        <v>43770</v>
+        <v>43771</v>
       </c>
       <c r="G10" s="16">
         <v>5</v>
@@ -3159,11 +3159,11 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" ref="E11" ca="1" si="7">F10+1</f>
-        <v>43771</v>
+        <v>43772</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>43786</v>
+        <v>43787</v>
       </c>
       <c r="G11" s="16">
         <v>15</v>
@@ -3309,15 +3309,15 @@
       </c>
       <c r="C13" s="57"/>
       <c r="D13" s="20">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E13" s="2">
         <f ca="1">Project_Start</f>
-        <v>43759</v>
+        <v>43760</v>
       </c>
       <c r="F13" s="1">
         <f ca="1">E13+G13</f>
-        <v>43764</v>
+        <v>43765</v>
       </c>
       <c r="G13" s="16">
         <v>5</v>
@@ -3390,15 +3390,15 @@
       </c>
       <c r="C14" s="57"/>
       <c r="D14" s="20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E14" s="2">
         <f ca="1">F13+1</f>
-        <v>43765</v>
+        <v>43766</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ref="F14:F19" ca="1" si="8">E14+G14</f>
-        <v>43770</v>
+        <v>43771</v>
       </c>
       <c r="G14" s="16">
         <v>5</v>
@@ -3475,11 +3475,11 @@
       </c>
       <c r="E15" s="2">
         <f t="shared" ref="E15:E19" ca="1" si="9">F14+1</f>
-        <v>43771</v>
+        <v>43772</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43776</v>
+        <v>43777</v>
       </c>
       <c r="G15" s="16">
         <v>5</v>
@@ -3552,15 +3552,15 @@
       </c>
       <c r="C16" s="57"/>
       <c r="D16" s="20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43777</v>
+        <v>43778</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43782</v>
+        <v>43783</v>
       </c>
       <c r="G16" s="16">
         <v>5</v>
@@ -3633,15 +3633,15 @@
       </c>
       <c r="C17" s="57"/>
       <c r="D17" s="20">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43783</v>
+        <v>43784</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43788</v>
+        <v>43789</v>
       </c>
       <c r="G17" s="16">
         <v>5</v>
@@ -3716,11 +3716,11 @@
       <c r="D18" s="20"/>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43789</v>
+        <v>43790</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43794</v>
+        <v>43795</v>
       </c>
       <c r="G18" s="16">
         <v>5</v>
@@ -3795,11 +3795,11 @@
       <c r="D19" s="20"/>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43795</v>
+        <v>43796</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43800</v>
+        <v>43801</v>
       </c>
       <c r="G19" s="16">
         <v>5</v>
@@ -3944,14 +3944,16 @@
         <v>47</v>
       </c>
       <c r="C21" s="59"/>
-      <c r="D21" s="23"/>
+      <c r="D21" s="23">
+        <v>0.02</v>
+      </c>
       <c r="E21" s="3">
         <f ca="1">Project_Start</f>
-        <v>43759</v>
+        <v>43760</v>
       </c>
       <c r="F21" s="1">
         <f ca="1">E21+G21</f>
-        <v>43763</v>
+        <v>43764</v>
       </c>
       <c r="G21" s="16">
         <v>4</v>
@@ -4023,11 +4025,11 @@
       <c r="D22" s="23"/>
       <c r="E22" s="3">
         <f ca="1">F21+1</f>
-        <v>43764</v>
+        <v>43765</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" ref="F22:F34" ca="1" si="10">E22+G22</f>
-        <v>43769</v>
+        <v>43770</v>
       </c>
       <c r="G22" s="16">
         <v>5</v>
@@ -4099,11 +4101,11 @@
       <c r="D23" s="23"/>
       <c r="E23" s="3">
         <f t="shared" ref="E23:E25" ca="1" si="11">F22+1</f>
-        <v>43770</v>
+        <v>43771</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>43775</v>
+        <v>43776</v>
       </c>
       <c r="G23" s="16">
         <v>5</v>
@@ -4175,11 +4177,11 @@
       <c r="D24" s="23"/>
       <c r="E24" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>43776</v>
+        <v>43777</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>43781</v>
+        <v>43782</v>
       </c>
       <c r="G24" s="16">
         <v>5</v>
@@ -4251,11 +4253,11 @@
       <c r="D25" s="23"/>
       <c r="E25" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>43782</v>
+        <v>43783</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>43787</v>
+        <v>43788</v>
       </c>
       <c r="G25" s="16">
         <v>5</v>
@@ -5178,11 +5180,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -5190,6 +5187,11 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D19:D30 D7:D16 D34:D36">

--- a/2019schedule.xlsx
+++ b/2019schedule.xlsx
@@ -1,11 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A21C0E0-4C2B-4321-ADF7-8E1AA62C06CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="项目日程安排" sheetId="11" r:id="rId1"/>
@@ -21,7 +20,7 @@
     <definedName name="task_start" localSheetId="0">项目日程安排!$E1</definedName>
     <definedName name="今天" localSheetId="0">TODAY()</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -356,7 +355,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="8">
     <numFmt numFmtId="42" formatCode="_ &quot;¥&quot;* #,##0_ ;_ &quot;¥&quot;* \-#,##0_ ;_ &quot;¥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;¥&quot;* #,##0.00_ ;_ &quot;¥&quot;* \-#,##0.00_ ;_ &quot;¥&quot;* &quot;-&quot;??_ ;_ @_ "/>
@@ -1401,6 +1400,18 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1408,18 +1419,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - 着色 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1440,7 +1439,7 @@
     <cellStyle name="60% - 着色 4" xfId="45" builtinId="44" customBuiltin="1"/>
     <cellStyle name="60% - 着色 5" xfId="49" builtinId="48" customBuiltin="1"/>
     <cellStyle name="60% - 着色 6" xfId="53" builtinId="52" customBuiltin="1"/>
-    <cellStyle name="z隐藏文本" xfId="3" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="z隐藏文本" xfId="3"/>
     <cellStyle name="百分比" xfId="2" builtinId="5" customBuiltin="1"/>
     <cellStyle name="标题" xfId="5" builtinId="15" customBuiltin="1"/>
     <cellStyle name="标题 1" xfId="6" builtinId="16" customBuiltin="1"/>
@@ -1461,13 +1460,13 @@
     <cellStyle name="链接单元格" xfId="24" builtinId="24" customBuiltin="1"/>
     <cellStyle name="千位分隔" xfId="4" builtinId="3" customBuiltin="1"/>
     <cellStyle name="千位分隔[0]" xfId="14" builtinId="6" customBuiltin="1"/>
-    <cellStyle name="任务" xfId="12" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
-    <cellStyle name="日期" xfId="10" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="任务" xfId="12"/>
+    <cellStyle name="日期" xfId="10"/>
     <cellStyle name="适中" xfId="20" builtinId="28" customBuiltin="1"/>
     <cellStyle name="输出" xfId="22" builtinId="21" customBuiltin="1"/>
     <cellStyle name="输入" xfId="21" builtinId="20" customBuiltin="1"/>
-    <cellStyle name="项目开始" xfId="9" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
-    <cellStyle name="姓名" xfId="11" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="项目开始" xfId="9"/>
+    <cellStyle name="姓名" xfId="11"/>
     <cellStyle name="已访问的超链接" xfId="13" builtinId="9" customBuiltin="1"/>
     <cellStyle name="着色 1" xfId="30" builtinId="29" customBuiltin="1"/>
     <cellStyle name="着色 2" xfId="34" builtinId="33" customBuiltin="1"/>
@@ -1775,11 +1774,11 @@
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="28"/>
       <tableStyleElement type="headerRow" dxfId="27"/>
     </tableStyle>
-    <tableStyle name="待办事项列表" pivot="0" count="9" xr9:uid="{00000000-0011-0000-FFFF-FFFF01000000}">
+    <tableStyle name="待办事项列表" pivot="0" count="9">
       <tableStyleElement type="wholeTable" dxfId="26"/>
       <tableStyleElement type="headerRow" dxfId="25"/>
       <tableStyleElement type="totalRow" dxfId="24"/>
@@ -2199,7 +2198,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2207,27 +2206,27 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D22" sqref="D22"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.90625" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.81640625" style="45" customWidth="1"/>
-    <col min="2" max="2" width="17.81640625" style="44" customWidth="1"/>
-    <col min="3" max="3" width="20.81640625" style="44" customWidth="1"/>
-    <col min="4" max="4" width="10.81640625" style="44" customWidth="1"/>
-    <col min="5" max="5" width="10.54296875" style="47" customWidth="1"/>
-    <col min="6" max="6" width="10.54296875" style="44" customWidth="1"/>
-    <col min="7" max="7" width="2.81640625" style="44" customWidth="1"/>
-    <col min="8" max="8" width="3.1796875" style="44" hidden="1" customWidth="1"/>
-    <col min="9" max="64" width="2.6328125" style="44" customWidth="1"/>
-    <col min="65" max="65" width="8.90625" style="44"/>
-    <col min="66" max="68" width="7.36328125" style="44"/>
-    <col min="69" max="70" width="8.6328125" style="44"/>
-    <col min="71" max="16384" width="8.90625" style="44"/>
+    <col min="1" max="1" width="2.77734375" style="45" customWidth="1"/>
+    <col min="2" max="2" width="17.77734375" style="44" customWidth="1"/>
+    <col min="3" max="3" width="20.77734375" style="44" customWidth="1"/>
+    <col min="4" max="4" width="10.77734375" style="44" customWidth="1"/>
+    <col min="5" max="5" width="10.5546875" style="47" customWidth="1"/>
+    <col min="6" max="6" width="10.5546875" style="44" customWidth="1"/>
+    <col min="7" max="7" width="2.77734375" style="44" customWidth="1"/>
+    <col min="8" max="8" width="3.21875" style="44" hidden="1" customWidth="1"/>
+    <col min="9" max="64" width="2.6640625" style="44" customWidth="1"/>
+    <col min="65" max="65" width="8.88671875" style="44"/>
+    <col min="66" max="68" width="7.33203125" style="44"/>
+    <col min="69" max="70" width="8.6640625" style="44"/>
+    <col min="71" max="16384" width="8.88671875" style="44"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="42" t="s">
         <v>0</v>
       </c>
@@ -2241,130 +2240,130 @@
       <c r="H1" s="6"/>
       <c r="I1" s="9"/>
     </row>
-    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="45" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="46"/>
       <c r="I2" s="10"/>
     </row>
-    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="45" t="s">
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
-      <c r="C3" s="86" t="s">
+      <c r="C3" s="90" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="87"/>
-      <c r="E3" s="92">
+      <c r="D3" s="91"/>
+      <c r="E3" s="89">
         <f ca="1">TODAY()+1</f>
-        <v>43760</v>
-      </c>
-      <c r="F3" s="92"/>
+        <v>43763</v>
+      </c>
+      <c r="F3" s="89"/>
     </row>
-    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="86" t="s">
+      <c r="C4" s="90" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="87"/>
+      <c r="D4" s="91"/>
       <c r="E4" s="49">
         <v>1</v>
       </c>
-      <c r="I4" s="89">
+      <c r="I4" s="86">
         <f ca="1">I5</f>
         <v>43758</v>
       </c>
-      <c r="J4" s="90"/>
-      <c r="K4" s="90"/>
-      <c r="L4" s="90"/>
-      <c r="M4" s="90"/>
-      <c r="N4" s="90"/>
-      <c r="O4" s="91"/>
-      <c r="P4" s="89">
+      <c r="J4" s="87"/>
+      <c r="K4" s="87"/>
+      <c r="L4" s="87"/>
+      <c r="M4" s="87"/>
+      <c r="N4" s="87"/>
+      <c r="O4" s="88"/>
+      <c r="P4" s="86">
         <f ca="1">P5</f>
         <v>43765</v>
       </c>
-      <c r="Q4" s="90"/>
-      <c r="R4" s="90"/>
-      <c r="S4" s="90"/>
-      <c r="T4" s="90"/>
-      <c r="U4" s="90"/>
-      <c r="V4" s="91"/>
-      <c r="W4" s="89">
+      <c r="Q4" s="87"/>
+      <c r="R4" s="87"/>
+      <c r="S4" s="87"/>
+      <c r="T4" s="87"/>
+      <c r="U4" s="87"/>
+      <c r="V4" s="88"/>
+      <c r="W4" s="86">
         <f ca="1">W5</f>
         <v>43772</v>
       </c>
-      <c r="X4" s="90"/>
-      <c r="Y4" s="90"/>
-      <c r="Z4" s="90"/>
-      <c r="AA4" s="90"/>
-      <c r="AB4" s="90"/>
-      <c r="AC4" s="91"/>
-      <c r="AD4" s="89">
+      <c r="X4" s="87"/>
+      <c r="Y4" s="87"/>
+      <c r="Z4" s="87"/>
+      <c r="AA4" s="87"/>
+      <c r="AB4" s="87"/>
+      <c r="AC4" s="88"/>
+      <c r="AD4" s="86">
         <f ca="1">AD5</f>
         <v>43779</v>
       </c>
-      <c r="AE4" s="90"/>
-      <c r="AF4" s="90"/>
-      <c r="AG4" s="90"/>
-      <c r="AH4" s="90"/>
-      <c r="AI4" s="90"/>
-      <c r="AJ4" s="91"/>
-      <c r="AK4" s="89">
+      <c r="AE4" s="87"/>
+      <c r="AF4" s="87"/>
+      <c r="AG4" s="87"/>
+      <c r="AH4" s="87"/>
+      <c r="AI4" s="87"/>
+      <c r="AJ4" s="88"/>
+      <c r="AK4" s="86">
         <f ca="1">AK5</f>
         <v>43786</v>
       </c>
-      <c r="AL4" s="90"/>
-      <c r="AM4" s="90"/>
-      <c r="AN4" s="90"/>
-      <c r="AO4" s="90"/>
-      <c r="AP4" s="90"/>
-      <c r="AQ4" s="91"/>
-      <c r="AR4" s="89">
+      <c r="AL4" s="87"/>
+      <c r="AM4" s="87"/>
+      <c r="AN4" s="87"/>
+      <c r="AO4" s="87"/>
+      <c r="AP4" s="87"/>
+      <c r="AQ4" s="88"/>
+      <c r="AR4" s="86">
         <f ca="1">AR5</f>
         <v>43793</v>
       </c>
-      <c r="AS4" s="90"/>
-      <c r="AT4" s="90"/>
-      <c r="AU4" s="90"/>
-      <c r="AV4" s="90"/>
-      <c r="AW4" s="90"/>
-      <c r="AX4" s="91"/>
-      <c r="AY4" s="89">
+      <c r="AS4" s="87"/>
+      <c r="AT4" s="87"/>
+      <c r="AU4" s="87"/>
+      <c r="AV4" s="87"/>
+      <c r="AW4" s="87"/>
+      <c r="AX4" s="88"/>
+      <c r="AY4" s="86">
         <f ca="1">AY5</f>
         <v>43800</v>
       </c>
-      <c r="AZ4" s="90"/>
-      <c r="BA4" s="90"/>
-      <c r="BB4" s="90"/>
-      <c r="BC4" s="90"/>
-      <c r="BD4" s="90"/>
-      <c r="BE4" s="91"/>
-      <c r="BF4" s="89">
+      <c r="AZ4" s="87"/>
+      <c r="BA4" s="87"/>
+      <c r="BB4" s="87"/>
+      <c r="BC4" s="87"/>
+      <c r="BD4" s="87"/>
+      <c r="BE4" s="88"/>
+      <c r="BF4" s="86">
         <f ca="1">BF5</f>
         <v>43807</v>
       </c>
-      <c r="BG4" s="90"/>
-      <c r="BH4" s="90"/>
-      <c r="BI4" s="90"/>
-      <c r="BJ4" s="90"/>
-      <c r="BK4" s="90"/>
-      <c r="BL4" s="91"/>
+      <c r="BG4" s="87"/>
+      <c r="BH4" s="87"/>
+      <c r="BI4" s="87"/>
+      <c r="BJ4" s="87"/>
+      <c r="BK4" s="87"/>
+      <c r="BL4" s="88"/>
     </row>
-    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="88"/>
-      <c r="C5" s="88"/>
-      <c r="D5" s="88"/>
-      <c r="E5" s="88"/>
-      <c r="F5" s="88"/>
-      <c r="G5" s="88"/>
+      <c r="B5" s="92"/>
+      <c r="C5" s="92"/>
+      <c r="D5" s="92"/>
+      <c r="E5" s="92"/>
+      <c r="F5" s="92"/>
+      <c r="G5" s="92"/>
       <c r="I5" s="71">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+1+7*(Display_Week-1)</f>
         <v>43758</v>
@@ -2590,7 +2589,7 @@
         <v>43813</v>
       </c>
     </row>
-    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="42" t="s">
         <v>5</v>
       </c>
@@ -2840,7 +2839,7 @@
         <v>六</v>
       </c>
     </row>
-    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:64" ht="30" hidden="1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="45" t="s">
         <v>6</v>
       </c>
@@ -2907,7 +2906,7 @@
       <c r="BK7" s="51"/>
       <c r="BL7" s="51"/>
     </row>
-    <row r="8" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="42" t="s">
         <v>7</v>
       </c>
@@ -2980,7 +2979,7 @@
       <c r="BK8" s="51"/>
       <c r="BL8" s="51"/>
     </row>
-    <row r="9" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="42" t="s">
         <v>8</v>
       </c>
@@ -2995,11 +2994,11 @@
       </c>
       <c r="E9" s="1">
         <f ca="1">Project_Start</f>
-        <v>43760</v>
+        <v>43763</v>
       </c>
       <c r="F9" s="1">
         <f ca="1">E9+G9</f>
-        <v>43765</v>
+        <v>43768</v>
       </c>
       <c r="G9" s="16">
         <v>5</v>
@@ -3065,7 +3064,7 @@
       <c r="BK9" s="51"/>
       <c r="BL9" s="51"/>
     </row>
-    <row r="10" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="42" t="s">
         <v>9</v>
       </c>
@@ -3078,11 +3077,11 @@
       </c>
       <c r="E10" s="1">
         <f ca="1">F9+1</f>
-        <v>43766</v>
+        <v>43769</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ref="F10:F11" ca="1" si="6">E10+G10</f>
-        <v>43771</v>
+        <v>43774</v>
       </c>
       <c r="G10" s="16">
         <v>5</v>
@@ -3148,7 +3147,7 @@
       <c r="BK10" s="51"/>
       <c r="BL10" s="51"/>
     </row>
-    <row r="11" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
       <c r="B11" s="82" t="s">
         <v>44</v>
@@ -3159,11 +3158,11 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" ref="E11" ca="1" si="7">F10+1</f>
-        <v>43772</v>
+        <v>43775</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>43787</v>
+        <v>43790</v>
       </c>
       <c r="G11" s="16">
         <v>15</v>
@@ -3229,7 +3228,7 @@
       <c r="BK11" s="51"/>
       <c r="BL11" s="51"/>
     </row>
-    <row r="12" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="42" t="s">
         <v>10</v>
       </c>
@@ -3302,7 +3301,7 @@
       <c r="BK12" s="51"/>
       <c r="BL12" s="51"/>
     </row>
-    <row r="13" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="42"/>
       <c r="B13" s="83" t="s">
         <v>60</v>
@@ -3313,11 +3312,11 @@
       </c>
       <c r="E13" s="2">
         <f ca="1">Project_Start</f>
-        <v>43760</v>
+        <v>43763</v>
       </c>
       <c r="F13" s="1">
         <f ca="1">E13+G13</f>
-        <v>43765</v>
+        <v>43768</v>
       </c>
       <c r="G13" s="16">
         <v>5</v>
@@ -3383,7 +3382,7 @@
       <c r="BK13" s="51"/>
       <c r="BL13" s="51"/>
     </row>
-    <row r="14" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="45"/>
       <c r="B14" s="83" t="s">
         <v>61</v>
@@ -3394,11 +3393,11 @@
       </c>
       <c r="E14" s="2">
         <f ca="1">F13+1</f>
-        <v>43766</v>
+        <v>43769</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" ref="F14:F19" ca="1" si="8">E14+G14</f>
-        <v>43771</v>
+        <v>43774</v>
       </c>
       <c r="G14" s="16">
         <v>5</v>
@@ -3464,22 +3463,22 @@
       <c r="BK14" s="51"/>
       <c r="BL14" s="51"/>
     </row>
-    <row r="15" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="45"/>
       <c r="B15" s="83" t="s">
         <v>62</v>
       </c>
       <c r="C15" s="57"/>
       <c r="D15" s="20">
-        <v>0.5</v>
+        <v>0.9</v>
       </c>
       <c r="E15" s="2">
         <f t="shared" ref="E15:E19" ca="1" si="9">F14+1</f>
-        <v>43772</v>
+        <v>43775</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43777</v>
+        <v>43780</v>
       </c>
       <c r="G15" s="16">
         <v>5</v>
@@ -3545,7 +3544,7 @@
       <c r="BK15" s="51"/>
       <c r="BL15" s="51"/>
     </row>
-    <row r="16" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="45"/>
       <c r="B16" s="83" t="s">
         <v>63</v>
@@ -3556,11 +3555,11 @@
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43778</v>
+        <v>43781</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43783</v>
+        <v>43786</v>
       </c>
       <c r="G16" s="16">
         <v>5</v>
@@ -3626,7 +3625,7 @@
       <c r="BK16" s="51"/>
       <c r="BL16" s="51"/>
     </row>
-    <row r="17" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45"/>
       <c r="B17" s="83" t="s">
         <v>64</v>
@@ -3637,11 +3636,11 @@
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43784</v>
+        <v>43787</v>
       </c>
       <c r="F17" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43789</v>
+        <v>43792</v>
       </c>
       <c r="G17" s="16">
         <v>5</v>
@@ -3707,20 +3706,22 @@
       <c r="BK17" s="51"/>
       <c r="BL17" s="51"/>
     </row>
-    <row r="18" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="45"/>
       <c r="B18" s="83" t="s">
         <v>65</v>
       </c>
       <c r="C18" s="57"/>
-      <c r="D18" s="20"/>
+      <c r="D18" s="20">
+        <v>1</v>
+      </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43790</v>
+        <v>43793</v>
       </c>
       <c r="F18" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43795</v>
+        <v>43798</v>
       </c>
       <c r="G18" s="16">
         <v>5</v>
@@ -3786,20 +3787,22 @@
       <c r="BK18" s="51"/>
       <c r="BL18" s="51"/>
     </row>
-    <row r="19" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="45"/>
       <c r="B19" s="83" t="s">
         <v>66</v>
       </c>
       <c r="C19" s="57"/>
-      <c r="D19" s="20"/>
+      <c r="D19" s="20">
+        <v>1</v>
+      </c>
       <c r="E19" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43796</v>
+        <v>43799</v>
       </c>
       <c r="F19" s="1">
         <f t="shared" ca="1" si="8"/>
-        <v>43801</v>
+        <v>43804</v>
       </c>
       <c r="G19" s="16">
         <v>5</v>
@@ -3865,7 +3868,7 @@
       <c r="BK19" s="51"/>
       <c r="BL19" s="51"/>
     </row>
-    <row r="20" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="45" t="s">
         <v>11</v>
       </c>
@@ -3938,7 +3941,7 @@
       <c r="BK20" s="51"/>
       <c r="BL20" s="51"/>
     </row>
-    <row r="21" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="45"/>
       <c r="B21" s="84" t="s">
         <v>47</v>
@@ -3949,11 +3952,11 @@
       </c>
       <c r="E21" s="3">
         <f ca="1">Project_Start</f>
-        <v>43760</v>
+        <v>43763</v>
       </c>
       <c r="F21" s="1">
         <f ca="1">E21+G21</f>
-        <v>43764</v>
+        <v>43767</v>
       </c>
       <c r="G21" s="16">
         <v>4</v>
@@ -4016,7 +4019,7 @@
       <c r="BK21" s="51"/>
       <c r="BL21" s="51"/>
     </row>
-    <row r="22" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="45"/>
       <c r="B22" s="84" t="s">
         <v>48</v>
@@ -4025,11 +4028,11 @@
       <c r="D22" s="23"/>
       <c r="E22" s="3">
         <f ca="1">F21+1</f>
-        <v>43765</v>
+        <v>43768</v>
       </c>
       <c r="F22" s="1">
         <f t="shared" ref="F22:F34" ca="1" si="10">E22+G22</f>
-        <v>43770</v>
+        <v>43773</v>
       </c>
       <c r="G22" s="16">
         <v>5</v>
@@ -4092,7 +4095,7 @@
       <c r="BK22" s="51"/>
       <c r="BL22" s="51"/>
     </row>
-    <row r="23" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45"/>
       <c r="B23" s="84" t="s">
         <v>49</v>
@@ -4101,11 +4104,11 @@
       <c r="D23" s="23"/>
       <c r="E23" s="3">
         <f t="shared" ref="E23:E25" ca="1" si="11">F22+1</f>
-        <v>43771</v>
+        <v>43774</v>
       </c>
       <c r="F23" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>43776</v>
+        <v>43779</v>
       </c>
       <c r="G23" s="16">
         <v>5</v>
@@ -4168,7 +4171,7 @@
       <c r="BK23" s="51"/>
       <c r="BL23" s="51"/>
     </row>
-    <row r="24" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
       <c r="B24" s="84" t="s">
         <v>50</v>
@@ -4177,11 +4180,11 @@
       <c r="D24" s="23"/>
       <c r="E24" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>43777</v>
+        <v>43780</v>
       </c>
       <c r="F24" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>43782</v>
+        <v>43785</v>
       </c>
       <c r="G24" s="16">
         <v>5</v>
@@ -4244,7 +4247,7 @@
       <c r="BK24" s="51"/>
       <c r="BL24" s="51"/>
     </row>
-    <row r="25" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45"/>
       <c r="B25" s="84" t="s">
         <v>51</v>
@@ -4253,11 +4256,11 @@
       <c r="D25" s="23"/>
       <c r="E25" s="3">
         <f t="shared" ca="1" si="11"/>
-        <v>43783</v>
+        <v>43786</v>
       </c>
       <c r="F25" s="1">
         <f t="shared" ca="1" si="10"/>
-        <v>43788</v>
+        <v>43791</v>
       </c>
       <c r="G25" s="16">
         <v>5</v>
@@ -4320,7 +4323,7 @@
       <c r="BK25" s="51"/>
       <c r="BL25" s="51"/>
     </row>
-    <row r="26" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="45" t="s">
         <v>11</v>
       </c>
@@ -4393,7 +4396,7 @@
       <c r="BK26" s="51"/>
       <c r="BL26" s="51"/>
     </row>
-    <row r="27" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45"/>
       <c r="B27" s="85" t="s">
         <v>52</v>
@@ -4471,7 +4474,7 @@
       <c r="BK27" s="51"/>
       <c r="BL27" s="51"/>
     </row>
-    <row r="28" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="45"/>
       <c r="B28" s="85" t="s">
         <v>53</v>
@@ -4550,7 +4553,7 @@
       <c r="BK28" s="51"/>
       <c r="BL28" s="51"/>
     </row>
-    <row r="29" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45"/>
       <c r="B29" s="85" t="s">
         <v>54</v>
@@ -4629,7 +4632,7 @@
       <c r="BK29" s="51"/>
       <c r="BL29" s="51"/>
     </row>
-    <row r="30" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45"/>
       <c r="B30" s="85" t="s">
         <v>55</v>
@@ -4708,7 +4711,7 @@
       <c r="BK30" s="51"/>
       <c r="BL30" s="51"/>
     </row>
-    <row r="31" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="45"/>
       <c r="B31" s="85" t="s">
         <v>56</v>
@@ -4787,7 +4790,7 @@
       <c r="BK31" s="51"/>
       <c r="BL31" s="51"/>
     </row>
-    <row r="32" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45"/>
       <c r="B32" s="85" t="s">
         <v>57</v>
@@ -4866,7 +4869,7 @@
       <c r="BK32" s="51"/>
       <c r="BL32" s="51"/>
     </row>
-    <row r="33" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="B33" s="85" t="s">
         <v>58</v>
@@ -4945,7 +4948,7 @@
       <c r="BK33" s="51"/>
       <c r="BL33" s="51"/>
     </row>
-    <row r="34" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="45"/>
       <c r="B34" s="85" t="s">
         <v>59</v>
@@ -5024,7 +5027,7 @@
       <c r="BK34" s="51"/>
       <c r="BL34" s="51"/>
     </row>
-    <row r="35" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="45" t="s">
         <v>12</v>
       </c>
@@ -5095,7 +5098,7 @@
       <c r="BK35" s="51"/>
       <c r="BL35" s="51"/>
     </row>
-    <row r="36" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="42" t="s">
         <v>13</v>
       </c>
@@ -5168,18 +5171,23 @@
       <c r="BK36" s="65"/>
       <c r="BL36" s="65"/>
     </row>
-    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G37" s="66"/>
     </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C38" s="9"/>
       <c r="F38" s="34"/>
     </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C39" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -5187,11 +5195,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D19:D30 D7:D16 D34:D36">
@@ -5357,7 +5360,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations disablePrompts="1" count="1">
-    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="显示周数" prompt="更改此数字将滚动甘特图视图。" sqref="E4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="显示周数" prompt="更改此数字将滚动甘特图视图。" sqref="E4">
       <formula1>1</formula1>
     </dataValidation>
   </dataValidations>
@@ -5467,7 +5470,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -5475,86 +5478,86 @@
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="15" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="87.1796875" style="36" customWidth="1"/>
-    <col min="2" max="16384" width="9.1796875" style="6"/>
+    <col min="1" max="1" width="87.21875" style="36" customWidth="1"/>
+    <col min="2" max="16384" width="9.21875" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="1:2" s="67" customFormat="1" ht="17.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="46.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="2" spans="1:2" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="37" t="s">
         <v>24</v>
       </c>
       <c r="B2" s="37"/>
     </row>
-    <row r="3" spans="1:2" s="68" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:2" s="68" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="38" t="s">
         <v>25</v>
       </c>
       <c r="B3" s="38"/>
     </row>
-    <row r="4" spans="1:2" s="40" customFormat="1" ht="27.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" s="40" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A4" s="39" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:2" ht="74.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="41" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:2" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="39" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" s="36" customFormat="1" ht="204.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:2" s="36" customFormat="1" ht="204.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="69" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:2" s="40" customFormat="1" ht="27.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" s="40" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A8" s="39" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="31.2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="41" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="36" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:2" s="36" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="70" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" s="40" customFormat="1" ht="27.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" s="40" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A11" s="39" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.6" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="15" x14ac:dyDescent="0.25">
       <c r="A12" s="41" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="36" customFormat="1" ht="27.9" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" s="36" customFormat="1" ht="27.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="70" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="40" customFormat="1" ht="27.6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" s="40" customFormat="1" ht="27.75" x14ac:dyDescent="0.45">
       <c r="A14" s="39" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:2" ht="75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="41" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="16" spans="1:2" ht="46.8" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>38</v>
       </c>
@@ -5562,10 +5565,10 @@
   </sheetData>
   <phoneticPr fontId="23" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="A13" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
-    <hyperlink ref="A10" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
-    <hyperlink ref="A3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
-    <hyperlink ref="A2" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="A13" r:id="rId1"/>
+    <hyperlink ref="A10" r:id="rId2"/>
+    <hyperlink ref="A3" r:id="rId3"/>
+    <hyperlink ref="A2" r:id="rId4"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.35" right="0.35" top="0.35" bottom="0.5" header="0.3" footer="0.3"/>

--- a/2019schedule.xlsx
+++ b/2019schedule.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <t>在此工作表中创建项目日程安排。
 在单元格 B1 中输入此项目的标题。
@@ -350,6 +350,81 @@
   <si>
     <t>2019 日程表</t>
     <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段 1 架构师</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>Java进阶面试第1季</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>01.Java语言基础</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>02.JavaWeb</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>03.MyBatis</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>04.Spring</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>05.SpringMVC</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>06.Oracle</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>07.Maven</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>25_尚硅谷_数仓采集_生成测试日志</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>26_尚硅谷_数仓采集_集群日志生成启动脚本</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>27_尚硅谷_数仓采集_集群时间同步修改脚本</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>28_尚硅谷_数仓采集_集群所有进程查看脚本</t>
+  </si>
+  <si>
+    <t>29_尚硅谷_数仓采集_每日回顾</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>30_尚硅谷_数仓采集_日志采集Flume安装</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>31_尚硅谷_数仓采集_Flume组件及配置</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>32_尚硅谷_数仓采集_日志采集Flume配置分析</t>
+  </si>
+  <si>
+    <t>33_尚硅谷_数仓采集_ETL拦截器</t>
+  </si>
+  <si>
+    <t>34_尚硅谷_数仓采集_分类型拦截器</t>
+  </si>
+  <si>
+    <t>35_尚硅谷_数仓采集_日志采集Flume启动停止脚本</t>
   </si>
 </sst>
 </file>
@@ -617,7 +692,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="45">
+  <fills count="47">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -869,6 +944,18 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -1157,7 +1244,7 @@
     <xf numFmtId="0" fontId="1" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="180" fontId="1" fillId="3" borderId="2" xfId="10" applyFill="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1419,6 +1506,33 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="180" fontId="1" fillId="46" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="45" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="46" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="26" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - 着色 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1476,7 +1590,157 @@
     <cellStyle name="着色 6" xfId="50" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="27" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="29">
+  <dxfs count="44">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1775,19 +2039,19 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="28"/>
-      <tableStyleElement type="headerRow" dxfId="27"/>
+      <tableStyleElement type="wholeTable" dxfId="43"/>
+      <tableStyleElement type="headerRow" dxfId="42"/>
     </tableStyle>
     <tableStyle name="待办事项列表" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="26"/>
-      <tableStyleElement type="headerRow" dxfId="25"/>
-      <tableStyleElement type="totalRow" dxfId="24"/>
-      <tableStyleElement type="firstColumn" dxfId="23"/>
-      <tableStyleElement type="lastColumn" dxfId="22"/>
-      <tableStyleElement type="firstRowStripe" dxfId="21"/>
-      <tableStyleElement type="secondRowStripe" dxfId="20"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="19"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="18"/>
+      <tableStyleElement type="wholeTable" dxfId="41"/>
+      <tableStyleElement type="headerRow" dxfId="40"/>
+      <tableStyleElement type="totalRow" dxfId="39"/>
+      <tableStyleElement type="firstColumn" dxfId="38"/>
+      <tableStyleElement type="lastColumn" dxfId="37"/>
+      <tableStyleElement type="firstRowStripe" dxfId="36"/>
+      <tableStyleElement type="secondRowStripe" dxfId="35"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="34"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="33"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2202,11 +2466,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL39"/>
+  <dimension ref="A1:BL59"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2258,7 +2522,7 @@
       <c r="D3" s="91"/>
       <c r="E3" s="89">
         <f ca="1">TODAY()+1</f>
-        <v>43763</v>
+        <v>43764</v>
       </c>
       <c r="F3" s="89"/>
     </row>
@@ -2919,7 +3183,7 @@
       <c r="F8" s="75"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16" t="str">
-        <f t="shared" ref="H8:H36" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H56" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="51"/>
@@ -2994,11 +3258,11 @@
       </c>
       <c r="E9" s="1">
         <f ca="1">Project_Start</f>
-        <v>43763</v>
+        <v>43764</v>
       </c>
       <c r="F9" s="1">
         <f ca="1">E9+G9</f>
-        <v>43768</v>
+        <v>43769</v>
       </c>
       <c r="G9" s="16">
         <v>5</v>
@@ -3077,11 +3341,11 @@
       </c>
       <c r="E10" s="1">
         <f ca="1">F9+1</f>
-        <v>43769</v>
+        <v>43770</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ref="F10:F11" ca="1" si="6">E10+G10</f>
-        <v>43774</v>
+        <v>43775</v>
       </c>
       <c r="G10" s="16">
         <v>5</v>
@@ -3158,11 +3422,11 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" ref="E11" ca="1" si="7">F10+1</f>
-        <v>43775</v>
+        <v>43776</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>43790</v>
+        <v>43791</v>
       </c>
       <c r="G11" s="16">
         <v>15</v>
@@ -3312,11 +3576,11 @@
       </c>
       <c r="E13" s="2">
         <f ca="1">Project_Start</f>
-        <v>43763</v>
-      </c>
-      <c r="F13" s="1">
+        <v>43764</v>
+      </c>
+      <c r="F13" s="2">
         <f ca="1">E13+G13</f>
-        <v>43768</v>
+        <v>43769</v>
       </c>
       <c r="G13" s="16">
         <v>5</v>
@@ -3393,11 +3657,11 @@
       </c>
       <c r="E14" s="2">
         <f ca="1">F13+1</f>
-        <v>43769</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" ref="F14:F19" ca="1" si="8">E14+G14</f>
-        <v>43774</v>
+        <v>43770</v>
+      </c>
+      <c r="F14" s="2">
+        <f t="shared" ref="F14:F18" ca="1" si="8">E14+G14</f>
+        <v>43775</v>
       </c>
       <c r="G14" s="16">
         <v>5</v>
@@ -3470,15 +3734,15 @@
       </c>
       <c r="C15" s="57"/>
       <c r="D15" s="20">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" ref="E15:E19" ca="1" si="9">F14+1</f>
-        <v>43775</v>
-      </c>
-      <c r="F15" s="1">
+        <f t="shared" ref="E15:E18" ca="1" si="9">F14+1</f>
+        <v>43776</v>
+      </c>
+      <c r="F15" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43780</v>
+        <v>43781</v>
       </c>
       <c r="G15" s="16">
         <v>5</v>
@@ -3555,11 +3819,11 @@
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43781</v>
-      </c>
-      <c r="F16" s="1">
+        <v>43782</v>
+      </c>
+      <c r="F16" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43786</v>
+        <v>43787</v>
       </c>
       <c r="G16" s="16">
         <v>5</v>
@@ -3636,11 +3900,11 @@
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43787</v>
-      </c>
-      <c r="F17" s="1">
+        <v>43788</v>
+      </c>
+      <c r="F17" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43792</v>
+        <v>43793</v>
       </c>
       <c r="G17" s="16">
         <v>5</v>
@@ -3717,11 +3981,11 @@
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43793</v>
-      </c>
-      <c r="F18" s="1">
+        <v>43794</v>
+      </c>
+      <c r="F18" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43798</v>
+        <v>43799</v>
       </c>
       <c r="G18" s="16">
         <v>5</v>
@@ -3797,12 +4061,12 @@
         <v>1</v>
       </c>
       <c r="E19" s="2">
-        <f t="shared" ca="1" si="9"/>
+        <f ca="1">F17+1</f>
+        <v>43794</v>
+      </c>
+      <c r="F19" s="2">
+        <f t="shared" ref="F19:F30" ca="1" si="10">E19+G19</f>
         <v>43799</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" ca="1" si="8"/>
-        <v>43804</v>
       </c>
       <c r="G19" s="16">
         <v>5</v>
@@ -3869,21 +4133,24 @@
       <c r="BL19" s="51"/>
     </row>
     <row r="20" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B20" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="78"/>
-      <c r="F20" s="79"/>
-      <c r="G20" s="16"/>
-      <c r="H20" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="A20" s="45"/>
+      <c r="B20" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="C20" s="57"/>
+      <c r="D20" s="20"/>
+      <c r="E20" s="2">
+        <f t="shared" ref="E20:E30" ca="1" si="11">F18+1</f>
+        <v>43800</v>
+      </c>
+      <c r="F20" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>43801</v>
+      </c>
+      <c r="G20" s="16">
+        <v>1</v>
+      </c>
+      <c r="H20" s="16"/>
       <c r="I20" s="51"/>
       <c r="J20" s="51"/>
       <c r="K20" s="51"/>
@@ -3943,23 +4210,21 @@
     </row>
     <row r="21" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="45"/>
-      <c r="B21" s="84" t="s">
-        <v>47</v>
-      </c>
-      <c r="C21" s="59"/>
-      <c r="D21" s="23">
-        <v>0.02</v>
-      </c>
-      <c r="E21" s="3">
-        <f ca="1">Project_Start</f>
-        <v>43763</v>
-      </c>
-      <c r="F21" s="1">
-        <f ca="1">E21+G21</f>
-        <v>43767</v>
+      <c r="B21" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="C21" s="57"/>
+      <c r="D21" s="20"/>
+      <c r="E21" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>43800</v>
+      </c>
+      <c r="F21" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>43801</v>
       </c>
       <c r="G21" s="16">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H21" s="16"/>
       <c r="I21" s="51"/>
@@ -4021,21 +4286,21 @@
     </row>
     <row r="22" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="45"/>
-      <c r="B22" s="84" t="s">
-        <v>48</v>
-      </c>
-      <c r="C22" s="59"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="3">
-        <f ca="1">F21+1</f>
-        <v>43768</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" ref="F22:F34" ca="1" si="10">E22+G22</f>
-        <v>43773</v>
+      <c r="B22" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="C22" s="57"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>43802</v>
+      </c>
+      <c r="F22" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>43803</v>
       </c>
       <c r="G22" s="16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H22" s="16"/>
       <c r="I22" s="51"/>
@@ -4097,21 +4362,21 @@
     </row>
     <row r="23" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45"/>
-      <c r="B23" s="84" t="s">
-        <v>49</v>
-      </c>
-      <c r="C23" s="59"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="3">
-        <f t="shared" ref="E23:E25" ca="1" si="11">F22+1</f>
-        <v>43774</v>
-      </c>
-      <c r="F23" s="1">
+      <c r="B23" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="C23" s="57"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>43802</v>
+      </c>
+      <c r="F23" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43779</v>
+        <v>43803</v>
       </c>
       <c r="G23" s="16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H23" s="16"/>
       <c r="I23" s="51"/>
@@ -4173,21 +4438,21 @@
     </row>
     <row r="24" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
-      <c r="B24" s="84" t="s">
-        <v>50</v>
-      </c>
-      <c r="C24" s="59"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="3">
+      <c r="B24" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C24" s="57"/>
+      <c r="D24" s="20"/>
+      <c r="E24" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43780</v>
-      </c>
-      <c r="F24" s="1">
+        <v>43804</v>
+      </c>
+      <c r="F24" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43785</v>
+        <v>43805</v>
       </c>
       <c r="G24" s="16">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H24" s="16"/>
       <c r="I24" s="51"/>
@@ -4249,21 +4514,21 @@
     </row>
     <row r="25" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45"/>
-      <c r="B25" s="84" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="59"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="3">
+      <c r="B25" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="57"/>
+      <c r="D25" s="20"/>
+      <c r="E25" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43786</v>
-      </c>
-      <c r="F25" s="1">
+        <v>43804</v>
+      </c>
+      <c r="F25" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43791</v>
+        <v>43807</v>
       </c>
       <c r="G25" s="16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="H25" s="16"/>
       <c r="I25" s="51"/>
@@ -4324,21 +4589,24 @@
       <c r="BL25" s="51"/>
     </row>
     <row r="26" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="45" t="s">
-        <v>11</v>
-      </c>
-      <c r="B26" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" s="60"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="80"/>
-      <c r="F26" s="81"/>
-      <c r="G26" s="16"/>
-      <c r="H26" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="A26" s="45"/>
+      <c r="B26" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="57"/>
+      <c r="D26" s="20"/>
+      <c r="E26" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>43806</v>
+      </c>
+      <c r="F26" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>43808</v>
+      </c>
+      <c r="G26" s="16">
+        <v>2</v>
+      </c>
+      <c r="H26" s="16"/>
       <c r="I26" s="51"/>
       <c r="J26" s="51"/>
       <c r="K26" s="51"/>
@@ -4398,25 +4666,23 @@
     </row>
     <row r="27" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45"/>
-      <c r="B27" s="85" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="61"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="4">
-        <v>43756</v>
-      </c>
-      <c r="F27" s="1">
-        <f t="shared" si="10"/>
-        <v>43766</v>
+      <c r="B27" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="57"/>
+      <c r="D27" s="20"/>
+      <c r="E27" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>43808</v>
+      </c>
+      <c r="F27" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>43810</v>
       </c>
       <c r="G27" s="16">
-        <v>10</v>
-      </c>
-      <c r="H27" s="16">
-        <f t="shared" si="5"/>
-        <v>11</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H27" s="16"/>
       <c r="I27" s="51"/>
       <c r="J27" s="51"/>
       <c r="K27" s="51"/>
@@ -4476,26 +4742,23 @@
     </row>
     <row r="28" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="45"/>
-      <c r="B28" s="85" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="61"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="4">
-        <f>F27+1</f>
-        <v>43767</v>
-      </c>
-      <c r="F28" s="1">
-        <f t="shared" si="10"/>
-        <v>43772</v>
+      <c r="B28" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C28" s="57"/>
+      <c r="D28" s="20"/>
+      <c r="E28" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>43809</v>
+      </c>
+      <c r="F28" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>43811</v>
       </c>
       <c r="G28" s="16">
-        <v>5</v>
-      </c>
-      <c r="H28" s="16">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H28" s="16"/>
       <c r="I28" s="51"/>
       <c r="J28" s="51"/>
       <c r="K28" s="51"/>
@@ -4555,26 +4818,23 @@
     </row>
     <row r="29" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45"/>
-      <c r="B29" s="85" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="61"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="4">
-        <f t="shared" ref="E29:E34" si="12">F28+1</f>
-        <v>43773</v>
-      </c>
-      <c r="F29" s="1">
-        <f t="shared" si="10"/>
-        <v>43778</v>
+      <c r="B29" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C29" s="57"/>
+      <c r="D29" s="20"/>
+      <c r="E29" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>43811</v>
+      </c>
+      <c r="F29" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>43813</v>
       </c>
       <c r="G29" s="16">
-        <v>5</v>
-      </c>
-      <c r="H29" s="16">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H29" s="16"/>
       <c r="I29" s="51"/>
       <c r="J29" s="51"/>
       <c r="K29" s="51"/>
@@ -4634,26 +4894,23 @@
     </row>
     <row r="30" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45"/>
-      <c r="B30" s="85" t="s">
-        <v>55</v>
-      </c>
-      <c r="C30" s="61"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="4">
-        <f t="shared" si="12"/>
-        <v>43779</v>
-      </c>
-      <c r="F30" s="1">
-        <f t="shared" si="10"/>
-        <v>43784</v>
+      <c r="B30" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C30" s="57"/>
+      <c r="D30" s="20"/>
+      <c r="E30" s="2">
+        <f t="shared" ca="1" si="11"/>
+        <v>43812</v>
+      </c>
+      <c r="F30" s="2">
+        <f t="shared" ca="1" si="10"/>
+        <v>43814</v>
       </c>
       <c r="G30" s="16">
-        <v>5</v>
-      </c>
-      <c r="H30" s="16">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="H30" s="16"/>
       <c r="I30" s="51"/>
       <c r="J30" s="51"/>
       <c r="K30" s="51"/>
@@ -4712,26 +4969,20 @@
       <c r="BL30" s="51"/>
     </row>
     <row r="31" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="45"/>
-      <c r="B31" s="85" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="61"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="4">
-        <f t="shared" si="12"/>
-        <v>43785</v>
-      </c>
-      <c r="F31" s="1">
-        <f t="shared" ref="F31:F33" si="13">E31+G31</f>
-        <v>43790</v>
-      </c>
-      <c r="G31" s="16">
-        <v>5</v>
-      </c>
-      <c r="H31" s="16">
+      <c r="A31" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B31" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="C31" s="58"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="78"/>
+      <c r="F31" s="79"/>
+      <c r="G31" s="16"/>
+      <c r="H31" s="16" t="str">
         <f t="shared" si="5"/>
-        <v>6</v>
+        <v/>
       </c>
       <c r="I31" s="51"/>
       <c r="J31" s="51"/>
@@ -4792,26 +5043,25 @@
     </row>
     <row r="32" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45"/>
-      <c r="B32" s="85" t="s">
-        <v>57</v>
-      </c>
-      <c r="C32" s="61"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="4">
-        <f t="shared" si="12"/>
-        <v>43791</v>
-      </c>
-      <c r="F32" s="1">
-        <f t="shared" si="13"/>
-        <v>43796</v>
+      <c r="B32" s="84" t="s">
+        <v>47</v>
+      </c>
+      <c r="C32" s="59"/>
+      <c r="D32" s="23">
+        <v>0.02</v>
+      </c>
+      <c r="E32" s="3">
+        <f ca="1">Project_Start</f>
+        <v>43764</v>
+      </c>
+      <c r="F32" s="3">
+        <f ca="1">E32+G32</f>
+        <v>43768</v>
       </c>
       <c r="G32" s="16">
-        <v>5</v>
-      </c>
-      <c r="H32" s="16">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="H32" s="16"/>
       <c r="I32" s="51"/>
       <c r="J32" s="51"/>
       <c r="K32" s="51"/>
@@ -4871,26 +5121,23 @@
     </row>
     <row r="33" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
-      <c r="B33" s="85" t="s">
-        <v>58</v>
-      </c>
-      <c r="C33" s="61"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="4">
-        <f t="shared" si="12"/>
-        <v>43797</v>
-      </c>
-      <c r="F33" s="1">
-        <f t="shared" si="13"/>
-        <v>43802</v>
+      <c r="B33" s="84" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="59"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="3">
+        <f ca="1">F32+1</f>
+        <v>43769</v>
+      </c>
+      <c r="F33" s="3">
+        <f t="shared" ref="F33:F45" ca="1" si="12">E33+G33</f>
+        <v>43774</v>
       </c>
       <c r="G33" s="16">
         <v>5</v>
       </c>
-      <c r="H33" s="16">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
+      <c r="H33" s="16"/>
       <c r="I33" s="51"/>
       <c r="J33" s="51"/>
       <c r="K33" s="51"/>
@@ -4950,26 +5197,23 @@
     </row>
     <row r="34" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="45"/>
-      <c r="B34" s="85" t="s">
-        <v>59</v>
-      </c>
-      <c r="C34" s="61"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="4">
-        <f t="shared" si="12"/>
-        <v>43803</v>
-      </c>
-      <c r="F34" s="1">
-        <f t="shared" si="10"/>
-        <v>43808</v>
+      <c r="B34" s="84" t="s">
+        <v>49</v>
+      </c>
+      <c r="C34" s="59"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="3">
+        <f t="shared" ref="E34:E36" ca="1" si="13">F33+1</f>
+        <v>43775</v>
+      </c>
+      <c r="F34" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>43780</v>
       </c>
       <c r="G34" s="16">
         <v>5</v>
       </c>
-      <c r="H34" s="16">
-        <f t="shared" si="5"/>
-        <v>6</v>
-      </c>
+      <c r="H34" s="16"/>
       <c r="I34" s="51"/>
       <c r="J34" s="51"/>
       <c r="K34" s="51"/>
@@ -5028,19 +5272,24 @@
       <c r="BL34" s="51"/>
     </row>
     <row r="35" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" s="62"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="27"/>
-      <c r="E35" s="64"/>
-      <c r="F35" s="64"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16" t="str">
-        <f t="shared" si="5"/>
-        <v/>
-      </c>
+      <c r="A35" s="45"/>
+      <c r="B35" s="84" t="s">
+        <v>50</v>
+      </c>
+      <c r="C35" s="59"/>
+      <c r="D35" s="23"/>
+      <c r="E35" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>43781</v>
+      </c>
+      <c r="F35" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>43786</v>
+      </c>
+      <c r="G35" s="16">
+        <v>5</v>
+      </c>
+      <c r="H35" s="16"/>
       <c r="I35" s="51"/>
       <c r="J35" s="51"/>
       <c r="K35" s="51"/>
@@ -5099,87 +5348,1642 @@
       <c r="BL35" s="51"/>
     </row>
     <row r="36" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C36" s="29"/>
-      <c r="D36" s="30"/>
-      <c r="E36" s="31"/>
-      <c r="F36" s="32"/>
-      <c r="G36" s="33"/>
-      <c r="H36" s="33" t="str">
+      <c r="A36" s="45"/>
+      <c r="B36" s="84" t="s">
+        <v>51</v>
+      </c>
+      <c r="C36" s="59"/>
+      <c r="D36" s="23"/>
+      <c r="E36" s="3">
+        <f t="shared" ca="1" si="13"/>
+        <v>43787</v>
+      </c>
+      <c r="F36" s="3">
+        <f t="shared" ca="1" si="12"/>
+        <v>43792</v>
+      </c>
+      <c r="G36" s="16">
+        <v>5</v>
+      </c>
+      <c r="H36" s="16"/>
+      <c r="I36" s="51"/>
+      <c r="J36" s="51"/>
+      <c r="K36" s="51"/>
+      <c r="L36" s="51"/>
+      <c r="M36" s="51"/>
+      <c r="N36" s="51"/>
+      <c r="O36" s="51"/>
+      <c r="P36" s="51"/>
+      <c r="Q36" s="51"/>
+      <c r="R36" s="51"/>
+      <c r="S36" s="51"/>
+      <c r="T36" s="51"/>
+      <c r="U36" s="51"/>
+      <c r="V36" s="51"/>
+      <c r="W36" s="51"/>
+      <c r="X36" s="51"/>
+      <c r="Y36" s="51"/>
+      <c r="Z36" s="51"/>
+      <c r="AA36" s="51"/>
+      <c r="AB36" s="51"/>
+      <c r="AC36" s="51"/>
+      <c r="AD36" s="51"/>
+      <c r="AE36" s="51"/>
+      <c r="AF36" s="51"/>
+      <c r="AG36" s="51"/>
+      <c r="AH36" s="51"/>
+      <c r="AI36" s="51"/>
+      <c r="AJ36" s="51"/>
+      <c r="AK36" s="51"/>
+      <c r="AL36" s="51"/>
+      <c r="AM36" s="51"/>
+      <c r="AN36" s="51"/>
+      <c r="AO36" s="51"/>
+      <c r="AP36" s="51"/>
+      <c r="AQ36" s="51"/>
+      <c r="AR36" s="51"/>
+      <c r="AS36" s="51"/>
+      <c r="AT36" s="51"/>
+      <c r="AU36" s="51"/>
+      <c r="AV36" s="51"/>
+      <c r="AW36" s="51"/>
+      <c r="AX36" s="51"/>
+      <c r="AY36" s="51"/>
+      <c r="AZ36" s="51"/>
+      <c r="BA36" s="51"/>
+      <c r="BB36" s="51"/>
+      <c r="BC36" s="51"/>
+      <c r="BD36" s="51"/>
+      <c r="BE36" s="51"/>
+      <c r="BF36" s="51"/>
+      <c r="BG36" s="51"/>
+      <c r="BH36" s="51"/>
+      <c r="BI36" s="51"/>
+      <c r="BJ36" s="51"/>
+      <c r="BK36" s="51"/>
+      <c r="BL36" s="51"/>
+    </row>
+    <row r="37" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B37" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="C37" s="60"/>
+      <c r="D37" s="25"/>
+      <c r="E37" s="80"/>
+      <c r="F37" s="81"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I36" s="65"/>
-      <c r="J36" s="65"/>
-      <c r="K36" s="65"/>
-      <c r="L36" s="65"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="65"/>
-      <c r="P36" s="65"/>
-      <c r="Q36" s="65"/>
-      <c r="R36" s="65"/>
-      <c r="S36" s="65"/>
-      <c r="T36" s="65"/>
-      <c r="U36" s="65"/>
-      <c r="V36" s="65"/>
-      <c r="W36" s="65"/>
-      <c r="X36" s="65"/>
-      <c r="Y36" s="65"/>
-      <c r="Z36" s="65"/>
-      <c r="AA36" s="65"/>
-      <c r="AB36" s="65"/>
-      <c r="AC36" s="65"/>
-      <c r="AD36" s="65"/>
-      <c r="AE36" s="65"/>
-      <c r="AF36" s="65"/>
-      <c r="AG36" s="65"/>
-      <c r="AH36" s="65"/>
-      <c r="AI36" s="65"/>
-      <c r="AJ36" s="65"/>
-      <c r="AK36" s="65"/>
-      <c r="AL36" s="65"/>
-      <c r="AM36" s="65"/>
-      <c r="AN36" s="65"/>
-      <c r="AO36" s="65"/>
-      <c r="AP36" s="65"/>
-      <c r="AQ36" s="65"/>
-      <c r="AR36" s="65"/>
-      <c r="AS36" s="65"/>
-      <c r="AT36" s="65"/>
-      <c r="AU36" s="65"/>
-      <c r="AV36" s="65"/>
-      <c r="AW36" s="65"/>
-      <c r="AX36" s="65"/>
-      <c r="AY36" s="65"/>
-      <c r="AZ36" s="65"/>
-      <c r="BA36" s="65"/>
-      <c r="BB36" s="65"/>
-      <c r="BC36" s="65"/>
-      <c r="BD36" s="65"/>
-      <c r="BE36" s="65"/>
-      <c r="BF36" s="65"/>
-      <c r="BG36" s="65"/>
-      <c r="BH36" s="65"/>
-      <c r="BI36" s="65"/>
-      <c r="BJ36" s="65"/>
-      <c r="BK36" s="65"/>
-      <c r="BL36" s="65"/>
+      <c r="I37" s="51"/>
+      <c r="J37" s="51"/>
+      <c r="K37" s="51"/>
+      <c r="L37" s="51"/>
+      <c r="M37" s="51"/>
+      <c r="N37" s="51"/>
+      <c r="O37" s="51"/>
+      <c r="P37" s="51"/>
+      <c r="Q37" s="51"/>
+      <c r="R37" s="51"/>
+      <c r="S37" s="51"/>
+      <c r="T37" s="51"/>
+      <c r="U37" s="51"/>
+      <c r="V37" s="51"/>
+      <c r="W37" s="51"/>
+      <c r="X37" s="51"/>
+      <c r="Y37" s="51"/>
+      <c r="Z37" s="51"/>
+      <c r="AA37" s="51"/>
+      <c r="AB37" s="51"/>
+      <c r="AC37" s="51"/>
+      <c r="AD37" s="51"/>
+      <c r="AE37" s="51"/>
+      <c r="AF37" s="51"/>
+      <c r="AG37" s="51"/>
+      <c r="AH37" s="51"/>
+      <c r="AI37" s="51"/>
+      <c r="AJ37" s="51"/>
+      <c r="AK37" s="51"/>
+      <c r="AL37" s="51"/>
+      <c r="AM37" s="51"/>
+      <c r="AN37" s="51"/>
+      <c r="AO37" s="51"/>
+      <c r="AP37" s="51"/>
+      <c r="AQ37" s="51"/>
+      <c r="AR37" s="51"/>
+      <c r="AS37" s="51"/>
+      <c r="AT37" s="51"/>
+      <c r="AU37" s="51"/>
+      <c r="AV37" s="51"/>
+      <c r="AW37" s="51"/>
+      <c r="AX37" s="51"/>
+      <c r="AY37" s="51"/>
+      <c r="AZ37" s="51"/>
+      <c r="BA37" s="51"/>
+      <c r="BB37" s="51"/>
+      <c r="BC37" s="51"/>
+      <c r="BD37" s="51"/>
+      <c r="BE37" s="51"/>
+      <c r="BF37" s="51"/>
+      <c r="BG37" s="51"/>
+      <c r="BH37" s="51"/>
+      <c r="BI37" s="51"/>
+      <c r="BJ37" s="51"/>
+      <c r="BK37" s="51"/>
+      <c r="BL37" s="51"/>
     </row>
-    <row r="37" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G37" s="66"/>
+    <row r="38" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="45"/>
+      <c r="B38" s="85" t="s">
+        <v>52</v>
+      </c>
+      <c r="C38" s="61"/>
+      <c r="D38" s="26"/>
+      <c r="E38" s="4">
+        <v>43756</v>
+      </c>
+      <c r="F38" s="1">
+        <f t="shared" si="12"/>
+        <v>43766</v>
+      </c>
+      <c r="G38" s="16">
+        <v>10</v>
+      </c>
+      <c r="H38" s="16">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="I38" s="51"/>
+      <c r="J38" s="51"/>
+      <c r="K38" s="51"/>
+      <c r="L38" s="51"/>
+      <c r="M38" s="51"/>
+      <c r="N38" s="51"/>
+      <c r="O38" s="51"/>
+      <c r="P38" s="51"/>
+      <c r="Q38" s="51"/>
+      <c r="R38" s="51"/>
+      <c r="S38" s="51"/>
+      <c r="T38" s="51"/>
+      <c r="U38" s="51"/>
+      <c r="V38" s="51"/>
+      <c r="W38" s="51"/>
+      <c r="X38" s="51"/>
+      <c r="Y38" s="51"/>
+      <c r="Z38" s="51"/>
+      <c r="AA38" s="51"/>
+      <c r="AB38" s="51"/>
+      <c r="AC38" s="51"/>
+      <c r="AD38" s="51"/>
+      <c r="AE38" s="51"/>
+      <c r="AF38" s="51"/>
+      <c r="AG38" s="51"/>
+      <c r="AH38" s="51"/>
+      <c r="AI38" s="51"/>
+      <c r="AJ38" s="51"/>
+      <c r="AK38" s="51"/>
+      <c r="AL38" s="51"/>
+      <c r="AM38" s="51"/>
+      <c r="AN38" s="51"/>
+      <c r="AO38" s="51"/>
+      <c r="AP38" s="51"/>
+      <c r="AQ38" s="51"/>
+      <c r="AR38" s="51"/>
+      <c r="AS38" s="51"/>
+      <c r="AT38" s="51"/>
+      <c r="AU38" s="51"/>
+      <c r="AV38" s="51"/>
+      <c r="AW38" s="51"/>
+      <c r="AX38" s="51"/>
+      <c r="AY38" s="51"/>
+      <c r="AZ38" s="51"/>
+      <c r="BA38" s="51"/>
+      <c r="BB38" s="51"/>
+      <c r="BC38" s="51"/>
+      <c r="BD38" s="51"/>
+      <c r="BE38" s="51"/>
+      <c r="BF38" s="51"/>
+      <c r="BG38" s="51"/>
+      <c r="BH38" s="51"/>
+      <c r="BI38" s="51"/>
+      <c r="BJ38" s="51"/>
+      <c r="BK38" s="51"/>
+      <c r="BL38" s="51"/>
     </row>
-    <row r="38" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C38" s="9"/>
-      <c r="F38" s="34"/>
+    <row r="39" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="45"/>
+      <c r="B39" s="85" t="s">
+        <v>53</v>
+      </c>
+      <c r="C39" s="61"/>
+      <c r="D39" s="26"/>
+      <c r="E39" s="4">
+        <f>F38+1</f>
+        <v>43767</v>
+      </c>
+      <c r="F39" s="1">
+        <f t="shared" si="12"/>
+        <v>43772</v>
+      </c>
+      <c r="G39" s="16">
+        <v>5</v>
+      </c>
+      <c r="H39" s="16">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I39" s="51"/>
+      <c r="J39" s="51"/>
+      <c r="K39" s="51"/>
+      <c r="L39" s="51"/>
+      <c r="M39" s="51"/>
+      <c r="N39" s="51"/>
+      <c r="O39" s="51"/>
+      <c r="P39" s="51"/>
+      <c r="Q39" s="51"/>
+      <c r="R39" s="51"/>
+      <c r="S39" s="51"/>
+      <c r="T39" s="51"/>
+      <c r="U39" s="51"/>
+      <c r="V39" s="51"/>
+      <c r="W39" s="51"/>
+      <c r="X39" s="51"/>
+      <c r="Y39" s="51"/>
+      <c r="Z39" s="51"/>
+      <c r="AA39" s="51"/>
+      <c r="AB39" s="51"/>
+      <c r="AC39" s="51"/>
+      <c r="AD39" s="51"/>
+      <c r="AE39" s="51"/>
+      <c r="AF39" s="51"/>
+      <c r="AG39" s="51"/>
+      <c r="AH39" s="51"/>
+      <c r="AI39" s="51"/>
+      <c r="AJ39" s="51"/>
+      <c r="AK39" s="51"/>
+      <c r="AL39" s="51"/>
+      <c r="AM39" s="51"/>
+      <c r="AN39" s="51"/>
+      <c r="AO39" s="51"/>
+      <c r="AP39" s="51"/>
+      <c r="AQ39" s="51"/>
+      <c r="AR39" s="51"/>
+      <c r="AS39" s="51"/>
+      <c r="AT39" s="51"/>
+      <c r="AU39" s="51"/>
+      <c r="AV39" s="51"/>
+      <c r="AW39" s="51"/>
+      <c r="AX39" s="51"/>
+      <c r="AY39" s="51"/>
+      <c r="AZ39" s="51"/>
+      <c r="BA39" s="51"/>
+      <c r="BB39" s="51"/>
+      <c r="BC39" s="51"/>
+      <c r="BD39" s="51"/>
+      <c r="BE39" s="51"/>
+      <c r="BF39" s="51"/>
+      <c r="BG39" s="51"/>
+      <c r="BH39" s="51"/>
+      <c r="BI39" s="51"/>
+      <c r="BJ39" s="51"/>
+      <c r="BK39" s="51"/>
+      <c r="BL39" s="51"/>
     </row>
-    <row r="39" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C39" s="35"/>
+    <row r="40" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="45"/>
+      <c r="B40" s="85" t="s">
+        <v>54</v>
+      </c>
+      <c r="C40" s="61"/>
+      <c r="D40" s="26"/>
+      <c r="E40" s="4">
+        <f t="shared" ref="E40:E45" si="14">F39+1</f>
+        <v>43773</v>
+      </c>
+      <c r="F40" s="1">
+        <f t="shared" si="12"/>
+        <v>43778</v>
+      </c>
+      <c r="G40" s="16">
+        <v>5</v>
+      </c>
+      <c r="H40" s="16">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I40" s="51"/>
+      <c r="J40" s="51"/>
+      <c r="K40" s="51"/>
+      <c r="L40" s="51"/>
+      <c r="M40" s="51"/>
+      <c r="N40" s="51"/>
+      <c r="O40" s="51"/>
+      <c r="P40" s="51"/>
+      <c r="Q40" s="51"/>
+      <c r="R40" s="51"/>
+      <c r="S40" s="51"/>
+      <c r="T40" s="51"/>
+      <c r="U40" s="51"/>
+      <c r="V40" s="51"/>
+      <c r="W40" s="51"/>
+      <c r="X40" s="51"/>
+      <c r="Y40" s="51"/>
+      <c r="Z40" s="51"/>
+      <c r="AA40" s="51"/>
+      <c r="AB40" s="51"/>
+      <c r="AC40" s="51"/>
+      <c r="AD40" s="51"/>
+      <c r="AE40" s="51"/>
+      <c r="AF40" s="51"/>
+      <c r="AG40" s="51"/>
+      <c r="AH40" s="51"/>
+      <c r="AI40" s="51"/>
+      <c r="AJ40" s="51"/>
+      <c r="AK40" s="51"/>
+      <c r="AL40" s="51"/>
+      <c r="AM40" s="51"/>
+      <c r="AN40" s="51"/>
+      <c r="AO40" s="51"/>
+      <c r="AP40" s="51"/>
+      <c r="AQ40" s="51"/>
+      <c r="AR40" s="51"/>
+      <c r="AS40" s="51"/>
+      <c r="AT40" s="51"/>
+      <c r="AU40" s="51"/>
+      <c r="AV40" s="51"/>
+      <c r="AW40" s="51"/>
+      <c r="AX40" s="51"/>
+      <c r="AY40" s="51"/>
+      <c r="AZ40" s="51"/>
+      <c r="BA40" s="51"/>
+      <c r="BB40" s="51"/>
+      <c r="BC40" s="51"/>
+      <c r="BD40" s="51"/>
+      <c r="BE40" s="51"/>
+      <c r="BF40" s="51"/>
+      <c r="BG40" s="51"/>
+      <c r="BH40" s="51"/>
+      <c r="BI40" s="51"/>
+      <c r="BJ40" s="51"/>
+      <c r="BK40" s="51"/>
+      <c r="BL40" s="51"/>
+    </row>
+    <row r="41" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="45"/>
+      <c r="B41" s="85" t="s">
+        <v>55</v>
+      </c>
+      <c r="C41" s="61"/>
+      <c r="D41" s="26"/>
+      <c r="E41" s="4">
+        <f t="shared" si="14"/>
+        <v>43779</v>
+      </c>
+      <c r="F41" s="1">
+        <f t="shared" si="12"/>
+        <v>43784</v>
+      </c>
+      <c r="G41" s="16">
+        <v>5</v>
+      </c>
+      <c r="H41" s="16">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I41" s="51"/>
+      <c r="J41" s="51"/>
+      <c r="K41" s="51"/>
+      <c r="L41" s="51"/>
+      <c r="M41" s="51"/>
+      <c r="N41" s="51"/>
+      <c r="O41" s="51"/>
+      <c r="P41" s="51"/>
+      <c r="Q41" s="51"/>
+      <c r="R41" s="51"/>
+      <c r="S41" s="51"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="51"/>
+      <c r="W41" s="51"/>
+      <c r="X41" s="51"/>
+      <c r="Y41" s="51"/>
+      <c r="Z41" s="51"/>
+      <c r="AA41" s="51"/>
+      <c r="AB41" s="51"/>
+      <c r="AC41" s="51"/>
+      <c r="AD41" s="51"/>
+      <c r="AE41" s="51"/>
+      <c r="AF41" s="51"/>
+      <c r="AG41" s="51"/>
+      <c r="AH41" s="51"/>
+      <c r="AI41" s="51"/>
+      <c r="AJ41" s="51"/>
+      <c r="AK41" s="51"/>
+      <c r="AL41" s="51"/>
+      <c r="AM41" s="51"/>
+      <c r="AN41" s="51"/>
+      <c r="AO41" s="51"/>
+      <c r="AP41" s="51"/>
+      <c r="AQ41" s="51"/>
+      <c r="AR41" s="51"/>
+      <c r="AS41" s="51"/>
+      <c r="AT41" s="51"/>
+      <c r="AU41" s="51"/>
+      <c r="AV41" s="51"/>
+      <c r="AW41" s="51"/>
+      <c r="AX41" s="51"/>
+      <c r="AY41" s="51"/>
+      <c r="AZ41" s="51"/>
+      <c r="BA41" s="51"/>
+      <c r="BB41" s="51"/>
+      <c r="BC41" s="51"/>
+      <c r="BD41" s="51"/>
+      <c r="BE41" s="51"/>
+      <c r="BF41" s="51"/>
+      <c r="BG41" s="51"/>
+      <c r="BH41" s="51"/>
+      <c r="BI41" s="51"/>
+      <c r="BJ41" s="51"/>
+      <c r="BK41" s="51"/>
+      <c r="BL41" s="51"/>
+    </row>
+    <row r="42" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="45"/>
+      <c r="B42" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="61"/>
+      <c r="D42" s="26"/>
+      <c r="E42" s="4">
+        <f t="shared" si="14"/>
+        <v>43785</v>
+      </c>
+      <c r="F42" s="1">
+        <f t="shared" ref="F42:F44" si="15">E42+G42</f>
+        <v>43790</v>
+      </c>
+      <c r="G42" s="16">
+        <v>5</v>
+      </c>
+      <c r="H42" s="16">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I42" s="51"/>
+      <c r="J42" s="51"/>
+      <c r="K42" s="51"/>
+      <c r="L42" s="51"/>
+      <c r="M42" s="51"/>
+      <c r="N42" s="51"/>
+      <c r="O42" s="51"/>
+      <c r="P42" s="51"/>
+      <c r="Q42" s="51"/>
+      <c r="R42" s="51"/>
+      <c r="S42" s="51"/>
+      <c r="T42" s="51"/>
+      <c r="U42" s="51"/>
+      <c r="V42" s="51"/>
+      <c r="W42" s="51"/>
+      <c r="X42" s="51"/>
+      <c r="Y42" s="51"/>
+      <c r="Z42" s="51"/>
+      <c r="AA42" s="51"/>
+      <c r="AB42" s="51"/>
+      <c r="AC42" s="51"/>
+      <c r="AD42" s="51"/>
+      <c r="AE42" s="51"/>
+      <c r="AF42" s="51"/>
+      <c r="AG42" s="51"/>
+      <c r="AH42" s="51"/>
+      <c r="AI42" s="51"/>
+      <c r="AJ42" s="51"/>
+      <c r="AK42" s="51"/>
+      <c r="AL42" s="51"/>
+      <c r="AM42" s="51"/>
+      <c r="AN42" s="51"/>
+      <c r="AO42" s="51"/>
+      <c r="AP42" s="51"/>
+      <c r="AQ42" s="51"/>
+      <c r="AR42" s="51"/>
+      <c r="AS42" s="51"/>
+      <c r="AT42" s="51"/>
+      <c r="AU42" s="51"/>
+      <c r="AV42" s="51"/>
+      <c r="AW42" s="51"/>
+      <c r="AX42" s="51"/>
+      <c r="AY42" s="51"/>
+      <c r="AZ42" s="51"/>
+      <c r="BA42" s="51"/>
+      <c r="BB42" s="51"/>
+      <c r="BC42" s="51"/>
+      <c r="BD42" s="51"/>
+      <c r="BE42" s="51"/>
+      <c r="BF42" s="51"/>
+      <c r="BG42" s="51"/>
+      <c r="BH42" s="51"/>
+      <c r="BI42" s="51"/>
+      <c r="BJ42" s="51"/>
+      <c r="BK42" s="51"/>
+      <c r="BL42" s="51"/>
+    </row>
+    <row r="43" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="45"/>
+      <c r="B43" s="85" t="s">
+        <v>57</v>
+      </c>
+      <c r="C43" s="61"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="4">
+        <f t="shared" si="14"/>
+        <v>43791</v>
+      </c>
+      <c r="F43" s="1">
+        <f t="shared" si="15"/>
+        <v>43796</v>
+      </c>
+      <c r="G43" s="16">
+        <v>5</v>
+      </c>
+      <c r="H43" s="16">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I43" s="51"/>
+      <c r="J43" s="51"/>
+      <c r="K43" s="51"/>
+      <c r="L43" s="51"/>
+      <c r="M43" s="51"/>
+      <c r="N43" s="51"/>
+      <c r="O43" s="51"/>
+      <c r="P43" s="51"/>
+      <c r="Q43" s="51"/>
+      <c r="R43" s="51"/>
+      <c r="S43" s="51"/>
+      <c r="T43" s="51"/>
+      <c r="U43" s="51"/>
+      <c r="V43" s="51"/>
+      <c r="W43" s="51"/>
+      <c r="X43" s="51"/>
+      <c r="Y43" s="51"/>
+      <c r="Z43" s="51"/>
+      <c r="AA43" s="51"/>
+      <c r="AB43" s="51"/>
+      <c r="AC43" s="51"/>
+      <c r="AD43" s="51"/>
+      <c r="AE43" s="51"/>
+      <c r="AF43" s="51"/>
+      <c r="AG43" s="51"/>
+      <c r="AH43" s="51"/>
+      <c r="AI43" s="51"/>
+      <c r="AJ43" s="51"/>
+      <c r="AK43" s="51"/>
+      <c r="AL43" s="51"/>
+      <c r="AM43" s="51"/>
+      <c r="AN43" s="51"/>
+      <c r="AO43" s="51"/>
+      <c r="AP43" s="51"/>
+      <c r="AQ43" s="51"/>
+      <c r="AR43" s="51"/>
+      <c r="AS43" s="51"/>
+      <c r="AT43" s="51"/>
+      <c r="AU43" s="51"/>
+      <c r="AV43" s="51"/>
+      <c r="AW43" s="51"/>
+      <c r="AX43" s="51"/>
+      <c r="AY43" s="51"/>
+      <c r="AZ43" s="51"/>
+      <c r="BA43" s="51"/>
+      <c r="BB43" s="51"/>
+      <c r="BC43" s="51"/>
+      <c r="BD43" s="51"/>
+      <c r="BE43" s="51"/>
+      <c r="BF43" s="51"/>
+      <c r="BG43" s="51"/>
+      <c r="BH43" s="51"/>
+      <c r="BI43" s="51"/>
+      <c r="BJ43" s="51"/>
+      <c r="BK43" s="51"/>
+      <c r="BL43" s="51"/>
+    </row>
+    <row r="44" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="45"/>
+      <c r="B44" s="85" t="s">
+        <v>58</v>
+      </c>
+      <c r="C44" s="61"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="4">
+        <f t="shared" si="14"/>
+        <v>43797</v>
+      </c>
+      <c r="F44" s="1">
+        <f t="shared" si="15"/>
+        <v>43802</v>
+      </c>
+      <c r="G44" s="16">
+        <v>5</v>
+      </c>
+      <c r="H44" s="16">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I44" s="51"/>
+      <c r="J44" s="51"/>
+      <c r="K44" s="51"/>
+      <c r="L44" s="51"/>
+      <c r="M44" s="51"/>
+      <c r="N44" s="51"/>
+      <c r="O44" s="51"/>
+      <c r="P44" s="51"/>
+      <c r="Q44" s="51"/>
+      <c r="R44" s="51"/>
+      <c r="S44" s="51"/>
+      <c r="T44" s="51"/>
+      <c r="U44" s="51"/>
+      <c r="V44" s="51"/>
+      <c r="W44" s="51"/>
+      <c r="X44" s="51"/>
+      <c r="Y44" s="51"/>
+      <c r="Z44" s="51"/>
+      <c r="AA44" s="51"/>
+      <c r="AB44" s="51"/>
+      <c r="AC44" s="51"/>
+      <c r="AD44" s="51"/>
+      <c r="AE44" s="51"/>
+      <c r="AF44" s="51"/>
+      <c r="AG44" s="51"/>
+      <c r="AH44" s="51"/>
+      <c r="AI44" s="51"/>
+      <c r="AJ44" s="51"/>
+      <c r="AK44" s="51"/>
+      <c r="AL44" s="51"/>
+      <c r="AM44" s="51"/>
+      <c r="AN44" s="51"/>
+      <c r="AO44" s="51"/>
+      <c r="AP44" s="51"/>
+      <c r="AQ44" s="51"/>
+      <c r="AR44" s="51"/>
+      <c r="AS44" s="51"/>
+      <c r="AT44" s="51"/>
+      <c r="AU44" s="51"/>
+      <c r="AV44" s="51"/>
+      <c r="AW44" s="51"/>
+      <c r="AX44" s="51"/>
+      <c r="AY44" s="51"/>
+      <c r="AZ44" s="51"/>
+      <c r="BA44" s="51"/>
+      <c r="BB44" s="51"/>
+      <c r="BC44" s="51"/>
+      <c r="BD44" s="51"/>
+      <c r="BE44" s="51"/>
+      <c r="BF44" s="51"/>
+      <c r="BG44" s="51"/>
+      <c r="BH44" s="51"/>
+      <c r="BI44" s="51"/>
+      <c r="BJ44" s="51"/>
+      <c r="BK44" s="51"/>
+      <c r="BL44" s="51"/>
+    </row>
+    <row r="45" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="45"/>
+      <c r="B45" s="85" t="s">
+        <v>59</v>
+      </c>
+      <c r="C45" s="61"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="4">
+        <f t="shared" si="14"/>
+        <v>43803</v>
+      </c>
+      <c r="F45" s="1">
+        <f t="shared" si="12"/>
+        <v>43808</v>
+      </c>
+      <c r="G45" s="16">
+        <v>5</v>
+      </c>
+      <c r="H45" s="16">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I45" s="51"/>
+      <c r="J45" s="51"/>
+      <c r="K45" s="51"/>
+      <c r="L45" s="51"/>
+      <c r="M45" s="51"/>
+      <c r="N45" s="51"/>
+      <c r="O45" s="51"/>
+      <c r="P45" s="51"/>
+      <c r="Q45" s="51"/>
+      <c r="R45" s="51"/>
+      <c r="S45" s="51"/>
+      <c r="T45" s="51"/>
+      <c r="U45" s="51"/>
+      <c r="V45" s="51"/>
+      <c r="W45" s="51"/>
+      <c r="X45" s="51"/>
+      <c r="Y45" s="51"/>
+      <c r="Z45" s="51"/>
+      <c r="AA45" s="51"/>
+      <c r="AB45" s="51"/>
+      <c r="AC45" s="51"/>
+      <c r="AD45" s="51"/>
+      <c r="AE45" s="51"/>
+      <c r="AF45" s="51"/>
+      <c r="AG45" s="51"/>
+      <c r="AH45" s="51"/>
+      <c r="AI45" s="51"/>
+      <c r="AJ45" s="51"/>
+      <c r="AK45" s="51"/>
+      <c r="AL45" s="51"/>
+      <c r="AM45" s="51"/>
+      <c r="AN45" s="51"/>
+      <c r="AO45" s="51"/>
+      <c r="AP45" s="51"/>
+      <c r="AQ45" s="51"/>
+      <c r="AR45" s="51"/>
+      <c r="AS45" s="51"/>
+      <c r="AT45" s="51"/>
+      <c r="AU45" s="51"/>
+      <c r="AV45" s="51"/>
+      <c r="AW45" s="51"/>
+      <c r="AX45" s="51"/>
+      <c r="AY45" s="51"/>
+      <c r="AZ45" s="51"/>
+      <c r="BA45" s="51"/>
+      <c r="BB45" s="51"/>
+      <c r="BC45" s="51"/>
+      <c r="BD45" s="51"/>
+      <c r="BE45" s="51"/>
+      <c r="BF45" s="51"/>
+      <c r="BG45" s="51"/>
+      <c r="BH45" s="51"/>
+      <c r="BI45" s="51"/>
+      <c r="BJ45" s="51"/>
+      <c r="BK45" s="51"/>
+      <c r="BL45" s="51"/>
+    </row>
+    <row r="46" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="45" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="99" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="94"/>
+      <c r="D46" s="95"/>
+      <c r="E46" s="100"/>
+      <c r="F46" s="101"/>
+      <c r="G46" s="16"/>
+      <c r="H46" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I46" s="51"/>
+      <c r="J46" s="51"/>
+      <c r="K46" s="51"/>
+      <c r="L46" s="51"/>
+      <c r="M46" s="51"/>
+      <c r="N46" s="51"/>
+      <c r="O46" s="51"/>
+      <c r="P46" s="51"/>
+      <c r="Q46" s="51"/>
+      <c r="R46" s="51"/>
+      <c r="S46" s="51"/>
+      <c r="T46" s="51"/>
+      <c r="U46" s="51"/>
+      <c r="V46" s="51"/>
+      <c r="W46" s="51"/>
+      <c r="X46" s="51"/>
+      <c r="Y46" s="51"/>
+      <c r="Z46" s="51"/>
+      <c r="AA46" s="51"/>
+      <c r="AB46" s="51"/>
+      <c r="AC46" s="51"/>
+      <c r="AD46" s="51"/>
+      <c r="AE46" s="51"/>
+      <c r="AF46" s="51"/>
+      <c r="AG46" s="51"/>
+      <c r="AH46" s="51"/>
+      <c r="AI46" s="51"/>
+      <c r="AJ46" s="51"/>
+      <c r="AK46" s="51"/>
+      <c r="AL46" s="51"/>
+      <c r="AM46" s="51"/>
+      <c r="AN46" s="51"/>
+      <c r="AO46" s="51"/>
+      <c r="AP46" s="51"/>
+      <c r="AQ46" s="51"/>
+      <c r="AR46" s="51"/>
+      <c r="AS46" s="51"/>
+      <c r="AT46" s="51"/>
+      <c r="AU46" s="51"/>
+      <c r="AV46" s="51"/>
+      <c r="AW46" s="51"/>
+      <c r="AX46" s="51"/>
+      <c r="AY46" s="51"/>
+      <c r="AZ46" s="51"/>
+      <c r="BA46" s="51"/>
+      <c r="BB46" s="51"/>
+      <c r="BC46" s="51"/>
+      <c r="BD46" s="51"/>
+      <c r="BE46" s="51"/>
+      <c r="BF46" s="51"/>
+      <c r="BG46" s="51"/>
+      <c r="BH46" s="51"/>
+      <c r="BI46" s="51"/>
+      <c r="BJ46" s="51"/>
+      <c r="BK46" s="51"/>
+      <c r="BL46" s="51"/>
+    </row>
+    <row r="47" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="45"/>
+      <c r="B47" s="96" t="s">
+        <v>69</v>
+      </c>
+      <c r="C47" s="97"/>
+      <c r="D47" s="98">
+        <v>0.01</v>
+      </c>
+      <c r="E47" s="93">
+        <v>43763</v>
+      </c>
+      <c r="F47" s="93">
+        <f t="shared" ref="F47:F54" si="16">E47+G47</f>
+        <v>43815</v>
+      </c>
+      <c r="G47" s="16">
+        <v>52</v>
+      </c>
+      <c r="H47" s="16">
+        <f t="shared" si="5"/>
+        <v>53</v>
+      </c>
+      <c r="I47" s="51"/>
+      <c r="J47" s="51"/>
+      <c r="K47" s="51"/>
+      <c r="L47" s="51"/>
+      <c r="M47" s="51"/>
+      <c r="N47" s="51"/>
+      <c r="O47" s="51"/>
+      <c r="P47" s="51"/>
+      <c r="Q47" s="51"/>
+      <c r="R47" s="51"/>
+      <c r="S47" s="51"/>
+      <c r="T47" s="51"/>
+      <c r="U47" s="51"/>
+      <c r="V47" s="51"/>
+      <c r="W47" s="51"/>
+      <c r="X47" s="51"/>
+      <c r="Y47" s="51"/>
+      <c r="Z47" s="51"/>
+      <c r="AA47" s="51"/>
+      <c r="AB47" s="51"/>
+      <c r="AC47" s="51"/>
+      <c r="AD47" s="51"/>
+      <c r="AE47" s="51"/>
+      <c r="AF47" s="51"/>
+      <c r="AG47" s="51"/>
+      <c r="AH47" s="51"/>
+      <c r="AI47" s="51"/>
+      <c r="AJ47" s="51"/>
+      <c r="AK47" s="51"/>
+      <c r="AL47" s="51"/>
+      <c r="AM47" s="51"/>
+      <c r="AN47" s="51"/>
+      <c r="AO47" s="51"/>
+      <c r="AP47" s="51"/>
+      <c r="AQ47" s="51"/>
+      <c r="AR47" s="51"/>
+      <c r="AS47" s="51"/>
+      <c r="AT47" s="51"/>
+      <c r="AU47" s="51"/>
+      <c r="AV47" s="51"/>
+      <c r="AW47" s="51"/>
+      <c r="AX47" s="51"/>
+      <c r="AY47" s="51"/>
+      <c r="AZ47" s="51"/>
+      <c r="BA47" s="51"/>
+      <c r="BB47" s="51"/>
+      <c r="BC47" s="51"/>
+      <c r="BD47" s="51"/>
+      <c r="BE47" s="51"/>
+      <c r="BF47" s="51"/>
+      <c r="BG47" s="51"/>
+      <c r="BH47" s="51"/>
+      <c r="BI47" s="51"/>
+      <c r="BJ47" s="51"/>
+      <c r="BK47" s="51"/>
+      <c r="BL47" s="51"/>
+    </row>
+    <row r="48" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="45"/>
+      <c r="B48" s="96" t="s">
+        <v>70</v>
+      </c>
+      <c r="C48" s="97"/>
+      <c r="D48" s="98"/>
+      <c r="E48" s="93">
+        <v>43763</v>
+      </c>
+      <c r="F48" s="93">
+        <v>43769</v>
+      </c>
+      <c r="G48" s="16">
+        <v>5</v>
+      </c>
+      <c r="H48" s="16">
+        <f t="shared" si="5"/>
+        <v>7</v>
+      </c>
+      <c r="I48" s="51"/>
+      <c r="J48" s="51"/>
+      <c r="K48" s="51"/>
+      <c r="L48" s="51"/>
+      <c r="M48" s="51"/>
+      <c r="N48" s="51"/>
+      <c r="O48" s="51"/>
+      <c r="P48" s="51"/>
+      <c r="Q48" s="51"/>
+      <c r="R48" s="51"/>
+      <c r="S48" s="51"/>
+      <c r="T48" s="51"/>
+      <c r="U48" s="51"/>
+      <c r="V48" s="51"/>
+      <c r="W48" s="51"/>
+      <c r="X48" s="51"/>
+      <c r="Y48" s="51"/>
+      <c r="Z48" s="51"/>
+      <c r="AA48" s="51"/>
+      <c r="AB48" s="51"/>
+      <c r="AC48" s="51"/>
+      <c r="AD48" s="51"/>
+      <c r="AE48" s="51"/>
+      <c r="AF48" s="51"/>
+      <c r="AG48" s="51"/>
+      <c r="AH48" s="51"/>
+      <c r="AI48" s="51"/>
+      <c r="AJ48" s="51"/>
+      <c r="AK48" s="51"/>
+      <c r="AL48" s="51"/>
+      <c r="AM48" s="51"/>
+      <c r="AN48" s="51"/>
+      <c r="AO48" s="51"/>
+      <c r="AP48" s="51"/>
+      <c r="AQ48" s="51"/>
+      <c r="AR48" s="51"/>
+      <c r="AS48" s="51"/>
+      <c r="AT48" s="51"/>
+      <c r="AU48" s="51"/>
+      <c r="AV48" s="51"/>
+      <c r="AW48" s="51"/>
+      <c r="AX48" s="51"/>
+      <c r="AY48" s="51"/>
+      <c r="AZ48" s="51"/>
+      <c r="BA48" s="51"/>
+      <c r="BB48" s="51"/>
+      <c r="BC48" s="51"/>
+      <c r="BD48" s="51"/>
+      <c r="BE48" s="51"/>
+      <c r="BF48" s="51"/>
+      <c r="BG48" s="51"/>
+      <c r="BH48" s="51"/>
+      <c r="BI48" s="51"/>
+      <c r="BJ48" s="51"/>
+      <c r="BK48" s="51"/>
+      <c r="BL48" s="51"/>
+    </row>
+    <row r="49" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="45"/>
+      <c r="B49" s="96" t="s">
+        <v>71</v>
+      </c>
+      <c r="C49" s="97"/>
+      <c r="D49" s="98"/>
+      <c r="E49" s="93">
+        <f t="shared" ref="E49:E54" si="17">F48+1</f>
+        <v>43770</v>
+      </c>
+      <c r="F49" s="93">
+        <f t="shared" si="16"/>
+        <v>43788</v>
+      </c>
+      <c r="G49" s="16">
+        <v>18</v>
+      </c>
+      <c r="H49" s="16">
+        <f t="shared" si="5"/>
+        <v>19</v>
+      </c>
+      <c r="I49" s="51"/>
+      <c r="J49" s="51"/>
+      <c r="K49" s="51"/>
+      <c r="L49" s="51"/>
+      <c r="M49" s="51"/>
+      <c r="N49" s="51"/>
+      <c r="O49" s="51"/>
+      <c r="P49" s="51"/>
+      <c r="Q49" s="51"/>
+      <c r="R49" s="51"/>
+      <c r="S49" s="51"/>
+      <c r="T49" s="51"/>
+      <c r="U49" s="51"/>
+      <c r="V49" s="51"/>
+      <c r="W49" s="51"/>
+      <c r="X49" s="51"/>
+      <c r="Y49" s="51"/>
+      <c r="Z49" s="51"/>
+      <c r="AA49" s="51"/>
+      <c r="AB49" s="51"/>
+      <c r="AC49" s="51"/>
+      <c r="AD49" s="51"/>
+      <c r="AE49" s="51"/>
+      <c r="AF49" s="51"/>
+      <c r="AG49" s="51"/>
+      <c r="AH49" s="51"/>
+      <c r="AI49" s="51"/>
+      <c r="AJ49" s="51"/>
+      <c r="AK49" s="51"/>
+      <c r="AL49" s="51"/>
+      <c r="AM49" s="51"/>
+      <c r="AN49" s="51"/>
+      <c r="AO49" s="51"/>
+      <c r="AP49" s="51"/>
+      <c r="AQ49" s="51"/>
+      <c r="AR49" s="51"/>
+      <c r="AS49" s="51"/>
+      <c r="AT49" s="51"/>
+      <c r="AU49" s="51"/>
+      <c r="AV49" s="51"/>
+      <c r="AW49" s="51"/>
+      <c r="AX49" s="51"/>
+      <c r="AY49" s="51"/>
+      <c r="AZ49" s="51"/>
+      <c r="BA49" s="51"/>
+      <c r="BB49" s="51"/>
+      <c r="BC49" s="51"/>
+      <c r="BD49" s="51"/>
+      <c r="BE49" s="51"/>
+      <c r="BF49" s="51"/>
+      <c r="BG49" s="51"/>
+      <c r="BH49" s="51"/>
+      <c r="BI49" s="51"/>
+      <c r="BJ49" s="51"/>
+      <c r="BK49" s="51"/>
+      <c r="BL49" s="51"/>
+    </row>
+    <row r="50" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="45"/>
+      <c r="B50" s="96" t="s">
+        <v>72</v>
+      </c>
+      <c r="C50" s="97"/>
+      <c r="D50" s="98"/>
+      <c r="E50" s="93">
+        <f t="shared" si="17"/>
+        <v>43789</v>
+      </c>
+      <c r="F50" s="93">
+        <f t="shared" si="16"/>
+        <v>43794</v>
+      </c>
+      <c r="G50" s="16">
+        <v>5</v>
+      </c>
+      <c r="H50" s="16">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I50" s="51"/>
+      <c r="J50" s="51"/>
+      <c r="K50" s="51"/>
+      <c r="L50" s="51"/>
+      <c r="M50" s="51"/>
+      <c r="N50" s="51"/>
+      <c r="O50" s="51"/>
+      <c r="P50" s="51"/>
+      <c r="Q50" s="51"/>
+      <c r="R50" s="51"/>
+      <c r="S50" s="51"/>
+      <c r="T50" s="51"/>
+      <c r="U50" s="51"/>
+      <c r="V50" s="51"/>
+      <c r="W50" s="51"/>
+      <c r="X50" s="51"/>
+      <c r="Y50" s="51"/>
+      <c r="Z50" s="51"/>
+      <c r="AA50" s="51"/>
+      <c r="AB50" s="51"/>
+      <c r="AC50" s="51"/>
+      <c r="AD50" s="51"/>
+      <c r="AE50" s="51"/>
+      <c r="AF50" s="51"/>
+      <c r="AG50" s="51"/>
+      <c r="AH50" s="51"/>
+      <c r="AI50" s="51"/>
+      <c r="AJ50" s="51"/>
+      <c r="AK50" s="51"/>
+      <c r="AL50" s="51"/>
+      <c r="AM50" s="51"/>
+      <c r="AN50" s="51"/>
+      <c r="AO50" s="51"/>
+      <c r="AP50" s="51"/>
+      <c r="AQ50" s="51"/>
+      <c r="AR50" s="51"/>
+      <c r="AS50" s="51"/>
+      <c r="AT50" s="51"/>
+      <c r="AU50" s="51"/>
+      <c r="AV50" s="51"/>
+      <c r="AW50" s="51"/>
+      <c r="AX50" s="51"/>
+      <c r="AY50" s="51"/>
+      <c r="AZ50" s="51"/>
+      <c r="BA50" s="51"/>
+      <c r="BB50" s="51"/>
+      <c r="BC50" s="51"/>
+      <c r="BD50" s="51"/>
+      <c r="BE50" s="51"/>
+      <c r="BF50" s="51"/>
+      <c r="BG50" s="51"/>
+      <c r="BH50" s="51"/>
+      <c r="BI50" s="51"/>
+      <c r="BJ50" s="51"/>
+      <c r="BK50" s="51"/>
+      <c r="BL50" s="51"/>
+    </row>
+    <row r="51" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="45"/>
+      <c r="B51" s="96" t="s">
+        <v>73</v>
+      </c>
+      <c r="C51" s="97"/>
+      <c r="D51" s="98"/>
+      <c r="E51" s="93">
+        <f t="shared" si="17"/>
+        <v>43795</v>
+      </c>
+      <c r="F51" s="93">
+        <f t="shared" si="16"/>
+        <v>43805</v>
+      </c>
+      <c r="G51" s="16">
+        <v>10</v>
+      </c>
+      <c r="H51" s="16">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="I51" s="51"/>
+      <c r="J51" s="51"/>
+      <c r="K51" s="51"/>
+      <c r="L51" s="51"/>
+      <c r="M51" s="51"/>
+      <c r="N51" s="51"/>
+      <c r="O51" s="51"/>
+      <c r="P51" s="51"/>
+      <c r="Q51" s="51"/>
+      <c r="R51" s="51"/>
+      <c r="S51" s="51"/>
+      <c r="T51" s="51"/>
+      <c r="U51" s="51"/>
+      <c r="V51" s="51"/>
+      <c r="W51" s="51"/>
+      <c r="X51" s="51"/>
+      <c r="Y51" s="51"/>
+      <c r="Z51" s="51"/>
+      <c r="AA51" s="51"/>
+      <c r="AB51" s="51"/>
+      <c r="AC51" s="51"/>
+      <c r="AD51" s="51"/>
+      <c r="AE51" s="51"/>
+      <c r="AF51" s="51"/>
+      <c r="AG51" s="51"/>
+      <c r="AH51" s="51"/>
+      <c r="AI51" s="51"/>
+      <c r="AJ51" s="51"/>
+      <c r="AK51" s="51"/>
+      <c r="AL51" s="51"/>
+      <c r="AM51" s="51"/>
+      <c r="AN51" s="51"/>
+      <c r="AO51" s="51"/>
+      <c r="AP51" s="51"/>
+      <c r="AQ51" s="51"/>
+      <c r="AR51" s="51"/>
+      <c r="AS51" s="51"/>
+      <c r="AT51" s="51"/>
+      <c r="AU51" s="51"/>
+      <c r="AV51" s="51"/>
+      <c r="AW51" s="51"/>
+      <c r="AX51" s="51"/>
+      <c r="AY51" s="51"/>
+      <c r="AZ51" s="51"/>
+      <c r="BA51" s="51"/>
+      <c r="BB51" s="51"/>
+      <c r="BC51" s="51"/>
+      <c r="BD51" s="51"/>
+      <c r="BE51" s="51"/>
+      <c r="BF51" s="51"/>
+      <c r="BG51" s="51"/>
+      <c r="BH51" s="51"/>
+      <c r="BI51" s="51"/>
+      <c r="BJ51" s="51"/>
+      <c r="BK51" s="51"/>
+      <c r="BL51" s="51"/>
+    </row>
+    <row r="52" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="45"/>
+      <c r="B52" s="96" t="s">
+        <v>74</v>
+      </c>
+      <c r="C52" s="97"/>
+      <c r="D52" s="98"/>
+      <c r="E52" s="93">
+        <f t="shared" si="17"/>
+        <v>43806</v>
+      </c>
+      <c r="F52" s="93">
+        <f t="shared" si="16"/>
+        <v>43813</v>
+      </c>
+      <c r="G52" s="16">
+        <v>7</v>
+      </c>
+      <c r="H52" s="16">
+        <f t="shared" si="5"/>
+        <v>8</v>
+      </c>
+      <c r="I52" s="51"/>
+      <c r="J52" s="51"/>
+      <c r="K52" s="51"/>
+      <c r="L52" s="51"/>
+      <c r="M52" s="51"/>
+      <c r="N52" s="51"/>
+      <c r="O52" s="51"/>
+      <c r="P52" s="51"/>
+      <c r="Q52" s="51"/>
+      <c r="R52" s="51"/>
+      <c r="S52" s="51"/>
+      <c r="T52" s="51"/>
+      <c r="U52" s="51"/>
+      <c r="V52" s="51"/>
+      <c r="W52" s="51"/>
+      <c r="X52" s="51"/>
+      <c r="Y52" s="51"/>
+      <c r="Z52" s="51"/>
+      <c r="AA52" s="51"/>
+      <c r="AB52" s="51"/>
+      <c r="AC52" s="51"/>
+      <c r="AD52" s="51"/>
+      <c r="AE52" s="51"/>
+      <c r="AF52" s="51"/>
+      <c r="AG52" s="51"/>
+      <c r="AH52" s="51"/>
+      <c r="AI52" s="51"/>
+      <c r="AJ52" s="51"/>
+      <c r="AK52" s="51"/>
+      <c r="AL52" s="51"/>
+      <c r="AM52" s="51"/>
+      <c r="AN52" s="51"/>
+      <c r="AO52" s="51"/>
+      <c r="AP52" s="51"/>
+      <c r="AQ52" s="51"/>
+      <c r="AR52" s="51"/>
+      <c r="AS52" s="51"/>
+      <c r="AT52" s="51"/>
+      <c r="AU52" s="51"/>
+      <c r="AV52" s="51"/>
+      <c r="AW52" s="51"/>
+      <c r="AX52" s="51"/>
+      <c r="AY52" s="51"/>
+      <c r="AZ52" s="51"/>
+      <c r="BA52" s="51"/>
+      <c r="BB52" s="51"/>
+      <c r="BC52" s="51"/>
+      <c r="BD52" s="51"/>
+      <c r="BE52" s="51"/>
+      <c r="BF52" s="51"/>
+      <c r="BG52" s="51"/>
+      <c r="BH52" s="51"/>
+      <c r="BI52" s="51"/>
+      <c r="BJ52" s="51"/>
+      <c r="BK52" s="51"/>
+      <c r="BL52" s="51"/>
+    </row>
+    <row r="53" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="45"/>
+      <c r="B53" s="96" t="s">
+        <v>75</v>
+      </c>
+      <c r="C53" s="97"/>
+      <c r="D53" s="98"/>
+      <c r="E53" s="93">
+        <f t="shared" si="17"/>
+        <v>43814</v>
+      </c>
+      <c r="F53" s="93">
+        <f t="shared" si="16"/>
+        <v>43819</v>
+      </c>
+      <c r="G53" s="16">
+        <v>5</v>
+      </c>
+      <c r="H53" s="16">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I53" s="51"/>
+      <c r="J53" s="51"/>
+      <c r="K53" s="51"/>
+      <c r="L53" s="51"/>
+      <c r="M53" s="51"/>
+      <c r="N53" s="51"/>
+      <c r="O53" s="51"/>
+      <c r="P53" s="51"/>
+      <c r="Q53" s="51"/>
+      <c r="R53" s="51"/>
+      <c r="S53" s="51"/>
+      <c r="T53" s="51"/>
+      <c r="U53" s="51"/>
+      <c r="V53" s="51"/>
+      <c r="W53" s="51"/>
+      <c r="X53" s="51"/>
+      <c r="Y53" s="51"/>
+      <c r="Z53" s="51"/>
+      <c r="AA53" s="51"/>
+      <c r="AB53" s="51"/>
+      <c r="AC53" s="51"/>
+      <c r="AD53" s="51"/>
+      <c r="AE53" s="51"/>
+      <c r="AF53" s="51"/>
+      <c r="AG53" s="51"/>
+      <c r="AH53" s="51"/>
+      <c r="AI53" s="51"/>
+      <c r="AJ53" s="51"/>
+      <c r="AK53" s="51"/>
+      <c r="AL53" s="51"/>
+      <c r="AM53" s="51"/>
+      <c r="AN53" s="51"/>
+      <c r="AO53" s="51"/>
+      <c r="AP53" s="51"/>
+      <c r="AQ53" s="51"/>
+      <c r="AR53" s="51"/>
+      <c r="AS53" s="51"/>
+      <c r="AT53" s="51"/>
+      <c r="AU53" s="51"/>
+      <c r="AV53" s="51"/>
+      <c r="AW53" s="51"/>
+      <c r="AX53" s="51"/>
+      <c r="AY53" s="51"/>
+      <c r="AZ53" s="51"/>
+      <c r="BA53" s="51"/>
+      <c r="BB53" s="51"/>
+      <c r="BC53" s="51"/>
+      <c r="BD53" s="51"/>
+      <c r="BE53" s="51"/>
+      <c r="BF53" s="51"/>
+      <c r="BG53" s="51"/>
+      <c r="BH53" s="51"/>
+      <c r="BI53" s="51"/>
+      <c r="BJ53" s="51"/>
+      <c r="BK53" s="51"/>
+      <c r="BL53" s="51"/>
+    </row>
+    <row r="54" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="45"/>
+      <c r="B54" s="96" t="s">
+        <v>76</v>
+      </c>
+      <c r="C54" s="97"/>
+      <c r="D54" s="98"/>
+      <c r="E54" s="93">
+        <f t="shared" si="17"/>
+        <v>43820</v>
+      </c>
+      <c r="F54" s="93">
+        <f t="shared" si="16"/>
+        <v>43822</v>
+      </c>
+      <c r="G54" s="16">
+        <v>2</v>
+      </c>
+      <c r="H54" s="16">
+        <f t="shared" si="5"/>
+        <v>3</v>
+      </c>
+      <c r="I54" s="51"/>
+      <c r="J54" s="51"/>
+      <c r="K54" s="51"/>
+      <c r="L54" s="51"/>
+      <c r="M54" s="51"/>
+      <c r="N54" s="51"/>
+      <c r="O54" s="51"/>
+      <c r="P54" s="51"/>
+      <c r="Q54" s="51"/>
+      <c r="R54" s="51"/>
+      <c r="S54" s="51"/>
+      <c r="T54" s="51"/>
+      <c r="U54" s="51"/>
+      <c r="V54" s="51"/>
+      <c r="W54" s="51"/>
+      <c r="X54" s="51"/>
+      <c r="Y54" s="51"/>
+      <c r="Z54" s="51"/>
+      <c r="AA54" s="51"/>
+      <c r="AB54" s="51"/>
+      <c r="AC54" s="51"/>
+      <c r="AD54" s="51"/>
+      <c r="AE54" s="51"/>
+      <c r="AF54" s="51"/>
+      <c r="AG54" s="51"/>
+      <c r="AH54" s="51"/>
+      <c r="AI54" s="51"/>
+      <c r="AJ54" s="51"/>
+      <c r="AK54" s="51"/>
+      <c r="AL54" s="51"/>
+      <c r="AM54" s="51"/>
+      <c r="AN54" s="51"/>
+      <c r="AO54" s="51"/>
+      <c r="AP54" s="51"/>
+      <c r="AQ54" s="51"/>
+      <c r="AR54" s="51"/>
+      <c r="AS54" s="51"/>
+      <c r="AT54" s="51"/>
+      <c r="AU54" s="51"/>
+      <c r="AV54" s="51"/>
+      <c r="AW54" s="51"/>
+      <c r="AX54" s="51"/>
+      <c r="AY54" s="51"/>
+      <c r="AZ54" s="51"/>
+      <c r="BA54" s="51"/>
+      <c r="BB54" s="51"/>
+      <c r="BC54" s="51"/>
+      <c r="BD54" s="51"/>
+      <c r="BE54" s="51"/>
+      <c r="BF54" s="51"/>
+      <c r="BG54" s="51"/>
+      <c r="BH54" s="51"/>
+      <c r="BI54" s="51"/>
+      <c r="BJ54" s="51"/>
+      <c r="BK54" s="51"/>
+      <c r="BL54" s="51"/>
+    </row>
+    <row r="55" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B55" s="62"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="27"/>
+      <c r="E55" s="64"/>
+      <c r="F55" s="64"/>
+      <c r="G55" s="16"/>
+      <c r="H55" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I55" s="51"/>
+      <c r="J55" s="51"/>
+      <c r="K55" s="51"/>
+      <c r="L55" s="51"/>
+      <c r="M55" s="51"/>
+      <c r="N55" s="51"/>
+      <c r="O55" s="51"/>
+      <c r="P55" s="51"/>
+      <c r="Q55" s="51"/>
+      <c r="R55" s="51"/>
+      <c r="S55" s="51"/>
+      <c r="T55" s="51"/>
+      <c r="U55" s="51"/>
+      <c r="V55" s="51"/>
+      <c r="W55" s="51"/>
+      <c r="X55" s="51"/>
+      <c r="Y55" s="51"/>
+      <c r="Z55" s="51"/>
+      <c r="AA55" s="51"/>
+      <c r="AB55" s="51"/>
+      <c r="AC55" s="51"/>
+      <c r="AD55" s="51"/>
+      <c r="AE55" s="51"/>
+      <c r="AF55" s="51"/>
+      <c r="AG55" s="51"/>
+      <c r="AH55" s="51"/>
+      <c r="AI55" s="51"/>
+      <c r="AJ55" s="51"/>
+      <c r="AK55" s="51"/>
+      <c r="AL55" s="51"/>
+      <c r="AM55" s="51"/>
+      <c r="AN55" s="51"/>
+      <c r="AO55" s="51"/>
+      <c r="AP55" s="51"/>
+      <c r="AQ55" s="51"/>
+      <c r="AR55" s="51"/>
+      <c r="AS55" s="51"/>
+      <c r="AT55" s="51"/>
+      <c r="AU55" s="51"/>
+      <c r="AV55" s="51"/>
+      <c r="AW55" s="51"/>
+      <c r="AX55" s="51"/>
+      <c r="AY55" s="51"/>
+      <c r="AZ55" s="51"/>
+      <c r="BA55" s="51"/>
+      <c r="BB55" s="51"/>
+      <c r="BC55" s="51"/>
+      <c r="BD55" s="51"/>
+      <c r="BE55" s="51"/>
+      <c r="BF55" s="51"/>
+      <c r="BG55" s="51"/>
+      <c r="BH55" s="51"/>
+      <c r="BI55" s="51"/>
+      <c r="BJ55" s="51"/>
+      <c r="BK55" s="51"/>
+      <c r="BL55" s="51"/>
+    </row>
+    <row r="56" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A56" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56" s="29"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="31"/>
+      <c r="F56" s="32"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="33" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I56" s="65"/>
+      <c r="J56" s="65"/>
+      <c r="K56" s="65"/>
+      <c r="L56" s="65"/>
+      <c r="M56" s="65"/>
+      <c r="N56" s="65"/>
+      <c r="O56" s="65"/>
+      <c r="P56" s="65"/>
+      <c r="Q56" s="65"/>
+      <c r="R56" s="65"/>
+      <c r="S56" s="65"/>
+      <c r="T56" s="65"/>
+      <c r="U56" s="65"/>
+      <c r="V56" s="65"/>
+      <c r="W56" s="65"/>
+      <c r="X56" s="65"/>
+      <c r="Y56" s="65"/>
+      <c r="Z56" s="65"/>
+      <c r="AA56" s="65"/>
+      <c r="AB56" s="65"/>
+      <c r="AC56" s="65"/>
+      <c r="AD56" s="65"/>
+      <c r="AE56" s="65"/>
+      <c r="AF56" s="65"/>
+      <c r="AG56" s="65"/>
+      <c r="AH56" s="65"/>
+      <c r="AI56" s="65"/>
+      <c r="AJ56" s="65"/>
+      <c r="AK56" s="65"/>
+      <c r="AL56" s="65"/>
+      <c r="AM56" s="65"/>
+      <c r="AN56" s="65"/>
+      <c r="AO56" s="65"/>
+      <c r="AP56" s="65"/>
+      <c r="AQ56" s="65"/>
+      <c r="AR56" s="65"/>
+      <c r="AS56" s="65"/>
+      <c r="AT56" s="65"/>
+      <c r="AU56" s="65"/>
+      <c r="AV56" s="65"/>
+      <c r="AW56" s="65"/>
+      <c r="AX56" s="65"/>
+      <c r="AY56" s="65"/>
+      <c r="AZ56" s="65"/>
+      <c r="BA56" s="65"/>
+      <c r="BB56" s="65"/>
+      <c r="BC56" s="65"/>
+      <c r="BD56" s="65"/>
+      <c r="BE56" s="65"/>
+      <c r="BF56" s="65"/>
+      <c r="BG56" s="65"/>
+      <c r="BH56" s="65"/>
+      <c r="BI56" s="65"/>
+      <c r="BJ56" s="65"/>
+      <c r="BK56" s="65"/>
+      <c r="BL56" s="65"/>
+    </row>
+    <row r="57" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G57" s="66"/>
+    </row>
+    <row r="58" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C58" s="9"/>
+      <c r="F58" s="34"/>
+    </row>
+    <row r="59" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C59" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -5197,8 +7001,8 @@
     <mergeCell ref="AD4:AJ4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
-  <conditionalFormatting sqref="D19:D30 D7:D16 D34:D36">
-    <cfRule type="dataBar" priority="34">
+  <conditionalFormatting sqref="D7:D16 D45 D55:D56 D31:D41">
+    <cfRule type="dataBar" priority="70">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5211,21 +7015,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:BL30 I5:BL16 I34:BL36">
-    <cfRule type="expression" dxfId="17" priority="53">
+  <conditionalFormatting sqref="I5:BL16 I45:BL45 I55:BL56 I31:BL41">
+    <cfRule type="expression" dxfId="32" priority="89">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:BL30 I7:BL16 I34:BL36">
-    <cfRule type="expression" dxfId="16" priority="47">
+  <conditionalFormatting sqref="I7:BL16 I45:BL45 I55:BL56 I31:BL41">
+    <cfRule type="expression" dxfId="31" priority="83">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="48" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="84" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5239,20 +7043,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:BL17">
-    <cfRule type="expression" dxfId="14" priority="20">
+    <cfRule type="expression" dxfId="29" priority="56">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:BL17">
-    <cfRule type="expression" dxfId="13" priority="18">
+    <cfRule type="expression" dxfId="28" priority="54">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="55" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5266,20 +7070,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="11" priority="16">
+    <cfRule type="expression" dxfId="26" priority="52">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="25" priority="50">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="51" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D31">
-    <cfRule type="dataBar" priority="9">
+  <conditionalFormatting sqref="D42">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5292,21 +7096,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="8" priority="12">
+  <conditionalFormatting sqref="I42:BL42">
+    <cfRule type="expression" dxfId="23" priority="48">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I31:BL31">
-    <cfRule type="expression" dxfId="7" priority="10">
+  <conditionalFormatting sqref="I42:BL42">
+    <cfRule type="expression" dxfId="22" priority="46">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="47" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D32">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="D43">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5319,21 +7123,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="5" priority="8">
+  <conditionalFormatting sqref="I43:BL43">
+    <cfRule type="expression" dxfId="20" priority="44">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I32:BL32">
-    <cfRule type="expression" dxfId="4" priority="6">
+  <conditionalFormatting sqref="I43:BL43">
+    <cfRule type="expression" dxfId="19" priority="42">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="43" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D33">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="D44">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -5346,12 +7150,147 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BL33">
+  <conditionalFormatting sqref="I44:BL44">
+    <cfRule type="expression" dxfId="17" priority="40">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I44:BL44">
+    <cfRule type="expression" dxfId="16" priority="38">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="39" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D46:D50 D54">
+    <cfRule type="dataBar" priority="33">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3D2687AE-507A-4594-B59D-CE6E951D3C0B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:BL50 I54:BL54">
+    <cfRule type="expression" dxfId="14" priority="36">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I46:BL50 I54:BL54">
+    <cfRule type="expression" dxfId="13" priority="34">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="35" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D51">
+    <cfRule type="dataBar" priority="29">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F74930FC-F3C9-4F62-9CC5-0828EF181132}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:BL51">
+    <cfRule type="expression" dxfId="11" priority="32">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I51:BL51">
+    <cfRule type="expression" dxfId="10" priority="30">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="31" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D52">
+    <cfRule type="dataBar" priority="25">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{9E156B2B-67D0-4BAA-97F3-6FA5A2C6527C}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52:BL52">
+    <cfRule type="expression" dxfId="8" priority="28">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I52:BL52">
+    <cfRule type="expression" dxfId="7" priority="26">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="27" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D53">
+    <cfRule type="dataBar" priority="21">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{3F97FDD9-EF27-4559-B8A9-37DC6A46E92D}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53:BL53">
+    <cfRule type="expression" dxfId="5" priority="24">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I53:BL53">
+    <cfRule type="expression" dxfId="4" priority="22">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="23" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D19:D30">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{DC399604-8989-496E-BFA3-A3CFCE3E0993}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:BL30">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I33:BL33">
+  <conditionalFormatting sqref="I19:BL30">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -5386,7 +7325,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D19:D30 D7:D16 D34:D36</xm:sqref>
+          <xm:sqref>D7:D16 D45 D55:D56 D31:D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{759C797F-1A4E-40B2-86F4-1516F9B9B610}">
@@ -5431,7 +7370,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D31</xm:sqref>
+          <xm:sqref>D42</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{3619889A-58D3-493C-80BB-7265E0C2837E}">
@@ -5446,7 +7385,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D32</xm:sqref>
+          <xm:sqref>D43</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{51794B6B-6C5B-4305-A71E-7A94832D6C4C}">
@@ -5461,7 +7400,82 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D33</xm:sqref>
+          <xm:sqref>D44</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3D2687AE-507A-4594-B59D-CE6E951D3C0B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D46:D50 D54</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F74930FC-F3C9-4F62-9CC5-0828EF181132}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D51</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{9E156B2B-67D0-4BAA-97F3-6FA5A2C6527C}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D52</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{3F97FDD9-EF27-4559-B8A9-37DC6A46E92D}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D53</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{DC399604-8989-496E-BFA3-A3CFCE3E0993}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D19:D30</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>

--- a/2019schedule.xlsx
+++ b/2019schedule.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
   <si>
     <t>在此工作表中创建项目日程安排。
 在单元格 B1 中输入此项目的标题。
@@ -425,6 +425,14 @@
   </si>
   <si>
     <t>35_尚硅谷_数仓采集_日志采集Flume启动停止脚本</t>
+  </si>
+  <si>
+    <t>阶段 1 新概念英语</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>阶段 1 日语</t>
+    <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1487,6 +1495,40 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="12" applyFont="1" applyFill="1">
       <alignment horizontal="left" vertical="center" indent="2"/>
     </xf>
+    <xf numFmtId="180" fontId="1" fillId="46" borderId="2" xfId="10" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="45" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="45" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="46" borderId="2" xfId="12" applyFont="1" applyFill="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="26" fillId="46" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="180" fontId="1" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="180" fontId="26" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1497,40 +1539,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="1" fillId="46" borderId="2" xfId="10" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="45" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="45" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="46" borderId="2" xfId="12" applyFont="1" applyFill="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="46" borderId="2" xfId="11" applyFill="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="26" fillId="46" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="45" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="180" fontId="1" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="180" fontId="26" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1590,7 +1598,157 @@
     <cellStyle name="着色 6" xfId="50" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="27" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="44">
+  <dxfs count="59">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2039,19 +2197,19 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="43"/>
-      <tableStyleElement type="headerRow" dxfId="42"/>
+      <tableStyleElement type="wholeTable" dxfId="58"/>
+      <tableStyleElement type="headerRow" dxfId="57"/>
     </tableStyle>
     <tableStyle name="待办事项列表" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="41"/>
-      <tableStyleElement type="headerRow" dxfId="40"/>
-      <tableStyleElement type="totalRow" dxfId="39"/>
-      <tableStyleElement type="firstColumn" dxfId="38"/>
-      <tableStyleElement type="lastColumn" dxfId="37"/>
-      <tableStyleElement type="firstRowStripe" dxfId="36"/>
-      <tableStyleElement type="secondRowStripe" dxfId="35"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="34"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="33"/>
+      <tableStyleElement type="wholeTable" dxfId="56"/>
+      <tableStyleElement type="headerRow" dxfId="55"/>
+      <tableStyleElement type="totalRow" dxfId="54"/>
+      <tableStyleElement type="firstColumn" dxfId="53"/>
+      <tableStyleElement type="lastColumn" dxfId="52"/>
+      <tableStyleElement type="firstRowStripe" dxfId="51"/>
+      <tableStyleElement type="secondRowStripe" dxfId="50"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="49"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="48"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2466,11 +2624,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL59"/>
+  <dimension ref="A1:BL82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2516,341 +2674,341 @@
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
-      <c r="C3" s="90" t="s">
+      <c r="C3" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="91"/>
-      <c r="E3" s="89">
+      <c r="D3" s="96"/>
+      <c r="E3" s="101">
         <f ca="1">TODAY()+1</f>
-        <v>43764</v>
-      </c>
-      <c r="F3" s="89"/>
+        <v>43767</v>
+      </c>
+      <c r="F3" s="101"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="90" t="s">
+      <c r="C4" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="91"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="49">
         <v>1</v>
       </c>
-      <c r="I4" s="86">
+      <c r="I4" s="98">
         <f ca="1">I5</f>
-        <v>43758</v>
-      </c>
-      <c r="J4" s="87"/>
-      <c r="K4" s="87"/>
-      <c r="L4" s="87"/>
-      <c r="M4" s="87"/>
-      <c r="N4" s="87"/>
-      <c r="O4" s="88"/>
-      <c r="P4" s="86">
+        <v>43765</v>
+      </c>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="98">
         <f ca="1">P5</f>
-        <v>43765</v>
-      </c>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="87"/>
-      <c r="T4" s="87"/>
-      <c r="U4" s="87"/>
-      <c r="V4" s="88"/>
-      <c r="W4" s="86">
+        <v>43772</v>
+      </c>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="98">
         <f ca="1">W5</f>
-        <v>43772</v>
-      </c>
-      <c r="X4" s="87"/>
-      <c r="Y4" s="87"/>
-      <c r="Z4" s="87"/>
-      <c r="AA4" s="87"/>
-      <c r="AB4" s="87"/>
-      <c r="AC4" s="88"/>
-      <c r="AD4" s="86">
+        <v>43779</v>
+      </c>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="98">
         <f ca="1">AD5</f>
-        <v>43779</v>
-      </c>
-      <c r="AE4" s="87"/>
-      <c r="AF4" s="87"/>
-      <c r="AG4" s="87"/>
-      <c r="AH4" s="87"/>
-      <c r="AI4" s="87"/>
-      <c r="AJ4" s="88"/>
-      <c r="AK4" s="86">
+        <v>43786</v>
+      </c>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="98">
         <f ca="1">AK5</f>
-        <v>43786</v>
-      </c>
-      <c r="AL4" s="87"/>
-      <c r="AM4" s="87"/>
-      <c r="AN4" s="87"/>
-      <c r="AO4" s="87"/>
-      <c r="AP4" s="87"/>
-      <c r="AQ4" s="88"/>
-      <c r="AR4" s="86">
+        <v>43793</v>
+      </c>
+      <c r="AL4" s="99"/>
+      <c r="AM4" s="99"/>
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="99"/>
+      <c r="AP4" s="99"/>
+      <c r="AQ4" s="100"/>
+      <c r="AR4" s="98">
         <f ca="1">AR5</f>
-        <v>43793</v>
-      </c>
-      <c r="AS4" s="87"/>
-      <c r="AT4" s="87"/>
-      <c r="AU4" s="87"/>
-      <c r="AV4" s="87"/>
-      <c r="AW4" s="87"/>
-      <c r="AX4" s="88"/>
-      <c r="AY4" s="86">
+        <v>43800</v>
+      </c>
+      <c r="AS4" s="99"/>
+      <c r="AT4" s="99"/>
+      <c r="AU4" s="99"/>
+      <c r="AV4" s="99"/>
+      <c r="AW4" s="99"/>
+      <c r="AX4" s="100"/>
+      <c r="AY4" s="98">
         <f ca="1">AY5</f>
-        <v>43800</v>
-      </c>
-      <c r="AZ4" s="87"/>
-      <c r="BA4" s="87"/>
-      <c r="BB4" s="87"/>
-      <c r="BC4" s="87"/>
-      <c r="BD4" s="87"/>
-      <c r="BE4" s="88"/>
-      <c r="BF4" s="86">
+        <v>43807</v>
+      </c>
+      <c r="AZ4" s="99"/>
+      <c r="BA4" s="99"/>
+      <c r="BB4" s="99"/>
+      <c r="BC4" s="99"/>
+      <c r="BD4" s="99"/>
+      <c r="BE4" s="100"/>
+      <c r="BF4" s="98">
         <f ca="1">BF5</f>
-        <v>43807</v>
-      </c>
-      <c r="BG4" s="87"/>
-      <c r="BH4" s="87"/>
-      <c r="BI4" s="87"/>
-      <c r="BJ4" s="87"/>
-      <c r="BK4" s="87"/>
-      <c r="BL4" s="88"/>
+        <v>43814</v>
+      </c>
+      <c r="BG4" s="99"/>
+      <c r="BH4" s="99"/>
+      <c r="BI4" s="99"/>
+      <c r="BJ4" s="99"/>
+      <c r="BK4" s="99"/>
+      <c r="BL4" s="100"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="92"/>
-      <c r="C5" s="92"/>
-      <c r="D5" s="92"/>
-      <c r="E5" s="92"/>
-      <c r="F5" s="92"/>
-      <c r="G5" s="92"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
       <c r="I5" s="71">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+1+7*(Display_Week-1)</f>
-        <v>43758</v>
+        <v>43765</v>
       </c>
       <c r="J5" s="72">
         <f ca="1">I5+1</f>
-        <v>43759</v>
+        <v>43766</v>
       </c>
       <c r="K5" s="72">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>43760</v>
+        <v>43767</v>
       </c>
       <c r="L5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43761</v>
+        <v>43768</v>
       </c>
       <c r="M5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43762</v>
+        <v>43769</v>
       </c>
       <c r="N5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43763</v>
+        <v>43770</v>
       </c>
       <c r="O5" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>43764</v>
+        <v>43771</v>
       </c>
       <c r="P5" s="71">
         <f ca="1">O5+1</f>
-        <v>43765</v>
+        <v>43772</v>
       </c>
       <c r="Q5" s="72">
         <f ca="1">P5+1</f>
-        <v>43766</v>
+        <v>43773</v>
       </c>
       <c r="R5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43767</v>
+        <v>43774</v>
       </c>
       <c r="S5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43768</v>
+        <v>43775</v>
       </c>
       <c r="T5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43769</v>
+        <v>43776</v>
       </c>
       <c r="U5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43770</v>
+        <v>43777</v>
       </c>
       <c r="V5" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>43771</v>
+        <v>43778</v>
       </c>
       <c r="W5" s="71">
         <f ca="1">V5+1</f>
-        <v>43772</v>
+        <v>43779</v>
       </c>
       <c r="X5" s="72">
         <f ca="1">W5+1</f>
-        <v>43773</v>
+        <v>43780</v>
       </c>
       <c r="Y5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43774</v>
+        <v>43781</v>
       </c>
       <c r="Z5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43775</v>
+        <v>43782</v>
       </c>
       <c r="AA5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43776</v>
+        <v>43783</v>
       </c>
       <c r="AB5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43777</v>
+        <v>43784</v>
       </c>
       <c r="AC5" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>43778</v>
+        <v>43785</v>
       </c>
       <c r="AD5" s="71">
         <f ca="1">AC5+1</f>
-        <v>43779</v>
+        <v>43786</v>
       </c>
       <c r="AE5" s="72">
         <f ca="1">AD5+1</f>
-        <v>43780</v>
+        <v>43787</v>
       </c>
       <c r="AF5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43781</v>
+        <v>43788</v>
       </c>
       <c r="AG5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43782</v>
+        <v>43789</v>
       </c>
       <c r="AH5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43783</v>
+        <v>43790</v>
       </c>
       <c r="AI5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43784</v>
+        <v>43791</v>
       </c>
       <c r="AJ5" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>43785</v>
+        <v>43792</v>
       </c>
       <c r="AK5" s="71">
         <f ca="1">AJ5+1</f>
-        <v>43786</v>
+        <v>43793</v>
       </c>
       <c r="AL5" s="72">
         <f ca="1">AK5+1</f>
-        <v>43787</v>
+        <v>43794</v>
       </c>
       <c r="AM5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43788</v>
+        <v>43795</v>
       </c>
       <c r="AN5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43789</v>
+        <v>43796</v>
       </c>
       <c r="AO5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43790</v>
+        <v>43797</v>
       </c>
       <c r="AP5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43791</v>
+        <v>43798</v>
       </c>
       <c r="AQ5" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>43792</v>
+        <v>43799</v>
       </c>
       <c r="AR5" s="71">
         <f ca="1">AQ5+1</f>
-        <v>43793</v>
+        <v>43800</v>
       </c>
       <c r="AS5" s="72">
         <f ca="1">AR5+1</f>
-        <v>43794</v>
+        <v>43801</v>
       </c>
       <c r="AT5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43795</v>
+        <v>43802</v>
       </c>
       <c r="AU5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43796</v>
+        <v>43803</v>
       </c>
       <c r="AV5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43797</v>
+        <v>43804</v>
       </c>
       <c r="AW5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43798</v>
+        <v>43805</v>
       </c>
       <c r="AX5" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>43799</v>
+        <v>43806</v>
       </c>
       <c r="AY5" s="71">
         <f ca="1">AX5+1</f>
-        <v>43800</v>
+        <v>43807</v>
       </c>
       <c r="AZ5" s="72">
         <f ca="1">AY5+1</f>
-        <v>43801</v>
+        <v>43808</v>
       </c>
       <c r="BA5" s="72">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>43802</v>
+        <v>43809</v>
       </c>
       <c r="BB5" s="72">
         <f t="shared" ca="1" si="1"/>
-        <v>43803</v>
+        <v>43810</v>
       </c>
       <c r="BC5" s="72">
         <f t="shared" ca="1" si="1"/>
-        <v>43804</v>
+        <v>43811</v>
       </c>
       <c r="BD5" s="72">
         <f t="shared" ca="1" si="1"/>
-        <v>43805</v>
+        <v>43812</v>
       </c>
       <c r="BE5" s="73">
         <f t="shared" ca="1" si="1"/>
-        <v>43806</v>
+        <v>43813</v>
       </c>
       <c r="BF5" s="71">
         <f ca="1">BE5+1</f>
-        <v>43807</v>
+        <v>43814</v>
       </c>
       <c r="BG5" s="72">
         <f ca="1">BF5+1</f>
-        <v>43808</v>
+        <v>43815</v>
       </c>
       <c r="BH5" s="72">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>43809</v>
+        <v>43816</v>
       </c>
       <c r="BI5" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>43810</v>
+        <v>43817</v>
       </c>
       <c r="BJ5" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>43811</v>
+        <v>43818</v>
       </c>
       <c r="BK5" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>43812</v>
+        <v>43819</v>
       </c>
       <c r="BL5" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>43813</v>
+        <v>43820</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3183,7 +3341,7 @@
       <c r="F8" s="75"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16" t="str">
-        <f t="shared" ref="H8:H56" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H79" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="51"/>
@@ -3258,11 +3416,11 @@
       </c>
       <c r="E9" s="1">
         <f ca="1">Project_Start</f>
-        <v>43764</v>
+        <v>43767</v>
       </c>
       <c r="F9" s="1">
         <f ca="1">E9+G9</f>
-        <v>43769</v>
+        <v>43772</v>
       </c>
       <c r="G9" s="16">
         <v>5</v>
@@ -3341,11 +3499,11 @@
       </c>
       <c r="E10" s="1">
         <f ca="1">F9+1</f>
-        <v>43770</v>
+        <v>43773</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ref="F10:F11" ca="1" si="6">E10+G10</f>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="G10" s="16">
         <v>5</v>
@@ -3422,11 +3580,11 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" ref="E11" ca="1" si="7">F10+1</f>
-        <v>43776</v>
+        <v>43779</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>43791</v>
+        <v>43794</v>
       </c>
       <c r="G11" s="16">
         <v>15</v>
@@ -3576,11 +3734,11 @@
       </c>
       <c r="E13" s="2">
         <f ca="1">Project_Start</f>
-        <v>43764</v>
+        <v>43767</v>
       </c>
       <c r="F13" s="2">
         <f ca="1">E13+G13</f>
-        <v>43769</v>
+        <v>43772</v>
       </c>
       <c r="G13" s="16">
         <v>5</v>
@@ -3657,11 +3815,11 @@
       </c>
       <c r="E14" s="2">
         <f ca="1">F13+1</f>
-        <v>43770</v>
+        <v>43773</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" ref="F14:F18" ca="1" si="8">E14+G14</f>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="G14" s="16">
         <v>5</v>
@@ -3738,11 +3896,11 @@
       </c>
       <c r="E15" s="2">
         <f t="shared" ref="E15:E18" ca="1" si="9">F14+1</f>
-        <v>43776</v>
+        <v>43779</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43781</v>
+        <v>43784</v>
       </c>
       <c r="G15" s="16">
         <v>5</v>
@@ -3819,11 +3977,11 @@
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43782</v>
+        <v>43785</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43787</v>
+        <v>43790</v>
       </c>
       <c r="G16" s="16">
         <v>5</v>
@@ -3900,11 +4058,11 @@
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43788</v>
+        <v>43791</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43793</v>
+        <v>43796</v>
       </c>
       <c r="G17" s="16">
         <v>5</v>
@@ -3981,11 +4139,11 @@
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43794</v>
+        <v>43797</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43799</v>
+        <v>43802</v>
       </c>
       <c r="G18" s="16">
         <v>5</v>
@@ -4062,11 +4220,11 @@
       </c>
       <c r="E19" s="2">
         <f ca="1">F17+1</f>
-        <v>43794</v>
+        <v>43797</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" ref="F19:F30" ca="1" si="10">E19+G19</f>
-        <v>43799</v>
+        <v>43802</v>
       </c>
       <c r="G19" s="16">
         <v>5</v>
@@ -4141,11 +4299,11 @@
       <c r="D20" s="20"/>
       <c r="E20" s="2">
         <f t="shared" ref="E20:E30" ca="1" si="11">F18+1</f>
-        <v>43800</v>
+        <v>43803</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43801</v>
+        <v>43804</v>
       </c>
       <c r="G20" s="16">
         <v>1</v>
@@ -4217,11 +4375,11 @@
       <c r="D21" s="20"/>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43800</v>
+        <v>43803</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43801</v>
+        <v>43804</v>
       </c>
       <c r="G21" s="16">
         <v>1</v>
@@ -4293,11 +4451,11 @@
       <c r="D22" s="20"/>
       <c r="E22" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43802</v>
+        <v>43805</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43803</v>
+        <v>43806</v>
       </c>
       <c r="G22" s="16">
         <v>1</v>
@@ -4369,11 +4527,11 @@
       <c r="D23" s="20"/>
       <c r="E23" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43802</v>
+        <v>43805</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43803</v>
+        <v>43806</v>
       </c>
       <c r="G23" s="16">
         <v>1</v>
@@ -4445,11 +4603,11 @@
       <c r="D24" s="20"/>
       <c r="E24" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43804</v>
+        <v>43807</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43805</v>
+        <v>43808</v>
       </c>
       <c r="G24" s="16">
         <v>1</v>
@@ -4521,11 +4679,11 @@
       <c r="D25" s="20"/>
       <c r="E25" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43804</v>
+        <v>43807</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43807</v>
+        <v>43810</v>
       </c>
       <c r="G25" s="16">
         <v>3</v>
@@ -4597,11 +4755,11 @@
       <c r="D26" s="20"/>
       <c r="E26" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43806</v>
+        <v>43809</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43808</v>
+        <v>43811</v>
       </c>
       <c r="G26" s="16">
         <v>2</v>
@@ -4673,11 +4831,11 @@
       <c r="D27" s="20"/>
       <c r="E27" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43808</v>
+        <v>43811</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43810</v>
+        <v>43813</v>
       </c>
       <c r="G27" s="16">
         <v>2</v>
@@ -4749,11 +4907,11 @@
       <c r="D28" s="20"/>
       <c r="E28" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43809</v>
+        <v>43812</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43811</v>
+        <v>43814</v>
       </c>
       <c r="G28" s="16">
         <v>2</v>
@@ -4825,11 +4983,11 @@
       <c r="D29" s="20"/>
       <c r="E29" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43811</v>
+        <v>43814</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43813</v>
+        <v>43816</v>
       </c>
       <c r="G29" s="16">
         <v>2</v>
@@ -4901,11 +5059,11 @@
       <c r="D30" s="20"/>
       <c r="E30" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43812</v>
+        <v>43815</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43814</v>
+        <v>43817</v>
       </c>
       <c r="G30" s="16">
         <v>2</v>
@@ -5052,11 +5210,11 @@
       </c>
       <c r="E32" s="3">
         <f ca="1">Project_Start</f>
-        <v>43764</v>
+        <v>43767</v>
       </c>
       <c r="F32" s="3">
         <f ca="1">E32+G32</f>
-        <v>43768</v>
+        <v>43771</v>
       </c>
       <c r="G32" s="16">
         <v>4</v>
@@ -5128,11 +5286,11 @@
       <c r="D33" s="23"/>
       <c r="E33" s="3">
         <f ca="1">F32+1</f>
-        <v>43769</v>
+        <v>43772</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" ref="F33:F45" ca="1" si="12">E33+G33</f>
-        <v>43774</v>
+        <v>43777</v>
       </c>
       <c r="G33" s="16">
         <v>5</v>
@@ -5204,11 +5362,11 @@
       <c r="D34" s="23"/>
       <c r="E34" s="3">
         <f t="shared" ref="E34:E36" ca="1" si="13">F33+1</f>
-        <v>43775</v>
+        <v>43778</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>43780</v>
+        <v>43783</v>
       </c>
       <c r="G34" s="16">
         <v>5</v>
@@ -5280,11 +5438,11 @@
       <c r="D35" s="23"/>
       <c r="E35" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>43781</v>
+        <v>43784</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>43786</v>
+        <v>43789</v>
       </c>
       <c r="G35" s="16">
         <v>5</v>
@@ -5356,11 +5514,11 @@
       <c r="D36" s="23"/>
       <c r="E36" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>43787</v>
+        <v>43790</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>43792</v>
+        <v>43795</v>
       </c>
       <c r="G36" s="16">
         <v>5</v>
@@ -6131,13 +6289,13 @@
       <c r="A46" s="45" t="s">
         <v>11</v>
       </c>
-      <c r="B46" s="99" t="s">
+      <c r="B46" s="92" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="94"/>
-      <c r="D46" s="95"/>
-      <c r="E46" s="100"/>
-      <c r="F46" s="101"/>
+      <c r="C46" s="87"/>
+      <c r="D46" s="88"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="94"/>
       <c r="G46" s="16"/>
       <c r="H46" s="16" t="str">
         <f t="shared" si="5"/>
@@ -6202,17 +6360,17 @@
     </row>
     <row r="47" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="45"/>
-      <c r="B47" s="96" t="s">
+      <c r="B47" s="89" t="s">
         <v>69</v>
       </c>
-      <c r="C47" s="97"/>
-      <c r="D47" s="98">
+      <c r="C47" s="90"/>
+      <c r="D47" s="91">
         <v>0.01</v>
       </c>
-      <c r="E47" s="93">
+      <c r="E47" s="86">
         <v>43763</v>
       </c>
-      <c r="F47" s="93">
+      <c r="F47" s="86">
         <f t="shared" ref="F47:F54" si="16">E47+G47</f>
         <v>43815</v>
       </c>
@@ -6282,15 +6440,15 @@
     </row>
     <row r="48" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="45"/>
-      <c r="B48" s="96" t="s">
+      <c r="B48" s="89" t="s">
         <v>70</v>
       </c>
-      <c r="C48" s="97"/>
-      <c r="D48" s="98"/>
-      <c r="E48" s="93">
+      <c r="C48" s="90"/>
+      <c r="D48" s="91"/>
+      <c r="E48" s="86">
         <v>43763</v>
       </c>
-      <c r="F48" s="93">
+      <c r="F48" s="86">
         <v>43769</v>
       </c>
       <c r="G48" s="16">
@@ -6359,16 +6517,18 @@
     </row>
     <row r="49" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="45"/>
-      <c r="B49" s="96" t="s">
+      <c r="B49" s="89" t="s">
         <v>71</v>
       </c>
-      <c r="C49" s="97"/>
-      <c r="D49" s="98"/>
-      <c r="E49" s="93">
+      <c r="C49" s="90"/>
+      <c r="D49" s="91">
+        <v>0.01</v>
+      </c>
+      <c r="E49" s="86">
         <f t="shared" ref="E49:E54" si="17">F48+1</f>
         <v>43770</v>
       </c>
-      <c r="F49" s="93">
+      <c r="F49" s="86">
         <f t="shared" si="16"/>
         <v>43788</v>
       </c>
@@ -6438,16 +6598,16 @@
     </row>
     <row r="50" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="45"/>
-      <c r="B50" s="96" t="s">
+      <c r="B50" s="89" t="s">
         <v>72</v>
       </c>
-      <c r="C50" s="97"/>
-      <c r="D50" s="98"/>
-      <c r="E50" s="93">
+      <c r="C50" s="90"/>
+      <c r="D50" s="91"/>
+      <c r="E50" s="86">
         <f t="shared" si="17"/>
         <v>43789</v>
       </c>
-      <c r="F50" s="93">
+      <c r="F50" s="86">
         <f t="shared" si="16"/>
         <v>43794</v>
       </c>
@@ -6517,16 +6677,16 @@
     </row>
     <row r="51" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="45"/>
-      <c r="B51" s="96" t="s">
+      <c r="B51" s="89" t="s">
         <v>73</v>
       </c>
-      <c r="C51" s="97"/>
-      <c r="D51" s="98"/>
-      <c r="E51" s="93">
+      <c r="C51" s="90"/>
+      <c r="D51" s="91"/>
+      <c r="E51" s="86">
         <f t="shared" si="17"/>
         <v>43795</v>
       </c>
-      <c r="F51" s="93">
+      <c r="F51" s="86">
         <f t="shared" si="16"/>
         <v>43805</v>
       </c>
@@ -6596,16 +6756,16 @@
     </row>
     <row r="52" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="45"/>
-      <c r="B52" s="96" t="s">
+      <c r="B52" s="89" t="s">
         <v>74</v>
       </c>
-      <c r="C52" s="97"/>
-      <c r="D52" s="98"/>
-      <c r="E52" s="93">
+      <c r="C52" s="90"/>
+      <c r="D52" s="91"/>
+      <c r="E52" s="86">
         <f t="shared" si="17"/>
         <v>43806</v>
       </c>
-      <c r="F52" s="93">
+      <c r="F52" s="86">
         <f t="shared" si="16"/>
         <v>43813</v>
       </c>
@@ -6675,16 +6835,16 @@
     </row>
     <row r="53" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="45"/>
-      <c r="B53" s="96" t="s">
+      <c r="B53" s="89" t="s">
         <v>75</v>
       </c>
-      <c r="C53" s="97"/>
-      <c r="D53" s="98"/>
-      <c r="E53" s="93">
+      <c r="C53" s="90"/>
+      <c r="D53" s="91"/>
+      <c r="E53" s="86">
         <f t="shared" si="17"/>
         <v>43814</v>
       </c>
-      <c r="F53" s="93">
+      <c r="F53" s="86">
         <f t="shared" si="16"/>
         <v>43819</v>
       </c>
@@ -6754,16 +6914,16 @@
     </row>
     <row r="54" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="45"/>
-      <c r="B54" s="96" t="s">
+      <c r="B54" s="89" t="s">
         <v>76</v>
       </c>
-      <c r="C54" s="97"/>
-      <c r="D54" s="98"/>
-      <c r="E54" s="93">
+      <c r="C54" s="90"/>
+      <c r="D54" s="91"/>
+      <c r="E54" s="86">
         <f t="shared" si="17"/>
         <v>43820</v>
       </c>
-      <c r="F54" s="93">
+      <c r="F54" s="86">
         <f t="shared" si="16"/>
         <v>43822</v>
       </c>
@@ -6832,14 +6992,16 @@
       <c r="BL54" s="51"/>
     </row>
     <row r="55" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B55" s="62"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="27"/>
-      <c r="E55" s="64"/>
-      <c r="F55" s="64"/>
+      <c r="A55" s="42" t="s">
+        <v>10</v>
+      </c>
+      <c r="B55" s="18" t="s">
+        <v>88</v>
+      </c>
+      <c r="C55" s="56"/>
+      <c r="D55" s="19"/>
+      <c r="E55" s="76"/>
+      <c r="F55" s="77"/>
       <c r="G55" s="16"/>
       <c r="H55" s="16" t="str">
         <f t="shared" si="5"/>
@@ -6903,95 +7065,1886 @@
       <c r="BL55" s="51"/>
     </row>
     <row r="56" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C56" s="29"/>
-      <c r="D56" s="30"/>
-      <c r="E56" s="31"/>
-      <c r="F56" s="32"/>
-      <c r="G56" s="33"/>
-      <c r="H56" s="33" t="str">
+      <c r="A56" s="42"/>
+      <c r="B56" s="83" t="s">
+        <v>60</v>
+      </c>
+      <c r="C56" s="57"/>
+      <c r="D56" s="20">
+        <v>1</v>
+      </c>
+      <c r="E56" s="2">
+        <f ca="1">Project_Start</f>
+        <v>43767</v>
+      </c>
+      <c r="F56" s="2">
+        <f ca="1">E56+G56</f>
+        <v>43772</v>
+      </c>
+      <c r="G56" s="16">
+        <v>5</v>
+      </c>
+      <c r="H56" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I56" s="51"/>
+      <c r="J56" s="51"/>
+      <c r="K56" s="51"/>
+      <c r="L56" s="51"/>
+      <c r="M56" s="51"/>
+      <c r="N56" s="51"/>
+      <c r="O56" s="51"/>
+      <c r="P56" s="51"/>
+      <c r="Q56" s="51"/>
+      <c r="R56" s="51"/>
+      <c r="S56" s="51"/>
+      <c r="T56" s="51"/>
+      <c r="U56" s="51"/>
+      <c r="V56" s="51"/>
+      <c r="W56" s="51"/>
+      <c r="X56" s="51"/>
+      <c r="Y56" s="51"/>
+      <c r="Z56" s="51"/>
+      <c r="AA56" s="51"/>
+      <c r="AB56" s="51"/>
+      <c r="AC56" s="51"/>
+      <c r="AD56" s="51"/>
+      <c r="AE56" s="51"/>
+      <c r="AF56" s="51"/>
+      <c r="AG56" s="51"/>
+      <c r="AH56" s="51"/>
+      <c r="AI56" s="51"/>
+      <c r="AJ56" s="51"/>
+      <c r="AK56" s="51"/>
+      <c r="AL56" s="51"/>
+      <c r="AM56" s="51"/>
+      <c r="AN56" s="51"/>
+      <c r="AO56" s="51"/>
+      <c r="AP56" s="51"/>
+      <c r="AQ56" s="51"/>
+      <c r="AR56" s="51"/>
+      <c r="AS56" s="51"/>
+      <c r="AT56" s="51"/>
+      <c r="AU56" s="51"/>
+      <c r="AV56" s="51"/>
+      <c r="AW56" s="51"/>
+      <c r="AX56" s="51"/>
+      <c r="AY56" s="51"/>
+      <c r="AZ56" s="51"/>
+      <c r="BA56" s="51"/>
+      <c r="BB56" s="51"/>
+      <c r="BC56" s="51"/>
+      <c r="BD56" s="51"/>
+      <c r="BE56" s="51"/>
+      <c r="BF56" s="51"/>
+      <c r="BG56" s="51"/>
+      <c r="BH56" s="51"/>
+      <c r="BI56" s="51"/>
+      <c r="BJ56" s="51"/>
+      <c r="BK56" s="51"/>
+      <c r="BL56" s="51"/>
+    </row>
+    <row r="57" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="45"/>
+      <c r="B57" s="83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C57" s="57"/>
+      <c r="D57" s="20">
+        <v>1</v>
+      </c>
+      <c r="E57" s="2">
+        <f ca="1">F56+1</f>
+        <v>43773</v>
+      </c>
+      <c r="F57" s="2">
+        <f t="shared" ref="F57:F73" ca="1" si="18">E57+G57</f>
+        <v>43778</v>
+      </c>
+      <c r="G57" s="16">
+        <v>5</v>
+      </c>
+      <c r="H57" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I57" s="51"/>
+      <c r="J57" s="51"/>
+      <c r="K57" s="51"/>
+      <c r="L57" s="51"/>
+      <c r="M57" s="51"/>
+      <c r="N57" s="51"/>
+      <c r="O57" s="51"/>
+      <c r="P57" s="51"/>
+      <c r="Q57" s="51"/>
+      <c r="R57" s="51"/>
+      <c r="S57" s="51"/>
+      <c r="T57" s="51"/>
+      <c r="U57" s="55"/>
+      <c r="V57" s="55"/>
+      <c r="W57" s="51"/>
+      <c r="X57" s="51"/>
+      <c r="Y57" s="51"/>
+      <c r="Z57" s="51"/>
+      <c r="AA57" s="51"/>
+      <c r="AB57" s="51"/>
+      <c r="AC57" s="51"/>
+      <c r="AD57" s="51"/>
+      <c r="AE57" s="51"/>
+      <c r="AF57" s="51"/>
+      <c r="AG57" s="51"/>
+      <c r="AH57" s="51"/>
+      <c r="AI57" s="51"/>
+      <c r="AJ57" s="51"/>
+      <c r="AK57" s="51"/>
+      <c r="AL57" s="51"/>
+      <c r="AM57" s="51"/>
+      <c r="AN57" s="51"/>
+      <c r="AO57" s="51"/>
+      <c r="AP57" s="51"/>
+      <c r="AQ57" s="51"/>
+      <c r="AR57" s="51"/>
+      <c r="AS57" s="51"/>
+      <c r="AT57" s="51"/>
+      <c r="AU57" s="51"/>
+      <c r="AV57" s="51"/>
+      <c r="AW57" s="51"/>
+      <c r="AX57" s="51"/>
+      <c r="AY57" s="51"/>
+      <c r="AZ57" s="51"/>
+      <c r="BA57" s="51"/>
+      <c r="BB57" s="51"/>
+      <c r="BC57" s="51"/>
+      <c r="BD57" s="51"/>
+      <c r="BE57" s="51"/>
+      <c r="BF57" s="51"/>
+      <c r="BG57" s="51"/>
+      <c r="BH57" s="51"/>
+      <c r="BI57" s="51"/>
+      <c r="BJ57" s="51"/>
+      <c r="BK57" s="51"/>
+      <c r="BL57" s="51"/>
+    </row>
+    <row r="58" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="45"/>
+      <c r="B58" s="83" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="57"/>
+      <c r="D58" s="20">
+        <v>1</v>
+      </c>
+      <c r="E58" s="2">
+        <f t="shared" ref="E58:E61" ca="1" si="19">F57+1</f>
+        <v>43779</v>
+      </c>
+      <c r="F58" s="2">
+        <f t="shared" ca="1" si="18"/>
+        <v>43784</v>
+      </c>
+      <c r="G58" s="16">
+        <v>5</v>
+      </c>
+      <c r="H58" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I58" s="51"/>
+      <c r="J58" s="51"/>
+      <c r="K58" s="51"/>
+      <c r="L58" s="51"/>
+      <c r="M58" s="51"/>
+      <c r="N58" s="51"/>
+      <c r="O58" s="51"/>
+      <c r="P58" s="51"/>
+      <c r="Q58" s="51"/>
+      <c r="R58" s="51"/>
+      <c r="S58" s="51"/>
+      <c r="T58" s="51"/>
+      <c r="U58" s="51"/>
+      <c r="V58" s="51"/>
+      <c r="W58" s="51"/>
+      <c r="X58" s="51"/>
+      <c r="Y58" s="51"/>
+      <c r="Z58" s="51"/>
+      <c r="AA58" s="51"/>
+      <c r="AB58" s="51"/>
+      <c r="AC58" s="51"/>
+      <c r="AD58" s="51"/>
+      <c r="AE58" s="51"/>
+      <c r="AF58" s="51"/>
+      <c r="AG58" s="51"/>
+      <c r="AH58" s="51"/>
+      <c r="AI58" s="51"/>
+      <c r="AJ58" s="51"/>
+      <c r="AK58" s="51"/>
+      <c r="AL58" s="51"/>
+      <c r="AM58" s="51"/>
+      <c r="AN58" s="51"/>
+      <c r="AO58" s="51"/>
+      <c r="AP58" s="51"/>
+      <c r="AQ58" s="51"/>
+      <c r="AR58" s="51"/>
+      <c r="AS58" s="51"/>
+      <c r="AT58" s="51"/>
+      <c r="AU58" s="51"/>
+      <c r="AV58" s="51"/>
+      <c r="AW58" s="51"/>
+      <c r="AX58" s="51"/>
+      <c r="AY58" s="51"/>
+      <c r="AZ58" s="51"/>
+      <c r="BA58" s="51"/>
+      <c r="BB58" s="51"/>
+      <c r="BC58" s="51"/>
+      <c r="BD58" s="51"/>
+      <c r="BE58" s="51"/>
+      <c r="BF58" s="51"/>
+      <c r="BG58" s="51"/>
+      <c r="BH58" s="51"/>
+      <c r="BI58" s="51"/>
+      <c r="BJ58" s="51"/>
+      <c r="BK58" s="51"/>
+      <c r="BL58" s="51"/>
+    </row>
+    <row r="59" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="45"/>
+      <c r="B59" s="83" t="s">
+        <v>63</v>
+      </c>
+      <c r="C59" s="57"/>
+      <c r="D59" s="20">
+        <v>1</v>
+      </c>
+      <c r="E59" s="2">
+        <f t="shared" ca="1" si="19"/>
+        <v>43785</v>
+      </c>
+      <c r="F59" s="2">
+        <f t="shared" ca="1" si="18"/>
+        <v>43790</v>
+      </c>
+      <c r="G59" s="16">
+        <v>5</v>
+      </c>
+      <c r="H59" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I59" s="51"/>
+      <c r="J59" s="51"/>
+      <c r="K59" s="51"/>
+      <c r="L59" s="51"/>
+      <c r="M59" s="51"/>
+      <c r="N59" s="51"/>
+      <c r="O59" s="51"/>
+      <c r="P59" s="51"/>
+      <c r="Q59" s="51"/>
+      <c r="R59" s="51"/>
+      <c r="S59" s="51"/>
+      <c r="T59" s="51"/>
+      <c r="U59" s="51"/>
+      <c r="V59" s="51"/>
+      <c r="W59" s="51"/>
+      <c r="X59" s="51"/>
+      <c r="Y59" s="55"/>
+      <c r="Z59" s="51"/>
+      <c r="AA59" s="51"/>
+      <c r="AB59" s="51"/>
+      <c r="AC59" s="51"/>
+      <c r="AD59" s="51"/>
+      <c r="AE59" s="51"/>
+      <c r="AF59" s="51"/>
+      <c r="AG59" s="51"/>
+      <c r="AH59" s="51"/>
+      <c r="AI59" s="51"/>
+      <c r="AJ59" s="51"/>
+      <c r="AK59" s="51"/>
+      <c r="AL59" s="51"/>
+      <c r="AM59" s="51"/>
+      <c r="AN59" s="51"/>
+      <c r="AO59" s="51"/>
+      <c r="AP59" s="51"/>
+      <c r="AQ59" s="51"/>
+      <c r="AR59" s="51"/>
+      <c r="AS59" s="51"/>
+      <c r="AT59" s="51"/>
+      <c r="AU59" s="51"/>
+      <c r="AV59" s="51"/>
+      <c r="AW59" s="51"/>
+      <c r="AX59" s="51"/>
+      <c r="AY59" s="51"/>
+      <c r="AZ59" s="51"/>
+      <c r="BA59" s="51"/>
+      <c r="BB59" s="51"/>
+      <c r="BC59" s="51"/>
+      <c r="BD59" s="51"/>
+      <c r="BE59" s="51"/>
+      <c r="BF59" s="51"/>
+      <c r="BG59" s="51"/>
+      <c r="BH59" s="51"/>
+      <c r="BI59" s="51"/>
+      <c r="BJ59" s="51"/>
+      <c r="BK59" s="51"/>
+      <c r="BL59" s="51"/>
+    </row>
+    <row r="60" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="45"/>
+      <c r="B60" s="83" t="s">
+        <v>64</v>
+      </c>
+      <c r="C60" s="57"/>
+      <c r="D60" s="20">
+        <v>1</v>
+      </c>
+      <c r="E60" s="2">
+        <f t="shared" ca="1" si="19"/>
+        <v>43791</v>
+      </c>
+      <c r="F60" s="2">
+        <f t="shared" ca="1" si="18"/>
+        <v>43796</v>
+      </c>
+      <c r="G60" s="16">
+        <v>5</v>
+      </c>
+      <c r="H60" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I60" s="51"/>
+      <c r="J60" s="51"/>
+      <c r="K60" s="51"/>
+      <c r="L60" s="51"/>
+      <c r="M60" s="51"/>
+      <c r="N60" s="51"/>
+      <c r="O60" s="51"/>
+      <c r="P60" s="51"/>
+      <c r="Q60" s="51"/>
+      <c r="R60" s="51"/>
+      <c r="S60" s="51"/>
+      <c r="T60" s="51"/>
+      <c r="U60" s="51"/>
+      <c r="V60" s="51"/>
+      <c r="W60" s="51"/>
+      <c r="X60" s="51"/>
+      <c r="Y60" s="51"/>
+      <c r="Z60" s="51"/>
+      <c r="AA60" s="51"/>
+      <c r="AB60" s="51"/>
+      <c r="AC60" s="51"/>
+      <c r="AD60" s="51"/>
+      <c r="AE60" s="51"/>
+      <c r="AF60" s="51"/>
+      <c r="AG60" s="51"/>
+      <c r="AH60" s="51"/>
+      <c r="AI60" s="51"/>
+      <c r="AJ60" s="51"/>
+      <c r="AK60" s="51"/>
+      <c r="AL60" s="51"/>
+      <c r="AM60" s="51"/>
+      <c r="AN60" s="51"/>
+      <c r="AO60" s="51"/>
+      <c r="AP60" s="51"/>
+      <c r="AQ60" s="51"/>
+      <c r="AR60" s="51"/>
+      <c r="AS60" s="51"/>
+      <c r="AT60" s="51"/>
+      <c r="AU60" s="51"/>
+      <c r="AV60" s="51"/>
+      <c r="AW60" s="51"/>
+      <c r="AX60" s="51"/>
+      <c r="AY60" s="51"/>
+      <c r="AZ60" s="51"/>
+      <c r="BA60" s="51"/>
+      <c r="BB60" s="51"/>
+      <c r="BC60" s="51"/>
+      <c r="BD60" s="51"/>
+      <c r="BE60" s="51"/>
+      <c r="BF60" s="51"/>
+      <c r="BG60" s="51"/>
+      <c r="BH60" s="51"/>
+      <c r="BI60" s="51"/>
+      <c r="BJ60" s="51"/>
+      <c r="BK60" s="51"/>
+      <c r="BL60" s="51"/>
+    </row>
+    <row r="61" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="45"/>
+      <c r="B61" s="83" t="s">
+        <v>65</v>
+      </c>
+      <c r="C61" s="57"/>
+      <c r="D61" s="20">
+        <v>1</v>
+      </c>
+      <c r="E61" s="2">
+        <f t="shared" ca="1" si="19"/>
+        <v>43797</v>
+      </c>
+      <c r="F61" s="2">
+        <f t="shared" ca="1" si="18"/>
+        <v>43802</v>
+      </c>
+      <c r="G61" s="16">
+        <v>5</v>
+      </c>
+      <c r="H61" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I61" s="51"/>
+      <c r="J61" s="51"/>
+      <c r="K61" s="51"/>
+      <c r="L61" s="51"/>
+      <c r="M61" s="51"/>
+      <c r="N61" s="51"/>
+      <c r="O61" s="51"/>
+      <c r="P61" s="51"/>
+      <c r="Q61" s="51"/>
+      <c r="R61" s="51"/>
+      <c r="S61" s="51"/>
+      <c r="T61" s="51"/>
+      <c r="U61" s="51"/>
+      <c r="V61" s="51"/>
+      <c r="W61" s="51"/>
+      <c r="X61" s="51"/>
+      <c r="Y61" s="51"/>
+      <c r="Z61" s="51"/>
+      <c r="AA61" s="51"/>
+      <c r="AB61" s="51"/>
+      <c r="AC61" s="51"/>
+      <c r="AD61" s="51"/>
+      <c r="AE61" s="51"/>
+      <c r="AF61" s="51"/>
+      <c r="AG61" s="51"/>
+      <c r="AH61" s="51"/>
+      <c r="AI61" s="51"/>
+      <c r="AJ61" s="51"/>
+      <c r="AK61" s="51"/>
+      <c r="AL61" s="51"/>
+      <c r="AM61" s="51"/>
+      <c r="AN61" s="51"/>
+      <c r="AO61" s="51"/>
+      <c r="AP61" s="51"/>
+      <c r="AQ61" s="51"/>
+      <c r="AR61" s="51"/>
+      <c r="AS61" s="51"/>
+      <c r="AT61" s="51"/>
+      <c r="AU61" s="51"/>
+      <c r="AV61" s="51"/>
+      <c r="AW61" s="51"/>
+      <c r="AX61" s="51"/>
+      <c r="AY61" s="51"/>
+      <c r="AZ61" s="51"/>
+      <c r="BA61" s="51"/>
+      <c r="BB61" s="51"/>
+      <c r="BC61" s="51"/>
+      <c r="BD61" s="51"/>
+      <c r="BE61" s="51"/>
+      <c r="BF61" s="51"/>
+      <c r="BG61" s="51"/>
+      <c r="BH61" s="51"/>
+      <c r="BI61" s="51"/>
+      <c r="BJ61" s="51"/>
+      <c r="BK61" s="51"/>
+      <c r="BL61" s="51"/>
+    </row>
+    <row r="62" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A62" s="45"/>
+      <c r="B62" s="83" t="s">
+        <v>66</v>
+      </c>
+      <c r="C62" s="57"/>
+      <c r="D62" s="20">
+        <v>1</v>
+      </c>
+      <c r="E62" s="2">
+        <f ca="1">F60+1</f>
+        <v>43797</v>
+      </c>
+      <c r="F62" s="2">
+        <f t="shared" ca="1" si="18"/>
+        <v>43802</v>
+      </c>
+      <c r="G62" s="16">
+        <v>5</v>
+      </c>
+      <c r="H62" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I62" s="51"/>
+      <c r="J62" s="51"/>
+      <c r="K62" s="51"/>
+      <c r="L62" s="51"/>
+      <c r="M62" s="51"/>
+      <c r="N62" s="51"/>
+      <c r="O62" s="51"/>
+      <c r="P62" s="51"/>
+      <c r="Q62" s="51"/>
+      <c r="R62" s="51"/>
+      <c r="S62" s="51"/>
+      <c r="T62" s="51"/>
+      <c r="U62" s="51"/>
+      <c r="V62" s="51"/>
+      <c r="W62" s="51"/>
+      <c r="X62" s="51"/>
+      <c r="Y62" s="51"/>
+      <c r="Z62" s="51"/>
+      <c r="AA62" s="51"/>
+      <c r="AB62" s="51"/>
+      <c r="AC62" s="51"/>
+      <c r="AD62" s="51"/>
+      <c r="AE62" s="51"/>
+      <c r="AF62" s="51"/>
+      <c r="AG62" s="51"/>
+      <c r="AH62" s="51"/>
+      <c r="AI62" s="51"/>
+      <c r="AJ62" s="51"/>
+      <c r="AK62" s="51"/>
+      <c r="AL62" s="51"/>
+      <c r="AM62" s="51"/>
+      <c r="AN62" s="51"/>
+      <c r="AO62" s="51"/>
+      <c r="AP62" s="51"/>
+      <c r="AQ62" s="51"/>
+      <c r="AR62" s="51"/>
+      <c r="AS62" s="51"/>
+      <c r="AT62" s="51"/>
+      <c r="AU62" s="51"/>
+      <c r="AV62" s="51"/>
+      <c r="AW62" s="51"/>
+      <c r="AX62" s="51"/>
+      <c r="AY62" s="51"/>
+      <c r="AZ62" s="51"/>
+      <c r="BA62" s="51"/>
+      <c r="BB62" s="51"/>
+      <c r="BC62" s="51"/>
+      <c r="BD62" s="51"/>
+      <c r="BE62" s="51"/>
+      <c r="BF62" s="51"/>
+      <c r="BG62" s="51"/>
+      <c r="BH62" s="51"/>
+      <c r="BI62" s="51"/>
+      <c r="BJ62" s="51"/>
+      <c r="BK62" s="51"/>
+      <c r="BL62" s="51"/>
+    </row>
+    <row r="63" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="45"/>
+      <c r="B63" s="83" t="s">
+        <v>77</v>
+      </c>
+      <c r="C63" s="57"/>
+      <c r="D63" s="20"/>
+      <c r="E63" s="2">
+        <f t="shared" ref="E63:E73" ca="1" si="20">F61+1</f>
+        <v>43803</v>
+      </c>
+      <c r="F63" s="2">
+        <f t="shared" ca="1" si="18"/>
+        <v>43804</v>
+      </c>
+      <c r="G63" s="16">
+        <v>1</v>
+      </c>
+      <c r="H63" s="16"/>
+      <c r="I63" s="51"/>
+      <c r="J63" s="51"/>
+      <c r="K63" s="51"/>
+      <c r="L63" s="51"/>
+      <c r="M63" s="51"/>
+      <c r="N63" s="51"/>
+      <c r="O63" s="51"/>
+      <c r="P63" s="51"/>
+      <c r="Q63" s="51"/>
+      <c r="R63" s="51"/>
+      <c r="S63" s="51"/>
+      <c r="T63" s="51"/>
+      <c r="U63" s="51"/>
+      <c r="V63" s="51"/>
+      <c r="W63" s="51"/>
+      <c r="X63" s="51"/>
+      <c r="Y63" s="51"/>
+      <c r="Z63" s="51"/>
+      <c r="AA63" s="51"/>
+      <c r="AB63" s="51"/>
+      <c r="AC63" s="51"/>
+      <c r="AD63" s="51"/>
+      <c r="AE63" s="51"/>
+      <c r="AF63" s="51"/>
+      <c r="AG63" s="51"/>
+      <c r="AH63" s="51"/>
+      <c r="AI63" s="51"/>
+      <c r="AJ63" s="51"/>
+      <c r="AK63" s="51"/>
+      <c r="AL63" s="51"/>
+      <c r="AM63" s="51"/>
+      <c r="AN63" s="51"/>
+      <c r="AO63" s="51"/>
+      <c r="AP63" s="51"/>
+      <c r="AQ63" s="51"/>
+      <c r="AR63" s="51"/>
+      <c r="AS63" s="51"/>
+      <c r="AT63" s="51"/>
+      <c r="AU63" s="51"/>
+      <c r="AV63" s="51"/>
+      <c r="AW63" s="51"/>
+      <c r="AX63" s="51"/>
+      <c r="AY63" s="51"/>
+      <c r="AZ63" s="51"/>
+      <c r="BA63" s="51"/>
+      <c r="BB63" s="51"/>
+      <c r="BC63" s="51"/>
+      <c r="BD63" s="51"/>
+      <c r="BE63" s="51"/>
+      <c r="BF63" s="51"/>
+      <c r="BG63" s="51"/>
+      <c r="BH63" s="51"/>
+      <c r="BI63" s="51"/>
+      <c r="BJ63" s="51"/>
+      <c r="BK63" s="51"/>
+      <c r="BL63" s="51"/>
+    </row>
+    <row r="64" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A64" s="45"/>
+      <c r="B64" s="83" t="s">
+        <v>78</v>
+      </c>
+      <c r="C64" s="57"/>
+      <c r="D64" s="20"/>
+      <c r="E64" s="2">
+        <f t="shared" ca="1" si="20"/>
+        <v>43803</v>
+      </c>
+      <c r="F64" s="2">
+        <f t="shared" ca="1" si="18"/>
+        <v>43804</v>
+      </c>
+      <c r="G64" s="16">
+        <v>1</v>
+      </c>
+      <c r="H64" s="16"/>
+      <c r="I64" s="51"/>
+      <c r="J64" s="51"/>
+      <c r="K64" s="51"/>
+      <c r="L64" s="51"/>
+      <c r="M64" s="51"/>
+      <c r="N64" s="51"/>
+      <c r="O64" s="51"/>
+      <c r="P64" s="51"/>
+      <c r="Q64" s="51"/>
+      <c r="R64" s="51"/>
+      <c r="S64" s="51"/>
+      <c r="T64" s="51"/>
+      <c r="U64" s="51"/>
+      <c r="V64" s="51"/>
+      <c r="W64" s="51"/>
+      <c r="X64" s="51"/>
+      <c r="Y64" s="51"/>
+      <c r="Z64" s="51"/>
+      <c r="AA64" s="51"/>
+      <c r="AB64" s="51"/>
+      <c r="AC64" s="51"/>
+      <c r="AD64" s="51"/>
+      <c r="AE64" s="51"/>
+      <c r="AF64" s="51"/>
+      <c r="AG64" s="51"/>
+      <c r="AH64" s="51"/>
+      <c r="AI64" s="51"/>
+      <c r="AJ64" s="51"/>
+      <c r="AK64" s="51"/>
+      <c r="AL64" s="51"/>
+      <c r="AM64" s="51"/>
+      <c r="AN64" s="51"/>
+      <c r="AO64" s="51"/>
+      <c r="AP64" s="51"/>
+      <c r="AQ64" s="51"/>
+      <c r="AR64" s="51"/>
+      <c r="AS64" s="51"/>
+      <c r="AT64" s="51"/>
+      <c r="AU64" s="51"/>
+      <c r="AV64" s="51"/>
+      <c r="AW64" s="51"/>
+      <c r="AX64" s="51"/>
+      <c r="AY64" s="51"/>
+      <c r="AZ64" s="51"/>
+      <c r="BA64" s="51"/>
+      <c r="BB64" s="51"/>
+      <c r="BC64" s="51"/>
+      <c r="BD64" s="51"/>
+      <c r="BE64" s="51"/>
+      <c r="BF64" s="51"/>
+      <c r="BG64" s="51"/>
+      <c r="BH64" s="51"/>
+      <c r="BI64" s="51"/>
+      <c r="BJ64" s="51"/>
+      <c r="BK64" s="51"/>
+      <c r="BL64" s="51"/>
+    </row>
+    <row r="65" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A65" s="45"/>
+      <c r="B65" s="83" t="s">
+        <v>79</v>
+      </c>
+      <c r="C65" s="57"/>
+      <c r="D65" s="20"/>
+      <c r="E65" s="2">
+        <f t="shared" ca="1" si="20"/>
+        <v>43805</v>
+      </c>
+      <c r="F65" s="2">
+        <f t="shared" ca="1" si="18"/>
+        <v>43806</v>
+      </c>
+      <c r="G65" s="16">
+        <v>1</v>
+      </c>
+      <c r="H65" s="16"/>
+      <c r="I65" s="51"/>
+      <c r="J65" s="51"/>
+      <c r="K65" s="51"/>
+      <c r="L65" s="51"/>
+      <c r="M65" s="51"/>
+      <c r="N65" s="51"/>
+      <c r="O65" s="51"/>
+      <c r="P65" s="51"/>
+      <c r="Q65" s="51"/>
+      <c r="R65" s="51"/>
+      <c r="S65" s="51"/>
+      <c r="T65" s="51"/>
+      <c r="U65" s="51"/>
+      <c r="V65" s="51"/>
+      <c r="W65" s="51"/>
+      <c r="X65" s="51"/>
+      <c r="Y65" s="51"/>
+      <c r="Z65" s="51"/>
+      <c r="AA65" s="51"/>
+      <c r="AB65" s="51"/>
+      <c r="AC65" s="51"/>
+      <c r="AD65" s="51"/>
+      <c r="AE65" s="51"/>
+      <c r="AF65" s="51"/>
+      <c r="AG65" s="51"/>
+      <c r="AH65" s="51"/>
+      <c r="AI65" s="51"/>
+      <c r="AJ65" s="51"/>
+      <c r="AK65" s="51"/>
+      <c r="AL65" s="51"/>
+      <c r="AM65" s="51"/>
+      <c r="AN65" s="51"/>
+      <c r="AO65" s="51"/>
+      <c r="AP65" s="51"/>
+      <c r="AQ65" s="51"/>
+      <c r="AR65" s="51"/>
+      <c r="AS65" s="51"/>
+      <c r="AT65" s="51"/>
+      <c r="AU65" s="51"/>
+      <c r="AV65" s="51"/>
+      <c r="AW65" s="51"/>
+      <c r="AX65" s="51"/>
+      <c r="AY65" s="51"/>
+      <c r="AZ65" s="51"/>
+      <c r="BA65" s="51"/>
+      <c r="BB65" s="51"/>
+      <c r="BC65" s="51"/>
+      <c r="BD65" s="51"/>
+      <c r="BE65" s="51"/>
+      <c r="BF65" s="51"/>
+      <c r="BG65" s="51"/>
+      <c r="BH65" s="51"/>
+      <c r="BI65" s="51"/>
+      <c r="BJ65" s="51"/>
+      <c r="BK65" s="51"/>
+      <c r="BL65" s="51"/>
+    </row>
+    <row r="66" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A66" s="45"/>
+      <c r="B66" s="83" t="s">
+        <v>80</v>
+      </c>
+      <c r="C66" s="57"/>
+      <c r="D66" s="20"/>
+      <c r="E66" s="2">
+        <f t="shared" ca="1" si="20"/>
+        <v>43805</v>
+      </c>
+      <c r="F66" s="2">
+        <f t="shared" ca="1" si="18"/>
+        <v>43806</v>
+      </c>
+      <c r="G66" s="16">
+        <v>1</v>
+      </c>
+      <c r="H66" s="16"/>
+      <c r="I66" s="51"/>
+      <c r="J66" s="51"/>
+      <c r="K66" s="51"/>
+      <c r="L66" s="51"/>
+      <c r="M66" s="51"/>
+      <c r="N66" s="51"/>
+      <c r="O66" s="51"/>
+      <c r="P66" s="51"/>
+      <c r="Q66" s="51"/>
+      <c r="R66" s="51"/>
+      <c r="S66" s="51"/>
+      <c r="T66" s="51"/>
+      <c r="U66" s="51"/>
+      <c r="V66" s="51"/>
+      <c r="W66" s="51"/>
+      <c r="X66" s="51"/>
+      <c r="Y66" s="51"/>
+      <c r="Z66" s="51"/>
+      <c r="AA66" s="51"/>
+      <c r="AB66" s="51"/>
+      <c r="AC66" s="51"/>
+      <c r="AD66" s="51"/>
+      <c r="AE66" s="51"/>
+      <c r="AF66" s="51"/>
+      <c r="AG66" s="51"/>
+      <c r="AH66" s="51"/>
+      <c r="AI66" s="51"/>
+      <c r="AJ66" s="51"/>
+      <c r="AK66" s="51"/>
+      <c r="AL66" s="51"/>
+      <c r="AM66" s="51"/>
+      <c r="AN66" s="51"/>
+      <c r="AO66" s="51"/>
+      <c r="AP66" s="51"/>
+      <c r="AQ66" s="51"/>
+      <c r="AR66" s="51"/>
+      <c r="AS66" s="51"/>
+      <c r="AT66" s="51"/>
+      <c r="AU66" s="51"/>
+      <c r="AV66" s="51"/>
+      <c r="AW66" s="51"/>
+      <c r="AX66" s="51"/>
+      <c r="AY66" s="51"/>
+      <c r="AZ66" s="51"/>
+      <c r="BA66" s="51"/>
+      <c r="BB66" s="51"/>
+      <c r="BC66" s="51"/>
+      <c r="BD66" s="51"/>
+      <c r="BE66" s="51"/>
+      <c r="BF66" s="51"/>
+      <c r="BG66" s="51"/>
+      <c r="BH66" s="51"/>
+      <c r="BI66" s="51"/>
+      <c r="BJ66" s="51"/>
+      <c r="BK66" s="51"/>
+      <c r="BL66" s="51"/>
+    </row>
+    <row r="67" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A67" s="45"/>
+      <c r="B67" s="83" t="s">
+        <v>81</v>
+      </c>
+      <c r="C67" s="57"/>
+      <c r="D67" s="20"/>
+      <c r="E67" s="2">
+        <f t="shared" ca="1" si="20"/>
+        <v>43807</v>
+      </c>
+      <c r="F67" s="2">
+        <f t="shared" ca="1" si="18"/>
+        <v>43808</v>
+      </c>
+      <c r="G67" s="16">
+        <v>1</v>
+      </c>
+      <c r="H67" s="16"/>
+      <c r="I67" s="51"/>
+      <c r="J67" s="51"/>
+      <c r="K67" s="51"/>
+      <c r="L67" s="51"/>
+      <c r="M67" s="51"/>
+      <c r="N67" s="51"/>
+      <c r="O67" s="51"/>
+      <c r="P67" s="51"/>
+      <c r="Q67" s="51"/>
+      <c r="R67" s="51"/>
+      <c r="S67" s="51"/>
+      <c r="T67" s="51"/>
+      <c r="U67" s="51"/>
+      <c r="V67" s="51"/>
+      <c r="W67" s="51"/>
+      <c r="X67" s="51"/>
+      <c r="Y67" s="51"/>
+      <c r="Z67" s="51"/>
+      <c r="AA67" s="51"/>
+      <c r="AB67" s="51"/>
+      <c r="AC67" s="51"/>
+      <c r="AD67" s="51"/>
+      <c r="AE67" s="51"/>
+      <c r="AF67" s="51"/>
+      <c r="AG67" s="51"/>
+      <c r="AH67" s="51"/>
+      <c r="AI67" s="51"/>
+      <c r="AJ67" s="51"/>
+      <c r="AK67" s="51"/>
+      <c r="AL67" s="51"/>
+      <c r="AM67" s="51"/>
+      <c r="AN67" s="51"/>
+      <c r="AO67" s="51"/>
+      <c r="AP67" s="51"/>
+      <c r="AQ67" s="51"/>
+      <c r="AR67" s="51"/>
+      <c r="AS67" s="51"/>
+      <c r="AT67" s="51"/>
+      <c r="AU67" s="51"/>
+      <c r="AV67" s="51"/>
+      <c r="AW67" s="51"/>
+      <c r="AX67" s="51"/>
+      <c r="AY67" s="51"/>
+      <c r="AZ67" s="51"/>
+      <c r="BA67" s="51"/>
+      <c r="BB67" s="51"/>
+      <c r="BC67" s="51"/>
+      <c r="BD67" s="51"/>
+      <c r="BE67" s="51"/>
+      <c r="BF67" s="51"/>
+      <c r="BG67" s="51"/>
+      <c r="BH67" s="51"/>
+      <c r="BI67" s="51"/>
+      <c r="BJ67" s="51"/>
+      <c r="BK67" s="51"/>
+      <c r="BL67" s="51"/>
+    </row>
+    <row r="68" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A68" s="45"/>
+      <c r="B68" s="83" t="s">
+        <v>82</v>
+      </c>
+      <c r="C68" s="57"/>
+      <c r="D68" s="20"/>
+      <c r="E68" s="2">
+        <f t="shared" ca="1" si="20"/>
+        <v>43807</v>
+      </c>
+      <c r="F68" s="2">
+        <f t="shared" ca="1" si="18"/>
+        <v>43810</v>
+      </c>
+      <c r="G68" s="16">
+        <v>3</v>
+      </c>
+      <c r="H68" s="16"/>
+      <c r="I68" s="51"/>
+      <c r="J68" s="51"/>
+      <c r="K68" s="51"/>
+      <c r="L68" s="51"/>
+      <c r="M68" s="51"/>
+      <c r="N68" s="51"/>
+      <c r="O68" s="51"/>
+      <c r="P68" s="51"/>
+      <c r="Q68" s="51"/>
+      <c r="R68" s="51"/>
+      <c r="S68" s="51"/>
+      <c r="T68" s="51"/>
+      <c r="U68" s="51"/>
+      <c r="V68" s="51"/>
+      <c r="W68" s="51"/>
+      <c r="X68" s="51"/>
+      <c r="Y68" s="51"/>
+      <c r="Z68" s="51"/>
+      <c r="AA68" s="51"/>
+      <c r="AB68" s="51"/>
+      <c r="AC68" s="51"/>
+      <c r="AD68" s="51"/>
+      <c r="AE68" s="51"/>
+      <c r="AF68" s="51"/>
+      <c r="AG68" s="51"/>
+      <c r="AH68" s="51"/>
+      <c r="AI68" s="51"/>
+      <c r="AJ68" s="51"/>
+      <c r="AK68" s="51"/>
+      <c r="AL68" s="51"/>
+      <c r="AM68" s="51"/>
+      <c r="AN68" s="51"/>
+      <c r="AO68" s="51"/>
+      <c r="AP68" s="51"/>
+      <c r="AQ68" s="51"/>
+      <c r="AR68" s="51"/>
+      <c r="AS68" s="51"/>
+      <c r="AT68" s="51"/>
+      <c r="AU68" s="51"/>
+      <c r="AV68" s="51"/>
+      <c r="AW68" s="51"/>
+      <c r="AX68" s="51"/>
+      <c r="AY68" s="51"/>
+      <c r="AZ68" s="51"/>
+      <c r="BA68" s="51"/>
+      <c r="BB68" s="51"/>
+      <c r="BC68" s="51"/>
+      <c r="BD68" s="51"/>
+      <c r="BE68" s="51"/>
+      <c r="BF68" s="51"/>
+      <c r="BG68" s="51"/>
+      <c r="BH68" s="51"/>
+      <c r="BI68" s="51"/>
+      <c r="BJ68" s="51"/>
+      <c r="BK68" s="51"/>
+      <c r="BL68" s="51"/>
+    </row>
+    <row r="69" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A69" s="45"/>
+      <c r="B69" s="83" t="s">
+        <v>83</v>
+      </c>
+      <c r="C69" s="57"/>
+      <c r="D69" s="20"/>
+      <c r="E69" s="2">
+        <f t="shared" ca="1" si="20"/>
+        <v>43809</v>
+      </c>
+      <c r="F69" s="2">
+        <f t="shared" ca="1" si="18"/>
+        <v>43811</v>
+      </c>
+      <c r="G69" s="16">
+        <v>2</v>
+      </c>
+      <c r="H69" s="16"/>
+      <c r="I69" s="51"/>
+      <c r="J69" s="51"/>
+      <c r="K69" s="51"/>
+      <c r="L69" s="51"/>
+      <c r="M69" s="51"/>
+      <c r="N69" s="51"/>
+      <c r="O69" s="51"/>
+      <c r="P69" s="51"/>
+      <c r="Q69" s="51"/>
+      <c r="R69" s="51"/>
+      <c r="S69" s="51"/>
+      <c r="T69" s="51"/>
+      <c r="U69" s="51"/>
+      <c r="V69" s="51"/>
+      <c r="W69" s="51"/>
+      <c r="X69" s="51"/>
+      <c r="Y69" s="51"/>
+      <c r="Z69" s="51"/>
+      <c r="AA69" s="51"/>
+      <c r="AB69" s="51"/>
+      <c r="AC69" s="51"/>
+      <c r="AD69" s="51"/>
+      <c r="AE69" s="51"/>
+      <c r="AF69" s="51"/>
+      <c r="AG69" s="51"/>
+      <c r="AH69" s="51"/>
+      <c r="AI69" s="51"/>
+      <c r="AJ69" s="51"/>
+      <c r="AK69" s="51"/>
+      <c r="AL69" s="51"/>
+      <c r="AM69" s="51"/>
+      <c r="AN69" s="51"/>
+      <c r="AO69" s="51"/>
+      <c r="AP69" s="51"/>
+      <c r="AQ69" s="51"/>
+      <c r="AR69" s="51"/>
+      <c r="AS69" s="51"/>
+      <c r="AT69" s="51"/>
+      <c r="AU69" s="51"/>
+      <c r="AV69" s="51"/>
+      <c r="AW69" s="51"/>
+      <c r="AX69" s="51"/>
+      <c r="AY69" s="51"/>
+      <c r="AZ69" s="51"/>
+      <c r="BA69" s="51"/>
+      <c r="BB69" s="51"/>
+      <c r="BC69" s="51"/>
+      <c r="BD69" s="51"/>
+      <c r="BE69" s="51"/>
+      <c r="BF69" s="51"/>
+      <c r="BG69" s="51"/>
+      <c r="BH69" s="51"/>
+      <c r="BI69" s="51"/>
+      <c r="BJ69" s="51"/>
+      <c r="BK69" s="51"/>
+      <c r="BL69" s="51"/>
+    </row>
+    <row r="70" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A70" s="45"/>
+      <c r="B70" s="83" t="s">
+        <v>84</v>
+      </c>
+      <c r="C70" s="57"/>
+      <c r="D70" s="20"/>
+      <c r="E70" s="2">
+        <f t="shared" ca="1" si="20"/>
+        <v>43811</v>
+      </c>
+      <c r="F70" s="2">
+        <f t="shared" ca="1" si="18"/>
+        <v>43813</v>
+      </c>
+      <c r="G70" s="16">
+        <v>2</v>
+      </c>
+      <c r="H70" s="16"/>
+      <c r="I70" s="51"/>
+      <c r="J70" s="51"/>
+      <c r="K70" s="51"/>
+      <c r="L70" s="51"/>
+      <c r="M70" s="51"/>
+      <c r="N70" s="51"/>
+      <c r="O70" s="51"/>
+      <c r="P70" s="51"/>
+      <c r="Q70" s="51"/>
+      <c r="R70" s="51"/>
+      <c r="S70" s="51"/>
+      <c r="T70" s="51"/>
+      <c r="U70" s="51"/>
+      <c r="V70" s="51"/>
+      <c r="W70" s="51"/>
+      <c r="X70" s="51"/>
+      <c r="Y70" s="51"/>
+      <c r="Z70" s="51"/>
+      <c r="AA70" s="51"/>
+      <c r="AB70" s="51"/>
+      <c r="AC70" s="51"/>
+      <c r="AD70" s="51"/>
+      <c r="AE70" s="51"/>
+      <c r="AF70" s="51"/>
+      <c r="AG70" s="51"/>
+      <c r="AH70" s="51"/>
+      <c r="AI70" s="51"/>
+      <c r="AJ70" s="51"/>
+      <c r="AK70" s="51"/>
+      <c r="AL70" s="51"/>
+      <c r="AM70" s="51"/>
+      <c r="AN70" s="51"/>
+      <c r="AO70" s="51"/>
+      <c r="AP70" s="51"/>
+      <c r="AQ70" s="51"/>
+      <c r="AR70" s="51"/>
+      <c r="AS70" s="51"/>
+      <c r="AT70" s="51"/>
+      <c r="AU70" s="51"/>
+      <c r="AV70" s="51"/>
+      <c r="AW70" s="51"/>
+      <c r="AX70" s="51"/>
+      <c r="AY70" s="51"/>
+      <c r="AZ70" s="51"/>
+      <c r="BA70" s="51"/>
+      <c r="BB70" s="51"/>
+      <c r="BC70" s="51"/>
+      <c r="BD70" s="51"/>
+      <c r="BE70" s="51"/>
+      <c r="BF70" s="51"/>
+      <c r="BG70" s="51"/>
+      <c r="BH70" s="51"/>
+      <c r="BI70" s="51"/>
+      <c r="BJ70" s="51"/>
+      <c r="BK70" s="51"/>
+      <c r="BL70" s="51"/>
+    </row>
+    <row r="71" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="45"/>
+      <c r="B71" s="83" t="s">
+        <v>85</v>
+      </c>
+      <c r="C71" s="57"/>
+      <c r="D71" s="20"/>
+      <c r="E71" s="2">
+        <f t="shared" ca="1" si="20"/>
+        <v>43812</v>
+      </c>
+      <c r="F71" s="2">
+        <f t="shared" ca="1" si="18"/>
+        <v>43814</v>
+      </c>
+      <c r="G71" s="16">
+        <v>2</v>
+      </c>
+      <c r="H71" s="16"/>
+      <c r="I71" s="51"/>
+      <c r="J71" s="51"/>
+      <c r="K71" s="51"/>
+      <c r="L71" s="51"/>
+      <c r="M71" s="51"/>
+      <c r="N71" s="51"/>
+      <c r="O71" s="51"/>
+      <c r="P71" s="51"/>
+      <c r="Q71" s="51"/>
+      <c r="R71" s="51"/>
+      <c r="S71" s="51"/>
+      <c r="T71" s="51"/>
+      <c r="U71" s="51"/>
+      <c r="V71" s="51"/>
+      <c r="W71" s="51"/>
+      <c r="X71" s="51"/>
+      <c r="Y71" s="51"/>
+      <c r="Z71" s="51"/>
+      <c r="AA71" s="51"/>
+      <c r="AB71" s="51"/>
+      <c r="AC71" s="51"/>
+      <c r="AD71" s="51"/>
+      <c r="AE71" s="51"/>
+      <c r="AF71" s="51"/>
+      <c r="AG71" s="51"/>
+      <c r="AH71" s="51"/>
+      <c r="AI71" s="51"/>
+      <c r="AJ71" s="51"/>
+      <c r="AK71" s="51"/>
+      <c r="AL71" s="51"/>
+      <c r="AM71" s="51"/>
+      <c r="AN71" s="51"/>
+      <c r="AO71" s="51"/>
+      <c r="AP71" s="51"/>
+      <c r="AQ71" s="51"/>
+      <c r="AR71" s="51"/>
+      <c r="AS71" s="51"/>
+      <c r="AT71" s="51"/>
+      <c r="AU71" s="51"/>
+      <c r="AV71" s="51"/>
+      <c r="AW71" s="51"/>
+      <c r="AX71" s="51"/>
+      <c r="AY71" s="51"/>
+      <c r="AZ71" s="51"/>
+      <c r="BA71" s="51"/>
+      <c r="BB71" s="51"/>
+      <c r="BC71" s="51"/>
+      <c r="BD71" s="51"/>
+      <c r="BE71" s="51"/>
+      <c r="BF71" s="51"/>
+      <c r="BG71" s="51"/>
+      <c r="BH71" s="51"/>
+      <c r="BI71" s="51"/>
+      <c r="BJ71" s="51"/>
+      <c r="BK71" s="51"/>
+      <c r="BL71" s="51"/>
+    </row>
+    <row r="72" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A72" s="45"/>
+      <c r="B72" s="83" t="s">
+        <v>86</v>
+      </c>
+      <c r="C72" s="57"/>
+      <c r="D72" s="20"/>
+      <c r="E72" s="2">
+        <f t="shared" ca="1" si="20"/>
+        <v>43814</v>
+      </c>
+      <c r="F72" s="2">
+        <f t="shared" ca="1" si="18"/>
+        <v>43816</v>
+      </c>
+      <c r="G72" s="16">
+        <v>2</v>
+      </c>
+      <c r="H72" s="16"/>
+      <c r="I72" s="51"/>
+      <c r="J72" s="51"/>
+      <c r="K72" s="51"/>
+      <c r="L72" s="51"/>
+      <c r="M72" s="51"/>
+      <c r="N72" s="51"/>
+      <c r="O72" s="51"/>
+      <c r="P72" s="51"/>
+      <c r="Q72" s="51"/>
+      <c r="R72" s="51"/>
+      <c r="S72" s="51"/>
+      <c r="T72" s="51"/>
+      <c r="U72" s="51"/>
+      <c r="V72" s="51"/>
+      <c r="W72" s="51"/>
+      <c r="X72" s="51"/>
+      <c r="Y72" s="51"/>
+      <c r="Z72" s="51"/>
+      <c r="AA72" s="51"/>
+      <c r="AB72" s="51"/>
+      <c r="AC72" s="51"/>
+      <c r="AD72" s="51"/>
+      <c r="AE72" s="51"/>
+      <c r="AF72" s="51"/>
+      <c r="AG72" s="51"/>
+      <c r="AH72" s="51"/>
+      <c r="AI72" s="51"/>
+      <c r="AJ72" s="51"/>
+      <c r="AK72" s="51"/>
+      <c r="AL72" s="51"/>
+      <c r="AM72" s="51"/>
+      <c r="AN72" s="51"/>
+      <c r="AO72" s="51"/>
+      <c r="AP72" s="51"/>
+      <c r="AQ72" s="51"/>
+      <c r="AR72" s="51"/>
+      <c r="AS72" s="51"/>
+      <c r="AT72" s="51"/>
+      <c r="AU72" s="51"/>
+      <c r="AV72" s="51"/>
+      <c r="AW72" s="51"/>
+      <c r="AX72" s="51"/>
+      <c r="AY72" s="51"/>
+      <c r="AZ72" s="51"/>
+      <c r="BA72" s="51"/>
+      <c r="BB72" s="51"/>
+      <c r="BC72" s="51"/>
+      <c r="BD72" s="51"/>
+      <c r="BE72" s="51"/>
+      <c r="BF72" s="51"/>
+      <c r="BG72" s="51"/>
+      <c r="BH72" s="51"/>
+      <c r="BI72" s="51"/>
+      <c r="BJ72" s="51"/>
+      <c r="BK72" s="51"/>
+      <c r="BL72" s="51"/>
+    </row>
+    <row r="73" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="45"/>
+      <c r="B73" s="83" t="s">
+        <v>87</v>
+      </c>
+      <c r="C73" s="57"/>
+      <c r="D73" s="20"/>
+      <c r="E73" s="2">
+        <f t="shared" ca="1" si="20"/>
+        <v>43815</v>
+      </c>
+      <c r="F73" s="2">
+        <f t="shared" ca="1" si="18"/>
+        <v>43817</v>
+      </c>
+      <c r="G73" s="16">
+        <v>2</v>
+      </c>
+      <c r="H73" s="16"/>
+      <c r="I73" s="51"/>
+      <c r="J73" s="51"/>
+      <c r="K73" s="51"/>
+      <c r="L73" s="51"/>
+      <c r="M73" s="51"/>
+      <c r="N73" s="51"/>
+      <c r="O73" s="51"/>
+      <c r="P73" s="51"/>
+      <c r="Q73" s="51"/>
+      <c r="R73" s="51"/>
+      <c r="S73" s="51"/>
+      <c r="T73" s="51"/>
+      <c r="U73" s="51"/>
+      <c r="V73" s="51"/>
+      <c r="W73" s="51"/>
+      <c r="X73" s="51"/>
+      <c r="Y73" s="51"/>
+      <c r="Z73" s="51"/>
+      <c r="AA73" s="51"/>
+      <c r="AB73" s="51"/>
+      <c r="AC73" s="51"/>
+      <c r="AD73" s="51"/>
+      <c r="AE73" s="51"/>
+      <c r="AF73" s="51"/>
+      <c r="AG73" s="51"/>
+      <c r="AH73" s="51"/>
+      <c r="AI73" s="51"/>
+      <c r="AJ73" s="51"/>
+      <c r="AK73" s="51"/>
+      <c r="AL73" s="51"/>
+      <c r="AM73" s="51"/>
+      <c r="AN73" s="51"/>
+      <c r="AO73" s="51"/>
+      <c r="AP73" s="51"/>
+      <c r="AQ73" s="51"/>
+      <c r="AR73" s="51"/>
+      <c r="AS73" s="51"/>
+      <c r="AT73" s="51"/>
+      <c r="AU73" s="51"/>
+      <c r="AV73" s="51"/>
+      <c r="AW73" s="51"/>
+      <c r="AX73" s="51"/>
+      <c r="AY73" s="51"/>
+      <c r="AZ73" s="51"/>
+      <c r="BA73" s="51"/>
+      <c r="BB73" s="51"/>
+      <c r="BC73" s="51"/>
+      <c r="BD73" s="51"/>
+      <c r="BE73" s="51"/>
+      <c r="BF73" s="51"/>
+      <c r="BG73" s="51"/>
+      <c r="BH73" s="51"/>
+      <c r="BI73" s="51"/>
+      <c r="BJ73" s="51"/>
+      <c r="BK73" s="51"/>
+      <c r="BL73" s="51"/>
+    </row>
+    <row r="74" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B74" s="14" t="s">
+        <v>89</v>
+      </c>
+      <c r="C74" s="52"/>
+      <c r="D74" s="15"/>
+      <c r="E74" s="74"/>
+      <c r="F74" s="75"/>
+      <c r="G74" s="16"/>
+      <c r="H74" s="16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I56" s="65"/>
-      <c r="J56" s="65"/>
-      <c r="K56" s="65"/>
-      <c r="L56" s="65"/>
-      <c r="M56" s="65"/>
-      <c r="N56" s="65"/>
-      <c r="O56" s="65"/>
-      <c r="P56" s="65"/>
-      <c r="Q56" s="65"/>
-      <c r="R56" s="65"/>
-      <c r="S56" s="65"/>
-      <c r="T56" s="65"/>
-      <c r="U56" s="65"/>
-      <c r="V56" s="65"/>
-      <c r="W56" s="65"/>
-      <c r="X56" s="65"/>
-      <c r="Y56" s="65"/>
-      <c r="Z56" s="65"/>
-      <c r="AA56" s="65"/>
-      <c r="AB56" s="65"/>
-      <c r="AC56" s="65"/>
-      <c r="AD56" s="65"/>
-      <c r="AE56" s="65"/>
-      <c r="AF56" s="65"/>
-      <c r="AG56" s="65"/>
-      <c r="AH56" s="65"/>
-      <c r="AI56" s="65"/>
-      <c r="AJ56" s="65"/>
-      <c r="AK56" s="65"/>
-      <c r="AL56" s="65"/>
-      <c r="AM56" s="65"/>
-      <c r="AN56" s="65"/>
-      <c r="AO56" s="65"/>
-      <c r="AP56" s="65"/>
-      <c r="AQ56" s="65"/>
-      <c r="AR56" s="65"/>
-      <c r="AS56" s="65"/>
-      <c r="AT56" s="65"/>
-      <c r="AU56" s="65"/>
-      <c r="AV56" s="65"/>
-      <c r="AW56" s="65"/>
-      <c r="AX56" s="65"/>
-      <c r="AY56" s="65"/>
-      <c r="AZ56" s="65"/>
-      <c r="BA56" s="65"/>
-      <c r="BB56" s="65"/>
-      <c r="BC56" s="65"/>
-      <c r="BD56" s="65"/>
-      <c r="BE56" s="65"/>
-      <c r="BF56" s="65"/>
-      <c r="BG56" s="65"/>
-      <c r="BH56" s="65"/>
-      <c r="BI56" s="65"/>
-      <c r="BJ56" s="65"/>
-      <c r="BK56" s="65"/>
-      <c r="BL56" s="65"/>
+      <c r="I74" s="51"/>
+      <c r="J74" s="51"/>
+      <c r="K74" s="51"/>
+      <c r="L74" s="51"/>
+      <c r="M74" s="51"/>
+      <c r="N74" s="51"/>
+      <c r="O74" s="51"/>
+      <c r="P74" s="51"/>
+      <c r="Q74" s="51"/>
+      <c r="R74" s="51"/>
+      <c r="S74" s="51"/>
+      <c r="T74" s="51"/>
+      <c r="U74" s="51"/>
+      <c r="V74" s="51"/>
+      <c r="W74" s="51"/>
+      <c r="X74" s="51"/>
+      <c r="Y74" s="51"/>
+      <c r="Z74" s="51"/>
+      <c r="AA74" s="51"/>
+      <c r="AB74" s="51"/>
+      <c r="AC74" s="51"/>
+      <c r="AD74" s="51"/>
+      <c r="AE74" s="51"/>
+      <c r="AF74" s="51"/>
+      <c r="AG74" s="51"/>
+      <c r="AH74" s="51"/>
+      <c r="AI74" s="51"/>
+      <c r="AJ74" s="51"/>
+      <c r="AK74" s="51"/>
+      <c r="AL74" s="51"/>
+      <c r="AM74" s="51"/>
+      <c r="AN74" s="51"/>
+      <c r="AO74" s="51"/>
+      <c r="AP74" s="51"/>
+      <c r="AQ74" s="51"/>
+      <c r="AR74" s="51"/>
+      <c r="AS74" s="51"/>
+      <c r="AT74" s="51"/>
+      <c r="AU74" s="51"/>
+      <c r="AV74" s="51"/>
+      <c r="AW74" s="51"/>
+      <c r="AX74" s="51"/>
+      <c r="AY74" s="51"/>
+      <c r="AZ74" s="51"/>
+      <c r="BA74" s="51"/>
+      <c r="BB74" s="51"/>
+      <c r="BC74" s="51"/>
+      <c r="BD74" s="51"/>
+      <c r="BE74" s="51"/>
+      <c r="BF74" s="51"/>
+      <c r="BG74" s="51"/>
+      <c r="BH74" s="51"/>
+      <c r="BI74" s="51"/>
+      <c r="BJ74" s="51"/>
+      <c r="BK74" s="51"/>
+      <c r="BL74" s="51"/>
     </row>
-    <row r="57" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G57" s="66"/>
+    <row r="75" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="82" t="s">
+        <v>41</v>
+      </c>
+      <c r="C75" s="54" t="s">
+        <v>19</v>
+      </c>
+      <c r="D75" s="17">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1">
+        <f ca="1">Project_Start</f>
+        <v>43767</v>
+      </c>
+      <c r="F75" s="1">
+        <f ca="1">E75+G75</f>
+        <v>43772</v>
+      </c>
+      <c r="G75" s="16">
+        <v>5</v>
+      </c>
+      <c r="H75" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I75" s="51"/>
+      <c r="J75" s="51"/>
+      <c r="K75" s="51"/>
+      <c r="L75" s="51"/>
+      <c r="M75" s="51"/>
+      <c r="N75" s="51"/>
+      <c r="O75" s="51"/>
+      <c r="P75" s="51"/>
+      <c r="Q75" s="51"/>
+      <c r="R75" s="51"/>
+      <c r="S75" s="51"/>
+      <c r="T75" s="51"/>
+      <c r="U75" s="51"/>
+      <c r="V75" s="51"/>
+      <c r="W75" s="51"/>
+      <c r="X75" s="51"/>
+      <c r="Y75" s="51"/>
+      <c r="Z75" s="51"/>
+      <c r="AA75" s="51"/>
+      <c r="AB75" s="51"/>
+      <c r="AC75" s="51"/>
+      <c r="AD75" s="51"/>
+      <c r="AE75" s="51"/>
+      <c r="AF75" s="51"/>
+      <c r="AG75" s="51"/>
+      <c r="AH75" s="51"/>
+      <c r="AI75" s="51"/>
+      <c r="AJ75" s="51"/>
+      <c r="AK75" s="51"/>
+      <c r="AL75" s="51"/>
+      <c r="AM75" s="51"/>
+      <c r="AN75" s="51"/>
+      <c r="AO75" s="51"/>
+      <c r="AP75" s="51"/>
+      <c r="AQ75" s="51"/>
+      <c r="AR75" s="51"/>
+      <c r="AS75" s="51"/>
+      <c r="AT75" s="51"/>
+      <c r="AU75" s="51"/>
+      <c r="AV75" s="51"/>
+      <c r="AW75" s="51"/>
+      <c r="AX75" s="51"/>
+      <c r="AY75" s="51"/>
+      <c r="AZ75" s="51"/>
+      <c r="BA75" s="51"/>
+      <c r="BB75" s="51"/>
+      <c r="BC75" s="51"/>
+      <c r="BD75" s="51"/>
+      <c r="BE75" s="51"/>
+      <c r="BF75" s="51"/>
+      <c r="BG75" s="51"/>
+      <c r="BH75" s="51"/>
+      <c r="BI75" s="51"/>
+      <c r="BJ75" s="51"/>
+      <c r="BK75" s="51"/>
+      <c r="BL75" s="51"/>
     </row>
-    <row r="58" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C58" s="9"/>
-      <c r="F58" s="34"/>
+    <row r="76" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B76" s="82" t="s">
+        <v>42</v>
+      </c>
+      <c r="C76" s="54"/>
+      <c r="D76" s="17">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1">
+        <f ca="1">F75+1</f>
+        <v>43773</v>
+      </c>
+      <c r="F76" s="1">
+        <f t="shared" ref="F76:F77" ca="1" si="21">E76+G76</f>
+        <v>43778</v>
+      </c>
+      <c r="G76" s="16">
+        <v>5</v>
+      </c>
+      <c r="H76" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I76" s="51"/>
+      <c r="J76" s="51"/>
+      <c r="K76" s="51"/>
+      <c r="L76" s="51"/>
+      <c r="M76" s="51"/>
+      <c r="N76" s="51"/>
+      <c r="O76" s="51"/>
+      <c r="P76" s="51"/>
+      <c r="Q76" s="51"/>
+      <c r="R76" s="51"/>
+      <c r="S76" s="51"/>
+      <c r="T76" s="51"/>
+      <c r="U76" s="55"/>
+      <c r="V76" s="55"/>
+      <c r="W76" s="51"/>
+      <c r="X76" s="51"/>
+      <c r="Y76" s="51"/>
+      <c r="Z76" s="51"/>
+      <c r="AA76" s="51"/>
+      <c r="AB76" s="51"/>
+      <c r="AC76" s="51"/>
+      <c r="AD76" s="51"/>
+      <c r="AE76" s="51"/>
+      <c r="AF76" s="51"/>
+      <c r="AG76" s="51"/>
+      <c r="AH76" s="51"/>
+      <c r="AI76" s="51"/>
+      <c r="AJ76" s="51"/>
+      <c r="AK76" s="51"/>
+      <c r="AL76" s="51"/>
+      <c r="AM76" s="51"/>
+      <c r="AN76" s="51"/>
+      <c r="AO76" s="51"/>
+      <c r="AP76" s="51"/>
+      <c r="AQ76" s="51"/>
+      <c r="AR76" s="51"/>
+      <c r="AS76" s="51"/>
+      <c r="AT76" s="51"/>
+      <c r="AU76" s="51"/>
+      <c r="AV76" s="51"/>
+      <c r="AW76" s="51"/>
+      <c r="AX76" s="51"/>
+      <c r="AY76" s="51"/>
+      <c r="AZ76" s="51"/>
+      <c r="BA76" s="51"/>
+      <c r="BB76" s="51"/>
+      <c r="BC76" s="51"/>
+      <c r="BD76" s="51"/>
+      <c r="BE76" s="51"/>
+      <c r="BF76" s="51"/>
+      <c r="BG76" s="51"/>
+      <c r="BH76" s="51"/>
+      <c r="BI76" s="51"/>
+      <c r="BJ76" s="51"/>
+      <c r="BK76" s="51"/>
+      <c r="BL76" s="51"/>
     </row>
-    <row r="59" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C59" s="35"/>
+    <row r="77" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="45"/>
+      <c r="B77" s="82" t="s">
+        <v>44</v>
+      </c>
+      <c r="C77" s="54"/>
+      <c r="D77" s="17">
+        <v>0.1</v>
+      </c>
+      <c r="E77" s="1">
+        <f t="shared" ref="E77" ca="1" si="22">F76+1</f>
+        <v>43779</v>
+      </c>
+      <c r="F77" s="1">
+        <f t="shared" ca="1" si="21"/>
+        <v>43794</v>
+      </c>
+      <c r="G77" s="16">
+        <v>15</v>
+      </c>
+      <c r="H77" s="16">
+        <f t="shared" ca="1" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="I77" s="51"/>
+      <c r="J77" s="51"/>
+      <c r="K77" s="51"/>
+      <c r="L77" s="51"/>
+      <c r="M77" s="51"/>
+      <c r="N77" s="51"/>
+      <c r="O77" s="51"/>
+      <c r="P77" s="51"/>
+      <c r="Q77" s="51"/>
+      <c r="R77" s="51"/>
+      <c r="S77" s="51"/>
+      <c r="T77" s="51"/>
+      <c r="U77" s="51"/>
+      <c r="V77" s="51"/>
+      <c r="W77" s="51"/>
+      <c r="X77" s="51"/>
+      <c r="Y77" s="51"/>
+      <c r="Z77" s="51"/>
+      <c r="AA77" s="51"/>
+      <c r="AB77" s="51"/>
+      <c r="AC77" s="51"/>
+      <c r="AD77" s="51"/>
+      <c r="AE77" s="51"/>
+      <c r="AF77" s="51"/>
+      <c r="AG77" s="51"/>
+      <c r="AH77" s="51"/>
+      <c r="AI77" s="51"/>
+      <c r="AJ77" s="51"/>
+      <c r="AK77" s="51"/>
+      <c r="AL77" s="51"/>
+      <c r="AM77" s="51"/>
+      <c r="AN77" s="51"/>
+      <c r="AO77" s="51"/>
+      <c r="AP77" s="51"/>
+      <c r="AQ77" s="51"/>
+      <c r="AR77" s="51"/>
+      <c r="AS77" s="51"/>
+      <c r="AT77" s="51"/>
+      <c r="AU77" s="51"/>
+      <c r="AV77" s="51"/>
+      <c r="AW77" s="51"/>
+      <c r="AX77" s="51"/>
+      <c r="AY77" s="51"/>
+      <c r="AZ77" s="51"/>
+      <c r="BA77" s="51"/>
+      <c r="BB77" s="51"/>
+      <c r="BC77" s="51"/>
+      <c r="BD77" s="51"/>
+      <c r="BE77" s="51"/>
+      <c r="BF77" s="51"/>
+      <c r="BG77" s="51"/>
+      <c r="BH77" s="51"/>
+      <c r="BI77" s="51"/>
+      <c r="BJ77" s="51"/>
+      <c r="BK77" s="51"/>
+      <c r="BL77" s="51"/>
+    </row>
+    <row r="78" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B78" s="62"/>
+      <c r="C78" s="63"/>
+      <c r="D78" s="27"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="16"/>
+      <c r="H78" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I78" s="51"/>
+      <c r="J78" s="51"/>
+      <c r="K78" s="51"/>
+      <c r="L78" s="51"/>
+      <c r="M78" s="51"/>
+      <c r="N78" s="51"/>
+      <c r="O78" s="51"/>
+      <c r="P78" s="51"/>
+      <c r="Q78" s="51"/>
+      <c r="R78" s="51"/>
+      <c r="S78" s="51"/>
+      <c r="T78" s="51"/>
+      <c r="U78" s="51"/>
+      <c r="V78" s="51"/>
+      <c r="W78" s="51"/>
+      <c r="X78" s="51"/>
+      <c r="Y78" s="51"/>
+      <c r="Z78" s="51"/>
+      <c r="AA78" s="51"/>
+      <c r="AB78" s="51"/>
+      <c r="AC78" s="51"/>
+      <c r="AD78" s="51"/>
+      <c r="AE78" s="51"/>
+      <c r="AF78" s="51"/>
+      <c r="AG78" s="51"/>
+      <c r="AH78" s="51"/>
+      <c r="AI78" s="51"/>
+      <c r="AJ78" s="51"/>
+      <c r="AK78" s="51"/>
+      <c r="AL78" s="51"/>
+      <c r="AM78" s="51"/>
+      <c r="AN78" s="51"/>
+      <c r="AO78" s="51"/>
+      <c r="AP78" s="51"/>
+      <c r="AQ78" s="51"/>
+      <c r="AR78" s="51"/>
+      <c r="AS78" s="51"/>
+      <c r="AT78" s="51"/>
+      <c r="AU78" s="51"/>
+      <c r="AV78" s="51"/>
+      <c r="AW78" s="51"/>
+      <c r="AX78" s="51"/>
+      <c r="AY78" s="51"/>
+      <c r="AZ78" s="51"/>
+      <c r="BA78" s="51"/>
+      <c r="BB78" s="51"/>
+      <c r="BC78" s="51"/>
+      <c r="BD78" s="51"/>
+      <c r="BE78" s="51"/>
+      <c r="BF78" s="51"/>
+      <c r="BG78" s="51"/>
+      <c r="BH78" s="51"/>
+      <c r="BI78" s="51"/>
+      <c r="BJ78" s="51"/>
+      <c r="BK78" s="51"/>
+      <c r="BL78" s="51"/>
+    </row>
+    <row r="79" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B79" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79" s="29"/>
+      <c r="D79" s="30"/>
+      <c r="E79" s="31"/>
+      <c r="F79" s="32"/>
+      <c r="G79" s="33"/>
+      <c r="H79" s="33" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I79" s="65"/>
+      <c r="J79" s="65"/>
+      <c r="K79" s="65"/>
+      <c r="L79" s="65"/>
+      <c r="M79" s="65"/>
+      <c r="N79" s="65"/>
+      <c r="O79" s="65"/>
+      <c r="P79" s="65"/>
+      <c r="Q79" s="65"/>
+      <c r="R79" s="65"/>
+      <c r="S79" s="65"/>
+      <c r="T79" s="65"/>
+      <c r="U79" s="65"/>
+      <c r="V79" s="65"/>
+      <c r="W79" s="65"/>
+      <c r="X79" s="65"/>
+      <c r="Y79" s="65"/>
+      <c r="Z79" s="65"/>
+      <c r="AA79" s="65"/>
+      <c r="AB79" s="65"/>
+      <c r="AC79" s="65"/>
+      <c r="AD79" s="65"/>
+      <c r="AE79" s="65"/>
+      <c r="AF79" s="65"/>
+      <c r="AG79" s="65"/>
+      <c r="AH79" s="65"/>
+      <c r="AI79" s="65"/>
+      <c r="AJ79" s="65"/>
+      <c r="AK79" s="65"/>
+      <c r="AL79" s="65"/>
+      <c r="AM79" s="65"/>
+      <c r="AN79" s="65"/>
+      <c r="AO79" s="65"/>
+      <c r="AP79" s="65"/>
+      <c r="AQ79" s="65"/>
+      <c r="AR79" s="65"/>
+      <c r="AS79" s="65"/>
+      <c r="AT79" s="65"/>
+      <c r="AU79" s="65"/>
+      <c r="AV79" s="65"/>
+      <c r="AW79" s="65"/>
+      <c r="AX79" s="65"/>
+      <c r="AY79" s="65"/>
+      <c r="AZ79" s="65"/>
+      <c r="BA79" s="65"/>
+      <c r="BB79" s="65"/>
+      <c r="BC79" s="65"/>
+      <c r="BD79" s="65"/>
+      <c r="BE79" s="65"/>
+      <c r="BF79" s="65"/>
+      <c r="BG79" s="65"/>
+      <c r="BH79" s="65"/>
+      <c r="BI79" s="65"/>
+      <c r="BJ79" s="65"/>
+      <c r="BK79" s="65"/>
+      <c r="BL79" s="65"/>
+    </row>
+    <row r="80" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G80" s="66"/>
+    </row>
+    <row r="81" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C81" s="9"/>
+      <c r="F81" s="34"/>
+    </row>
+    <row r="82" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C82" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -6999,10 +8952,15 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D16 D45 D55:D56 D31:D41">
-    <cfRule type="dataBar" priority="70">
+  <conditionalFormatting sqref="D7:D16 D45 D78:D79 D31:D41">
+    <cfRule type="dataBar" priority="90">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7015,21 +8973,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL16 I45:BL45 I55:BL56 I31:BL41">
-    <cfRule type="expression" dxfId="32" priority="89">
+  <conditionalFormatting sqref="I5:BL16 I45:BL45 I78:BL79 I31:BL41">
+    <cfRule type="expression" dxfId="47" priority="109">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL16 I45:BL45 I55:BL56 I31:BL41">
-    <cfRule type="expression" dxfId="31" priority="83">
+  <conditionalFormatting sqref="I7:BL16 I45:BL45 I78:BL79 I31:BL41">
+    <cfRule type="expression" dxfId="46" priority="103">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="84" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="104" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="dataBar" priority="53">
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7043,20 +9001,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:BL17">
-    <cfRule type="expression" dxfId="29" priority="56">
+    <cfRule type="expression" dxfId="44" priority="76">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:BL17">
-    <cfRule type="expression" dxfId="28" priority="54">
+    <cfRule type="expression" dxfId="43" priority="74">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="75" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="dataBar" priority="49">
+    <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7070,20 +9028,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="26" priority="52">
+    <cfRule type="expression" dxfId="41" priority="72">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="25" priority="50">
+    <cfRule type="expression" dxfId="40" priority="70">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="71" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="dataBar" priority="45">
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7097,20 +9055,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="23" priority="48">
+    <cfRule type="expression" dxfId="38" priority="68">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="22" priority="46">
+    <cfRule type="expression" dxfId="37" priority="66">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="67" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="dataBar" priority="41">
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7124,20 +9082,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="20" priority="44">
+    <cfRule type="expression" dxfId="35" priority="64">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="19" priority="42">
+    <cfRule type="expression" dxfId="34" priority="62">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="63" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="dataBar" priority="37">
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7151,20 +9109,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="17" priority="40">
+    <cfRule type="expression" dxfId="32" priority="60">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="16" priority="38">
+    <cfRule type="expression" dxfId="31" priority="58">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="39" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="59" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:D50 D54">
-    <cfRule type="dataBar" priority="33">
+    <cfRule type="dataBar" priority="53">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7178,20 +9136,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:BL50 I54:BL54">
-    <cfRule type="expression" dxfId="14" priority="36">
+    <cfRule type="expression" dxfId="29" priority="56">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:BL50 I54:BL54">
-    <cfRule type="expression" dxfId="13" priority="34">
+    <cfRule type="expression" dxfId="28" priority="54">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="35" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="55" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="dataBar" priority="29">
+    <cfRule type="dataBar" priority="49">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7205,20 +9163,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="11" priority="32">
+    <cfRule type="expression" dxfId="26" priority="52">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="10" priority="30">
+    <cfRule type="expression" dxfId="25" priority="50">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="31" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="51" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="dataBar" priority="25">
+    <cfRule type="dataBar" priority="45">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7232,20 +9190,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="8" priority="28">
+    <cfRule type="expression" dxfId="23" priority="48">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="7" priority="26">
+    <cfRule type="expression" dxfId="22" priority="46">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="27" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="47" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="41">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7259,20 +9217,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="5" priority="24">
+    <cfRule type="expression" dxfId="20" priority="44">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="4" priority="22">
+    <cfRule type="expression" dxfId="19" priority="42">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="43" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:D30">
-    <cfRule type="dataBar" priority="1">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -7286,11 +9244,146 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:BL30">
+    <cfRule type="expression" dxfId="17" priority="24">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I19:BL30">
+    <cfRule type="expression" dxfId="16" priority="22">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D55:D59">
+    <cfRule type="dataBar" priority="17">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{A862B521-0769-4D5B-AAAE-F4B7D8B69DFA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:BL59">
+    <cfRule type="expression" dxfId="14" priority="20">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I55:BL59">
+    <cfRule type="expression" dxfId="13" priority="18">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D60">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{14E53E6F-1806-4FAE-ACF7-F97A7218ACDA}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60:BL60">
+    <cfRule type="expression" dxfId="11" priority="16">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I60:BL60">
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D61">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F6871B03-485D-4645-B7B5-6EA63FB0616B}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61:BL61">
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I61:BL61">
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D62:D73">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{5218824C-88EA-4F78-88CF-78B348F36554}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62:BL73">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I62:BL73">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D74:D77">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{AF0EF4C0-601B-45F3-A9DA-DFE1C4C48683}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I74:BL77">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I19:BL30">
+  <conditionalFormatting sqref="I74:BL77">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -7325,7 +9418,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D16 D45 D55:D56 D31:D41</xm:sqref>
+          <xm:sqref>D7:D16 D45 D78:D79 D31:D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{759C797F-1A4E-40B2-86F4-1516F9B9B610}">
@@ -7477,6 +9570,81 @@
           </x14:cfRule>
           <xm:sqref>D19:D30</xm:sqref>
         </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{A862B521-0769-4D5B-AAAE-F4B7D8B69DFA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D55:D59</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{14E53E6F-1806-4FAE-ACF7-F97A7218ACDA}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D60</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F6871B03-485D-4645-B7B5-6EA63FB0616B}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D61</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{5218824C-88EA-4F78-88CF-78B348F36554}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D62:D73</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{AF0EF4C0-601B-45F3-A9DA-DFE1C4C48683}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D74:D77</xm:sqref>
+        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/2019schedule.xlsx
+++ b/2019schedule.xlsx
@@ -1522,6 +1522,18 @@
     <xf numFmtId="180" fontId="26" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
       <alignment horizontal="right" indent="1"/>
     </xf>
@@ -1529,18 +1541,6 @@
       <alignment horizontal="right" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="1" fillId="7" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - 着色 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -2628,7 +2628,7 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
       <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N14" sqref="N14"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2674,341 +2674,341 @@
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
-      <c r="C3" s="95" t="s">
+      <c r="C3" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="96"/>
-      <c r="E3" s="101">
+      <c r="D3" s="100"/>
+      <c r="E3" s="98">
         <f ca="1">TODAY()+1</f>
-        <v>43767</v>
-      </c>
-      <c r="F3" s="101"/>
+        <v>43775</v>
+      </c>
+      <c r="F3" s="98"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="95" t="s">
+      <c r="C4" s="99" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="96"/>
+      <c r="D4" s="100"/>
       <c r="E4" s="49">
         <v>1</v>
       </c>
-      <c r="I4" s="98">
+      <c r="I4" s="95">
         <f ca="1">I5</f>
-        <v>43765</v>
-      </c>
-      <c r="J4" s="99"/>
-      <c r="K4" s="99"/>
-      <c r="L4" s="99"/>
-      <c r="M4" s="99"/>
-      <c r="N4" s="99"/>
-      <c r="O4" s="100"/>
-      <c r="P4" s="98">
+        <v>43772</v>
+      </c>
+      <c r="J4" s="96"/>
+      <c r="K4" s="96"/>
+      <c r="L4" s="96"/>
+      <c r="M4" s="96"/>
+      <c r="N4" s="96"/>
+      <c r="O4" s="97"/>
+      <c r="P4" s="95">
         <f ca="1">P5</f>
-        <v>43772</v>
-      </c>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
-      <c r="S4" s="99"/>
-      <c r="T4" s="99"/>
-      <c r="U4" s="99"/>
-      <c r="V4" s="100"/>
-      <c r="W4" s="98">
+        <v>43779</v>
+      </c>
+      <c r="Q4" s="96"/>
+      <c r="R4" s="96"/>
+      <c r="S4" s="96"/>
+      <c r="T4" s="96"/>
+      <c r="U4" s="96"/>
+      <c r="V4" s="97"/>
+      <c r="W4" s="95">
         <f ca="1">W5</f>
-        <v>43779</v>
-      </c>
-      <c r="X4" s="99"/>
-      <c r="Y4" s="99"/>
-      <c r="Z4" s="99"/>
-      <c r="AA4" s="99"/>
-      <c r="AB4" s="99"/>
-      <c r="AC4" s="100"/>
-      <c r="AD4" s="98">
+        <v>43786</v>
+      </c>
+      <c r="X4" s="96"/>
+      <c r="Y4" s="96"/>
+      <c r="Z4" s="96"/>
+      <c r="AA4" s="96"/>
+      <c r="AB4" s="96"/>
+      <c r="AC4" s="97"/>
+      <c r="AD4" s="95">
         <f ca="1">AD5</f>
-        <v>43786</v>
-      </c>
-      <c r="AE4" s="99"/>
-      <c r="AF4" s="99"/>
-      <c r="AG4" s="99"/>
-      <c r="AH4" s="99"/>
-      <c r="AI4" s="99"/>
-      <c r="AJ4" s="100"/>
-      <c r="AK4" s="98">
+        <v>43793</v>
+      </c>
+      <c r="AE4" s="96"/>
+      <c r="AF4" s="96"/>
+      <c r="AG4" s="96"/>
+      <c r="AH4" s="96"/>
+      <c r="AI4" s="96"/>
+      <c r="AJ4" s="97"/>
+      <c r="AK4" s="95">
         <f ca="1">AK5</f>
-        <v>43793</v>
-      </c>
-      <c r="AL4" s="99"/>
-      <c r="AM4" s="99"/>
-      <c r="AN4" s="99"/>
-      <c r="AO4" s="99"/>
-      <c r="AP4" s="99"/>
-      <c r="AQ4" s="100"/>
-      <c r="AR4" s="98">
+        <v>43800</v>
+      </c>
+      <c r="AL4" s="96"/>
+      <c r="AM4" s="96"/>
+      <c r="AN4" s="96"/>
+      <c r="AO4" s="96"/>
+      <c r="AP4" s="96"/>
+      <c r="AQ4" s="97"/>
+      <c r="AR4" s="95">
         <f ca="1">AR5</f>
-        <v>43800</v>
-      </c>
-      <c r="AS4" s="99"/>
-      <c r="AT4" s="99"/>
-      <c r="AU4" s="99"/>
-      <c r="AV4" s="99"/>
-      <c r="AW4" s="99"/>
-      <c r="AX4" s="100"/>
-      <c r="AY4" s="98">
+        <v>43807</v>
+      </c>
+      <c r="AS4" s="96"/>
+      <c r="AT4" s="96"/>
+      <c r="AU4" s="96"/>
+      <c r="AV4" s="96"/>
+      <c r="AW4" s="96"/>
+      <c r="AX4" s="97"/>
+      <c r="AY4" s="95">
         <f ca="1">AY5</f>
-        <v>43807</v>
-      </c>
-      <c r="AZ4" s="99"/>
-      <c r="BA4" s="99"/>
-      <c r="BB4" s="99"/>
-      <c r="BC4" s="99"/>
-      <c r="BD4" s="99"/>
-      <c r="BE4" s="100"/>
-      <c r="BF4" s="98">
+        <v>43814</v>
+      </c>
+      <c r="AZ4" s="96"/>
+      <c r="BA4" s="96"/>
+      <c r="BB4" s="96"/>
+      <c r="BC4" s="96"/>
+      <c r="BD4" s="96"/>
+      <c r="BE4" s="97"/>
+      <c r="BF4" s="95">
         <f ca="1">BF5</f>
-        <v>43814</v>
-      </c>
-      <c r="BG4" s="99"/>
-      <c r="BH4" s="99"/>
-      <c r="BI4" s="99"/>
-      <c r="BJ4" s="99"/>
-      <c r="BK4" s="99"/>
-      <c r="BL4" s="100"/>
+        <v>43821</v>
+      </c>
+      <c r="BG4" s="96"/>
+      <c r="BH4" s="96"/>
+      <c r="BI4" s="96"/>
+      <c r="BJ4" s="96"/>
+      <c r="BK4" s="96"/>
+      <c r="BL4" s="97"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="97"/>
-      <c r="C5" s="97"/>
-      <c r="D5" s="97"/>
-      <c r="E5" s="97"/>
-      <c r="F5" s="97"/>
-      <c r="G5" s="97"/>
+      <c r="B5" s="101"/>
+      <c r="C5" s="101"/>
+      <c r="D5" s="101"/>
+      <c r="E5" s="101"/>
+      <c r="F5" s="101"/>
+      <c r="G5" s="101"/>
       <c r="I5" s="71">
         <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+1+7*(Display_Week-1)</f>
-        <v>43765</v>
+        <v>43772</v>
       </c>
       <c r="J5" s="72">
         <f ca="1">I5+1</f>
-        <v>43766</v>
+        <v>43773</v>
       </c>
       <c r="K5" s="72">
         <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>43767</v>
+        <v>43774</v>
       </c>
       <c r="L5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43768</v>
+        <v>43775</v>
       </c>
       <c r="M5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43769</v>
+        <v>43776</v>
       </c>
       <c r="N5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43770</v>
+        <v>43777</v>
       </c>
       <c r="O5" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>43771</v>
+        <v>43778</v>
       </c>
       <c r="P5" s="71">
         <f ca="1">O5+1</f>
-        <v>43772</v>
+        <v>43779</v>
       </c>
       <c r="Q5" s="72">
         <f ca="1">P5+1</f>
-        <v>43773</v>
+        <v>43780</v>
       </c>
       <c r="R5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43774</v>
+        <v>43781</v>
       </c>
       <c r="S5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43775</v>
+        <v>43782</v>
       </c>
       <c r="T5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43776</v>
+        <v>43783</v>
       </c>
       <c r="U5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43777</v>
+        <v>43784</v>
       </c>
       <c r="V5" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>43778</v>
+        <v>43785</v>
       </c>
       <c r="W5" s="71">
         <f ca="1">V5+1</f>
-        <v>43779</v>
+        <v>43786</v>
       </c>
       <c r="X5" s="72">
         <f ca="1">W5+1</f>
-        <v>43780</v>
+        <v>43787</v>
       </c>
       <c r="Y5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43781</v>
+        <v>43788</v>
       </c>
       <c r="Z5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43782</v>
+        <v>43789</v>
       </c>
       <c r="AA5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43783</v>
+        <v>43790</v>
       </c>
       <c r="AB5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43784</v>
+        <v>43791</v>
       </c>
       <c r="AC5" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>43785</v>
+        <v>43792</v>
       </c>
       <c r="AD5" s="71">
         <f ca="1">AC5+1</f>
-        <v>43786</v>
+        <v>43793</v>
       </c>
       <c r="AE5" s="72">
         <f ca="1">AD5+1</f>
-        <v>43787</v>
+        <v>43794</v>
       </c>
       <c r="AF5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43788</v>
+        <v>43795</v>
       </c>
       <c r="AG5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43789</v>
+        <v>43796</v>
       </c>
       <c r="AH5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43790</v>
+        <v>43797</v>
       </c>
       <c r="AI5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43791</v>
+        <v>43798</v>
       </c>
       <c r="AJ5" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>43792</v>
+        <v>43799</v>
       </c>
       <c r="AK5" s="71">
         <f ca="1">AJ5+1</f>
-        <v>43793</v>
+        <v>43800</v>
       </c>
       <c r="AL5" s="72">
         <f ca="1">AK5+1</f>
-        <v>43794</v>
+        <v>43801</v>
       </c>
       <c r="AM5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43795</v>
+        <v>43802</v>
       </c>
       <c r="AN5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43796</v>
+        <v>43803</v>
       </c>
       <c r="AO5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43797</v>
+        <v>43804</v>
       </c>
       <c r="AP5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43798</v>
+        <v>43805</v>
       </c>
       <c r="AQ5" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>43799</v>
+        <v>43806</v>
       </c>
       <c r="AR5" s="71">
         <f ca="1">AQ5+1</f>
-        <v>43800</v>
+        <v>43807</v>
       </c>
       <c r="AS5" s="72">
         <f ca="1">AR5+1</f>
-        <v>43801</v>
+        <v>43808</v>
       </c>
       <c r="AT5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43802</v>
+        <v>43809</v>
       </c>
       <c r="AU5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43803</v>
+        <v>43810</v>
       </c>
       <c r="AV5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43804</v>
+        <v>43811</v>
       </c>
       <c r="AW5" s="72">
         <f t="shared" ca="1" si="0"/>
-        <v>43805</v>
+        <v>43812</v>
       </c>
       <c r="AX5" s="73">
         <f t="shared" ca="1" si="0"/>
-        <v>43806</v>
+        <v>43813</v>
       </c>
       <c r="AY5" s="71">
         <f ca="1">AX5+1</f>
-        <v>43807</v>
+        <v>43814</v>
       </c>
       <c r="AZ5" s="72">
         <f ca="1">AY5+1</f>
-        <v>43808</v>
+        <v>43815</v>
       </c>
       <c r="BA5" s="72">
         <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>43809</v>
+        <v>43816</v>
       </c>
       <c r="BB5" s="72">
         <f t="shared" ca="1" si="1"/>
-        <v>43810</v>
+        <v>43817</v>
       </c>
       <c r="BC5" s="72">
         <f t="shared" ca="1" si="1"/>
-        <v>43811</v>
+        <v>43818</v>
       </c>
       <c r="BD5" s="72">
         <f t="shared" ca="1" si="1"/>
-        <v>43812</v>
+        <v>43819</v>
       </c>
       <c r="BE5" s="73">
         <f t="shared" ca="1" si="1"/>
-        <v>43813</v>
+        <v>43820</v>
       </c>
       <c r="BF5" s="71">
         <f ca="1">BE5+1</f>
-        <v>43814</v>
+        <v>43821</v>
       </c>
       <c r="BG5" s="72">
         <f ca="1">BF5+1</f>
-        <v>43815</v>
+        <v>43822</v>
       </c>
       <c r="BH5" s="72">
         <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>43816</v>
+        <v>43823</v>
       </c>
       <c r="BI5" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>43817</v>
+        <v>43824</v>
       </c>
       <c r="BJ5" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>43818</v>
+        <v>43825</v>
       </c>
       <c r="BK5" s="72">
         <f t="shared" ca="1" si="2"/>
-        <v>43819</v>
+        <v>43826</v>
       </c>
       <c r="BL5" s="73">
         <f t="shared" ca="1" si="2"/>
-        <v>43820</v>
+        <v>43827</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3416,11 +3416,11 @@
       </c>
       <c r="E9" s="1">
         <f ca="1">Project_Start</f>
-        <v>43767</v>
+        <v>43775</v>
       </c>
       <c r="F9" s="1">
         <f ca="1">E9+G9</f>
-        <v>43772</v>
+        <v>43780</v>
       </c>
       <c r="G9" s="16">
         <v>5</v>
@@ -3499,11 +3499,11 @@
       </c>
       <c r="E10" s="1">
         <f ca="1">F9+1</f>
-        <v>43773</v>
+        <v>43781</v>
       </c>
       <c r="F10" s="1">
         <f t="shared" ref="F10:F11" ca="1" si="6">E10+G10</f>
-        <v>43778</v>
+        <v>43786</v>
       </c>
       <c r="G10" s="16">
         <v>5</v>
@@ -3580,11 +3580,11 @@
       </c>
       <c r="E11" s="1">
         <f t="shared" ref="E11" ca="1" si="7">F10+1</f>
-        <v>43779</v>
+        <v>43787</v>
       </c>
       <c r="F11" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>43794</v>
+        <v>43802</v>
       </c>
       <c r="G11" s="16">
         <v>15</v>
@@ -3734,11 +3734,11 @@
       </c>
       <c r="E13" s="2">
         <f ca="1">Project_Start</f>
-        <v>43767</v>
+        <v>43775</v>
       </c>
       <c r="F13" s="2">
         <f ca="1">E13+G13</f>
-        <v>43772</v>
+        <v>43780</v>
       </c>
       <c r="G13" s="16">
         <v>5</v>
@@ -3815,11 +3815,11 @@
       </c>
       <c r="E14" s="2">
         <f ca="1">F13+1</f>
-        <v>43773</v>
+        <v>43781</v>
       </c>
       <c r="F14" s="2">
         <f t="shared" ref="F14:F18" ca="1" si="8">E14+G14</f>
-        <v>43778</v>
+        <v>43786</v>
       </c>
       <c r="G14" s="16">
         <v>5</v>
@@ -3896,11 +3896,11 @@
       </c>
       <c r="E15" s="2">
         <f t="shared" ref="E15:E18" ca="1" si="9">F14+1</f>
-        <v>43779</v>
+        <v>43787</v>
       </c>
       <c r="F15" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43784</v>
+        <v>43792</v>
       </c>
       <c r="G15" s="16">
         <v>5</v>
@@ -3977,11 +3977,11 @@
       </c>
       <c r="E16" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43785</v>
+        <v>43793</v>
       </c>
       <c r="F16" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43790</v>
+        <v>43798</v>
       </c>
       <c r="G16" s="16">
         <v>5</v>
@@ -4058,11 +4058,11 @@
       </c>
       <c r="E17" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43791</v>
+        <v>43799</v>
       </c>
       <c r="F17" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43796</v>
+        <v>43804</v>
       </c>
       <c r="G17" s="16">
         <v>5</v>
@@ -4139,11 +4139,11 @@
       </c>
       <c r="E18" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>43797</v>
+        <v>43805</v>
       </c>
       <c r="F18" s="2">
         <f t="shared" ca="1" si="8"/>
-        <v>43802</v>
+        <v>43810</v>
       </c>
       <c r="G18" s="16">
         <v>5</v>
@@ -4220,11 +4220,11 @@
       </c>
       <c r="E19" s="2">
         <f ca="1">F17+1</f>
-        <v>43797</v>
+        <v>43805</v>
       </c>
       <c r="F19" s="2">
         <f t="shared" ref="F19:F30" ca="1" si="10">E19+G19</f>
-        <v>43802</v>
+        <v>43810</v>
       </c>
       <c r="G19" s="16">
         <v>5</v>
@@ -4299,11 +4299,11 @@
       <c r="D20" s="20"/>
       <c r="E20" s="2">
         <f t="shared" ref="E20:E30" ca="1" si="11">F18+1</f>
-        <v>43803</v>
+        <v>43811</v>
       </c>
       <c r="F20" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43804</v>
+        <v>43812</v>
       </c>
       <c r="G20" s="16">
         <v>1</v>
@@ -4375,11 +4375,11 @@
       <c r="D21" s="20"/>
       <c r="E21" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43803</v>
+        <v>43811</v>
       </c>
       <c r="F21" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43804</v>
+        <v>43812</v>
       </c>
       <c r="G21" s="16">
         <v>1</v>
@@ -4451,11 +4451,11 @@
       <c r="D22" s="20"/>
       <c r="E22" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43805</v>
+        <v>43813</v>
       </c>
       <c r="F22" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43806</v>
+        <v>43814</v>
       </c>
       <c r="G22" s="16">
         <v>1</v>
@@ -4527,11 +4527,11 @@
       <c r="D23" s="20"/>
       <c r="E23" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43805</v>
+        <v>43813</v>
       </c>
       <c r="F23" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43806</v>
+        <v>43814</v>
       </c>
       <c r="G23" s="16">
         <v>1</v>
@@ -4603,11 +4603,11 @@
       <c r="D24" s="20"/>
       <c r="E24" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43807</v>
+        <v>43815</v>
       </c>
       <c r="F24" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43808</v>
+        <v>43816</v>
       </c>
       <c r="G24" s="16">
         <v>1</v>
@@ -4679,11 +4679,11 @@
       <c r="D25" s="20"/>
       <c r="E25" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43807</v>
+        <v>43815</v>
       </c>
       <c r="F25" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43810</v>
+        <v>43818</v>
       </c>
       <c r="G25" s="16">
         <v>3</v>
@@ -4755,11 +4755,11 @@
       <c r="D26" s="20"/>
       <c r="E26" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43809</v>
+        <v>43817</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43811</v>
+        <v>43819</v>
       </c>
       <c r="G26" s="16">
         <v>2</v>
@@ -4831,11 +4831,11 @@
       <c r="D27" s="20"/>
       <c r="E27" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43811</v>
+        <v>43819</v>
       </c>
       <c r="F27" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43813</v>
+        <v>43821</v>
       </c>
       <c r="G27" s="16">
         <v>2</v>
@@ -4907,11 +4907,11 @@
       <c r="D28" s="20"/>
       <c r="E28" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43812</v>
+        <v>43820</v>
       </c>
       <c r="F28" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43814</v>
+        <v>43822</v>
       </c>
       <c r="G28" s="16">
         <v>2</v>
@@ -4983,11 +4983,11 @@
       <c r="D29" s="20"/>
       <c r="E29" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43814</v>
+        <v>43822</v>
       </c>
       <c r="F29" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43816</v>
+        <v>43824</v>
       </c>
       <c r="G29" s="16">
         <v>2</v>
@@ -5059,11 +5059,11 @@
       <c r="D30" s="20"/>
       <c r="E30" s="2">
         <f t="shared" ca="1" si="11"/>
-        <v>43815</v>
+        <v>43823</v>
       </c>
       <c r="F30" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>43817</v>
+        <v>43825</v>
       </c>
       <c r="G30" s="16">
         <v>2</v>
@@ -5210,11 +5210,11 @@
       </c>
       <c r="E32" s="3">
         <f ca="1">Project_Start</f>
-        <v>43767</v>
+        <v>43775</v>
       </c>
       <c r="F32" s="3">
         <f ca="1">E32+G32</f>
-        <v>43771</v>
+        <v>43779</v>
       </c>
       <c r="G32" s="16">
         <v>4</v>
@@ -5286,11 +5286,11 @@
       <c r="D33" s="23"/>
       <c r="E33" s="3">
         <f ca="1">F32+1</f>
-        <v>43772</v>
+        <v>43780</v>
       </c>
       <c r="F33" s="3">
         <f t="shared" ref="F33:F45" ca="1" si="12">E33+G33</f>
-        <v>43777</v>
+        <v>43785</v>
       </c>
       <c r="G33" s="16">
         <v>5</v>
@@ -5362,11 +5362,11 @@
       <c r="D34" s="23"/>
       <c r="E34" s="3">
         <f t="shared" ref="E34:E36" ca="1" si="13">F33+1</f>
-        <v>43778</v>
+        <v>43786</v>
       </c>
       <c r="F34" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>43783</v>
+        <v>43791</v>
       </c>
       <c r="G34" s="16">
         <v>5</v>
@@ -5438,11 +5438,11 @@
       <c r="D35" s="23"/>
       <c r="E35" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>43784</v>
+        <v>43792</v>
       </c>
       <c r="F35" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>43789</v>
+        <v>43797</v>
       </c>
       <c r="G35" s="16">
         <v>5</v>
@@ -5514,11 +5514,11 @@
       <c r="D36" s="23"/>
       <c r="E36" s="3">
         <f t="shared" ca="1" si="13"/>
-        <v>43790</v>
+        <v>43798</v>
       </c>
       <c r="F36" s="3">
         <f t="shared" ca="1" si="12"/>
-        <v>43795</v>
+        <v>43803</v>
       </c>
       <c r="G36" s="16">
         <v>5</v>
@@ -6365,7 +6365,7 @@
       </c>
       <c r="C47" s="90"/>
       <c r="D47" s="91">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E47" s="86">
         <v>43763</v>
@@ -6522,7 +6522,7 @@
       </c>
       <c r="C49" s="90"/>
       <c r="D49" s="91">
-        <v>0.01</v>
+        <v>0.02</v>
       </c>
       <c r="E49" s="86">
         <f t="shared" ref="E49:E54" si="17">F48+1</f>
@@ -7075,11 +7075,11 @@
       </c>
       <c r="E56" s="2">
         <f ca="1">Project_Start</f>
-        <v>43767</v>
+        <v>43775</v>
       </c>
       <c r="F56" s="2">
         <f ca="1">E56+G56</f>
-        <v>43772</v>
+        <v>43780</v>
       </c>
       <c r="G56" s="16">
         <v>5</v>
@@ -7156,11 +7156,11 @@
       </c>
       <c r="E57" s="2">
         <f ca="1">F56+1</f>
-        <v>43773</v>
+        <v>43781</v>
       </c>
       <c r="F57" s="2">
         <f t="shared" ref="F57:F73" ca="1" si="18">E57+G57</f>
-        <v>43778</v>
+        <v>43786</v>
       </c>
       <c r="G57" s="16">
         <v>5</v>
@@ -7237,11 +7237,11 @@
       </c>
       <c r="E58" s="2">
         <f t="shared" ref="E58:E61" ca="1" si="19">F57+1</f>
-        <v>43779</v>
+        <v>43787</v>
       </c>
       <c r="F58" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43784</v>
+        <v>43792</v>
       </c>
       <c r="G58" s="16">
         <v>5</v>
@@ -7318,11 +7318,11 @@
       </c>
       <c r="E59" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43785</v>
+        <v>43793</v>
       </c>
       <c r="F59" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43790</v>
+        <v>43798</v>
       </c>
       <c r="G59" s="16">
         <v>5</v>
@@ -7399,11 +7399,11 @@
       </c>
       <c r="E60" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43791</v>
+        <v>43799</v>
       </c>
       <c r="F60" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43796</v>
+        <v>43804</v>
       </c>
       <c r="G60" s="16">
         <v>5</v>
@@ -7480,11 +7480,11 @@
       </c>
       <c r="E61" s="2">
         <f t="shared" ca="1" si="19"/>
-        <v>43797</v>
+        <v>43805</v>
       </c>
       <c r="F61" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43802</v>
+        <v>43810</v>
       </c>
       <c r="G61" s="16">
         <v>5</v>
@@ -7561,11 +7561,11 @@
       </c>
       <c r="E62" s="2">
         <f ca="1">F60+1</f>
-        <v>43797</v>
+        <v>43805</v>
       </c>
       <c r="F62" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43802</v>
+        <v>43810</v>
       </c>
       <c r="G62" s="16">
         <v>5</v>
@@ -7640,11 +7640,11 @@
       <c r="D63" s="20"/>
       <c r="E63" s="2">
         <f t="shared" ref="E63:E73" ca="1" si="20">F61+1</f>
-        <v>43803</v>
+        <v>43811</v>
       </c>
       <c r="F63" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43804</v>
+        <v>43812</v>
       </c>
       <c r="G63" s="16">
         <v>1</v>
@@ -7716,11 +7716,11 @@
       <c r="D64" s="20"/>
       <c r="E64" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43803</v>
+        <v>43811</v>
       </c>
       <c r="F64" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43804</v>
+        <v>43812</v>
       </c>
       <c r="G64" s="16">
         <v>1</v>
@@ -7792,11 +7792,11 @@
       <c r="D65" s="20"/>
       <c r="E65" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43805</v>
+        <v>43813</v>
       </c>
       <c r="F65" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43806</v>
+        <v>43814</v>
       </c>
       <c r="G65" s="16">
         <v>1</v>
@@ -7868,11 +7868,11 @@
       <c r="D66" s="20"/>
       <c r="E66" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43805</v>
+        <v>43813</v>
       </c>
       <c r="F66" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43806</v>
+        <v>43814</v>
       </c>
       <c r="G66" s="16">
         <v>1</v>
@@ -7944,11 +7944,11 @@
       <c r="D67" s="20"/>
       <c r="E67" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43807</v>
+        <v>43815</v>
       </c>
       <c r="F67" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43808</v>
+        <v>43816</v>
       </c>
       <c r="G67" s="16">
         <v>1</v>
@@ -8020,11 +8020,11 @@
       <c r="D68" s="20"/>
       <c r="E68" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43807</v>
+        <v>43815</v>
       </c>
       <c r="F68" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43810</v>
+        <v>43818</v>
       </c>
       <c r="G68" s="16">
         <v>3</v>
@@ -8096,11 +8096,11 @@
       <c r="D69" s="20"/>
       <c r="E69" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43809</v>
+        <v>43817</v>
       </c>
       <c r="F69" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43811</v>
+        <v>43819</v>
       </c>
       <c r="G69" s="16">
         <v>2</v>
@@ -8172,11 +8172,11 @@
       <c r="D70" s="20"/>
       <c r="E70" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43811</v>
+        <v>43819</v>
       </c>
       <c r="F70" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43813</v>
+        <v>43821</v>
       </c>
       <c r="G70" s="16">
         <v>2</v>
@@ -8248,11 +8248,11 @@
       <c r="D71" s="20"/>
       <c r="E71" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43812</v>
+        <v>43820</v>
       </c>
       <c r="F71" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43814</v>
+        <v>43822</v>
       </c>
       <c r="G71" s="16">
         <v>2</v>
@@ -8324,11 +8324,11 @@
       <c r="D72" s="20"/>
       <c r="E72" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43814</v>
+        <v>43822</v>
       </c>
       <c r="F72" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43816</v>
+        <v>43824</v>
       </c>
       <c r="G72" s="16">
         <v>2</v>
@@ -8400,11 +8400,11 @@
       <c r="D73" s="20"/>
       <c r="E73" s="2">
         <f t="shared" ca="1" si="20"/>
-        <v>43815</v>
+        <v>43823</v>
       </c>
       <c r="F73" s="2">
         <f t="shared" ca="1" si="18"/>
-        <v>43817</v>
+        <v>43825</v>
       </c>
       <c r="G73" s="16">
         <v>2</v>
@@ -8555,11 +8555,11 @@
       </c>
       <c r="E75" s="1">
         <f ca="1">Project_Start</f>
-        <v>43767</v>
+        <v>43775</v>
       </c>
       <c r="F75" s="1">
         <f ca="1">E75+G75</f>
-        <v>43772</v>
+        <v>43780</v>
       </c>
       <c r="G75" s="16">
         <v>5</v>
@@ -8638,11 +8638,11 @@
       </c>
       <c r="E76" s="1">
         <f ca="1">F75+1</f>
-        <v>43773</v>
+        <v>43781</v>
       </c>
       <c r="F76" s="1">
         <f t="shared" ref="F76:F77" ca="1" si="21">E76+G76</f>
-        <v>43778</v>
+        <v>43786</v>
       </c>
       <c r="G76" s="16">
         <v>5</v>
@@ -8719,11 +8719,11 @@
       </c>
       <c r="E77" s="1">
         <f t="shared" ref="E77" ca="1" si="22">F76+1</f>
-        <v>43779</v>
+        <v>43787</v>
       </c>
       <c r="F77" s="1">
         <f t="shared" ca="1" si="21"/>
-        <v>43794</v>
+        <v>43802</v>
       </c>
       <c r="G77" s="16">
         <v>15</v>
@@ -8945,6 +8945,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -8952,11 +8957,6 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
   <conditionalFormatting sqref="D7:D16 D45 D78:D79 D31:D41">

--- a/2019schedule.xlsx
+++ b/2019schedule.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="91">
   <si>
     <t>在此工作表中创建项目日程安排。
 在单元格 B1 中输入此项目的标题。
@@ -198,10 +198,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>阶段 1 数据分析师</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>1.PPT使用技巧</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -210,15 +206,7 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>阶段 1 大数据</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>3.MySQL</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
-    <t>阶段 1 Python</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
@@ -352,10 +340,6 @@
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>阶段 1 架构师</t>
-    <phoneticPr fontId="23" type="noConversion"/>
-  </si>
-  <si>
     <t>Java进阶面试第1季</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
@@ -427,11 +411,31 @@
     <t>35_尚硅谷_数仓采集_日志采集Flume启动停止脚本</t>
   </si>
   <si>
-    <t>阶段 1 新概念英语</t>
+    <t>阶段 1 计划外</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
   <si>
-    <t>阶段 1 日语</t>
+    <t>1.分布式消息中间件实践</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目 1 数据分析师</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目 2 大数据</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目 3 Python</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目 4 架构师</t>
+    <phoneticPr fontId="23" type="noConversion"/>
+  </si>
+  <si>
+    <t>项目 5 新概念英语</t>
     <phoneticPr fontId="23" type="noConversion"/>
   </si>
 </sst>
@@ -1522,6 +1526,13 @@
     <xf numFmtId="180" fontId="26" fillId="45" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="8" applyBorder="1">
+      <alignment horizontal="right" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="14" fontId="1" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1534,13 +1545,6 @@
     <xf numFmtId="31" fontId="1" fillId="0" borderId="3" xfId="9" applyNumberFormat="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="8">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="8" applyBorder="1">
-      <alignment horizontal="right" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="54">
     <cellStyle name="20% - 着色 1" xfId="31" builtinId="30" customBuiltin="1"/>
@@ -1598,7 +1602,127 @@
     <cellStyle name="着色 6" xfId="50" builtinId="49" customBuiltin="1"/>
     <cellStyle name="注释" xfId="27" builtinId="10" customBuiltin="1"/>
   </cellStyles>
-  <dxfs count="59">
+  <dxfs count="71">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+      <border>
+        <left/>
+        <right/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.34998626667073579"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color rgb="FFC00000"/>
+        </left>
+        <right style="thin">
+          <color rgb="FFC00000"/>
+        </right>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2197,19 +2321,19 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
-      <tableStyleElement type="wholeTable" dxfId="58"/>
-      <tableStyleElement type="headerRow" dxfId="57"/>
+      <tableStyleElement type="wholeTable" dxfId="70"/>
+      <tableStyleElement type="headerRow" dxfId="69"/>
     </tableStyle>
     <tableStyle name="待办事项列表" pivot="0" count="9">
-      <tableStyleElement type="wholeTable" dxfId="56"/>
-      <tableStyleElement type="headerRow" dxfId="55"/>
-      <tableStyleElement type="totalRow" dxfId="54"/>
-      <tableStyleElement type="firstColumn" dxfId="53"/>
-      <tableStyleElement type="lastColumn" dxfId="52"/>
-      <tableStyleElement type="firstRowStripe" dxfId="51"/>
-      <tableStyleElement type="secondRowStripe" dxfId="50"/>
-      <tableStyleElement type="firstColumnStripe" dxfId="49"/>
-      <tableStyleElement type="secondColumnStripe" dxfId="48"/>
+      <tableStyleElement type="wholeTable" dxfId="68"/>
+      <tableStyleElement type="headerRow" dxfId="67"/>
+      <tableStyleElement type="totalRow" dxfId="66"/>
+      <tableStyleElement type="firstColumn" dxfId="65"/>
+      <tableStyleElement type="lastColumn" dxfId="64"/>
+      <tableStyleElement type="firstRowStripe" dxfId="63"/>
+      <tableStyleElement type="secondRowStripe" dxfId="62"/>
+      <tableStyleElement type="firstColumnStripe" dxfId="61"/>
+      <tableStyleElement type="secondColumnStripe" dxfId="60"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2624,11 +2748,11 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BL82"/>
+  <dimension ref="A1:BL99"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="70" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <pane ySplit="6" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="BF4" sqref="BF4:BL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="30" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2653,7 +2777,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="43" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C1" s="5"/>
       <c r="D1" s="6"/>
@@ -2674,341 +2798,340 @@
         <v>2</v>
       </c>
       <c r="B3" s="48"/>
-      <c r="C3" s="99" t="s">
+      <c r="C3" s="95" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="100"/>
-      <c r="E3" s="98">
-        <f ca="1">TODAY()+1</f>
-        <v>43775</v>
-      </c>
-      <c r="F3" s="98"/>
+      <c r="D3" s="96"/>
+      <c r="E3" s="101">
+        <v>43784</v>
+      </c>
+      <c r="F3" s="101"/>
     </row>
     <row r="4" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="99" t="s">
+      <c r="C4" s="95" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="100"/>
+      <c r="D4" s="96"/>
       <c r="E4" s="49">
         <v>1</v>
       </c>
-      <c r="I4" s="95">
-        <f ca="1">I5</f>
-        <v>43772</v>
-      </c>
-      <c r="J4" s="96"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="96"/>
-      <c r="M4" s="96"/>
-      <c r="N4" s="96"/>
-      <c r="O4" s="97"/>
-      <c r="P4" s="95">
-        <f ca="1">P5</f>
+      <c r="I4" s="98">
+        <f>I5</f>
         <v>43779</v>
       </c>
-      <c r="Q4" s="96"/>
-      <c r="R4" s="96"/>
-      <c r="S4" s="96"/>
-      <c r="T4" s="96"/>
-      <c r="U4" s="96"/>
-      <c r="V4" s="97"/>
-      <c r="W4" s="95">
-        <f ca="1">W5</f>
+      <c r="J4" s="99"/>
+      <c r="K4" s="99"/>
+      <c r="L4" s="99"/>
+      <c r="M4" s="99"/>
+      <c r="N4" s="99"/>
+      <c r="O4" s="100"/>
+      <c r="P4" s="98">
+        <f>P5</f>
         <v>43786</v>
       </c>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="96"/>
-      <c r="AB4" s="96"/>
-      <c r="AC4" s="97"/>
-      <c r="AD4" s="95">
-        <f ca="1">AD5</f>
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+      <c r="S4" s="99"/>
+      <c r="T4" s="99"/>
+      <c r="U4" s="99"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="98">
+        <f>W5</f>
         <v>43793</v>
       </c>
-      <c r="AE4" s="96"/>
-      <c r="AF4" s="96"/>
-      <c r="AG4" s="96"/>
-      <c r="AH4" s="96"/>
-      <c r="AI4" s="96"/>
-      <c r="AJ4" s="97"/>
-      <c r="AK4" s="95">
-        <f ca="1">AK5</f>
+      <c r="X4" s="99"/>
+      <c r="Y4" s="99"/>
+      <c r="Z4" s="99"/>
+      <c r="AA4" s="99"/>
+      <c r="AB4" s="99"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="98">
+        <f>AD5</f>
         <v>43800</v>
       </c>
-      <c r="AL4" s="96"/>
-      <c r="AM4" s="96"/>
-      <c r="AN4" s="96"/>
-      <c r="AO4" s="96"/>
-      <c r="AP4" s="96"/>
-      <c r="AQ4" s="97"/>
-      <c r="AR4" s="95">
-        <f ca="1">AR5</f>
+      <c r="AE4" s="99"/>
+      <c r="AF4" s="99"/>
+      <c r="AG4" s="99"/>
+      <c r="AH4" s="99"/>
+      <c r="AI4" s="99"/>
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="98">
+        <f>AK5</f>
         <v>43807</v>
       </c>
-      <c r="AS4" s="96"/>
-      <c r="AT4" s="96"/>
-      <c r="AU4" s="96"/>
-      <c r="AV4" s="96"/>
-      <c r="AW4" s="96"/>
-      <c r="AX4" s="97"/>
-      <c r="AY4" s="95">
-        <f ca="1">AY5</f>
+      <c r="AL4" s="99"/>
+      <c r="AM4" s="99"/>
+      <c r="AN4" s="99"/>
+      <c r="AO4" s="99"/>
+      <c r="AP4" s="99"/>
+      <c r="AQ4" s="100"/>
+      <c r="AR4" s="98">
+        <f>AR5</f>
         <v>43814</v>
       </c>
-      <c r="AZ4" s="96"/>
-      <c r="BA4" s="96"/>
-      <c r="BB4" s="96"/>
-      <c r="BC4" s="96"/>
-      <c r="BD4" s="96"/>
-      <c r="BE4" s="97"/>
-      <c r="BF4" s="95">
-        <f ca="1">BF5</f>
+      <c r="AS4" s="99"/>
+      <c r="AT4" s="99"/>
+      <c r="AU4" s="99"/>
+      <c r="AV4" s="99"/>
+      <c r="AW4" s="99"/>
+      <c r="AX4" s="100"/>
+      <c r="AY4" s="98">
+        <f>AY5</f>
         <v>43821</v>
       </c>
-      <c r="BG4" s="96"/>
-      <c r="BH4" s="96"/>
-      <c r="BI4" s="96"/>
-      <c r="BJ4" s="96"/>
-      <c r="BK4" s="96"/>
-      <c r="BL4" s="97"/>
+      <c r="AZ4" s="99"/>
+      <c r="BA4" s="99"/>
+      <c r="BB4" s="99"/>
+      <c r="BC4" s="99"/>
+      <c r="BD4" s="99"/>
+      <c r="BE4" s="100"/>
+      <c r="BF4" s="98">
+        <f>BF5</f>
+        <v>43828</v>
+      </c>
+      <c r="BG4" s="99"/>
+      <c r="BH4" s="99"/>
+      <c r="BI4" s="99"/>
+      <c r="BJ4" s="99"/>
+      <c r="BK4" s="99"/>
+      <c r="BL4" s="100"/>
     </row>
     <row r="5" spans="1:64" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="101"/>
-      <c r="C5" s="101"/>
-      <c r="D5" s="101"/>
-      <c r="E5" s="101"/>
-      <c r="F5" s="101"/>
-      <c r="G5" s="101"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="97"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="97"/>
       <c r="I5" s="71">
-        <f ca="1">Project_Start-WEEKDAY(Project_Start,1)+1+7*(Display_Week-1)</f>
-        <v>43772</v>
+        <f>Project_Start-WEEKDAY(Project_Start,1)+1+7*(Display_Week-1)</f>
+        <v>43779</v>
       </c>
       <c r="J5" s="72">
-        <f ca="1">I5+1</f>
-        <v>43773</v>
+        <f>I5+1</f>
+        <v>43780</v>
       </c>
       <c r="K5" s="72">
-        <f t="shared" ref="K5:AX5" ca="1" si="0">J5+1</f>
-        <v>43774</v>
+        <f t="shared" ref="K5:AX5" si="0">J5+1</f>
+        <v>43781</v>
       </c>
       <c r="L5" s="72">
-        <f t="shared" ca="1" si="0"/>
-        <v>43775</v>
+        <f t="shared" si="0"/>
+        <v>43782</v>
       </c>
       <c r="M5" s="72">
-        <f t="shared" ca="1" si="0"/>
-        <v>43776</v>
+        <f t="shared" si="0"/>
+        <v>43783</v>
       </c>
       <c r="N5" s="72">
-        <f t="shared" ca="1" si="0"/>
-        <v>43777</v>
+        <f t="shared" si="0"/>
+        <v>43784</v>
       </c>
       <c r="O5" s="73">
-        <f t="shared" ca="1" si="0"/>
-        <v>43778</v>
+        <f t="shared" si="0"/>
+        <v>43785</v>
       </c>
       <c r="P5" s="71">
-        <f ca="1">O5+1</f>
-        <v>43779</v>
+        <f>O5+1</f>
+        <v>43786</v>
       </c>
       <c r="Q5" s="72">
-        <f ca="1">P5+1</f>
-        <v>43780</v>
+        <f>P5+1</f>
+        <v>43787</v>
       </c>
       <c r="R5" s="72">
-        <f t="shared" ca="1" si="0"/>
-        <v>43781</v>
+        <f t="shared" si="0"/>
+        <v>43788</v>
       </c>
       <c r="S5" s="72">
-        <f t="shared" ca="1" si="0"/>
-        <v>43782</v>
+        <f t="shared" si="0"/>
+        <v>43789</v>
       </c>
       <c r="T5" s="72">
-        <f t="shared" ca="1" si="0"/>
-        <v>43783</v>
+        <f t="shared" si="0"/>
+        <v>43790</v>
       </c>
       <c r="U5" s="72">
-        <f t="shared" ca="1" si="0"/>
-        <v>43784</v>
+        <f t="shared" si="0"/>
+        <v>43791</v>
       </c>
       <c r="V5" s="73">
-        <f t="shared" ca="1" si="0"/>
-        <v>43785</v>
+        <f t="shared" si="0"/>
+        <v>43792</v>
       </c>
       <c r="W5" s="71">
-        <f ca="1">V5+1</f>
-        <v>43786</v>
+        <f>V5+1</f>
+        <v>43793</v>
       </c>
       <c r="X5" s="72">
-        <f ca="1">W5+1</f>
-        <v>43787</v>
+        <f>W5+1</f>
+        <v>43794</v>
       </c>
       <c r="Y5" s="72">
-        <f t="shared" ca="1" si="0"/>
-        <v>43788</v>
+        <f t="shared" si="0"/>
+        <v>43795</v>
       </c>
       <c r="Z5" s="72">
-        <f t="shared" ca="1" si="0"/>
-        <v>43789</v>
+        <f t="shared" si="0"/>
+        <v>43796</v>
       </c>
       <c r="AA5" s="72">
-        <f t="shared" ca="1" si="0"/>
-        <v>43790</v>
+        <f t="shared" si="0"/>
+        <v>43797</v>
       </c>
       <c r="AB5" s="72">
-        <f t="shared" ca="1" si="0"/>
-        <v>43791</v>
+        <f t="shared" si="0"/>
+        <v>43798</v>
       </c>
       <c r="AC5" s="73">
-        <f t="shared" ca="1" si="0"/>
-        <v>43792</v>
+        <f t="shared" si="0"/>
+        <v>43799</v>
       </c>
       <c r="AD5" s="71">
-        <f ca="1">AC5+1</f>
-        <v>43793</v>
+        <f>AC5+1</f>
+        <v>43800</v>
       </c>
       <c r="AE5" s="72">
-        <f ca="1">AD5+1</f>
-        <v>43794</v>
+        <f>AD5+1</f>
+        <v>43801</v>
       </c>
       <c r="AF5" s="72">
-        <f t="shared" ca="1" si="0"/>
-        <v>43795</v>
+        <f t="shared" si="0"/>
+        <v>43802</v>
       </c>
       <c r="AG5" s="72">
-        <f t="shared" ca="1" si="0"/>
-        <v>43796</v>
+        <f t="shared" si="0"/>
+        <v>43803</v>
       </c>
       <c r="AH5" s="72">
-        <f t="shared" ca="1" si="0"/>
-        <v>43797</v>
+        <f t="shared" si="0"/>
+        <v>43804</v>
       </c>
       <c r="AI5" s="72">
-        <f t="shared" ca="1" si="0"/>
-        <v>43798</v>
+        <f t="shared" si="0"/>
+        <v>43805</v>
       </c>
       <c r="AJ5" s="73">
-        <f t="shared" ca="1" si="0"/>
-        <v>43799</v>
+        <f t="shared" si="0"/>
+        <v>43806</v>
       </c>
       <c r="AK5" s="71">
-        <f ca="1">AJ5+1</f>
-        <v>43800</v>
+        <f>AJ5+1</f>
+        <v>43807</v>
       </c>
       <c r="AL5" s="72">
-        <f ca="1">AK5+1</f>
-        <v>43801</v>
+        <f>AK5+1</f>
+        <v>43808</v>
       </c>
       <c r="AM5" s="72">
-        <f t="shared" ca="1" si="0"/>
-        <v>43802</v>
+        <f t="shared" si="0"/>
+        <v>43809</v>
       </c>
       <c r="AN5" s="72">
-        <f t="shared" ca="1" si="0"/>
-        <v>43803</v>
+        <f t="shared" si="0"/>
+        <v>43810</v>
       </c>
       <c r="AO5" s="72">
-        <f t="shared" ca="1" si="0"/>
-        <v>43804</v>
+        <f t="shared" si="0"/>
+        <v>43811</v>
       </c>
       <c r="AP5" s="72">
-        <f t="shared" ca="1" si="0"/>
-        <v>43805</v>
+        <f t="shared" si="0"/>
+        <v>43812</v>
       </c>
       <c r="AQ5" s="73">
-        <f t="shared" ca="1" si="0"/>
-        <v>43806</v>
+        <f t="shared" si="0"/>
+        <v>43813</v>
       </c>
       <c r="AR5" s="71">
-        <f ca="1">AQ5+1</f>
-        <v>43807</v>
+        <f>AQ5+1</f>
+        <v>43814</v>
       </c>
       <c r="AS5" s="72">
-        <f ca="1">AR5+1</f>
-        <v>43808</v>
+        <f>AR5+1</f>
+        <v>43815</v>
       </c>
       <c r="AT5" s="72">
-        <f t="shared" ca="1" si="0"/>
-        <v>43809</v>
+        <f t="shared" si="0"/>
+        <v>43816</v>
       </c>
       <c r="AU5" s="72">
-        <f t="shared" ca="1" si="0"/>
-        <v>43810</v>
+        <f t="shared" si="0"/>
+        <v>43817</v>
       </c>
       <c r="AV5" s="72">
-        <f t="shared" ca="1" si="0"/>
-        <v>43811</v>
+        <f t="shared" si="0"/>
+        <v>43818</v>
       </c>
       <c r="AW5" s="72">
-        <f t="shared" ca="1" si="0"/>
-        <v>43812</v>
+        <f t="shared" si="0"/>
+        <v>43819</v>
       </c>
       <c r="AX5" s="73">
-        <f t="shared" ca="1" si="0"/>
-        <v>43813</v>
+        <f t="shared" si="0"/>
+        <v>43820</v>
       </c>
       <c r="AY5" s="71">
-        <f ca="1">AX5+1</f>
-        <v>43814</v>
+        <f>AX5+1</f>
+        <v>43821</v>
       </c>
       <c r="AZ5" s="72">
-        <f ca="1">AY5+1</f>
-        <v>43815</v>
+        <f>AY5+1</f>
+        <v>43822</v>
       </c>
       <c r="BA5" s="72">
-        <f t="shared" ref="BA5:BE5" ca="1" si="1">AZ5+1</f>
-        <v>43816</v>
+        <f t="shared" ref="BA5:BE5" si="1">AZ5+1</f>
+        <v>43823</v>
       </c>
       <c r="BB5" s="72">
-        <f t="shared" ca="1" si="1"/>
-        <v>43817</v>
+        <f t="shared" si="1"/>
+        <v>43824</v>
       </c>
       <c r="BC5" s="72">
-        <f t="shared" ca="1" si="1"/>
-        <v>43818</v>
+        <f t="shared" si="1"/>
+        <v>43825</v>
       </c>
       <c r="BD5" s="72">
-        <f t="shared" ca="1" si="1"/>
-        <v>43819</v>
+        <f t="shared" si="1"/>
+        <v>43826</v>
       </c>
       <c r="BE5" s="73">
-        <f t="shared" ca="1" si="1"/>
-        <v>43820</v>
+        <f t="shared" si="1"/>
+        <v>43827</v>
       </c>
       <c r="BF5" s="71">
-        <f ca="1">BE5+1</f>
-        <v>43821</v>
+        <f>BE5+1</f>
+        <v>43828</v>
       </c>
       <c r="BG5" s="72">
-        <f ca="1">BF5+1</f>
-        <v>43822</v>
+        <f>BF5+1</f>
+        <v>43829</v>
       </c>
       <c r="BH5" s="72">
-        <f t="shared" ref="BH5:BL5" ca="1" si="2">BG5+1</f>
-        <v>43823</v>
+        <f t="shared" ref="BH5:BL5" si="2">BG5+1</f>
+        <v>43830</v>
       </c>
       <c r="BI5" s="72">
-        <f t="shared" ca="1" si="2"/>
-        <v>43824</v>
+        <f t="shared" si="2"/>
+        <v>43831</v>
       </c>
       <c r="BJ5" s="72">
-        <f t="shared" ca="1" si="2"/>
-        <v>43825</v>
+        <f t="shared" si="2"/>
+        <v>43832</v>
       </c>
       <c r="BK5" s="72">
-        <f t="shared" ca="1" si="2"/>
-        <v>43826</v>
+        <f t="shared" si="2"/>
+        <v>43833</v>
       </c>
       <c r="BL5" s="73">
-        <f t="shared" ca="1" si="2"/>
-        <v>43827</v>
+        <f t="shared" si="2"/>
+        <v>43834</v>
       </c>
     </row>
     <row r="6" spans="1:64" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3037,227 +3160,227 @@
         <v>23</v>
       </c>
       <c r="I6" s="13" t="str">
-        <f t="shared" ref="I6:AN6" ca="1" si="3">LEFT(TEXT(I5,"aaa"),1)</f>
+        <f t="shared" ref="I6:AN6" si="3">LEFT(TEXT(I5,"aaa"),1)</f>
         <v>日</v>
       </c>
       <c r="J6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>一</v>
       </c>
       <c r="K6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>二</v>
       </c>
       <c r="L6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>三</v>
       </c>
       <c r="M6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>四</v>
       </c>
       <c r="N6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>五</v>
       </c>
       <c r="O6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>六</v>
       </c>
       <c r="P6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>日</v>
       </c>
       <c r="Q6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>一</v>
       </c>
       <c r="R6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>二</v>
       </c>
       <c r="S6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>三</v>
       </c>
       <c r="T6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>四</v>
       </c>
       <c r="U6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>五</v>
       </c>
       <c r="V6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>六</v>
       </c>
       <c r="W6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>日</v>
       </c>
       <c r="X6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>一</v>
       </c>
       <c r="Y6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>二</v>
       </c>
       <c r="Z6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>三</v>
       </c>
       <c r="AA6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>四</v>
       </c>
       <c r="AB6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>五</v>
       </c>
       <c r="AC6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>六</v>
       </c>
       <c r="AD6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>日</v>
       </c>
       <c r="AE6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>一</v>
       </c>
       <c r="AF6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>二</v>
       </c>
       <c r="AG6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>三</v>
       </c>
       <c r="AH6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>四</v>
       </c>
       <c r="AI6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>五</v>
       </c>
       <c r="AJ6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>六</v>
       </c>
       <c r="AK6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>日</v>
       </c>
       <c r="AL6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>一</v>
       </c>
       <c r="AM6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>二</v>
       </c>
       <c r="AN6" s="13" t="str">
-        <f t="shared" ca="1" si="3"/>
+        <f t="shared" si="3"/>
         <v>三</v>
       </c>
       <c r="AO6" s="13" t="str">
-        <f t="shared" ref="AO6:BL6" ca="1" si="4">LEFT(TEXT(AO5,"aaa"),1)</f>
+        <f t="shared" ref="AO6:BL6" si="4">LEFT(TEXT(AO5,"aaa"),1)</f>
         <v>四</v>
       </c>
       <c r="AP6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>五</v>
       </c>
       <c r="AQ6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>六</v>
       </c>
       <c r="AR6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>日</v>
       </c>
       <c r="AS6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>一</v>
       </c>
       <c r="AT6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>二</v>
       </c>
       <c r="AU6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>三</v>
       </c>
       <c r="AV6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>四</v>
       </c>
       <c r="AW6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>五</v>
       </c>
       <c r="AX6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>六</v>
       </c>
       <c r="AY6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>日</v>
       </c>
       <c r="AZ6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>一</v>
       </c>
       <c r="BA6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>二</v>
       </c>
       <c r="BB6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>三</v>
       </c>
       <c r="BC6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>四</v>
       </c>
       <c r="BD6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>五</v>
       </c>
       <c r="BE6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>六</v>
       </c>
       <c r="BF6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>日</v>
       </c>
       <c r="BG6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>一</v>
       </c>
       <c r="BH6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>二</v>
       </c>
       <c r="BI6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>三</v>
       </c>
       <c r="BJ6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>四</v>
       </c>
       <c r="BK6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>五</v>
       </c>
       <c r="BL6" s="13" t="str">
-        <f t="shared" ca="1" si="4"/>
+        <f t="shared" si="4"/>
         <v>六</v>
       </c>
     </row>
@@ -3333,7 +3456,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>40</v>
+        <v>86</v>
       </c>
       <c r="C8" s="52"/>
       <c r="D8" s="15"/>
@@ -3341,7 +3464,7 @@
       <c r="F8" s="75"/>
       <c r="G8" s="16"/>
       <c r="H8" s="16" t="str">
-        <f t="shared" ref="H8:H79" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
+        <f t="shared" ref="H8:H96" si="5">IF(OR(ISBLANK(task_start),ISBLANK(task_end)),"",task_end-task_start+1)</f>
         <v/>
       </c>
       <c r="I8" s="51"/>
@@ -3406,7 +3529,7 @@
         <v>8</v>
       </c>
       <c r="B9" s="82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C9" s="54" t="s">
         <v>19</v>
@@ -3414,19 +3537,18 @@
       <c r="D9" s="17">
         <v>0</v>
       </c>
-      <c r="E9" s="1">
-        <f ca="1">Project_Start</f>
-        <v>43775</v>
+      <c r="E9" s="4">
+        <v>43784</v>
       </c>
       <c r="F9" s="1">
-        <f ca="1">E9+G9</f>
-        <v>43780</v>
+        <f>E9+G9</f>
+        <v>43789</v>
       </c>
       <c r="G9" s="16">
         <v>5</v>
       </c>
       <c r="H9" s="16">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I9" s="51"/>
@@ -3491,25 +3613,25 @@
         <v>9</v>
       </c>
       <c r="B10" s="82" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C10" s="54"/>
       <c r="D10" s="17">
         <v>0</v>
       </c>
       <c r="E10" s="1">
-        <f ca="1">F9+1</f>
-        <v>43781</v>
+        <f>F9+1</f>
+        <v>43790</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" ref="F10:F11" ca="1" si="6">E10+G10</f>
-        <v>43786</v>
+        <f t="shared" ref="F10:F11" si="6">E10+G10</f>
+        <v>43795</v>
       </c>
       <c r="G10" s="16">
         <v>5</v>
       </c>
       <c r="H10" s="16">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I10" s="51"/>
@@ -3572,25 +3694,25 @@
     <row r="11" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="45"/>
       <c r="B11" s="82" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C11" s="54"/>
       <c r="D11" s="17">
         <v>0.1</v>
       </c>
       <c r="E11" s="1">
-        <f t="shared" ref="E11" ca="1" si="7">F10+1</f>
-        <v>43787</v>
+        <f t="shared" ref="E11" si="7">F10+1</f>
+        <v>43796</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" ca="1" si="6"/>
-        <v>43802</v>
+        <f t="shared" si="6"/>
+        <v>43811</v>
       </c>
       <c r="G11" s="16">
         <v>15</v>
       </c>
       <c r="H11" s="16">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>16</v>
       </c>
       <c r="I11" s="51"/>
@@ -3655,7 +3777,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="18" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="C12" s="56"/>
       <c r="D12" s="19"/>
@@ -3726,25 +3848,24 @@
     <row r="13" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="42"/>
       <c r="B13" s="83" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13" s="57"/>
       <c r="D13" s="20">
         <v>1</v>
       </c>
-      <c r="E13" s="2">
-        <f ca="1">Project_Start</f>
-        <v>43775</v>
+      <c r="E13" s="4">
+        <v>43784</v>
       </c>
       <c r="F13" s="2">
-        <f ca="1">E13+G13</f>
-        <v>43780</v>
+        <f>E13+G13</f>
+        <v>43789</v>
       </c>
       <c r="G13" s="16">
         <v>5</v>
       </c>
       <c r="H13" s="16">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I13" s="51"/>
@@ -3807,25 +3928,25 @@
     <row r="14" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="45"/>
       <c r="B14" s="83" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C14" s="57"/>
       <c r="D14" s="20">
         <v>1</v>
       </c>
       <c r="E14" s="2">
-        <f ca="1">F13+1</f>
-        <v>43781</v>
+        <f>F13+1</f>
+        <v>43790</v>
       </c>
       <c r="F14" s="2">
-        <f t="shared" ref="F14:F18" ca="1" si="8">E14+G14</f>
-        <v>43786</v>
+        <f t="shared" ref="F14:F18" si="8">E14+G14</f>
+        <v>43795</v>
       </c>
       <c r="G14" s="16">
         <v>5</v>
       </c>
       <c r="H14" s="16">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I14" s="51"/>
@@ -3888,25 +4009,25 @@
     <row r="15" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="45"/>
       <c r="B15" s="83" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C15" s="57"/>
       <c r="D15" s="20">
         <v>1</v>
       </c>
       <c r="E15" s="2">
-        <f t="shared" ref="E15:E18" ca="1" si="9">F14+1</f>
-        <v>43787</v>
+        <f t="shared" ref="E15:E18" si="9">F14+1</f>
+        <v>43796</v>
       </c>
       <c r="F15" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>43792</v>
+        <f t="shared" si="8"/>
+        <v>43801</v>
       </c>
       <c r="G15" s="16">
         <v>5</v>
       </c>
       <c r="H15" s="16">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I15" s="51"/>
@@ -3969,25 +4090,25 @@
     <row r="16" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="45"/>
       <c r="B16" s="83" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C16" s="57"/>
       <c r="D16" s="20">
         <v>1</v>
       </c>
       <c r="E16" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>43793</v>
+        <f t="shared" si="9"/>
+        <v>43802</v>
       </c>
       <c r="F16" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>43798</v>
+        <f t="shared" si="8"/>
+        <v>43807</v>
       </c>
       <c r="G16" s="16">
         <v>5</v>
       </c>
       <c r="H16" s="16">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I16" s="51"/>
@@ -4050,25 +4171,25 @@
     <row r="17" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="45"/>
       <c r="B17" s="83" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C17" s="57"/>
       <c r="D17" s="20">
         <v>1</v>
       </c>
       <c r="E17" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>43799</v>
+        <f t="shared" si="9"/>
+        <v>43808</v>
       </c>
       <c r="F17" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>43804</v>
+        <f t="shared" si="8"/>
+        <v>43813</v>
       </c>
       <c r="G17" s="16">
         <v>5</v>
       </c>
       <c r="H17" s="16">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I17" s="51"/>
@@ -4131,25 +4252,25 @@
     <row r="18" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="45"/>
       <c r="B18" s="83" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C18" s="57"/>
       <c r="D18" s="20">
         <v>1</v>
       </c>
       <c r="E18" s="2">
-        <f t="shared" ca="1" si="9"/>
-        <v>43805</v>
+        <f t="shared" si="9"/>
+        <v>43814</v>
       </c>
       <c r="F18" s="2">
-        <f t="shared" ca="1" si="8"/>
-        <v>43810</v>
+        <f t="shared" si="8"/>
+        <v>43819</v>
       </c>
       <c r="G18" s="16">
         <v>5</v>
       </c>
       <c r="H18" s="16">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I18" s="51"/>
@@ -4212,25 +4333,25 @@
     <row r="19" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="45"/>
       <c r="B19" s="83" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="C19" s="57"/>
       <c r="D19" s="20">
         <v>1</v>
       </c>
       <c r="E19" s="2">
-        <f ca="1">F17+1</f>
-        <v>43805</v>
+        <f>F17+1</f>
+        <v>43814</v>
       </c>
       <c r="F19" s="2">
-        <f t="shared" ref="F19:F30" ca="1" si="10">E19+G19</f>
-        <v>43810</v>
+        <f t="shared" ref="F19:F30" si="10">E19+G19</f>
+        <v>43819</v>
       </c>
       <c r="G19" s="16">
         <v>5</v>
       </c>
       <c r="H19" s="16">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I19" s="51"/>
@@ -4293,17 +4414,17 @@
     <row r="20" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="45"/>
       <c r="B20" s="83" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="C20" s="57"/>
       <c r="D20" s="20"/>
       <c r="E20" s="2">
-        <f t="shared" ref="E20:E30" ca="1" si="11">F18+1</f>
-        <v>43811</v>
+        <f t="shared" ref="E20:E30" si="11">F18+1</f>
+        <v>43820</v>
       </c>
       <c r="F20" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>43812</v>
+        <f t="shared" si="10"/>
+        <v>43821</v>
       </c>
       <c r="G20" s="16">
         <v>1</v>
@@ -4369,17 +4490,17 @@
     <row r="21" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="45"/>
       <c r="B21" s="83" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C21" s="57"/>
       <c r="D21" s="20"/>
       <c r="E21" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>43811</v>
+        <f t="shared" si="11"/>
+        <v>43820</v>
       </c>
       <c r="F21" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>43812</v>
+        <f t="shared" si="10"/>
+        <v>43821</v>
       </c>
       <c r="G21" s="16">
         <v>1</v>
@@ -4445,17 +4566,17 @@
     <row r="22" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="45"/>
       <c r="B22" s="83" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C22" s="57"/>
       <c r="D22" s="20"/>
       <c r="E22" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>43813</v>
+        <f t="shared" si="11"/>
+        <v>43822</v>
       </c>
       <c r="F22" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>43814</v>
+        <f t="shared" si="10"/>
+        <v>43823</v>
       </c>
       <c r="G22" s="16">
         <v>1</v>
@@ -4521,17 +4642,17 @@
     <row r="23" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="45"/>
       <c r="B23" s="83" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C23" s="57"/>
       <c r="D23" s="20"/>
       <c r="E23" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>43813</v>
+        <f t="shared" si="11"/>
+        <v>43822</v>
       </c>
       <c r="F23" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>43814</v>
+        <f t="shared" si="10"/>
+        <v>43823</v>
       </c>
       <c r="G23" s="16">
         <v>1</v>
@@ -4597,17 +4718,17 @@
     <row r="24" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="45"/>
       <c r="B24" s="83" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="C24" s="57"/>
       <c r="D24" s="20"/>
       <c r="E24" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>43815</v>
+        <f t="shared" si="11"/>
+        <v>43824</v>
       </c>
       <c r="F24" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>43816</v>
+        <f t="shared" si="10"/>
+        <v>43825</v>
       </c>
       <c r="G24" s="16">
         <v>1</v>
@@ -4673,17 +4794,17 @@
     <row r="25" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="45"/>
       <c r="B25" s="83" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C25" s="57"/>
       <c r="D25" s="20"/>
       <c r="E25" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>43815</v>
+        <f t="shared" si="11"/>
+        <v>43824</v>
       </c>
       <c r="F25" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>43818</v>
+        <f t="shared" si="10"/>
+        <v>43827</v>
       </c>
       <c r="G25" s="16">
         <v>3</v>
@@ -4749,17 +4870,17 @@
     <row r="26" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="45"/>
       <c r="B26" s="83" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C26" s="57"/>
       <c r="D26" s="20"/>
       <c r="E26" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>43817</v>
+        <f t="shared" si="11"/>
+        <v>43826</v>
       </c>
       <c r="F26" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>43819</v>
+        <f t="shared" si="10"/>
+        <v>43828</v>
       </c>
       <c r="G26" s="16">
         <v>2</v>
@@ -4825,17 +4946,17 @@
     <row r="27" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="45"/>
       <c r="B27" s="83" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C27" s="57"/>
       <c r="D27" s="20"/>
       <c r="E27" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>43819</v>
+        <f t="shared" si="11"/>
+        <v>43828</v>
       </c>
       <c r="F27" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>43821</v>
+        <f t="shared" si="10"/>
+        <v>43830</v>
       </c>
       <c r="G27" s="16">
         <v>2</v>
@@ -4901,17 +5022,17 @@
     <row r="28" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="45"/>
       <c r="B28" s="83" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="C28" s="57"/>
       <c r="D28" s="20"/>
       <c r="E28" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>43820</v>
+        <f t="shared" si="11"/>
+        <v>43829</v>
       </c>
       <c r="F28" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>43822</v>
+        <f t="shared" si="10"/>
+        <v>43831</v>
       </c>
       <c r="G28" s="16">
         <v>2</v>
@@ -4977,17 +5098,17 @@
     <row r="29" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="45"/>
       <c r="B29" s="83" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C29" s="57"/>
       <c r="D29" s="20"/>
       <c r="E29" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>43822</v>
+        <f t="shared" si="11"/>
+        <v>43831</v>
       </c>
       <c r="F29" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>43824</v>
+        <f t="shared" si="10"/>
+        <v>43833</v>
       </c>
       <c r="G29" s="16">
         <v>2</v>
@@ -5053,17 +5174,17 @@
     <row r="30" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="45"/>
       <c r="B30" s="83" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="C30" s="57"/>
       <c r="D30" s="20"/>
       <c r="E30" s="2">
-        <f t="shared" ca="1" si="11"/>
-        <v>43823</v>
+        <f t="shared" si="11"/>
+        <v>43832</v>
       </c>
       <c r="F30" s="2">
-        <f t="shared" ca="1" si="10"/>
-        <v>43825</v>
+        <f t="shared" si="10"/>
+        <v>43834</v>
       </c>
       <c r="G30" s="16">
         <v>2</v>
@@ -5131,7 +5252,7 @@
         <v>11</v>
       </c>
       <c r="B31" s="21" t="s">
-        <v>45</v>
+        <v>88</v>
       </c>
       <c r="C31" s="58"/>
       <c r="D31" s="22"/>
@@ -5202,19 +5323,18 @@
     <row r="32" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="45"/>
       <c r="B32" s="84" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="C32" s="59"/>
       <c r="D32" s="23">
         <v>0.02</v>
       </c>
-      <c r="E32" s="3">
-        <f ca="1">Project_Start</f>
-        <v>43775</v>
+      <c r="E32" s="4">
+        <v>43784</v>
       </c>
       <c r="F32" s="3">
-        <f ca="1">E32+G32</f>
-        <v>43779</v>
+        <f>E32+G32</f>
+        <v>43788</v>
       </c>
       <c r="G32" s="16">
         <v>4</v>
@@ -5280,17 +5400,17 @@
     <row r="33" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="45"/>
       <c r="B33" s="84" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C33" s="59"/>
       <c r="D33" s="23"/>
       <c r="E33" s="3">
-        <f ca="1">F32+1</f>
-        <v>43780</v>
+        <f>F32+1</f>
+        <v>43789</v>
       </c>
       <c r="F33" s="3">
-        <f t="shared" ref="F33:F45" ca="1" si="12">E33+G33</f>
-        <v>43785</v>
+        <f t="shared" ref="F33:F45" si="12">E33+G33</f>
+        <v>43794</v>
       </c>
       <c r="G33" s="16">
         <v>5</v>
@@ -5356,17 +5476,17 @@
     <row r="34" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A34" s="45"/>
       <c r="B34" s="84" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C34" s="59"/>
       <c r="D34" s="23"/>
       <c r="E34" s="3">
-        <f t="shared" ref="E34:E36" ca="1" si="13">F33+1</f>
-        <v>43786</v>
+        <f t="shared" ref="E34:E36" si="13">F33+1</f>
+        <v>43795</v>
       </c>
       <c r="F34" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>43791</v>
+        <f t="shared" si="12"/>
+        <v>43800</v>
       </c>
       <c r="G34" s="16">
         <v>5</v>
@@ -5432,17 +5552,17 @@
     <row r="35" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="45"/>
       <c r="B35" s="84" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C35" s="59"/>
       <c r="D35" s="23"/>
       <c r="E35" s="3">
-        <f t="shared" ca="1" si="13"/>
-        <v>43792</v>
+        <f t="shared" si="13"/>
+        <v>43801</v>
       </c>
       <c r="F35" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>43797</v>
+        <f t="shared" si="12"/>
+        <v>43806</v>
       </c>
       <c r="G35" s="16">
         <v>5</v>
@@ -5508,17 +5628,17 @@
     <row r="36" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="45"/>
       <c r="B36" s="84" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C36" s="59"/>
       <c r="D36" s="23"/>
       <c r="E36" s="3">
-        <f t="shared" ca="1" si="13"/>
-        <v>43798</v>
+        <f t="shared" si="13"/>
+        <v>43807</v>
       </c>
       <c r="F36" s="3">
-        <f t="shared" ca="1" si="12"/>
-        <v>43803</v>
+        <f t="shared" si="12"/>
+        <v>43812</v>
       </c>
       <c r="G36" s="16">
         <v>5</v>
@@ -5586,7 +5706,7 @@
         <v>11</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C37" s="60"/>
       <c r="D37" s="25"/>
@@ -5657,16 +5777,16 @@
     <row r="38" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A38" s="45"/>
       <c r="B38" s="85" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C38" s="61"/>
       <c r="D38" s="26"/>
       <c r="E38" s="4">
-        <v>43756</v>
+        <v>43784</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" si="12"/>
-        <v>43766</v>
+        <v>43794</v>
       </c>
       <c r="G38" s="16">
         <v>10</v>
@@ -5735,17 +5855,17 @@
     <row r="39" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="45"/>
       <c r="B39" s="85" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C39" s="61"/>
       <c r="D39" s="26"/>
       <c r="E39" s="4">
         <f>F38+1</f>
-        <v>43767</v>
+        <v>43795</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" si="12"/>
-        <v>43772</v>
+        <v>43800</v>
       </c>
       <c r="G39" s="16">
         <v>5</v>
@@ -5814,17 +5934,17 @@
     <row r="40" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A40" s="45"/>
       <c r="B40" s="85" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C40" s="61"/>
       <c r="D40" s="26"/>
       <c r="E40" s="4">
         <f t="shared" ref="E40:E45" si="14">F39+1</f>
-        <v>43773</v>
+        <v>43801</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" si="12"/>
-        <v>43778</v>
+        <v>43806</v>
       </c>
       <c r="G40" s="16">
         <v>5</v>
@@ -5893,17 +6013,17 @@
     <row r="41" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A41" s="45"/>
       <c r="B41" s="85" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C41" s="61"/>
       <c r="D41" s="26"/>
       <c r="E41" s="4">
         <f t="shared" si="14"/>
-        <v>43779</v>
+        <v>43807</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" si="12"/>
-        <v>43784</v>
+        <v>43812</v>
       </c>
       <c r="G41" s="16">
         <v>5</v>
@@ -5972,17 +6092,17 @@
     <row r="42" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A42" s="45"/>
       <c r="B42" s="85" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C42" s="61"/>
       <c r="D42" s="26"/>
       <c r="E42" s="4">
         <f t="shared" si="14"/>
-        <v>43785</v>
+        <v>43813</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" ref="F42:F44" si="15">E42+G42</f>
-        <v>43790</v>
+        <v>43818</v>
       </c>
       <c r="G42" s="16">
         <v>5</v>
@@ -6051,17 +6171,17 @@
     <row r="43" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="45"/>
       <c r="B43" s="85" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C43" s="61"/>
       <c r="D43" s="26"/>
       <c r="E43" s="4">
         <f t="shared" si="14"/>
-        <v>43791</v>
+        <v>43819</v>
       </c>
       <c r="F43" s="1">
         <f t="shared" si="15"/>
-        <v>43796</v>
+        <v>43824</v>
       </c>
       <c r="G43" s="16">
         <v>5</v>
@@ -6130,17 +6250,17 @@
     <row r="44" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A44" s="45"/>
       <c r="B44" s="85" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C44" s="61"/>
       <c r="D44" s="26"/>
       <c r="E44" s="4">
         <f t="shared" si="14"/>
-        <v>43797</v>
+        <v>43825</v>
       </c>
       <c r="F44" s="1">
         <f t="shared" si="15"/>
-        <v>43802</v>
+        <v>43830</v>
       </c>
       <c r="G44" s="16">
         <v>5</v>
@@ -6209,17 +6329,17 @@
     <row r="45" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A45" s="45"/>
       <c r="B45" s="85" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C45" s="61"/>
       <c r="D45" s="26"/>
       <c r="E45" s="4">
         <f t="shared" si="14"/>
-        <v>43803</v>
+        <v>43831</v>
       </c>
       <c r="F45" s="1">
         <f t="shared" si="12"/>
-        <v>43808</v>
+        <v>43836</v>
       </c>
       <c r="G45" s="16">
         <v>5</v>
@@ -6290,7 +6410,7 @@
         <v>11</v>
       </c>
       <c r="B46" s="92" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C46" s="87"/>
       <c r="D46" s="88"/>
@@ -6361,7 +6481,7 @@
     <row r="47" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A47" s="45"/>
       <c r="B47" s="89" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="C47" s="90"/>
       <c r="D47" s="91">
@@ -6441,7 +6561,7 @@
     <row r="48" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A48" s="45"/>
       <c r="B48" s="89" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C48" s="90"/>
       <c r="D48" s="91"/>
@@ -6518,7 +6638,7 @@
     <row r="49" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A49" s="45"/>
       <c r="B49" s="89" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="C49" s="90"/>
       <c r="D49" s="91">
@@ -6599,7 +6719,7 @@
     <row r="50" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A50" s="45"/>
       <c r="B50" s="89" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C50" s="90"/>
       <c r="D50" s="91"/>
@@ -6678,7 +6798,7 @@
     <row r="51" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A51" s="45"/>
       <c r="B51" s="89" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C51" s="90"/>
       <c r="D51" s="91"/>
@@ -6757,7 +6877,7 @@
     <row r="52" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A52" s="45"/>
       <c r="B52" s="89" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C52" s="90"/>
       <c r="D52" s="91"/>
@@ -6836,7 +6956,7 @@
     <row r="53" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A53" s="45"/>
       <c r="B53" s="89" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C53" s="90"/>
       <c r="D53" s="91"/>
@@ -6915,7 +7035,7 @@
     <row r="54" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="45"/>
       <c r="B54" s="89" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C54" s="90"/>
       <c r="D54" s="91"/>
@@ -6996,7 +7116,7 @@
         <v>10</v>
       </c>
       <c r="B55" s="18" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C55" s="56"/>
       <c r="D55" s="19"/>
@@ -7066,26 +7186,23 @@
     </row>
     <row r="56" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="42"/>
-      <c r="B56" s="83" t="s">
-        <v>60</v>
+      <c r="B56" s="83">
+        <v>8</v>
       </c>
       <c r="C56" s="57"/>
-      <c r="D56" s="20">
-        <v>1</v>
-      </c>
-      <c r="E56" s="2">
-        <f ca="1">Project_Start</f>
-        <v>43775</v>
+      <c r="D56" s="20"/>
+      <c r="E56" s="1">
+        <v>43784</v>
       </c>
       <c r="F56" s="2">
-        <f ca="1">E56+G56</f>
-        <v>43780</v>
+        <f>E56+G56</f>
+        <v>43789</v>
       </c>
       <c r="G56" s="16">
         <v>5</v>
       </c>
       <c r="H56" s="16">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I56" s="51"/>
@@ -7147,26 +7264,24 @@
     </row>
     <row r="57" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="45"/>
-      <c r="B57" s="83" t="s">
-        <v>61</v>
+      <c r="B57" s="83">
+        <v>9</v>
       </c>
       <c r="C57" s="57"/>
-      <c r="D57" s="20">
-        <v>1</v>
-      </c>
+      <c r="D57" s="20"/>
       <c r="E57" s="2">
-        <f ca="1">F56+1</f>
-        <v>43781</v>
+        <f>F56+1</f>
+        <v>43790</v>
       </c>
       <c r="F57" s="2">
-        <f t="shared" ref="F57:F73" ca="1" si="18">E57+G57</f>
-        <v>43786</v>
+        <f t="shared" ref="F57:F90" si="18">E57+G57</f>
+        <v>43795</v>
       </c>
       <c r="G57" s="16">
         <v>5</v>
       </c>
       <c r="H57" s="16">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I57" s="51"/>
@@ -7228,26 +7343,24 @@
     </row>
     <row r="58" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A58" s="45"/>
-      <c r="B58" s="83" t="s">
-        <v>62</v>
+      <c r="B58" s="83">
+        <v>10</v>
       </c>
       <c r="C58" s="57"/>
-      <c r="D58" s="20">
-        <v>1</v>
-      </c>
+      <c r="D58" s="20"/>
       <c r="E58" s="2">
-        <f t="shared" ref="E58:E61" ca="1" si="19">F57+1</f>
-        <v>43787</v>
+        <f t="shared" ref="E58:E90" si="19">F57+1</f>
+        <v>43796</v>
       </c>
       <c r="F58" s="2">
-        <f t="shared" ca="1" si="18"/>
-        <v>43792</v>
+        <f t="shared" si="18"/>
+        <v>43801</v>
       </c>
       <c r="G58" s="16">
         <v>5</v>
       </c>
       <c r="H58" s="16">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I58" s="51"/>
@@ -7309,26 +7422,24 @@
     </row>
     <row r="59" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A59" s="45"/>
-      <c r="B59" s="83" t="s">
-        <v>63</v>
+      <c r="B59" s="83">
+        <v>11</v>
       </c>
       <c r="C59" s="57"/>
-      <c r="D59" s="20">
-        <v>1</v>
-      </c>
+      <c r="D59" s="20"/>
       <c r="E59" s="2">
-        <f t="shared" ca="1" si="19"/>
-        <v>43793</v>
+        <f t="shared" si="19"/>
+        <v>43802</v>
       </c>
       <c r="F59" s="2">
-        <f t="shared" ca="1" si="18"/>
-        <v>43798</v>
+        <f t="shared" si="18"/>
+        <v>43807</v>
       </c>
       <c r="G59" s="16">
         <v>5</v>
       </c>
       <c r="H59" s="16">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I59" s="51"/>
@@ -7390,26 +7501,24 @@
     </row>
     <row r="60" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A60" s="45"/>
-      <c r="B60" s="83" t="s">
-        <v>64</v>
+      <c r="B60" s="83">
+        <v>12</v>
       </c>
       <c r="C60" s="57"/>
-      <c r="D60" s="20">
-        <v>1</v>
-      </c>
+      <c r="D60" s="20"/>
       <c r="E60" s="2">
-        <f t="shared" ca="1" si="19"/>
-        <v>43799</v>
+        <f t="shared" si="19"/>
+        <v>43808</v>
       </c>
       <c r="F60" s="2">
-        <f t="shared" ca="1" si="18"/>
-        <v>43804</v>
+        <f t="shared" si="18"/>
+        <v>43813</v>
       </c>
       <c r="G60" s="16">
         <v>5</v>
       </c>
       <c r="H60" s="16">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I60" s="51"/>
@@ -7471,26 +7580,24 @@
     </row>
     <row r="61" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="45"/>
-      <c r="B61" s="83" t="s">
-        <v>65</v>
+      <c r="B61" s="83">
+        <v>13</v>
       </c>
       <c r="C61" s="57"/>
-      <c r="D61" s="20">
-        <v>1</v>
-      </c>
+      <c r="D61" s="20"/>
       <c r="E61" s="2">
-        <f t="shared" ca="1" si="19"/>
-        <v>43805</v>
+        <f t="shared" si="19"/>
+        <v>43814</v>
       </c>
       <c r="F61" s="2">
-        <f t="shared" ca="1" si="18"/>
-        <v>43810</v>
+        <f t="shared" si="18"/>
+        <v>43819</v>
       </c>
       <c r="G61" s="16">
         <v>5</v>
       </c>
       <c r="H61" s="16">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I61" s="51"/>
@@ -7552,26 +7659,24 @@
     </row>
     <row r="62" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A62" s="45"/>
-      <c r="B62" s="83" t="s">
-        <v>66</v>
+      <c r="B62" s="83">
+        <v>14</v>
       </c>
       <c r="C62" s="57"/>
-      <c r="D62" s="20">
-        <v>1</v>
-      </c>
+      <c r="D62" s="20"/>
       <c r="E62" s="2">
-        <f ca="1">F60+1</f>
-        <v>43805</v>
+        <f t="shared" si="19"/>
+        <v>43820</v>
       </c>
       <c r="F62" s="2">
-        <f t="shared" ca="1" si="18"/>
-        <v>43810</v>
+        <f t="shared" si="18"/>
+        <v>43825</v>
       </c>
       <c r="G62" s="16">
         <v>5</v>
       </c>
       <c r="H62" s="16">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I62" s="51"/>
@@ -7633,18 +7738,18 @@
     </row>
     <row r="63" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A63" s="45"/>
-      <c r="B63" s="83" t="s">
-        <v>77</v>
+      <c r="B63" s="83">
+        <v>15</v>
       </c>
       <c r="C63" s="57"/>
       <c r="D63" s="20"/>
       <c r="E63" s="2">
-        <f t="shared" ref="E63:E73" ca="1" si="20">F61+1</f>
-        <v>43811</v>
+        <f t="shared" si="19"/>
+        <v>43826</v>
       </c>
       <c r="F63" s="2">
-        <f t="shared" ca="1" si="18"/>
-        <v>43812</v>
+        <f t="shared" si="18"/>
+        <v>43827</v>
       </c>
       <c r="G63" s="16">
         <v>1</v>
@@ -7709,18 +7814,18 @@
     </row>
     <row r="64" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A64" s="45"/>
-      <c r="B64" s="83" t="s">
-        <v>78</v>
+      <c r="B64" s="83">
+        <v>16</v>
       </c>
       <c r="C64" s="57"/>
       <c r="D64" s="20"/>
       <c r="E64" s="2">
-        <f t="shared" ca="1" si="20"/>
-        <v>43811</v>
+        <f t="shared" si="19"/>
+        <v>43828</v>
       </c>
       <c r="F64" s="2">
-        <f t="shared" ca="1" si="18"/>
-        <v>43812</v>
+        <f t="shared" si="18"/>
+        <v>43829</v>
       </c>
       <c r="G64" s="16">
         <v>1</v>
@@ -7785,18 +7890,18 @@
     </row>
     <row r="65" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A65" s="45"/>
-      <c r="B65" s="83" t="s">
-        <v>79</v>
+      <c r="B65" s="83">
+        <v>17</v>
       </c>
       <c r="C65" s="57"/>
       <c r="D65" s="20"/>
       <c r="E65" s="2">
-        <f t="shared" ca="1" si="20"/>
-        <v>43813</v>
+        <f t="shared" si="19"/>
+        <v>43830</v>
       </c>
       <c r="F65" s="2">
-        <f t="shared" ca="1" si="18"/>
-        <v>43814</v>
+        <f t="shared" si="18"/>
+        <v>43831</v>
       </c>
       <c r="G65" s="16">
         <v>1</v>
@@ -7861,18 +7966,18 @@
     </row>
     <row r="66" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A66" s="45"/>
-      <c r="B66" s="83" t="s">
-        <v>80</v>
+      <c r="B66" s="83">
+        <v>18</v>
       </c>
       <c r="C66" s="57"/>
       <c r="D66" s="20"/>
       <c r="E66" s="2">
-        <f t="shared" ca="1" si="20"/>
-        <v>43813</v>
+        <f t="shared" si="19"/>
+        <v>43832</v>
       </c>
       <c r="F66" s="2">
-        <f t="shared" ca="1" si="18"/>
-        <v>43814</v>
+        <f t="shared" si="18"/>
+        <v>43833</v>
       </c>
       <c r="G66" s="16">
         <v>1</v>
@@ -7937,18 +8042,18 @@
     </row>
     <row r="67" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A67" s="45"/>
-      <c r="B67" s="83" t="s">
-        <v>81</v>
+      <c r="B67" s="83">
+        <v>19</v>
       </c>
       <c r="C67" s="57"/>
       <c r="D67" s="20"/>
       <c r="E67" s="2">
-        <f t="shared" ca="1" si="20"/>
-        <v>43815</v>
+        <f t="shared" si="19"/>
+        <v>43834</v>
       </c>
       <c r="F67" s="2">
-        <f t="shared" ca="1" si="18"/>
-        <v>43816</v>
+        <f t="shared" si="18"/>
+        <v>43835</v>
       </c>
       <c r="G67" s="16">
         <v>1</v>
@@ -8013,18 +8118,18 @@
     </row>
     <row r="68" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A68" s="45"/>
-      <c r="B68" s="83" t="s">
-        <v>82</v>
+      <c r="B68" s="83">
+        <v>20</v>
       </c>
       <c r="C68" s="57"/>
       <c r="D68" s="20"/>
       <c r="E68" s="2">
-        <f t="shared" ca="1" si="20"/>
-        <v>43815</v>
+        <f t="shared" si="19"/>
+        <v>43836</v>
       </c>
       <c r="F68" s="2">
-        <f t="shared" ca="1" si="18"/>
-        <v>43818</v>
+        <f t="shared" si="18"/>
+        <v>43839</v>
       </c>
       <c r="G68" s="16">
         <v>3</v>
@@ -8089,18 +8194,18 @@
     </row>
     <row r="69" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A69" s="45"/>
-      <c r="B69" s="83" t="s">
-        <v>83</v>
+      <c r="B69" s="83">
+        <v>21</v>
       </c>
       <c r="C69" s="57"/>
       <c r="D69" s="20"/>
       <c r="E69" s="2">
-        <f t="shared" ca="1" si="20"/>
-        <v>43817</v>
+        <f t="shared" si="19"/>
+        <v>43840</v>
       </c>
       <c r="F69" s="2">
-        <f t="shared" ca="1" si="18"/>
-        <v>43819</v>
+        <f t="shared" si="18"/>
+        <v>43842</v>
       </c>
       <c r="G69" s="16">
         <v>2</v>
@@ -8165,18 +8270,18 @@
     </row>
     <row r="70" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A70" s="45"/>
-      <c r="B70" s="83" t="s">
-        <v>84</v>
+      <c r="B70" s="83">
+        <v>22</v>
       </c>
       <c r="C70" s="57"/>
       <c r="D70" s="20"/>
       <c r="E70" s="2">
-        <f t="shared" ca="1" si="20"/>
-        <v>43819</v>
+        <f t="shared" si="19"/>
+        <v>43843</v>
       </c>
       <c r="F70" s="2">
-        <f t="shared" ca="1" si="18"/>
-        <v>43821</v>
+        <f t="shared" si="18"/>
+        <v>43845</v>
       </c>
       <c r="G70" s="16">
         <v>2</v>
@@ -8241,18 +8346,18 @@
     </row>
     <row r="71" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A71" s="45"/>
-      <c r="B71" s="83" t="s">
-        <v>85</v>
+      <c r="B71" s="83">
+        <v>23</v>
       </c>
       <c r="C71" s="57"/>
       <c r="D71" s="20"/>
       <c r="E71" s="2">
-        <f t="shared" ca="1" si="20"/>
-        <v>43820</v>
+        <f t="shared" si="19"/>
+        <v>43846</v>
       </c>
       <c r="F71" s="2">
-        <f t="shared" ca="1" si="18"/>
-        <v>43822</v>
+        <f t="shared" si="18"/>
+        <v>43848</v>
       </c>
       <c r="G71" s="16">
         <v>2</v>
@@ -8317,18 +8422,18 @@
     </row>
     <row r="72" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A72" s="45"/>
-      <c r="B72" s="83" t="s">
-        <v>86</v>
+      <c r="B72" s="83">
+        <v>24</v>
       </c>
       <c r="C72" s="57"/>
       <c r="D72" s="20"/>
       <c r="E72" s="2">
-        <f t="shared" ca="1" si="20"/>
-        <v>43822</v>
+        <f t="shared" si="19"/>
+        <v>43849</v>
       </c>
       <c r="F72" s="2">
-        <f t="shared" ca="1" si="18"/>
-        <v>43824</v>
+        <f t="shared" si="18"/>
+        <v>43851</v>
       </c>
       <c r="G72" s="16">
         <v>2</v>
@@ -8392,24 +8497,27 @@
       <c r="BL72" s="51"/>
     </row>
     <row r="73" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="45"/>
-      <c r="B73" s="83" t="s">
-        <v>87</v>
+      <c r="A73" s="42"/>
+      <c r="B73" s="83">
+        <v>25</v>
       </c>
       <c r="C73" s="57"/>
       <c r="D73" s="20"/>
       <c r="E73" s="2">
-        <f t="shared" ca="1" si="20"/>
-        <v>43823</v>
+        <f t="shared" si="19"/>
+        <v>43852</v>
       </c>
       <c r="F73" s="2">
-        <f t="shared" ca="1" si="18"/>
-        <v>43825</v>
+        <f>E73+G73</f>
+        <v>43857</v>
       </c>
       <c r="G73" s="16">
-        <v>2</v>
-      </c>
-      <c r="H73" s="16"/>
+        <v>5</v>
+      </c>
+      <c r="H73" s="16">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
       <c r="I73" s="51"/>
       <c r="J73" s="51"/>
       <c r="K73" s="51"/>
@@ -8468,20 +8576,26 @@
       <c r="BL73" s="51"/>
     </row>
     <row r="74" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="42" t="s">
-        <v>7</v>
-      </c>
-      <c r="B74" s="14" t="s">
-        <v>89</v>
-      </c>
-      <c r="C74" s="52"/>
-      <c r="D74" s="15"/>
-      <c r="E74" s="74"/>
-      <c r="F74" s="75"/>
-      <c r="G74" s="16"/>
-      <c r="H74" s="16" t="str">
+      <c r="A74" s="45"/>
+      <c r="B74" s="83">
+        <v>26</v>
+      </c>
+      <c r="C74" s="57"/>
+      <c r="D74" s="20"/>
+      <c r="E74" s="2">
+        <f t="shared" si="19"/>
+        <v>43858</v>
+      </c>
+      <c r="F74" s="2">
+        <f t="shared" ref="F74:F89" si="20">E74+G74</f>
+        <v>43863</v>
+      </c>
+      <c r="G74" s="16">
+        <v>5</v>
+      </c>
+      <c r="H74" s="16">
         <f t="shared" si="5"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="I74" s="51"/>
       <c r="J74" s="51"/>
@@ -8495,8 +8609,8 @@
       <c r="R74" s="51"/>
       <c r="S74" s="51"/>
       <c r="T74" s="51"/>
-      <c r="U74" s="51"/>
-      <c r="V74" s="51"/>
+      <c r="U74" s="55"/>
+      <c r="V74" s="55"/>
       <c r="W74" s="51"/>
       <c r="X74" s="51"/>
       <c r="Y74" s="51"/>
@@ -8541,31 +8655,25 @@
       <c r="BL74" s="51"/>
     </row>
     <row r="75" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="42" t="s">
-        <v>8</v>
-      </c>
-      <c r="B75" s="82" t="s">
-        <v>41</v>
-      </c>
-      <c r="C75" s="54" t="s">
-        <v>19</v>
-      </c>
-      <c r="D75" s="17">
-        <v>0</v>
-      </c>
-      <c r="E75" s="1">
-        <f ca="1">Project_Start</f>
-        <v>43775</v>
-      </c>
-      <c r="F75" s="1">
-        <f ca="1">E75+G75</f>
-        <v>43780</v>
+      <c r="A75" s="45"/>
+      <c r="B75" s="83">
+        <v>27</v>
+      </c>
+      <c r="C75" s="57"/>
+      <c r="D75" s="20"/>
+      <c r="E75" s="2">
+        <f t="shared" si="19"/>
+        <v>43864</v>
+      </c>
+      <c r="F75" s="2">
+        <f t="shared" si="20"/>
+        <v>43869</v>
       </c>
       <c r="G75" s="16">
         <v>5</v>
       </c>
       <c r="H75" s="16">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I75" s="51"/>
@@ -8626,29 +8734,25 @@
       <c r="BL75" s="51"/>
     </row>
     <row r="76" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="42" t="s">
-        <v>9</v>
-      </c>
-      <c r="B76" s="82" t="s">
-        <v>42</v>
-      </c>
-      <c r="C76" s="54"/>
-      <c r="D76" s="17">
-        <v>0</v>
-      </c>
-      <c r="E76" s="1">
-        <f ca="1">F75+1</f>
-        <v>43781</v>
-      </c>
-      <c r="F76" s="1">
-        <f t="shared" ref="F76:F77" ca="1" si="21">E76+G76</f>
-        <v>43786</v>
+      <c r="A76" s="45"/>
+      <c r="B76" s="83">
+        <v>28</v>
+      </c>
+      <c r="C76" s="57"/>
+      <c r="D76" s="20"/>
+      <c r="E76" s="2">
+        <f t="shared" si="19"/>
+        <v>43870</v>
+      </c>
+      <c r="F76" s="2">
+        <f t="shared" si="20"/>
+        <v>43875</v>
       </c>
       <c r="G76" s="16">
         <v>5</v>
       </c>
       <c r="H76" s="16">
-        <f t="shared" ca="1" si="5"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="I76" s="51"/>
@@ -8663,11 +8767,11 @@
       <c r="R76" s="51"/>
       <c r="S76" s="51"/>
       <c r="T76" s="51"/>
-      <c r="U76" s="55"/>
-      <c r="V76" s="55"/>
+      <c r="U76" s="51"/>
+      <c r="V76" s="51"/>
       <c r="W76" s="51"/>
       <c r="X76" s="51"/>
-      <c r="Y76" s="51"/>
+      <c r="Y76" s="55"/>
       <c r="Z76" s="51"/>
       <c r="AA76" s="51"/>
       <c r="AB76" s="51"/>
@@ -8710,27 +8814,25 @@
     </row>
     <row r="77" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A77" s="45"/>
-      <c r="B77" s="82" t="s">
-        <v>44</v>
-      </c>
-      <c r="C77" s="54"/>
-      <c r="D77" s="17">
-        <v>0.1</v>
-      </c>
-      <c r="E77" s="1">
-        <f t="shared" ref="E77" ca="1" si="22">F76+1</f>
-        <v>43787</v>
-      </c>
-      <c r="F77" s="1">
-        <f t="shared" ca="1" si="21"/>
-        <v>43802</v>
+      <c r="B77" s="83">
+        <v>29</v>
+      </c>
+      <c r="C77" s="57"/>
+      <c r="D77" s="20"/>
+      <c r="E77" s="2">
+        <f t="shared" si="19"/>
+        <v>43876</v>
+      </c>
+      <c r="F77" s="2">
+        <f t="shared" si="20"/>
+        <v>43881</v>
       </c>
       <c r="G77" s="16">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="H77" s="16">
-        <f t="shared" ca="1" si="5"/>
-        <v>16</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="I77" s="51"/>
       <c r="J77" s="51"/>
@@ -8790,18 +8892,26 @@
       <c r="BL77" s="51"/>
     </row>
     <row r="78" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="45" t="s">
-        <v>12</v>
-      </c>
-      <c r="B78" s="62"/>
-      <c r="C78" s="63"/>
-      <c r="D78" s="27"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="16"/>
-      <c r="H78" s="16" t="str">
+      <c r="A78" s="45"/>
+      <c r="B78" s="83">
+        <v>30</v>
+      </c>
+      <c r="C78" s="57"/>
+      <c r="D78" s="20"/>
+      <c r="E78" s="2">
+        <f t="shared" si="19"/>
+        <v>43882</v>
+      </c>
+      <c r="F78" s="2">
+        <f t="shared" si="20"/>
+        <v>43887</v>
+      </c>
+      <c r="G78" s="16">
+        <v>5</v>
+      </c>
+      <c r="H78" s="16">
         <f t="shared" si="5"/>
-        <v/>
+        <v>6</v>
       </c>
       <c r="I78" s="51"/>
       <c r="J78" s="51"/>
@@ -8861,95 +8971,1371 @@
       <c r="BL78" s="51"/>
     </row>
     <row r="79" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B79" s="28" t="s">
-        <v>15</v>
-      </c>
-      <c r="C79" s="29"/>
-      <c r="D79" s="30"/>
-      <c r="E79" s="31"/>
-      <c r="F79" s="32"/>
-      <c r="G79" s="33"/>
-      <c r="H79" s="33" t="str">
+      <c r="A79" s="45"/>
+      <c r="B79" s="83">
+        <v>31</v>
+      </c>
+      <c r="C79" s="57"/>
+      <c r="D79" s="20"/>
+      <c r="E79" s="2">
+        <f t="shared" si="19"/>
+        <v>43888</v>
+      </c>
+      <c r="F79" s="2">
+        <f t="shared" si="20"/>
+        <v>43893</v>
+      </c>
+      <c r="G79" s="16">
+        <v>5</v>
+      </c>
+      <c r="H79" s="16">
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="I79" s="51"/>
+      <c r="J79" s="51"/>
+      <c r="K79" s="51"/>
+      <c r="L79" s="51"/>
+      <c r="M79" s="51"/>
+      <c r="N79" s="51"/>
+      <c r="O79" s="51"/>
+      <c r="P79" s="51"/>
+      <c r="Q79" s="51"/>
+      <c r="R79" s="51"/>
+      <c r="S79" s="51"/>
+      <c r="T79" s="51"/>
+      <c r="U79" s="51"/>
+      <c r="V79" s="51"/>
+      <c r="W79" s="51"/>
+      <c r="X79" s="51"/>
+      <c r="Y79" s="51"/>
+      <c r="Z79" s="51"/>
+      <c r="AA79" s="51"/>
+      <c r="AB79" s="51"/>
+      <c r="AC79" s="51"/>
+      <c r="AD79" s="51"/>
+      <c r="AE79" s="51"/>
+      <c r="AF79" s="51"/>
+      <c r="AG79" s="51"/>
+      <c r="AH79" s="51"/>
+      <c r="AI79" s="51"/>
+      <c r="AJ79" s="51"/>
+      <c r="AK79" s="51"/>
+      <c r="AL79" s="51"/>
+      <c r="AM79" s="51"/>
+      <c r="AN79" s="51"/>
+      <c r="AO79" s="51"/>
+      <c r="AP79" s="51"/>
+      <c r="AQ79" s="51"/>
+      <c r="AR79" s="51"/>
+      <c r="AS79" s="51"/>
+      <c r="AT79" s="51"/>
+      <c r="AU79" s="51"/>
+      <c r="AV79" s="51"/>
+      <c r="AW79" s="51"/>
+      <c r="AX79" s="51"/>
+      <c r="AY79" s="51"/>
+      <c r="AZ79" s="51"/>
+      <c r="BA79" s="51"/>
+      <c r="BB79" s="51"/>
+      <c r="BC79" s="51"/>
+      <c r="BD79" s="51"/>
+      <c r="BE79" s="51"/>
+      <c r="BF79" s="51"/>
+      <c r="BG79" s="51"/>
+      <c r="BH79" s="51"/>
+      <c r="BI79" s="51"/>
+      <c r="BJ79" s="51"/>
+      <c r="BK79" s="51"/>
+      <c r="BL79" s="51"/>
+    </row>
+    <row r="80" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="45"/>
+      <c r="B80" s="83">
+        <v>32</v>
+      </c>
+      <c r="C80" s="57"/>
+      <c r="D80" s="20"/>
+      <c r="E80" s="2">
+        <f t="shared" si="19"/>
+        <v>43894</v>
+      </c>
+      <c r="F80" s="2">
+        <f t="shared" si="20"/>
+        <v>43895</v>
+      </c>
+      <c r="G80" s="16">
+        <v>1</v>
+      </c>
+      <c r="H80" s="16"/>
+      <c r="I80" s="51"/>
+      <c r="J80" s="51"/>
+      <c r="K80" s="51"/>
+      <c r="L80" s="51"/>
+      <c r="M80" s="51"/>
+      <c r="N80" s="51"/>
+      <c r="O80" s="51"/>
+      <c r="P80" s="51"/>
+      <c r="Q80" s="51"/>
+      <c r="R80" s="51"/>
+      <c r="S80" s="51"/>
+      <c r="T80" s="51"/>
+      <c r="U80" s="51"/>
+      <c r="V80" s="51"/>
+      <c r="W80" s="51"/>
+      <c r="X80" s="51"/>
+      <c r="Y80" s="51"/>
+      <c r="Z80" s="51"/>
+      <c r="AA80" s="51"/>
+      <c r="AB80" s="51"/>
+      <c r="AC80" s="51"/>
+      <c r="AD80" s="51"/>
+      <c r="AE80" s="51"/>
+      <c r="AF80" s="51"/>
+      <c r="AG80" s="51"/>
+      <c r="AH80" s="51"/>
+      <c r="AI80" s="51"/>
+      <c r="AJ80" s="51"/>
+      <c r="AK80" s="51"/>
+      <c r="AL80" s="51"/>
+      <c r="AM80" s="51"/>
+      <c r="AN80" s="51"/>
+      <c r="AO80" s="51"/>
+      <c r="AP80" s="51"/>
+      <c r="AQ80" s="51"/>
+      <c r="AR80" s="51"/>
+      <c r="AS80" s="51"/>
+      <c r="AT80" s="51"/>
+      <c r="AU80" s="51"/>
+      <c r="AV80" s="51"/>
+      <c r="AW80" s="51"/>
+      <c r="AX80" s="51"/>
+      <c r="AY80" s="51"/>
+      <c r="AZ80" s="51"/>
+      <c r="BA80" s="51"/>
+      <c r="BB80" s="51"/>
+      <c r="BC80" s="51"/>
+      <c r="BD80" s="51"/>
+      <c r="BE80" s="51"/>
+      <c r="BF80" s="51"/>
+      <c r="BG80" s="51"/>
+      <c r="BH80" s="51"/>
+      <c r="BI80" s="51"/>
+      <c r="BJ80" s="51"/>
+      <c r="BK80" s="51"/>
+      <c r="BL80" s="51"/>
+    </row>
+    <row r="81" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="45"/>
+      <c r="B81" s="83">
+        <v>33</v>
+      </c>
+      <c r="C81" s="57"/>
+      <c r="D81" s="20"/>
+      <c r="E81" s="2">
+        <f t="shared" si="19"/>
+        <v>43896</v>
+      </c>
+      <c r="F81" s="2">
+        <f t="shared" si="20"/>
+        <v>43897</v>
+      </c>
+      <c r="G81" s="16">
+        <v>1</v>
+      </c>
+      <c r="H81" s="16"/>
+      <c r="I81" s="51"/>
+      <c r="J81" s="51"/>
+      <c r="K81" s="51"/>
+      <c r="L81" s="51"/>
+      <c r="M81" s="51"/>
+      <c r="N81" s="51"/>
+      <c r="O81" s="51"/>
+      <c r="P81" s="51"/>
+      <c r="Q81" s="51"/>
+      <c r="R81" s="51"/>
+      <c r="S81" s="51"/>
+      <c r="T81" s="51"/>
+      <c r="U81" s="51"/>
+      <c r="V81" s="51"/>
+      <c r="W81" s="51"/>
+      <c r="X81" s="51"/>
+      <c r="Y81" s="51"/>
+      <c r="Z81" s="51"/>
+      <c r="AA81" s="51"/>
+      <c r="AB81" s="51"/>
+      <c r="AC81" s="51"/>
+      <c r="AD81" s="51"/>
+      <c r="AE81" s="51"/>
+      <c r="AF81" s="51"/>
+      <c r="AG81" s="51"/>
+      <c r="AH81" s="51"/>
+      <c r="AI81" s="51"/>
+      <c r="AJ81" s="51"/>
+      <c r="AK81" s="51"/>
+      <c r="AL81" s="51"/>
+      <c r="AM81" s="51"/>
+      <c r="AN81" s="51"/>
+      <c r="AO81" s="51"/>
+      <c r="AP81" s="51"/>
+      <c r="AQ81" s="51"/>
+      <c r="AR81" s="51"/>
+      <c r="AS81" s="51"/>
+      <c r="AT81" s="51"/>
+      <c r="AU81" s="51"/>
+      <c r="AV81" s="51"/>
+      <c r="AW81" s="51"/>
+      <c r="AX81" s="51"/>
+      <c r="AY81" s="51"/>
+      <c r="AZ81" s="51"/>
+      <c r="BA81" s="51"/>
+      <c r="BB81" s="51"/>
+      <c r="BC81" s="51"/>
+      <c r="BD81" s="51"/>
+      <c r="BE81" s="51"/>
+      <c r="BF81" s="51"/>
+      <c r="BG81" s="51"/>
+      <c r="BH81" s="51"/>
+      <c r="BI81" s="51"/>
+      <c r="BJ81" s="51"/>
+      <c r="BK81" s="51"/>
+      <c r="BL81" s="51"/>
+    </row>
+    <row r="82" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="45"/>
+      <c r="B82" s="83">
+        <v>34</v>
+      </c>
+      <c r="C82" s="57"/>
+      <c r="D82" s="20"/>
+      <c r="E82" s="2">
+        <f t="shared" si="19"/>
+        <v>43898</v>
+      </c>
+      <c r="F82" s="2">
+        <f t="shared" si="20"/>
+        <v>43899</v>
+      </c>
+      <c r="G82" s="16">
+        <v>1</v>
+      </c>
+      <c r="H82" s="16"/>
+      <c r="I82" s="51"/>
+      <c r="J82" s="51"/>
+      <c r="K82" s="51"/>
+      <c r="L82" s="51"/>
+      <c r="M82" s="51"/>
+      <c r="N82" s="51"/>
+      <c r="O82" s="51"/>
+      <c r="P82" s="51"/>
+      <c r="Q82" s="51"/>
+      <c r="R82" s="51"/>
+      <c r="S82" s="51"/>
+      <c r="T82" s="51"/>
+      <c r="U82" s="51"/>
+      <c r="V82" s="51"/>
+      <c r="W82" s="51"/>
+      <c r="X82" s="51"/>
+      <c r="Y82" s="51"/>
+      <c r="Z82" s="51"/>
+      <c r="AA82" s="51"/>
+      <c r="AB82" s="51"/>
+      <c r="AC82" s="51"/>
+      <c r="AD82" s="51"/>
+      <c r="AE82" s="51"/>
+      <c r="AF82" s="51"/>
+      <c r="AG82" s="51"/>
+      <c r="AH82" s="51"/>
+      <c r="AI82" s="51"/>
+      <c r="AJ82" s="51"/>
+      <c r="AK82" s="51"/>
+      <c r="AL82" s="51"/>
+      <c r="AM82" s="51"/>
+      <c r="AN82" s="51"/>
+      <c r="AO82" s="51"/>
+      <c r="AP82" s="51"/>
+      <c r="AQ82" s="51"/>
+      <c r="AR82" s="51"/>
+      <c r="AS82" s="51"/>
+      <c r="AT82" s="51"/>
+      <c r="AU82" s="51"/>
+      <c r="AV82" s="51"/>
+      <c r="AW82" s="51"/>
+      <c r="AX82" s="51"/>
+      <c r="AY82" s="51"/>
+      <c r="AZ82" s="51"/>
+      <c r="BA82" s="51"/>
+      <c r="BB82" s="51"/>
+      <c r="BC82" s="51"/>
+      <c r="BD82" s="51"/>
+      <c r="BE82" s="51"/>
+      <c r="BF82" s="51"/>
+      <c r="BG82" s="51"/>
+      <c r="BH82" s="51"/>
+      <c r="BI82" s="51"/>
+      <c r="BJ82" s="51"/>
+      <c r="BK82" s="51"/>
+      <c r="BL82" s="51"/>
+    </row>
+    <row r="83" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="45"/>
+      <c r="B83" s="83">
+        <v>35</v>
+      </c>
+      <c r="C83" s="57"/>
+      <c r="D83" s="20"/>
+      <c r="E83" s="2">
+        <f t="shared" si="19"/>
+        <v>43900</v>
+      </c>
+      <c r="F83" s="2">
+        <f t="shared" si="20"/>
+        <v>43901</v>
+      </c>
+      <c r="G83" s="16">
+        <v>1</v>
+      </c>
+      <c r="H83" s="16"/>
+      <c r="I83" s="51"/>
+      <c r="J83" s="51"/>
+      <c r="K83" s="51"/>
+      <c r="L83" s="51"/>
+      <c r="M83" s="51"/>
+      <c r="N83" s="51"/>
+      <c r="O83" s="51"/>
+      <c r="P83" s="51"/>
+      <c r="Q83" s="51"/>
+      <c r="R83" s="51"/>
+      <c r="S83" s="51"/>
+      <c r="T83" s="51"/>
+      <c r="U83" s="51"/>
+      <c r="V83" s="51"/>
+      <c r="W83" s="51"/>
+      <c r="X83" s="51"/>
+      <c r="Y83" s="51"/>
+      <c r="Z83" s="51"/>
+      <c r="AA83" s="51"/>
+      <c r="AB83" s="51"/>
+      <c r="AC83" s="51"/>
+      <c r="AD83" s="51"/>
+      <c r="AE83" s="51"/>
+      <c r="AF83" s="51"/>
+      <c r="AG83" s="51"/>
+      <c r="AH83" s="51"/>
+      <c r="AI83" s="51"/>
+      <c r="AJ83" s="51"/>
+      <c r="AK83" s="51"/>
+      <c r="AL83" s="51"/>
+      <c r="AM83" s="51"/>
+      <c r="AN83" s="51"/>
+      <c r="AO83" s="51"/>
+      <c r="AP83" s="51"/>
+      <c r="AQ83" s="51"/>
+      <c r="AR83" s="51"/>
+      <c r="AS83" s="51"/>
+      <c r="AT83" s="51"/>
+      <c r="AU83" s="51"/>
+      <c r="AV83" s="51"/>
+      <c r="AW83" s="51"/>
+      <c r="AX83" s="51"/>
+      <c r="AY83" s="51"/>
+      <c r="AZ83" s="51"/>
+      <c r="BA83" s="51"/>
+      <c r="BB83" s="51"/>
+      <c r="BC83" s="51"/>
+      <c r="BD83" s="51"/>
+      <c r="BE83" s="51"/>
+      <c r="BF83" s="51"/>
+      <c r="BG83" s="51"/>
+      <c r="BH83" s="51"/>
+      <c r="BI83" s="51"/>
+      <c r="BJ83" s="51"/>
+      <c r="BK83" s="51"/>
+      <c r="BL83" s="51"/>
+    </row>
+    <row r="84" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="45"/>
+      <c r="B84" s="83">
+        <v>36</v>
+      </c>
+      <c r="C84" s="57"/>
+      <c r="D84" s="20"/>
+      <c r="E84" s="2">
+        <f t="shared" si="19"/>
+        <v>43902</v>
+      </c>
+      <c r="F84" s="2">
+        <f t="shared" si="20"/>
+        <v>43903</v>
+      </c>
+      <c r="G84" s="16">
+        <v>1</v>
+      </c>
+      <c r="H84" s="16"/>
+      <c r="I84" s="51"/>
+      <c r="J84" s="51"/>
+      <c r="K84" s="51"/>
+      <c r="L84" s="51"/>
+      <c r="M84" s="51"/>
+      <c r="N84" s="51"/>
+      <c r="O84" s="51"/>
+      <c r="P84" s="51"/>
+      <c r="Q84" s="51"/>
+      <c r="R84" s="51"/>
+      <c r="S84" s="51"/>
+      <c r="T84" s="51"/>
+      <c r="U84" s="51"/>
+      <c r="V84" s="51"/>
+      <c r="W84" s="51"/>
+      <c r="X84" s="51"/>
+      <c r="Y84" s="51"/>
+      <c r="Z84" s="51"/>
+      <c r="AA84" s="51"/>
+      <c r="AB84" s="51"/>
+      <c r="AC84" s="51"/>
+      <c r="AD84" s="51"/>
+      <c r="AE84" s="51"/>
+      <c r="AF84" s="51"/>
+      <c r="AG84" s="51"/>
+      <c r="AH84" s="51"/>
+      <c r="AI84" s="51"/>
+      <c r="AJ84" s="51"/>
+      <c r="AK84" s="51"/>
+      <c r="AL84" s="51"/>
+      <c r="AM84" s="51"/>
+      <c r="AN84" s="51"/>
+      <c r="AO84" s="51"/>
+      <c r="AP84" s="51"/>
+      <c r="AQ84" s="51"/>
+      <c r="AR84" s="51"/>
+      <c r="AS84" s="51"/>
+      <c r="AT84" s="51"/>
+      <c r="AU84" s="51"/>
+      <c r="AV84" s="51"/>
+      <c r="AW84" s="51"/>
+      <c r="AX84" s="51"/>
+      <c r="AY84" s="51"/>
+      <c r="AZ84" s="51"/>
+      <c r="BA84" s="51"/>
+      <c r="BB84" s="51"/>
+      <c r="BC84" s="51"/>
+      <c r="BD84" s="51"/>
+      <c r="BE84" s="51"/>
+      <c r="BF84" s="51"/>
+      <c r="BG84" s="51"/>
+      <c r="BH84" s="51"/>
+      <c r="BI84" s="51"/>
+      <c r="BJ84" s="51"/>
+      <c r="BK84" s="51"/>
+      <c r="BL84" s="51"/>
+    </row>
+    <row r="85" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="45"/>
+      <c r="B85" s="83">
+        <v>37</v>
+      </c>
+      <c r="C85" s="57"/>
+      <c r="D85" s="20"/>
+      <c r="E85" s="2">
+        <f t="shared" si="19"/>
+        <v>43904</v>
+      </c>
+      <c r="F85" s="2">
+        <f t="shared" si="20"/>
+        <v>43907</v>
+      </c>
+      <c r="G85" s="16">
+        <v>3</v>
+      </c>
+      <c r="H85" s="16"/>
+      <c r="I85" s="51"/>
+      <c r="J85" s="51"/>
+      <c r="K85" s="51"/>
+      <c r="L85" s="51"/>
+      <c r="M85" s="51"/>
+      <c r="N85" s="51"/>
+      <c r="O85" s="51"/>
+      <c r="P85" s="51"/>
+      <c r="Q85" s="51"/>
+      <c r="R85" s="51"/>
+      <c r="S85" s="51"/>
+      <c r="T85" s="51"/>
+      <c r="U85" s="51"/>
+      <c r="V85" s="51"/>
+      <c r="W85" s="51"/>
+      <c r="X85" s="51"/>
+      <c r="Y85" s="51"/>
+      <c r="Z85" s="51"/>
+      <c r="AA85" s="51"/>
+      <c r="AB85" s="51"/>
+      <c r="AC85" s="51"/>
+      <c r="AD85" s="51"/>
+      <c r="AE85" s="51"/>
+      <c r="AF85" s="51"/>
+      <c r="AG85" s="51"/>
+      <c r="AH85" s="51"/>
+      <c r="AI85" s="51"/>
+      <c r="AJ85" s="51"/>
+      <c r="AK85" s="51"/>
+      <c r="AL85" s="51"/>
+      <c r="AM85" s="51"/>
+      <c r="AN85" s="51"/>
+      <c r="AO85" s="51"/>
+      <c r="AP85" s="51"/>
+      <c r="AQ85" s="51"/>
+      <c r="AR85" s="51"/>
+      <c r="AS85" s="51"/>
+      <c r="AT85" s="51"/>
+      <c r="AU85" s="51"/>
+      <c r="AV85" s="51"/>
+      <c r="AW85" s="51"/>
+      <c r="AX85" s="51"/>
+      <c r="AY85" s="51"/>
+      <c r="AZ85" s="51"/>
+      <c r="BA85" s="51"/>
+      <c r="BB85" s="51"/>
+      <c r="BC85" s="51"/>
+      <c r="BD85" s="51"/>
+      <c r="BE85" s="51"/>
+      <c r="BF85" s="51"/>
+      <c r="BG85" s="51"/>
+      <c r="BH85" s="51"/>
+      <c r="BI85" s="51"/>
+      <c r="BJ85" s="51"/>
+      <c r="BK85" s="51"/>
+      <c r="BL85" s="51"/>
+    </row>
+    <row r="86" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A86" s="45"/>
+      <c r="B86" s="83">
+        <v>38</v>
+      </c>
+      <c r="C86" s="57"/>
+      <c r="D86" s="20"/>
+      <c r="E86" s="2">
+        <f t="shared" si="19"/>
+        <v>43908</v>
+      </c>
+      <c r="F86" s="2">
+        <f t="shared" si="20"/>
+        <v>43910</v>
+      </c>
+      <c r="G86" s="16">
+        <v>2</v>
+      </c>
+      <c r="H86" s="16"/>
+      <c r="I86" s="51"/>
+      <c r="J86" s="51"/>
+      <c r="K86" s="51"/>
+      <c r="L86" s="51"/>
+      <c r="M86" s="51"/>
+      <c r="N86" s="51"/>
+      <c r="O86" s="51"/>
+      <c r="P86" s="51"/>
+      <c r="Q86" s="51"/>
+      <c r="R86" s="51"/>
+      <c r="S86" s="51"/>
+      <c r="T86" s="51"/>
+      <c r="U86" s="51"/>
+      <c r="V86" s="51"/>
+      <c r="W86" s="51"/>
+      <c r="X86" s="51"/>
+      <c r="Y86" s="51"/>
+      <c r="Z86" s="51"/>
+      <c r="AA86" s="51"/>
+      <c r="AB86" s="51"/>
+      <c r="AC86" s="51"/>
+      <c r="AD86" s="51"/>
+      <c r="AE86" s="51"/>
+      <c r="AF86" s="51"/>
+      <c r="AG86" s="51"/>
+      <c r="AH86" s="51"/>
+      <c r="AI86" s="51"/>
+      <c r="AJ86" s="51"/>
+      <c r="AK86" s="51"/>
+      <c r="AL86" s="51"/>
+      <c r="AM86" s="51"/>
+      <c r="AN86" s="51"/>
+      <c r="AO86" s="51"/>
+      <c r="AP86" s="51"/>
+      <c r="AQ86" s="51"/>
+      <c r="AR86" s="51"/>
+      <c r="AS86" s="51"/>
+      <c r="AT86" s="51"/>
+      <c r="AU86" s="51"/>
+      <c r="AV86" s="51"/>
+      <c r="AW86" s="51"/>
+      <c r="AX86" s="51"/>
+      <c r="AY86" s="51"/>
+      <c r="AZ86" s="51"/>
+      <c r="BA86" s="51"/>
+      <c r="BB86" s="51"/>
+      <c r="BC86" s="51"/>
+      <c r="BD86" s="51"/>
+      <c r="BE86" s="51"/>
+      <c r="BF86" s="51"/>
+      <c r="BG86" s="51"/>
+      <c r="BH86" s="51"/>
+      <c r="BI86" s="51"/>
+      <c r="BJ86" s="51"/>
+      <c r="BK86" s="51"/>
+      <c r="BL86" s="51"/>
+    </row>
+    <row r="87" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A87" s="45"/>
+      <c r="B87" s="83">
+        <v>39</v>
+      </c>
+      <c r="C87" s="57"/>
+      <c r="D87" s="20"/>
+      <c r="E87" s="2">
+        <f t="shared" si="19"/>
+        <v>43911</v>
+      </c>
+      <c r="F87" s="2">
+        <f t="shared" si="20"/>
+        <v>43913</v>
+      </c>
+      <c r="G87" s="16">
+        <v>2</v>
+      </c>
+      <c r="H87" s="16"/>
+      <c r="I87" s="51"/>
+      <c r="J87" s="51"/>
+      <c r="K87" s="51"/>
+      <c r="L87" s="51"/>
+      <c r="M87" s="51"/>
+      <c r="N87" s="51"/>
+      <c r="O87" s="51"/>
+      <c r="P87" s="51"/>
+      <c r="Q87" s="51"/>
+      <c r="R87" s="51"/>
+      <c r="S87" s="51"/>
+      <c r="T87" s="51"/>
+      <c r="U87" s="51"/>
+      <c r="V87" s="51"/>
+      <c r="W87" s="51"/>
+      <c r="X87" s="51"/>
+      <c r="Y87" s="51"/>
+      <c r="Z87" s="51"/>
+      <c r="AA87" s="51"/>
+      <c r="AB87" s="51"/>
+      <c r="AC87" s="51"/>
+      <c r="AD87" s="51"/>
+      <c r="AE87" s="51"/>
+      <c r="AF87" s="51"/>
+      <c r="AG87" s="51"/>
+      <c r="AH87" s="51"/>
+      <c r="AI87" s="51"/>
+      <c r="AJ87" s="51"/>
+      <c r="AK87" s="51"/>
+      <c r="AL87" s="51"/>
+      <c r="AM87" s="51"/>
+      <c r="AN87" s="51"/>
+      <c r="AO87" s="51"/>
+      <c r="AP87" s="51"/>
+      <c r="AQ87" s="51"/>
+      <c r="AR87" s="51"/>
+      <c r="AS87" s="51"/>
+      <c r="AT87" s="51"/>
+      <c r="AU87" s="51"/>
+      <c r="AV87" s="51"/>
+      <c r="AW87" s="51"/>
+      <c r="AX87" s="51"/>
+      <c r="AY87" s="51"/>
+      <c r="AZ87" s="51"/>
+      <c r="BA87" s="51"/>
+      <c r="BB87" s="51"/>
+      <c r="BC87" s="51"/>
+      <c r="BD87" s="51"/>
+      <c r="BE87" s="51"/>
+      <c r="BF87" s="51"/>
+      <c r="BG87" s="51"/>
+      <c r="BH87" s="51"/>
+      <c r="BI87" s="51"/>
+      <c r="BJ87" s="51"/>
+      <c r="BK87" s="51"/>
+      <c r="BL87" s="51"/>
+    </row>
+    <row r="88" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A88" s="45"/>
+      <c r="B88" s="83">
+        <v>40</v>
+      </c>
+      <c r="C88" s="57"/>
+      <c r="D88" s="20"/>
+      <c r="E88" s="2">
+        <f t="shared" si="19"/>
+        <v>43914</v>
+      </c>
+      <c r="F88" s="2">
+        <f t="shared" si="20"/>
+        <v>43916</v>
+      </c>
+      <c r="G88" s="16">
+        <v>2</v>
+      </c>
+      <c r="H88" s="16"/>
+      <c r="I88" s="51"/>
+      <c r="J88" s="51"/>
+      <c r="K88" s="51"/>
+      <c r="L88" s="51"/>
+      <c r="M88" s="51"/>
+      <c r="N88" s="51"/>
+      <c r="O88" s="51"/>
+      <c r="P88" s="51"/>
+      <c r="Q88" s="51"/>
+      <c r="R88" s="51"/>
+      <c r="S88" s="51"/>
+      <c r="T88" s="51"/>
+      <c r="U88" s="51"/>
+      <c r="V88" s="51"/>
+      <c r="W88" s="51"/>
+      <c r="X88" s="51"/>
+      <c r="Y88" s="51"/>
+      <c r="Z88" s="51"/>
+      <c r="AA88" s="51"/>
+      <c r="AB88" s="51"/>
+      <c r="AC88" s="51"/>
+      <c r="AD88" s="51"/>
+      <c r="AE88" s="51"/>
+      <c r="AF88" s="51"/>
+      <c r="AG88" s="51"/>
+      <c r="AH88" s="51"/>
+      <c r="AI88" s="51"/>
+      <c r="AJ88" s="51"/>
+      <c r="AK88" s="51"/>
+      <c r="AL88" s="51"/>
+      <c r="AM88" s="51"/>
+      <c r="AN88" s="51"/>
+      <c r="AO88" s="51"/>
+      <c r="AP88" s="51"/>
+      <c r="AQ88" s="51"/>
+      <c r="AR88" s="51"/>
+      <c r="AS88" s="51"/>
+      <c r="AT88" s="51"/>
+      <c r="AU88" s="51"/>
+      <c r="AV88" s="51"/>
+      <c r="AW88" s="51"/>
+      <c r="AX88" s="51"/>
+      <c r="AY88" s="51"/>
+      <c r="AZ88" s="51"/>
+      <c r="BA88" s="51"/>
+      <c r="BB88" s="51"/>
+      <c r="BC88" s="51"/>
+      <c r="BD88" s="51"/>
+      <c r="BE88" s="51"/>
+      <c r="BF88" s="51"/>
+      <c r="BG88" s="51"/>
+      <c r="BH88" s="51"/>
+      <c r="BI88" s="51"/>
+      <c r="BJ88" s="51"/>
+      <c r="BK88" s="51"/>
+      <c r="BL88" s="51"/>
+    </row>
+    <row r="89" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="45"/>
+      <c r="B89" s="83">
+        <v>41</v>
+      </c>
+      <c r="C89" s="57"/>
+      <c r="D89" s="20"/>
+      <c r="E89" s="2">
+        <f t="shared" si="19"/>
+        <v>43917</v>
+      </c>
+      <c r="F89" s="2">
+        <f t="shared" si="20"/>
+        <v>43919</v>
+      </c>
+      <c r="G89" s="16">
+        <v>2</v>
+      </c>
+      <c r="H89" s="16"/>
+      <c r="I89" s="51"/>
+      <c r="J89" s="51"/>
+      <c r="K89" s="51"/>
+      <c r="L89" s="51"/>
+      <c r="M89" s="51"/>
+      <c r="N89" s="51"/>
+      <c r="O89" s="51"/>
+      <c r="P89" s="51"/>
+      <c r="Q89" s="51"/>
+      <c r="R89" s="51"/>
+      <c r="S89" s="51"/>
+      <c r="T89" s="51"/>
+      <c r="U89" s="51"/>
+      <c r="V89" s="51"/>
+      <c r="W89" s="51"/>
+      <c r="X89" s="51"/>
+      <c r="Y89" s="51"/>
+      <c r="Z89" s="51"/>
+      <c r="AA89" s="51"/>
+      <c r="AB89" s="51"/>
+      <c r="AC89" s="51"/>
+      <c r="AD89" s="51"/>
+      <c r="AE89" s="51"/>
+      <c r="AF89" s="51"/>
+      <c r="AG89" s="51"/>
+      <c r="AH89" s="51"/>
+      <c r="AI89" s="51"/>
+      <c r="AJ89" s="51"/>
+      <c r="AK89" s="51"/>
+      <c r="AL89" s="51"/>
+      <c r="AM89" s="51"/>
+      <c r="AN89" s="51"/>
+      <c r="AO89" s="51"/>
+      <c r="AP89" s="51"/>
+      <c r="AQ89" s="51"/>
+      <c r="AR89" s="51"/>
+      <c r="AS89" s="51"/>
+      <c r="AT89" s="51"/>
+      <c r="AU89" s="51"/>
+      <c r="AV89" s="51"/>
+      <c r="AW89" s="51"/>
+      <c r="AX89" s="51"/>
+      <c r="AY89" s="51"/>
+      <c r="AZ89" s="51"/>
+      <c r="BA89" s="51"/>
+      <c r="BB89" s="51"/>
+      <c r="BC89" s="51"/>
+      <c r="BD89" s="51"/>
+      <c r="BE89" s="51"/>
+      <c r="BF89" s="51"/>
+      <c r="BG89" s="51"/>
+      <c r="BH89" s="51"/>
+      <c r="BI89" s="51"/>
+      <c r="BJ89" s="51"/>
+      <c r="BK89" s="51"/>
+      <c r="BL89" s="51"/>
+    </row>
+    <row r="90" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A90" s="45"/>
+      <c r="B90" s="83">
+        <v>42</v>
+      </c>
+      <c r="C90" s="57"/>
+      <c r="D90" s="20"/>
+      <c r="E90" s="2">
+        <f t="shared" si="19"/>
+        <v>43920</v>
+      </c>
+      <c r="F90" s="2">
+        <f t="shared" si="18"/>
+        <v>43922</v>
+      </c>
+      <c r="G90" s="16">
+        <v>2</v>
+      </c>
+      <c r="H90" s="16"/>
+      <c r="I90" s="51"/>
+      <c r="J90" s="51"/>
+      <c r="K90" s="51"/>
+      <c r="L90" s="51"/>
+      <c r="M90" s="51"/>
+      <c r="N90" s="51"/>
+      <c r="O90" s="51"/>
+      <c r="P90" s="51"/>
+      <c r="Q90" s="51"/>
+      <c r="R90" s="51"/>
+      <c r="S90" s="51"/>
+      <c r="T90" s="51"/>
+      <c r="U90" s="51"/>
+      <c r="V90" s="51"/>
+      <c r="W90" s="51"/>
+      <c r="X90" s="51"/>
+      <c r="Y90" s="51"/>
+      <c r="Z90" s="51"/>
+      <c r="AA90" s="51"/>
+      <c r="AB90" s="51"/>
+      <c r="AC90" s="51"/>
+      <c r="AD90" s="51"/>
+      <c r="AE90" s="51"/>
+      <c r="AF90" s="51"/>
+      <c r="AG90" s="51"/>
+      <c r="AH90" s="51"/>
+      <c r="AI90" s="51"/>
+      <c r="AJ90" s="51"/>
+      <c r="AK90" s="51"/>
+      <c r="AL90" s="51"/>
+      <c r="AM90" s="51"/>
+      <c r="AN90" s="51"/>
+      <c r="AO90" s="51"/>
+      <c r="AP90" s="51"/>
+      <c r="AQ90" s="51"/>
+      <c r="AR90" s="51"/>
+      <c r="AS90" s="51"/>
+      <c r="AT90" s="51"/>
+      <c r="AU90" s="51"/>
+      <c r="AV90" s="51"/>
+      <c r="AW90" s="51"/>
+      <c r="AX90" s="51"/>
+      <c r="AY90" s="51"/>
+      <c r="AZ90" s="51"/>
+      <c r="BA90" s="51"/>
+      <c r="BB90" s="51"/>
+      <c r="BC90" s="51"/>
+      <c r="BD90" s="51"/>
+      <c r="BE90" s="51"/>
+      <c r="BF90" s="51"/>
+      <c r="BG90" s="51"/>
+      <c r="BH90" s="51"/>
+      <c r="BI90" s="51"/>
+      <c r="BJ90" s="51"/>
+      <c r="BK90" s="51"/>
+      <c r="BL90" s="51"/>
+    </row>
+    <row r="91" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="42" t="s">
+        <v>7</v>
+      </c>
+      <c r="B91" s="14" t="s">
+        <v>84</v>
+      </c>
+      <c r="C91" s="52"/>
+      <c r="D91" s="15"/>
+      <c r="E91" s="74"/>
+      <c r="F91" s="75"/>
+      <c r="G91" s="16"/>
+      <c r="H91" s="16" t="str">
         <f t="shared" si="5"/>
         <v/>
       </c>
-      <c r="I79" s="65"/>
-      <c r="J79" s="65"/>
-      <c r="K79" s="65"/>
-      <c r="L79" s="65"/>
-      <c r="M79" s="65"/>
-      <c r="N79" s="65"/>
-      <c r="O79" s="65"/>
-      <c r="P79" s="65"/>
-      <c r="Q79" s="65"/>
-      <c r="R79" s="65"/>
-      <c r="S79" s="65"/>
-      <c r="T79" s="65"/>
-      <c r="U79" s="65"/>
-      <c r="V79" s="65"/>
-      <c r="W79" s="65"/>
-      <c r="X79" s="65"/>
-      <c r="Y79" s="65"/>
-      <c r="Z79" s="65"/>
-      <c r="AA79" s="65"/>
-      <c r="AB79" s="65"/>
-      <c r="AC79" s="65"/>
-      <c r="AD79" s="65"/>
-      <c r="AE79" s="65"/>
-      <c r="AF79" s="65"/>
-      <c r="AG79" s="65"/>
-      <c r="AH79" s="65"/>
-      <c r="AI79" s="65"/>
-      <c r="AJ79" s="65"/>
-      <c r="AK79" s="65"/>
-      <c r="AL79" s="65"/>
-      <c r="AM79" s="65"/>
-      <c r="AN79" s="65"/>
-      <c r="AO79" s="65"/>
-      <c r="AP79" s="65"/>
-      <c r="AQ79" s="65"/>
-      <c r="AR79" s="65"/>
-      <c r="AS79" s="65"/>
-      <c r="AT79" s="65"/>
-      <c r="AU79" s="65"/>
-      <c r="AV79" s="65"/>
-      <c r="AW79" s="65"/>
-      <c r="AX79" s="65"/>
-      <c r="AY79" s="65"/>
-      <c r="AZ79" s="65"/>
-      <c r="BA79" s="65"/>
-      <c r="BB79" s="65"/>
-      <c r="BC79" s="65"/>
-      <c r="BD79" s="65"/>
-      <c r="BE79" s="65"/>
-      <c r="BF79" s="65"/>
-      <c r="BG79" s="65"/>
-      <c r="BH79" s="65"/>
-      <c r="BI79" s="65"/>
-      <c r="BJ79" s="65"/>
-      <c r="BK79" s="65"/>
-      <c r="BL79" s="65"/>
+      <c r="I91" s="51"/>
+      <c r="J91" s="51"/>
+      <c r="K91" s="51"/>
+      <c r="L91" s="51"/>
+      <c r="M91" s="51"/>
+      <c r="N91" s="51"/>
+      <c r="O91" s="51"/>
+      <c r="P91" s="51"/>
+      <c r="Q91" s="51"/>
+      <c r="R91" s="51"/>
+      <c r="S91" s="51"/>
+      <c r="T91" s="51"/>
+      <c r="U91" s="51"/>
+      <c r="V91" s="51"/>
+      <c r="W91" s="51"/>
+      <c r="X91" s="51"/>
+      <c r="Y91" s="51"/>
+      <c r="Z91" s="51"/>
+      <c r="AA91" s="51"/>
+      <c r="AB91" s="51"/>
+      <c r="AC91" s="51"/>
+      <c r="AD91" s="51"/>
+      <c r="AE91" s="51"/>
+      <c r="AF91" s="51"/>
+      <c r="AG91" s="51"/>
+      <c r="AH91" s="51"/>
+      <c r="AI91" s="51"/>
+      <c r="AJ91" s="51"/>
+      <c r="AK91" s="51"/>
+      <c r="AL91" s="51"/>
+      <c r="AM91" s="51"/>
+      <c r="AN91" s="51"/>
+      <c r="AO91" s="51"/>
+      <c r="AP91" s="51"/>
+      <c r="AQ91" s="51"/>
+      <c r="AR91" s="51"/>
+      <c r="AS91" s="51"/>
+      <c r="AT91" s="51"/>
+      <c r="AU91" s="51"/>
+      <c r="AV91" s="51"/>
+      <c r="AW91" s="51"/>
+      <c r="AX91" s="51"/>
+      <c r="AY91" s="51"/>
+      <c r="AZ91" s="51"/>
+      <c r="BA91" s="51"/>
+      <c r="BB91" s="51"/>
+      <c r="BC91" s="51"/>
+      <c r="BD91" s="51"/>
+      <c r="BE91" s="51"/>
+      <c r="BF91" s="51"/>
+      <c r="BG91" s="51"/>
+      <c r="BH91" s="51"/>
+      <c r="BI91" s="51"/>
+      <c r="BJ91" s="51"/>
+      <c r="BK91" s="51"/>
+      <c r="BL91" s="51"/>
     </row>
-    <row r="80" spans="1:64" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="G80" s="66"/>
+    <row r="92" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="42" t="s">
+        <v>8</v>
+      </c>
+      <c r="B92" s="82" t="s">
+        <v>85</v>
+      </c>
+      <c r="C92" s="54"/>
+      <c r="D92" s="17">
+        <v>0.9</v>
+      </c>
+      <c r="E92" s="1">
+        <v>43773</v>
+      </c>
+      <c r="F92" s="1">
+        <f>E92+G92</f>
+        <v>43783</v>
+      </c>
+      <c r="G92" s="16">
+        <v>10</v>
+      </c>
+      <c r="H92" s="16">
+        <f t="shared" si="5"/>
+        <v>11</v>
+      </c>
+      <c r="I92" s="51"/>
+      <c r="J92" s="51"/>
+      <c r="K92" s="51"/>
+      <c r="L92" s="51"/>
+      <c r="M92" s="51"/>
+      <c r="N92" s="51"/>
+      <c r="O92" s="51"/>
+      <c r="P92" s="51"/>
+      <c r="Q92" s="51"/>
+      <c r="R92" s="51"/>
+      <c r="S92" s="51"/>
+      <c r="T92" s="51"/>
+      <c r="U92" s="51"/>
+      <c r="V92" s="51"/>
+      <c r="W92" s="51"/>
+      <c r="X92" s="51"/>
+      <c r="Y92" s="51"/>
+      <c r="Z92" s="51"/>
+      <c r="AA92" s="51"/>
+      <c r="AB92" s="51"/>
+      <c r="AC92" s="51"/>
+      <c r="AD92" s="51"/>
+      <c r="AE92" s="51"/>
+      <c r="AF92" s="51"/>
+      <c r="AG92" s="51"/>
+      <c r="AH92" s="51"/>
+      <c r="AI92" s="51"/>
+      <c r="AJ92" s="51"/>
+      <c r="AK92" s="51"/>
+      <c r="AL92" s="51"/>
+      <c r="AM92" s="51"/>
+      <c r="AN92" s="51"/>
+      <c r="AO92" s="51"/>
+      <c r="AP92" s="51"/>
+      <c r="AQ92" s="51"/>
+      <c r="AR92" s="51"/>
+      <c r="AS92" s="51"/>
+      <c r="AT92" s="51"/>
+      <c r="AU92" s="51"/>
+      <c r="AV92" s="51"/>
+      <c r="AW92" s="51"/>
+      <c r="AX92" s="51"/>
+      <c r="AY92" s="51"/>
+      <c r="AZ92" s="51"/>
+      <c r="BA92" s="51"/>
+      <c r="BB92" s="51"/>
+      <c r="BC92" s="51"/>
+      <c r="BD92" s="51"/>
+      <c r="BE92" s="51"/>
+      <c r="BF92" s="51"/>
+      <c r="BG92" s="51"/>
+      <c r="BH92" s="51"/>
+      <c r="BI92" s="51"/>
+      <c r="BJ92" s="51"/>
+      <c r="BK92" s="51"/>
+      <c r="BL92" s="51"/>
     </row>
-    <row r="81" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C81" s="9"/>
-      <c r="F81" s="34"/>
+    <row r="93" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A93" s="42" t="s">
+        <v>9</v>
+      </c>
+      <c r="B93" s="82"/>
+      <c r="C93" s="54"/>
+      <c r="D93" s="17"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="1"/>
+      <c r="G93" s="16"/>
+      <c r="H93" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I93" s="51"/>
+      <c r="J93" s="51"/>
+      <c r="K93" s="51"/>
+      <c r="L93" s="51"/>
+      <c r="M93" s="51"/>
+      <c r="N93" s="51"/>
+      <c r="O93" s="51"/>
+      <c r="P93" s="51"/>
+      <c r="Q93" s="51"/>
+      <c r="R93" s="51"/>
+      <c r="S93" s="51"/>
+      <c r="T93" s="51"/>
+      <c r="U93" s="55"/>
+      <c r="V93" s="55"/>
+      <c r="W93" s="51"/>
+      <c r="X93" s="51"/>
+      <c r="Y93" s="51"/>
+      <c r="Z93" s="51"/>
+      <c r="AA93" s="51"/>
+      <c r="AB93" s="51"/>
+      <c r="AC93" s="51"/>
+      <c r="AD93" s="51"/>
+      <c r="AE93" s="51"/>
+      <c r="AF93" s="51"/>
+      <c r="AG93" s="51"/>
+      <c r="AH93" s="51"/>
+      <c r="AI93" s="51"/>
+      <c r="AJ93" s="51"/>
+      <c r="AK93" s="51"/>
+      <c r="AL93" s="51"/>
+      <c r="AM93" s="51"/>
+      <c r="AN93" s="51"/>
+      <c r="AO93" s="51"/>
+      <c r="AP93" s="51"/>
+      <c r="AQ93" s="51"/>
+      <c r="AR93" s="51"/>
+      <c r="AS93" s="51"/>
+      <c r="AT93" s="51"/>
+      <c r="AU93" s="51"/>
+      <c r="AV93" s="51"/>
+      <c r="AW93" s="51"/>
+      <c r="AX93" s="51"/>
+      <c r="AY93" s="51"/>
+      <c r="AZ93" s="51"/>
+      <c r="BA93" s="51"/>
+      <c r="BB93" s="51"/>
+      <c r="BC93" s="51"/>
+      <c r="BD93" s="51"/>
+      <c r="BE93" s="51"/>
+      <c r="BF93" s="51"/>
+      <c r="BG93" s="51"/>
+      <c r="BH93" s="51"/>
+      <c r="BI93" s="51"/>
+      <c r="BJ93" s="51"/>
+      <c r="BK93" s="51"/>
+      <c r="BL93" s="51"/>
     </row>
-    <row r="82" spans="3:6" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C82" s="35"/>
+    <row r="94" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A94" s="45"/>
+      <c r="B94" s="82"/>
+      <c r="C94" s="54"/>
+      <c r="D94" s="17"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="1"/>
+      <c r="G94" s="16"/>
+      <c r="H94" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I94" s="51"/>
+      <c r="J94" s="51"/>
+      <c r="K94" s="51"/>
+      <c r="L94" s="51"/>
+      <c r="M94" s="51"/>
+      <c r="N94" s="51"/>
+      <c r="O94" s="51"/>
+      <c r="P94" s="51"/>
+      <c r="Q94" s="51"/>
+      <c r="R94" s="51"/>
+      <c r="S94" s="51"/>
+      <c r="T94" s="51"/>
+      <c r="U94" s="51"/>
+      <c r="V94" s="51"/>
+      <c r="W94" s="51"/>
+      <c r="X94" s="51"/>
+      <c r="Y94" s="51"/>
+      <c r="Z94" s="51"/>
+      <c r="AA94" s="51"/>
+      <c r="AB94" s="51"/>
+      <c r="AC94" s="51"/>
+      <c r="AD94" s="51"/>
+      <c r="AE94" s="51"/>
+      <c r="AF94" s="51"/>
+      <c r="AG94" s="51"/>
+      <c r="AH94" s="51"/>
+      <c r="AI94" s="51"/>
+      <c r="AJ94" s="51"/>
+      <c r="AK94" s="51"/>
+      <c r="AL94" s="51"/>
+      <c r="AM94" s="51"/>
+      <c r="AN94" s="51"/>
+      <c r="AO94" s="51"/>
+      <c r="AP94" s="51"/>
+      <c r="AQ94" s="51"/>
+      <c r="AR94" s="51"/>
+      <c r="AS94" s="51"/>
+      <c r="AT94" s="51"/>
+      <c r="AU94" s="51"/>
+      <c r="AV94" s="51"/>
+      <c r="AW94" s="51"/>
+      <c r="AX94" s="51"/>
+      <c r="AY94" s="51"/>
+      <c r="AZ94" s="51"/>
+      <c r="BA94" s="51"/>
+      <c r="BB94" s="51"/>
+      <c r="BC94" s="51"/>
+      <c r="BD94" s="51"/>
+      <c r="BE94" s="51"/>
+      <c r="BF94" s="51"/>
+      <c r="BG94" s="51"/>
+      <c r="BH94" s="51"/>
+      <c r="BI94" s="51"/>
+      <c r="BJ94" s="51"/>
+      <c r="BK94" s="51"/>
+      <c r="BL94" s="51"/>
+    </row>
+    <row r="95" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="45" t="s">
+        <v>12</v>
+      </c>
+      <c r="B95" s="62"/>
+      <c r="C95" s="63"/>
+      <c r="D95" s="27"/>
+      <c r="E95" s="64"/>
+      <c r="F95" s="64"/>
+      <c r="G95" s="16"/>
+      <c r="H95" s="16" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I95" s="51"/>
+      <c r="J95" s="51"/>
+      <c r="K95" s="51"/>
+      <c r="L95" s="51"/>
+      <c r="M95" s="51"/>
+      <c r="N95" s="51"/>
+      <c r="O95" s="51"/>
+      <c r="P95" s="51"/>
+      <c r="Q95" s="51"/>
+      <c r="R95" s="51"/>
+      <c r="S95" s="51"/>
+      <c r="T95" s="51"/>
+      <c r="U95" s="51"/>
+      <c r="V95" s="51"/>
+      <c r="W95" s="51"/>
+      <c r="X95" s="51"/>
+      <c r="Y95" s="51"/>
+      <c r="Z95" s="51"/>
+      <c r="AA95" s="51"/>
+      <c r="AB95" s="51"/>
+      <c r="AC95" s="51"/>
+      <c r="AD95" s="51"/>
+      <c r="AE95" s="51"/>
+      <c r="AF95" s="51"/>
+      <c r="AG95" s="51"/>
+      <c r="AH95" s="51"/>
+      <c r="AI95" s="51"/>
+      <c r="AJ95" s="51"/>
+      <c r="AK95" s="51"/>
+      <c r="AL95" s="51"/>
+      <c r="AM95" s="51"/>
+      <c r="AN95" s="51"/>
+      <c r="AO95" s="51"/>
+      <c r="AP95" s="51"/>
+      <c r="AQ95" s="51"/>
+      <c r="AR95" s="51"/>
+      <c r="AS95" s="51"/>
+      <c r="AT95" s="51"/>
+      <c r="AU95" s="51"/>
+      <c r="AV95" s="51"/>
+      <c r="AW95" s="51"/>
+      <c r="AX95" s="51"/>
+      <c r="AY95" s="51"/>
+      <c r="AZ95" s="51"/>
+      <c r="BA95" s="51"/>
+      <c r="BB95" s="51"/>
+      <c r="BC95" s="51"/>
+      <c r="BD95" s="51"/>
+      <c r="BE95" s="51"/>
+      <c r="BF95" s="51"/>
+      <c r="BG95" s="51"/>
+      <c r="BH95" s="51"/>
+      <c r="BI95" s="51"/>
+      <c r="BJ95" s="51"/>
+      <c r="BK95" s="51"/>
+      <c r="BL95" s="51"/>
+    </row>
+    <row r="96" spans="1:64" s="53" customFormat="1" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A96" s="42" t="s">
+        <v>13</v>
+      </c>
+      <c r="B96" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="C96" s="29"/>
+      <c r="D96" s="30"/>
+      <c r="E96" s="31"/>
+      <c r="F96" s="32"/>
+      <c r="G96" s="33"/>
+      <c r="H96" s="33" t="str">
+        <f t="shared" si="5"/>
+        <v/>
+      </c>
+      <c r="I96" s="65"/>
+      <c r="J96" s="65"/>
+      <c r="K96" s="65"/>
+      <c r="L96" s="65"/>
+      <c r="M96" s="65"/>
+      <c r="N96" s="65"/>
+      <c r="O96" s="65"/>
+      <c r="P96" s="65"/>
+      <c r="Q96" s="65"/>
+      <c r="R96" s="65"/>
+      <c r="S96" s="65"/>
+      <c r="T96" s="65"/>
+      <c r="U96" s="65"/>
+      <c r="V96" s="65"/>
+      <c r="W96" s="65"/>
+      <c r="X96" s="65"/>
+      <c r="Y96" s="65"/>
+      <c r="Z96" s="65"/>
+      <c r="AA96" s="65"/>
+      <c r="AB96" s="65"/>
+      <c r="AC96" s="65"/>
+      <c r="AD96" s="65"/>
+      <c r="AE96" s="65"/>
+      <c r="AF96" s="65"/>
+      <c r="AG96" s="65"/>
+      <c r="AH96" s="65"/>
+      <c r="AI96" s="65"/>
+      <c r="AJ96" s="65"/>
+      <c r="AK96" s="65"/>
+      <c r="AL96" s="65"/>
+      <c r="AM96" s="65"/>
+      <c r="AN96" s="65"/>
+      <c r="AO96" s="65"/>
+      <c r="AP96" s="65"/>
+      <c r="AQ96" s="65"/>
+      <c r="AR96" s="65"/>
+      <c r="AS96" s="65"/>
+      <c r="AT96" s="65"/>
+      <c r="AU96" s="65"/>
+      <c r="AV96" s="65"/>
+      <c r="AW96" s="65"/>
+      <c r="AX96" s="65"/>
+      <c r="AY96" s="65"/>
+      <c r="AZ96" s="65"/>
+      <c r="BA96" s="65"/>
+      <c r="BB96" s="65"/>
+      <c r="BC96" s="65"/>
+      <c r="BD96" s="65"/>
+      <c r="BE96" s="65"/>
+      <c r="BF96" s="65"/>
+      <c r="BG96" s="65"/>
+      <c r="BH96" s="65"/>
+      <c r="BI96" s="65"/>
+      <c r="BJ96" s="65"/>
+      <c r="BK96" s="65"/>
+      <c r="BL96" s="65"/>
+    </row>
+    <row r="97" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G97" s="66"/>
+    </row>
+    <row r="98" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C98" s="9"/>
+      <c r="F98" s="34"/>
+    </row>
+    <row r="99" spans="3:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C99" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="AK4:AQ4"/>
-    <mergeCell ref="AR4:AX4"/>
     <mergeCell ref="AY4:BE4"/>
     <mergeCell ref="BF4:BL4"/>
     <mergeCell ref="E3:F3"/>
@@ -8957,10 +10343,15 @@
     <mergeCell ref="P4:V4"/>
     <mergeCell ref="W4:AC4"/>
     <mergeCell ref="AD4:AJ4"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="AK4:AQ4"/>
+    <mergeCell ref="AR4:AX4"/>
   </mergeCells>
   <phoneticPr fontId="23" type="noConversion"/>
-  <conditionalFormatting sqref="D7:D16 D45 D78:D79 D31:D41">
-    <cfRule type="dataBar" priority="90">
+  <conditionalFormatting sqref="D7:D16 D45 D95:D96 D31:D41">
+    <cfRule type="dataBar" priority="106">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -8973,21 +10364,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I5:BL16 I45:BL45 I78:BL79 I31:BL41">
-    <cfRule type="expression" dxfId="47" priority="109">
+  <conditionalFormatting sqref="I5:BL16 I45:BL45 I95:BL96 I31:BL41">
+    <cfRule type="expression" dxfId="59" priority="125">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I7:BL16 I45:BL45 I78:BL79 I31:BL41">
-    <cfRule type="expression" dxfId="46" priority="103">
+  <conditionalFormatting sqref="I7:BL16 I45:BL45 I95:BL96 I31:BL41">
+    <cfRule type="expression" dxfId="58" priority="119">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="45" priority="104" stopIfTrue="1">
+    <cfRule type="expression" dxfId="57" priority="120" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D17">
-    <cfRule type="dataBar" priority="73">
+    <cfRule type="dataBar" priority="89">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9001,20 +10392,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:BL17">
-    <cfRule type="expression" dxfId="44" priority="76">
+    <cfRule type="expression" dxfId="56" priority="92">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I17:BL17">
-    <cfRule type="expression" dxfId="43" priority="74">
+    <cfRule type="expression" dxfId="55" priority="90">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="42" priority="75" stopIfTrue="1">
+    <cfRule type="expression" dxfId="54" priority="91" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D18">
-    <cfRule type="dataBar" priority="69">
+    <cfRule type="dataBar" priority="85">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9028,20 +10419,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="41" priority="72">
+    <cfRule type="expression" dxfId="53" priority="88">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I18:BL18">
-    <cfRule type="expression" dxfId="40" priority="70">
+    <cfRule type="expression" dxfId="52" priority="86">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="39" priority="71" stopIfTrue="1">
+    <cfRule type="expression" dxfId="51" priority="87" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D42">
-    <cfRule type="dataBar" priority="65">
+    <cfRule type="dataBar" priority="81">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9055,20 +10446,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="38" priority="68">
+    <cfRule type="expression" dxfId="50" priority="84">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I42:BL42">
-    <cfRule type="expression" dxfId="37" priority="66">
+    <cfRule type="expression" dxfId="49" priority="82">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="36" priority="67" stopIfTrue="1">
+    <cfRule type="expression" dxfId="48" priority="83" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D43">
-    <cfRule type="dataBar" priority="61">
+    <cfRule type="dataBar" priority="77">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9082,20 +10473,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="35" priority="64">
+    <cfRule type="expression" dxfId="47" priority="80">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I43:BL43">
-    <cfRule type="expression" dxfId="34" priority="62">
+    <cfRule type="expression" dxfId="46" priority="78">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="33" priority="63" stopIfTrue="1">
+    <cfRule type="expression" dxfId="45" priority="79" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D44">
-    <cfRule type="dataBar" priority="57">
+    <cfRule type="dataBar" priority="73">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9109,20 +10500,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="32" priority="60">
+    <cfRule type="expression" dxfId="44" priority="76">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I44:BL44">
-    <cfRule type="expression" dxfId="31" priority="58">
+    <cfRule type="expression" dxfId="43" priority="74">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="30" priority="59" stopIfTrue="1">
+    <cfRule type="expression" dxfId="42" priority="75" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D46:D50 D54">
-    <cfRule type="dataBar" priority="53">
+    <cfRule type="dataBar" priority="69">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9136,20 +10527,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:BL50 I54:BL54">
-    <cfRule type="expression" dxfId="29" priority="56">
+    <cfRule type="expression" dxfId="41" priority="72">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I46:BL50 I54:BL54">
-    <cfRule type="expression" dxfId="28" priority="54">
+    <cfRule type="expression" dxfId="40" priority="70">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="27" priority="55" stopIfTrue="1">
+    <cfRule type="expression" dxfId="39" priority="71" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D51">
-    <cfRule type="dataBar" priority="49">
+    <cfRule type="dataBar" priority="65">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9163,20 +10554,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="26" priority="52">
+    <cfRule type="expression" dxfId="38" priority="68">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I51:BL51">
-    <cfRule type="expression" dxfId="25" priority="50">
+    <cfRule type="expression" dxfId="37" priority="66">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="24" priority="51" stopIfTrue="1">
+    <cfRule type="expression" dxfId="36" priority="67" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D52">
-    <cfRule type="dataBar" priority="45">
+    <cfRule type="dataBar" priority="61">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9190,20 +10581,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="23" priority="48">
+    <cfRule type="expression" dxfId="35" priority="64">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I52:BL52">
-    <cfRule type="expression" dxfId="22" priority="46">
+    <cfRule type="expression" dxfId="34" priority="62">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="21" priority="47" stopIfTrue="1">
+    <cfRule type="expression" dxfId="33" priority="63" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D53">
-    <cfRule type="dataBar" priority="41">
+    <cfRule type="dataBar" priority="57">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9217,20 +10608,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="20" priority="44">
+    <cfRule type="expression" dxfId="32" priority="60">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I53:BL53">
-    <cfRule type="expression" dxfId="19" priority="42">
+    <cfRule type="expression" dxfId="31" priority="58">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="18" priority="43" stopIfTrue="1">
+    <cfRule type="expression" dxfId="30" priority="59" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D19:D30">
-    <cfRule type="dataBar" priority="21">
+    <cfRule type="dataBar" priority="37">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9244,20 +10635,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:BL30">
-    <cfRule type="expression" dxfId="17" priority="24">
+    <cfRule type="expression" dxfId="29" priority="40">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I19:BL30">
-    <cfRule type="expression" dxfId="16" priority="22">
+    <cfRule type="expression" dxfId="28" priority="38">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
+    <cfRule type="expression" dxfId="27" priority="39" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D55:D59">
-    <cfRule type="dataBar" priority="17">
+    <cfRule type="dataBar" priority="33">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9271,20 +10662,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:BL59">
-    <cfRule type="expression" dxfId="14" priority="20">
+    <cfRule type="expression" dxfId="26" priority="36">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I55:BL59">
-    <cfRule type="expression" dxfId="13" priority="18">
+    <cfRule type="expression" dxfId="25" priority="34">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
+    <cfRule type="expression" dxfId="24" priority="35" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D60">
-    <cfRule type="dataBar" priority="13">
+    <cfRule type="dataBar" priority="29">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9298,20 +10689,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60:BL60">
-    <cfRule type="expression" dxfId="11" priority="16">
+    <cfRule type="expression" dxfId="23" priority="32">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I60:BL60">
-    <cfRule type="expression" dxfId="10" priority="14">
+    <cfRule type="expression" dxfId="22" priority="30">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
+    <cfRule type="expression" dxfId="21" priority="31" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D61">
-    <cfRule type="dataBar" priority="9">
+    <cfRule type="dataBar" priority="25">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9325,20 +10716,20 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61:BL61">
-    <cfRule type="expression" dxfId="8" priority="12">
+    <cfRule type="expression" dxfId="20" priority="28">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="I61:BL61">
-    <cfRule type="expression" dxfId="7" priority="10">
+    <cfRule type="expression" dxfId="19" priority="26">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+    <cfRule type="expression" dxfId="18" priority="27" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D62:D73">
-    <cfRule type="dataBar" priority="5">
+  <conditionalFormatting sqref="D62:D72 D90">
+    <cfRule type="dataBar" priority="21">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9351,21 +10742,21 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62:BL73">
-    <cfRule type="expression" dxfId="5" priority="8">
+  <conditionalFormatting sqref="I62:BL72 I90:BL90">
+    <cfRule type="expression" dxfId="17" priority="24">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I62:BL73">
-    <cfRule type="expression" dxfId="4" priority="6">
+  <conditionalFormatting sqref="I62:BL72 I90:BL90">
+    <cfRule type="expression" dxfId="16" priority="22">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
-    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+    <cfRule type="expression" dxfId="15" priority="23" stopIfTrue="1">
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D74:D77">
-    <cfRule type="dataBar" priority="1">
+  <conditionalFormatting sqref="D91:D94">
+    <cfRule type="dataBar" priority="17">
       <dataBar>
         <cfvo type="num" val="0"/>
         <cfvo type="num" val="1"/>
@@ -9378,12 +10769,120 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I74:BL77">
+  <conditionalFormatting sqref="I91:BL94">
+    <cfRule type="expression" dxfId="14" priority="20">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I91:BL94">
+    <cfRule type="expression" dxfId="13" priority="18">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="12" priority="19" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D73:D76">
+    <cfRule type="dataBar" priority="13">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{7808A041-624F-4387-82AD-DE50E829E029}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I73:BL76">
+    <cfRule type="expression" dxfId="11" priority="16">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I73:BL76">
+    <cfRule type="expression" dxfId="10" priority="14">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="9" priority="15" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D77">
+    <cfRule type="dataBar" priority="9">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{F30F2871-70F6-4C1D-99DF-6A04F88B0637}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I77:BL77">
+    <cfRule type="expression" dxfId="8" priority="12">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I77:BL77">
+    <cfRule type="expression" dxfId="7" priority="10">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="6" priority="11" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D78">
+    <cfRule type="dataBar" priority="5">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{531FC21C-8C70-4F87-BDA0-85ACBD413481}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I78:BL78">
+    <cfRule type="expression" dxfId="5" priority="8">
+      <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I78:BL78">
+    <cfRule type="expression" dxfId="4" priority="6">
+      <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
+    </cfRule>
+    <cfRule type="expression" dxfId="3" priority="7" stopIfTrue="1">
+      <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D79:D89">
+    <cfRule type="dataBar" priority="1">
+      <dataBar>
+        <cfvo type="num" val="0"/>
+        <cfvo type="num" val="1"/>
+        <color theme="0" tint="-0.249977111117893"/>
+      </dataBar>
+      <extLst>
+        <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{B025F937-C7B1-47D3-B67F-A62EFF666E3E}">
+          <x14:id>{B0E13FF9-2CFE-41A3-A82B-86B11546E2D3}</x14:id>
+        </ext>
+      </extLst>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I79:BL89">
     <cfRule type="expression" dxfId="2" priority="4">
       <formula>AND(TODAY()&gt;=I$5,TODAY()&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="I74:BL77">
+  <conditionalFormatting sqref="I79:BL89">
     <cfRule type="expression" dxfId="1" priority="2">
       <formula>AND(task_start&lt;=I$5,ROUNDDOWN((task_end-task_start+1)*task_progress,0)+task_start-1&gt;=I$5)</formula>
     </cfRule>
@@ -9391,7 +10890,7 @@
       <formula>AND(task_end&gt;=I$5,task_start&lt;J$5)</formula>
     </cfRule>
   </conditionalFormatting>
-  <dataValidations disablePrompts="1" count="1">
+  <dataValidations count="1">
     <dataValidation type="whole" operator="greaterThanOrEqual" allowBlank="1" showInputMessage="1" promptTitle="显示周数" prompt="更改此数字将滚动甘特图视图。" sqref="E4">
       <formula1>1</formula1>
     </dataValidation>
@@ -9418,7 +10917,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D7:D16 D45 D78:D79 D31:D41</xm:sqref>
+          <xm:sqref>D7:D16 D45 D95:D96 D31:D41</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{759C797F-1A4E-40B2-86F4-1516F9B9B610}">
@@ -9628,7 +11127,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D62:D73</xm:sqref>
+          <xm:sqref>D62:D72 D90</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{AF0EF4C0-601B-45F3-A9DA-DFE1C4C48683}">
@@ -9643,7 +11142,67 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D74:D77</xm:sqref>
+          <xm:sqref>D91:D94</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{7808A041-624F-4387-82AD-DE50E829E029}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D73:D76</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{F30F2871-70F6-4C1D-99DF-6A04F88B0637}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D77</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{531FC21C-8C70-4F87-BDA0-85ACBD413481}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D78</xm:sqref>
+        </x14:conditionalFormatting>
+        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+          <x14:cfRule type="dataBar" id="{B0E13FF9-2CFE-41A3-A82B-86B11546E2D3}">
+            <x14:dataBar minLength="0" maxLength="100" gradient="0">
+              <x14:cfvo type="num">
+                <xm:f>0</xm:f>
+              </x14:cfvo>
+              <x14:cfvo type="num">
+                <xm:f>1</xm:f>
+              </x14:cfvo>
+              <x14:negativeFillColor rgb="FFFF0000"/>
+              <x14:axisColor rgb="FF000000"/>
+            </x14:dataBar>
+          </x14:cfRule>
+          <xm:sqref>D79:D89</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
@@ -9658,7 +11217,7 @@
   </sheetPr>
   <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
   <cols>
